--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgseife\Desktop\coronavirus\nyccovid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgseife\Desktop\coronavirus\nyccovid\excelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756"/>
   </bookViews>
   <sheets>
-    <sheet name="Daily" sheetId="1" r:id="rId1"/>
-    <sheet name="FluvCovid" sheetId="3" r:id="rId2"/>
-    <sheet name="Plotter" sheetId="2" r:id="rId3"/>
+    <sheet name="Notes" sheetId="5" r:id="rId1"/>
+    <sheet name="Raw" sheetId="4" r:id="rId2"/>
+    <sheet name="Daily" sheetId="1" r:id="rId3"/>
+    <sheet name="Confirmed" sheetId="6" r:id="rId4"/>
+    <sheet name="Sum" sheetId="8" r:id="rId5"/>
+    <sheet name="Errors" sheetId="7" r:id="rId6"/>
+    <sheet name="Plotter" sheetId="2" r:id="rId7"/>
+    <sheet name="FluvCovid" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>417Confirmed</t>
-  </si>
-  <si>
-    <t>417Probable</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>InfluenzaDate</t>
   </si>
@@ -50,6 +46,81 @@
   </si>
   <si>
     <t>1918 Influenza</t>
+  </si>
+  <si>
+    <t>Calibrate deaths</t>
+  </si>
+  <si>
+    <t>Methodology:</t>
+  </si>
+  <si>
+    <t>1: From Adobe, export to Excel format</t>
+  </si>
+  <si>
+    <t>2: In Excel, extract size of bars in mm/100</t>
+  </si>
+  <si>
+    <t>a) calibrator is biggest confirmed bar, gauged against published value</t>
+  </si>
+  <si>
+    <t>3: Convert using calibrator figures; store in "Daily"</t>
+  </si>
+  <si>
+    <t>b) if unable to extract directly, measure in pdf</t>
+  </si>
+  <si>
+    <t>c) results stored in "Raw"</t>
+  </si>
+  <si>
+    <t>Calibrate mm/100</t>
+  </si>
+  <si>
+    <t>No rounding… decimals kept to remind me that these are figures derived from graphs (with errors) rather than directly reported numbers.</t>
+  </si>
+  <si>
+    <t>summary_date</t>
+  </si>
+  <si>
+    <t>summary_cases</t>
+  </si>
+  <si>
+    <t>summary_hospitalized</t>
+  </si>
+  <si>
+    <t>summary_confirmed</t>
+  </si>
+  <si>
+    <t>summary_probable</t>
+  </si>
+  <si>
+    <t>summary_asof</t>
+  </si>
+  <si>
+    <t>april15,2p.m.</t>
+  </si>
+  <si>
+    <t>april16,2.30p.m.</t>
+  </si>
+  <si>
+    <t>april17,230p.m.</t>
+  </si>
+  <si>
+    <t>april18,200p.m.</t>
+  </si>
+  <si>
+    <t>sum_daily</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>error_pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errors takes the daily values from the summary sheets and compares them to the figures derived from graphs. </t>
+  </si>
+  <si>
+    <t>Currently, errors are on the order of magnitude of 1%</t>
   </si>
 </sst>
 </file>
@@ -85,10 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,103 +577,106 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7142857142857135</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5238095238095237</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6190476190476186</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.952380952380953</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.761904761904759</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.619047619047613</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.619047619047613</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81.904761904761898</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93.333333333333329</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>184.76190476190476</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>203.8095238095238</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>255.23809523809521</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>276.19047619047615</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>297.14285714285711</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>356.19047619047615</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>398.09523809523807</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>430.47619047619042</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>438.09523809523807</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>445.71428571428567</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>499.04761904761904</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>500.95238095238091</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>521.90476190476193</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>445.71428571428567</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>411.42857142857139</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>375.23809523809524</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>352.38095238095235</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>335.23809523809524</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>314.28571428571428</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>215.23809523809521</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,94 +967,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>4.4777385159010601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>4.4777385159010601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>2.9851590106007069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7142857142857135</c:v>
+                  <c:v>4.4777385159010601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8095238095238093</c:v>
+                  <c:v>5.9703180212014137</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.238095238095237</c:v>
+                  <c:v>4.4777385159010601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.333333333333332</c:v>
+                  <c:v>16.0452296819788</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.047619047619047</c:v>
+                  <c:v>13.209328621908128</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.19047619047619</c:v>
+                  <c:v>19.030388692579507</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.904761904761905</c:v>
+                  <c:v>36.195053003533566</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.666666666666657</c:v>
+                  <c:v>43.807208480565372</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.38095238095238</c:v>
+                  <c:v>62.762968197879857</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99.047619047619037</c:v>
+                  <c:v>71.569187279151947</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97.142857142857139</c:v>
+                  <c:v>94.778798586572435</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>121.9047619047619</c:v>
+                  <c:v>94.778798586572435</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>200</c:v>
+                  <c:v>121.12282685512368</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>196.19047619047618</c:v>
+                  <c:v>194.03533568904592</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>213.33333333333331</c:v>
+                  <c:v>194.03533568904592</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>215.23809523809521</c:v>
+                  <c:v>210.15519434628976</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>278.09523809523807</c:v>
+                  <c:v>211.49851590106007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>276.19047619047615</c:v>
+                  <c:v>268.44042402826852</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>262.85714285714283</c:v>
+                  <c:v>266.94784452296818</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>278.09523809523807</c:v>
+                  <c:v>255.23109540636042</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>274.28571428571428</c:v>
+                  <c:v>268.44042402826852</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>268.57142857142856</c:v>
+                  <c:v>256.72367491166079</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>289.52380952380952</c:v>
+                  <c:v>255.23109540636042</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>318.09523809523807</c:v>
+                  <c:v>265.52989399293284</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>320</c:v>
+                  <c:v>283.06770318021199</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>280</c:v>
+                  <c:v>277.09738515901063</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>215.90162544169613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>217.39420494699647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,8 +1076,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="625765200"/>
-        <c:axId val="625768560"/>
+        <c:axId val="476259648"/>
+        <c:axId val="476260208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1537,11 +1618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="625765200"/>
-        <c:axId val="625768560"/>
+        <c:axId val="476259648"/>
+        <c:axId val="476260208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625765200"/>
+        <c:axId val="476259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625768560"/>
+        <c:crossAx val="476260208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1592,7 +1673,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625768560"/>
+        <c:axId val="476260208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625765200"/>
+        <c:crossAx val="476259648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2296,7 +2377,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6298406"/>
+    <xdr:ext cx="8661400" cy="6290733"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2582,479 +2663,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1">
-        <v>800</v>
-      </c>
-      <c r="L1">
-        <v>420</v>
-      </c>
-      <c r="M1">
-        <f>K1/L1</f>
-        <v>1.9047619047619047</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>311</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>312</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>313</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>314</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>315</v>
-      </c>
-      <c r="B6">
-        <f>3*$M$1</f>
-        <v>5.7142857142857135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>316</v>
-      </c>
-      <c r="B7">
-        <f>5*$M$1</f>
-        <v>9.5238095238095237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>317</v>
-      </c>
-      <c r="B8">
-        <f>4*$M$1</f>
-        <v>7.6190476190476186</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>318</v>
-      </c>
-      <c r="B9">
-        <f>11*$M$1</f>
-        <v>20.952380952380953</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>319</v>
-      </c>
-      <c r="B10">
-        <f>13*$M$1</f>
-        <v>24.761904761904759</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>320</v>
-      </c>
-      <c r="B11">
-        <f>25*$M$1</f>
-        <v>47.619047619047613</v>
-      </c>
-      <c r="C11">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>321</v>
-      </c>
-      <c r="B12">
-        <f>21*$M$1</f>
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <f>3*$M$1</f>
-        <v>5.7142857142857135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>322</v>
-      </c>
-      <c r="B13">
-        <f>25*$M$1</f>
-        <v>47.619047619047613</v>
-      </c>
-      <c r="C13">
-        <f>2*$M$1</f>
-        <v>3.8095238095238093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>323</v>
-      </c>
-      <c r="B14">
-        <f>43*$M$1</f>
-        <v>81.904761904761898</v>
-      </c>
-      <c r="C14">
-        <f>8*$M$1</f>
-        <v>15.238095238095237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>324</v>
-      </c>
-      <c r="B15">
-        <f>49*$M$1</f>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="C15">
-        <f>7*$M$1</f>
-        <v>13.333333333333332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>325</v>
-      </c>
-      <c r="B16">
-        <f>63*$M$1</f>
-        <v>120</v>
-      </c>
-      <c r="C16">
-        <f>10*$M$1</f>
-        <v>19.047619047619047</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>326</v>
-      </c>
-      <c r="B17">
-        <f>97*$M$1</f>
-        <v>184.76190476190476</v>
-      </c>
-      <c r="C17">
-        <f>19*$M$1</f>
-        <v>36.19047619047619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>327</v>
-      </c>
-      <c r="B18">
-        <f>107*$M$1</f>
-        <v>203.8095238095238</v>
-      </c>
-      <c r="C18">
-        <f>22*$M$1</f>
-        <v>41.904761904761905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>328</v>
-      </c>
-      <c r="B19">
-        <f>134*$M$1</f>
-        <v>255.23809523809521</v>
-      </c>
-      <c r="C19">
-        <f>35*$M$1</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>329</v>
-      </c>
-      <c r="B20">
-        <f>145*$M$1</f>
-        <v>276.19047619047615</v>
-      </c>
-      <c r="C20">
-        <f>38*$M$1</f>
-        <v>72.38095238095238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>330</v>
-      </c>
-      <c r="B21">
-        <f>156*$M$1</f>
-        <v>297.14285714285711</v>
-      </c>
-      <c r="C21">
-        <f>52*$M$1</f>
-        <v>99.047619047619037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>331</v>
-      </c>
-      <c r="B22">
-        <f>187*$M$1</f>
-        <v>356.19047619047615</v>
-      </c>
-      <c r="C22">
-        <f>51*$M$1</f>
-        <v>97.142857142857139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>401</v>
-      </c>
-      <c r="B23">
-        <f>209*$M$1</f>
-        <v>398.09523809523807</v>
-      </c>
-      <c r="C23">
-        <f>64*$M$1</f>
-        <v>121.9047619047619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>402</v>
-      </c>
-      <c r="B24">
-        <f>226*$M$1</f>
-        <v>430.47619047619042</v>
-      </c>
-      <c r="C24">
-        <f>105*$M$1</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>403</v>
-      </c>
-      <c r="B25">
-        <f>230*$M$1</f>
-        <v>438.09523809523807</v>
-      </c>
-      <c r="C25">
-        <f>103*$M$1</f>
-        <v>196.19047619047618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>404</v>
-      </c>
-      <c r="B26">
-        <f>234*$M$1</f>
-        <v>445.71428571428567</v>
-      </c>
-      <c r="C26">
-        <f>112*$M$1</f>
-        <v>213.33333333333331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>405</v>
-      </c>
-      <c r="B27">
-        <f>262*$M$1</f>
-        <v>499.04761904761904</v>
-      </c>
-      <c r="C27">
-        <f>113*$M$1</f>
-        <v>215.23809523809521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>406</v>
-      </c>
-      <c r="B28">
-        <f>263*$M$1</f>
-        <v>500.95238095238091</v>
-      </c>
-      <c r="C28">
-        <f>146*$M$1</f>
-        <v>278.09523809523807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>407</v>
-      </c>
-      <c r="B29">
-        <f>274*$M$1</f>
-        <v>521.90476190476193</v>
-      </c>
-      <c r="C29">
-        <f>145*$M$1</f>
-        <v>276.19047619047615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>408</v>
-      </c>
-      <c r="B30">
-        <f>234*$M$1</f>
-        <v>445.71428571428567</v>
-      </c>
-      <c r="C30">
-        <f>138*$M$1</f>
-        <v>262.85714285714283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>409</v>
-      </c>
-      <c r="B31">
-        <f>216*$M$1</f>
-        <v>411.42857142857139</v>
-      </c>
-      <c r="C31">
-        <f>146*$M$1</f>
-        <v>278.09523809523807</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>410</v>
-      </c>
-      <c r="B32">
-        <f>197*$M$1</f>
-        <v>375.23809523809524</v>
-      </c>
-      <c r="C32">
-        <f>144*$M$1</f>
-        <v>274.28571428571428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>411</v>
-      </c>
-      <c r="B33">
-        <f>185*$M$1</f>
-        <v>352.38095238095235</v>
-      </c>
-      <c r="C33">
-        <f>141*$M$1</f>
-        <v>268.57142857142856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>412</v>
-      </c>
-      <c r="B34">
-        <f>176*$M$1</f>
-        <v>335.23809523809524</v>
-      </c>
-      <c r="C34">
-        <f>152*$M$1</f>
-        <v>289.52380952380952</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>413</v>
-      </c>
-      <c r="B35">
-        <f>165*$M$1</f>
-        <v>314.28571428571428</v>
-      </c>
-      <c r="C35">
-        <f>167*$M$1</f>
-        <v>318.09523809523807</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>414</v>
-      </c>
-      <c r="B36">
-        <f>113*$M$1</f>
-        <v>215.23809523809521</v>
-      </c>
-      <c r="C36">
-        <f>168*$M$1</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>415</v>
-      </c>
-      <c r="B37">
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <f>147*$M$1</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>417</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3064,10 +2728,5539 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>414</v>
+      </c>
+      <c r="C1">
+        <v>415</v>
+      </c>
+      <c r="D1">
+        <v>416</v>
+      </c>
+      <c r="E1">
+        <v>417</v>
+      </c>
+      <c r="F1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>7953</v>
+      </c>
+      <c r="C2">
+        <v>7953</v>
+      </c>
+      <c r="D2">
+        <v>8311</v>
+      </c>
+      <c r="E2">
+        <v>6958</v>
+      </c>
+      <c r="F2">
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>487</v>
+      </c>
+      <c r="C3">
+        <v>487</v>
+      </c>
+      <c r="D3">
+        <v>509</v>
+      </c>
+      <c r="E3">
+        <v>519</v>
+      </c>
+      <c r="F3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>316</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>317</v>
+      </c>
+      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>318</v>
+      </c>
+      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>319</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>320</v>
+      </c>
+      <c r="B13">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>321</v>
+      </c>
+      <c r="B14">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>322</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>323</v>
+      </c>
+      <c r="B16">
+        <v>238</v>
+      </c>
+      <c r="C16">
+        <v>238</v>
+      </c>
+      <c r="D16">
+        <v>238</v>
+      </c>
+      <c r="E16">
+        <v>195</v>
+      </c>
+      <c r="F16">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>324</v>
+      </c>
+      <c r="B17">
+        <v>215</v>
+      </c>
+      <c r="C17">
+        <v>215</v>
+      </c>
+      <c r="D17">
+        <v>215</v>
+      </c>
+      <c r="E17">
+        <v>177</v>
+      </c>
+      <c r="F17">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>325</v>
+      </c>
+      <c r="B18">
+        <v>358</v>
+      </c>
+      <c r="C18">
+        <v>358</v>
+      </c>
+      <c r="D18">
+        <v>286</v>
+      </c>
+      <c r="E18">
+        <v>255</v>
+      </c>
+      <c r="F18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>326</v>
+      </c>
+      <c r="B19">
+        <v>739</v>
+      </c>
+      <c r="C19">
+        <v>739</v>
+      </c>
+      <c r="D19">
+        <v>596</v>
+      </c>
+      <c r="E19">
+        <v>485</v>
+      </c>
+      <c r="F19">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>327</v>
+      </c>
+      <c r="B20">
+        <v>1048</v>
+      </c>
+      <c r="C20">
+        <v>1048</v>
+      </c>
+      <c r="D20">
+        <v>739</v>
+      </c>
+      <c r="E20">
+        <v>561</v>
+      </c>
+      <c r="F20">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <v>1286</v>
+      </c>
+      <c r="C21">
+        <v>1263</v>
+      </c>
+      <c r="D21">
+        <v>1072</v>
+      </c>
+      <c r="E21">
+        <v>880</v>
+      </c>
+      <c r="F21">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>329</v>
+      </c>
+      <c r="B22">
+        <v>1429</v>
+      </c>
+      <c r="C22">
+        <v>1429</v>
+      </c>
+      <c r="D22">
+        <v>1168</v>
+      </c>
+      <c r="E22">
+        <v>959</v>
+      </c>
+      <c r="F22">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>330</v>
+      </c>
+      <c r="B23">
+        <v>1810</v>
+      </c>
+      <c r="C23">
+        <v>1810</v>
+      </c>
+      <c r="D23">
+        <v>1572</v>
+      </c>
+      <c r="E23">
+        <v>1330</v>
+      </c>
+      <c r="F23">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>331</v>
+      </c>
+      <c r="B24">
+        <v>1905</v>
+      </c>
+      <c r="C24">
+        <v>1905</v>
+      </c>
+      <c r="D24">
+        <v>1572</v>
+      </c>
+      <c r="E24">
+        <v>1290</v>
+      </c>
+      <c r="F24">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>401</v>
+      </c>
+      <c r="B25">
+        <v>2477</v>
+      </c>
+      <c r="C25">
+        <v>2381</v>
+      </c>
+      <c r="D25">
+        <v>1977</v>
+      </c>
+      <c r="E25">
+        <v>1623</v>
+      </c>
+      <c r="F25">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>402</v>
+      </c>
+      <c r="B26">
+        <v>3644</v>
+      </c>
+      <c r="C26">
+        <v>3549</v>
+      </c>
+      <c r="D26">
+        <v>3191</v>
+      </c>
+      <c r="E26">
+        <v>2658</v>
+      </c>
+      <c r="F26">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>403</v>
+      </c>
+      <c r="B27">
+        <v>3358</v>
+      </c>
+      <c r="C27">
+        <v>3381</v>
+      </c>
+      <c r="D27">
+        <v>3168</v>
+      </c>
+      <c r="E27">
+        <v>2620</v>
+      </c>
+      <c r="F27">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>404</v>
+      </c>
+      <c r="B28">
+        <v>3762</v>
+      </c>
+      <c r="C28">
+        <v>3692</v>
+      </c>
+      <c r="D28">
+        <v>3429</v>
+      </c>
+      <c r="E28">
+        <v>2834</v>
+      </c>
+      <c r="F28">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>405</v>
+      </c>
+      <c r="B29">
+        <v>3787</v>
+      </c>
+      <c r="C29">
+        <v>3715</v>
+      </c>
+      <c r="D29">
+        <v>3429</v>
+      </c>
+      <c r="E29">
+        <v>2874</v>
+      </c>
+      <c r="F29">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>406</v>
+      </c>
+      <c r="B30">
+        <v>4930</v>
+      </c>
+      <c r="C30">
+        <v>4858</v>
+      </c>
+      <c r="D30">
+        <v>4477</v>
+      </c>
+      <c r="E30">
+        <v>3713</v>
+      </c>
+      <c r="F30">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>407</v>
+      </c>
+      <c r="B31">
+        <v>4858</v>
+      </c>
+      <c r="C31">
+        <v>4858</v>
+      </c>
+      <c r="D31">
+        <v>4477</v>
+      </c>
+      <c r="E31">
+        <v>3675</v>
+      </c>
+      <c r="F31">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>408</v>
+      </c>
+      <c r="B32">
+        <v>4667</v>
+      </c>
+      <c r="C32">
+        <v>4667</v>
+      </c>
+      <c r="D32">
+        <v>4286</v>
+      </c>
+      <c r="E32">
+        <v>3500</v>
+      </c>
+      <c r="F32">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>409</v>
+      </c>
+      <c r="B33">
+        <v>5239</v>
+      </c>
+      <c r="C33">
+        <v>4953</v>
+      </c>
+      <c r="D33">
+        <v>4620</v>
+      </c>
+      <c r="E33">
+        <v>3695</v>
+      </c>
+      <c r="F33">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>410</v>
+      </c>
+      <c r="B34">
+        <v>4835</v>
+      </c>
+      <c r="C34">
+        <v>4978</v>
+      </c>
+      <c r="D34">
+        <v>4620</v>
+      </c>
+      <c r="E34">
+        <v>3655</v>
+      </c>
+      <c r="F34">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>411</v>
+      </c>
+      <c r="B35">
+        <v>4953</v>
+      </c>
+      <c r="C35">
+        <v>4978</v>
+      </c>
+      <c r="D35">
+        <v>4501</v>
+      </c>
+      <c r="E35">
+        <v>3578</v>
+      </c>
+      <c r="F35">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>412</v>
+      </c>
+      <c r="B36">
+        <v>4858</v>
+      </c>
+      <c r="C36">
+        <v>5239</v>
+      </c>
+      <c r="D36">
+        <v>4740</v>
+      </c>
+      <c r="E36">
+        <v>3851</v>
+      </c>
+      <c r="F36">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>413</v>
+      </c>
+      <c r="C37">
+        <v>4692</v>
+      </c>
+      <c r="D37">
+        <v>4620</v>
+      </c>
+      <c r="E37">
+        <v>4242</v>
+      </c>
+      <c r="F37">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>414</v>
+      </c>
+      <c r="D38">
+        <v>3905</v>
+      </c>
+      <c r="E38">
+        <v>4262</v>
+      </c>
+      <c r="F38">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>415</v>
+      </c>
+      <c r="E39">
+        <v>3733</v>
+      </c>
+      <c r="F39">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>416</v>
+      </c>
+      <c r="F40">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>414</v>
+      </c>
+      <c r="C1">
+        <v>415</v>
+      </c>
+      <c r="D1">
+        <v>416</v>
+      </c>
+      <c r="E1">
+        <v>417</v>
+      </c>
+      <c r="F1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>317</v>
+      </c>
+      <c r="B8">
+        <f>Raw!B9*Raw!B$3/Raw!B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>Raw!C9*Raw!C$3/Raw!C$2</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>Raw!D9*Raw!D$3/Raw!D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>Raw!E9*Raw!E$3/Raw!E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>Raw!F9*Raw!F$3/Raw!F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>318</v>
+      </c>
+      <c r="B9">
+        <f>Raw!B10*Raw!B$3/Raw!B$2</f>
+        <v>4.4089023010184833</v>
+      </c>
+      <c r="C9">
+        <f>Raw!C10*Raw!C$3/Raw!C$2</f>
+        <v>4.4089023010184833</v>
+      </c>
+      <c r="D9">
+        <f>Raw!D10*Raw!D$3/Raw!D$2</f>
+        <v>4.4095776681506438</v>
+      </c>
+      <c r="E9">
+        <f>Raw!E10*Raw!E$3/Raw!E$2</f>
+        <v>4.4754239724058635</v>
+      </c>
+      <c r="F9">
+        <f>Raw!F10*Raw!F$3/Raw!F$2</f>
+        <v>4.4777385159010601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>319</v>
+      </c>
+      <c r="B10">
+        <f>Raw!B11*Raw!B$3/Raw!B$2</f>
+        <v>4.4089023010184833</v>
+      </c>
+      <c r="C10">
+        <f>Raw!C11*Raw!C$3/Raw!C$2</f>
+        <v>4.4089023010184833</v>
+      </c>
+      <c r="D10">
+        <f>Raw!D11*Raw!D$3/Raw!D$2</f>
+        <v>4.4095776681506438</v>
+      </c>
+      <c r="E10">
+        <f>Raw!E11*Raw!E$3/Raw!E$2</f>
+        <v>4.4754239724058635</v>
+      </c>
+      <c r="F10">
+        <f>Raw!F11*Raw!F$3/Raw!F$2</f>
+        <v>4.4777385159010601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>320</v>
+      </c>
+      <c r="B11">
+        <f>Raw!B12*Raw!B$3/Raw!B$2</f>
+        <v>2.9392682006789892</v>
+      </c>
+      <c r="C11">
+        <f>Raw!C12*Raw!C$3/Raw!C$2</f>
+        <v>2.9392682006789892</v>
+      </c>
+      <c r="D11">
+        <f>Raw!D12*Raw!D$3/Raw!D$2</f>
+        <v>2.9397184454337624</v>
+      </c>
+      <c r="E11">
+        <f>Raw!E12*Raw!E$3/Raw!E$2</f>
+        <v>2.9836159816039092</v>
+      </c>
+      <c r="F11">
+        <f>Raw!F12*Raw!F$3/Raw!F$2</f>
+        <v>2.9851590106007069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>321</v>
+      </c>
+      <c r="B12">
+        <f>Raw!B13*Raw!B$3/Raw!B$2</f>
+        <v>5.8173016471771657</v>
+      </c>
+      <c r="C12">
+        <f>Raw!C13*Raw!C$3/Raw!C$2</f>
+        <v>5.8173016471771657</v>
+      </c>
+      <c r="D12">
+        <f>Raw!D13*Raw!D$3/Raw!D$2</f>
+        <v>4.4095776681506438</v>
+      </c>
+      <c r="E12">
+        <f>Raw!E13*Raw!E$3/Raw!E$2</f>
+        <v>4.4754239724058635</v>
+      </c>
+      <c r="F12">
+        <f>Raw!F13*Raw!F$3/Raw!F$2</f>
+        <v>4.4777385159010601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>322</v>
+      </c>
+      <c r="B13">
+        <f>Raw!B14*Raw!B$3/Raw!B$2</f>
+        <v>7.3481705016974725</v>
+      </c>
+      <c r="C13">
+        <f>Raw!C14*Raw!C$3/Raw!C$2</f>
+        <v>7.3481705016974725</v>
+      </c>
+      <c r="D13">
+        <f>Raw!D14*Raw!D$3/Raw!D$2</f>
+        <v>4.4095776681506438</v>
+      </c>
+      <c r="E13">
+        <f>Raw!E14*Raw!E$3/Raw!E$2</f>
+        <v>5.9672319632078183</v>
+      </c>
+      <c r="F13">
+        <f>Raw!F14*Raw!F$3/Raw!F$2</f>
+        <v>5.9703180212014137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>323</v>
+      </c>
+      <c r="B14">
+        <f>Raw!B15*Raw!B$3/Raw!B$2</f>
+        <v>4.4089023010184833</v>
+      </c>
+      <c r="C14">
+        <f>Raw!C15*Raw!C$3/Raw!C$2</f>
+        <v>4.4089023010184833</v>
+      </c>
+      <c r="D14">
+        <f>Raw!D15*Raw!D$3/Raw!D$2</f>
+        <v>4.4095776681506438</v>
+      </c>
+      <c r="E14">
+        <f>Raw!E15*Raw!E$3/Raw!E$2</f>
+        <v>4.4754239724058635</v>
+      </c>
+      <c r="F14">
+        <f>Raw!F15*Raw!F$3/Raw!F$2</f>
+        <v>4.4777385159010601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>324</v>
+      </c>
+      <c r="B15">
+        <f>Raw!B16*Raw!B$3/Raw!B$2</f>
+        <v>14.573871495033321</v>
+      </c>
+      <c r="C15">
+        <f>Raw!C16*Raw!C$3/Raw!C$2</f>
+        <v>14.573871495033321</v>
+      </c>
+      <c r="D15">
+        <f>Raw!D16*Raw!D$3/Raw!D$2</f>
+        <v>14.576103958609073</v>
+      </c>
+      <c r="E15">
+        <f>Raw!E16*Raw!E$3/Raw!E$2</f>
+        <v>14.545127910319056</v>
+      </c>
+      <c r="F15">
+        <f>Raw!F16*Raw!F$3/Raw!F$2</f>
+        <v>16.0452296819788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>325</v>
+      </c>
+      <c r="B16">
+        <f>Raw!B17*Raw!B$3/Raw!B$2</f>
+        <v>13.165472148874638</v>
+      </c>
+      <c r="C16">
+        <f>Raw!C17*Raw!C$3/Raw!C$2</f>
+        <v>13.165472148874638</v>
+      </c>
+      <c r="D16">
+        <f>Raw!D17*Raw!D$3/Raw!D$2</f>
+        <v>13.167488870172061</v>
+      </c>
+      <c r="E16">
+        <f>Raw!E17*Raw!E$3/Raw!E$2</f>
+        <v>13.202500718597298</v>
+      </c>
+      <c r="F16">
+        <f>Raw!F17*Raw!F$3/Raw!F$2</f>
+        <v>13.209328621908128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>326</v>
+      </c>
+      <c r="B17">
+        <f>Raw!B18*Raw!B$3/Raw!B$2</f>
+        <v>21.922041996730794</v>
+      </c>
+      <c r="C17">
+        <f>Raw!C18*Raw!C$3/Raw!C$2</f>
+        <v>21.922041996730794</v>
+      </c>
+      <c r="D17">
+        <f>Raw!D18*Raw!D$3/Raw!D$2</f>
+        <v>17.515822404042837</v>
+      </c>
+      <c r="E17">
+        <f>Raw!E18*Raw!E$3/Raw!E$2</f>
+        <v>19.02055188272492</v>
+      </c>
+      <c r="F17">
+        <f>Raw!F18*Raw!F$3/Raw!F$2</f>
+        <v>19.030388692579507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>327</v>
+      </c>
+      <c r="B18">
+        <f>Raw!B19*Raw!B$3/Raw!B$2</f>
+        <v>45.252483339620269</v>
+      </c>
+      <c r="C18">
+        <f>Raw!C19*Raw!C$3/Raw!C$2</f>
+        <v>45.252483339620269</v>
+      </c>
+      <c r="D18">
+        <f>Raw!D19*Raw!D$3/Raw!D$2</f>
+        <v>36.50150403080255</v>
+      </c>
+      <c r="E18">
+        <f>Raw!E19*Raw!E$3/Raw!E$2</f>
+        <v>36.176343776947398</v>
+      </c>
+      <c r="F18">
+        <f>Raw!F19*Raw!F$3/Raw!F$2</f>
+        <v>36.195053003533566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>328</v>
+      </c>
+      <c r="B19">
+        <f>Raw!B20*Raw!B$3/Raw!B$2</f>
+        <v>64.174022381491255</v>
+      </c>
+      <c r="C19">
+        <f>Raw!C20*Raw!C$3/Raw!C$2</f>
+        <v>64.174022381491255</v>
+      </c>
+      <c r="D19">
+        <f>Raw!D20*Raw!D$3/Raw!D$2</f>
+        <v>45.259415232823969</v>
+      </c>
+      <c r="E19">
+        <f>Raw!E20*Raw!E$3/Raw!E$2</f>
+        <v>41.845214141994823</v>
+      </c>
+      <c r="F19">
+        <f>Raw!F20*Raw!F$3/Raw!F$2</f>
+        <v>43.807208480565372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>329</v>
+      </c>
+      <c r="B20">
+        <f>Raw!B21*Raw!B$3/Raw!B$2</f>
+        <v>78.747893876524586</v>
+      </c>
+      <c r="C20">
+        <f>Raw!C21*Raw!C$3/Raw!C$2</f>
+        <v>77.339494530365897</v>
+      </c>
+      <c r="D20">
+        <f>Raw!D21*Raw!D$3/Raw!D$2</f>
+        <v>65.6537119480207</v>
+      </c>
+      <c r="E20">
+        <f>Raw!E21*Raw!E$3/Raw!E$2</f>
+        <v>65.639551595286008</v>
+      </c>
+      <c r="F20">
+        <f>Raw!F21*Raw!F$3/Raw!F$2</f>
+        <v>62.762968197879857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>330</v>
+      </c>
+      <c r="B21">
+        <f>Raw!B22*Raw!B$3/Raw!B$2</f>
+        <v>87.504463724380741</v>
+      </c>
+      <c r="C21">
+        <f>Raw!C22*Raw!C$3/Raw!C$2</f>
+        <v>87.504463724380741</v>
+      </c>
+      <c r="D21">
+        <f>Raw!D22*Raw!D$3/Raw!D$2</f>
+        <v>71.533148838888224</v>
+      </c>
+      <c r="E21">
+        <f>Raw!E22*Raw!E$3/Raw!E$2</f>
+        <v>71.532193158953717</v>
+      </c>
+      <c r="F21">
+        <f>Raw!F22*Raw!F$3/Raw!F$2</f>
+        <v>71.569187279151947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>331</v>
+      </c>
+      <c r="B22">
+        <f>Raw!B23*Raw!B$3/Raw!B$2</f>
+        <v>110.83490506727021</v>
+      </c>
+      <c r="C22">
+        <f>Raw!C23*Raw!C$3/Raw!C$2</f>
+        <v>110.83490506727021</v>
+      </c>
+      <c r="D22">
+        <f>Raw!D23*Raw!D$3/Raw!D$2</f>
+        <v>96.275779087955726</v>
+      </c>
+      <c r="E22">
+        <f>Raw!E23*Raw!E$3/Raw!E$2</f>
+        <v>99.205231388329977</v>
+      </c>
+      <c r="F22">
+        <f>Raw!F23*Raw!F$3/Raw!F$2</f>
+        <v>94.778798586572435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>401</v>
+      </c>
+      <c r="B23">
+        <f>Raw!B24*Raw!B$3/Raw!B$2</f>
+        <v>116.65220671444737</v>
+      </c>
+      <c r="C23">
+        <f>Raw!C24*Raw!C$3/Raw!C$2</f>
+        <v>116.65220671444737</v>
+      </c>
+      <c r="D23">
+        <f>Raw!D24*Raw!D$3/Raw!D$2</f>
+        <v>96.275779087955726</v>
+      </c>
+      <c r="E23">
+        <f>Raw!E24*Raw!E$3/Raw!E$2</f>
+        <v>96.221615406726073</v>
+      </c>
+      <c r="F23">
+        <f>Raw!F24*Raw!F$3/Raw!F$2</f>
+        <v>94.778798586572435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>402</v>
+      </c>
+      <c r="B24">
+        <f>Raw!B25*Raw!B$3/Raw!B$2</f>
+        <v>151.678486105872</v>
+      </c>
+      <c r="C24">
+        <f>Raw!C25*Raw!C$3/Raw!C$2</f>
+        <v>145.79994970451401</v>
+      </c>
+      <c r="D24">
+        <f>Raw!D25*Raw!D$3/Raw!D$2</f>
+        <v>121.07965347130309</v>
+      </c>
+      <c r="E24">
+        <f>Raw!E25*Raw!E$3/Raw!E$2</f>
+        <v>121.06021845357861</v>
+      </c>
+      <c r="F24">
+        <f>Raw!F25*Raw!F$3/Raw!F$2</f>
+        <v>121.12282685512368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>403</v>
+      </c>
+      <c r="B25">
+        <f>Raw!B26*Raw!B$3/Raw!B$2</f>
+        <v>223.13944423487993</v>
+      </c>
+      <c r="C25">
+        <f>Raw!C26*Raw!C$3/Raw!C$2</f>
+        <v>217.32214258770276</v>
+      </c>
+      <c r="D25">
+        <f>Raw!D26*Raw!D$3/Raw!D$2</f>
+        <v>195.43003248706535</v>
+      </c>
+      <c r="E25">
+        <f>Raw!E26*Raw!E$3/Raw!E$2</f>
+        <v>198.26128197757976</v>
+      </c>
+      <c r="F25">
+        <f>Raw!F26*Raw!F$3/Raw!F$2</f>
+        <v>194.03533568904592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>404</v>
+      </c>
+      <c r="B26">
+        <f>Raw!B27*Raw!B$3/Raw!B$2</f>
+        <v>205.62630453916762</v>
+      </c>
+      <c r="C26">
+        <f>Raw!C27*Raw!C$3/Raw!C$2</f>
+        <v>207.03470388532628</v>
+      </c>
+      <c r="D26">
+        <f>Raw!D27*Raw!D$3/Raw!D$2</f>
+        <v>194.02141739862833</v>
+      </c>
+      <c r="E26">
+        <f>Raw!E27*Raw!E$3/Raw!E$2</f>
+        <v>195.42684679505604</v>
+      </c>
+      <c r="F26">
+        <f>Raw!F27*Raw!F$3/Raw!F$2</f>
+        <v>194.03533568904592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>405</v>
+      </c>
+      <c r="B27">
+        <f>Raw!B28*Raw!B$3/Raw!B$2</f>
+        <v>230.36514522821577</v>
+      </c>
+      <c r="C27">
+        <f>Raw!C28*Raw!C$3/Raw!C$2</f>
+        <v>226.07871243555891</v>
+      </c>
+      <c r="D27">
+        <f>Raw!D28*Raw!D$3/Raw!D$2</f>
+        <v>210.0061364456744</v>
+      </c>
+      <c r="E27">
+        <f>Raw!E28*Raw!E$3/Raw!E$2</f>
+        <v>211.38919229663696</v>
+      </c>
+      <c r="F27">
+        <f>Raw!F28*Raw!F$3/Raw!F$2</f>
+        <v>210.15519434628976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>406</v>
+      </c>
+      <c r="B28">
+        <f>Raw!B29*Raw!B$3/Raw!B$2</f>
+        <v>231.89601408273609</v>
+      </c>
+      <c r="C28">
+        <f>Raw!C29*Raw!C$3/Raw!C$2</f>
+        <v>227.4871117817176</v>
+      </c>
+      <c r="D28">
+        <f>Raw!D29*Raw!D$3/Raw!D$2</f>
+        <v>210.0061364456744</v>
+      </c>
+      <c r="E28">
+        <f>Raw!E29*Raw!E$3/Raw!E$2</f>
+        <v>214.37280827824088</v>
+      </c>
+      <c r="F28">
+        <f>Raw!F29*Raw!F$3/Raw!F$2</f>
+        <v>211.49851590106007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>407</v>
+      </c>
+      <c r="B29">
+        <f>Raw!B30*Raw!B$3/Raw!B$2</f>
+        <v>301.88733811140452</v>
+      </c>
+      <c r="C29">
+        <f>Raw!C30*Raw!C$3/Raw!C$2</f>
+        <v>297.47843581038603</v>
+      </c>
+      <c r="D29">
+        <f>Raw!D30*Raw!D$3/Raw!D$2</f>
+        <v>274.18998917097821</v>
+      </c>
+      <c r="E29">
+        <f>Raw!E30*Raw!E$3/Raw!E$2</f>
+        <v>276.95415349238289</v>
+      </c>
+      <c r="F29">
+        <f>Raw!F30*Raw!F$3/Raw!F$2</f>
+        <v>268.44042402826852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>408</v>
+      </c>
+      <c r="B30">
+        <f>Raw!B31*Raw!B$3/Raw!B$2</f>
+        <v>297.47843581038603</v>
+      </c>
+      <c r="C30">
+        <f>Raw!C31*Raw!C$3/Raw!C$2</f>
+        <v>297.47843581038603</v>
+      </c>
+      <c r="D30">
+        <f>Raw!D31*Raw!D$3/Raw!D$2</f>
+        <v>274.18998917097821</v>
+      </c>
+      <c r="E30">
+        <f>Raw!E31*Raw!E$3/Raw!E$2</f>
+        <v>274.11971830985914</v>
+      </c>
+      <c r="F30">
+        <f>Raw!F31*Raw!F$3/Raw!F$2</f>
+        <v>266.94784452296818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>409</v>
+      </c>
+      <c r="B31">
+        <f>Raw!B32*Raw!B$3/Raw!B$2</f>
+        <v>285.78259776185087</v>
+      </c>
+      <c r="C31">
+        <f>Raw!C32*Raw!C$3/Raw!C$2</f>
+        <v>285.78259776185087</v>
+      </c>
+      <c r="D31">
+        <f>Raw!D32*Raw!D$3/Raw!D$2</f>
+        <v>262.49235952352302</v>
+      </c>
+      <c r="E31">
+        <f>Raw!E32*Raw!E$3/Raw!E$2</f>
+        <v>261.06639839034204</v>
+      </c>
+      <c r="F31">
+        <f>Raw!F32*Raw!F$3/Raw!F$2</f>
+        <v>255.23109540636042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>410</v>
+      </c>
+      <c r="B32">
+        <f>Raw!B33*Raw!B$3/Raw!B$2</f>
+        <v>320.80887715327549</v>
+      </c>
+      <c r="C32">
+        <f>Raw!C33*Raw!C$3/Raw!C$2</f>
+        <v>303.29573745756318</v>
+      </c>
+      <c r="D32">
+        <f>Raw!D33*Raw!D$3/Raw!D$2</f>
+        <v>282.94790037299964</v>
+      </c>
+      <c r="E32">
+        <f>Raw!E33*Raw!E$3/Raw!E$2</f>
+        <v>275.61152630066113</v>
+      </c>
+      <c r="F32">
+        <f>Raw!F33*Raw!F$3/Raw!F$2</f>
+        <v>268.44042402826852</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>411</v>
+      </c>
+      <c r="B33">
+        <f>Raw!B34*Raw!B$3/Raw!B$2</f>
+        <v>296.07003646422731</v>
+      </c>
+      <c r="C33">
+        <f>Raw!C34*Raw!C$3/Raw!C$2</f>
+        <v>304.82660631208347</v>
+      </c>
+      <c r="D33">
+        <f>Raw!D34*Raw!D$3/Raw!D$2</f>
+        <v>282.94790037299964</v>
+      </c>
+      <c r="E33">
+        <f>Raw!E34*Raw!E$3/Raw!E$2</f>
+        <v>272.62791031905721</v>
+      </c>
+      <c r="F33">
+        <f>Raw!F34*Raw!F$3/Raw!F$2</f>
+        <v>256.72367491166079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>412</v>
+      </c>
+      <c r="B34">
+        <f>Raw!B35*Raw!B$3/Raw!B$2</f>
+        <v>303.29573745756318</v>
+      </c>
+      <c r="C34">
+        <f>Raw!C35*Raw!C$3/Raw!C$2</f>
+        <v>304.82660631208347</v>
+      </c>
+      <c r="D34">
+        <f>Raw!D35*Raw!D$3/Raw!D$2</f>
+        <v>275.65984839369509</v>
+      </c>
+      <c r="E34">
+        <f>Raw!E35*Raw!E$3/Raw!E$2</f>
+        <v>266.88444955446965</v>
+      </c>
+      <c r="F34">
+        <f>Raw!F35*Raw!F$3/Raw!F$2</f>
+        <v>255.23109540636042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>413</v>
+      </c>
+      <c r="B35">
+        <f>Raw!B36*Raw!B$3/Raw!B$2</f>
+        <v>297.47843581038603</v>
+      </c>
+      <c r="C35">
+        <f>Raw!C36*Raw!C$3/Raw!C$2</f>
+        <v>320.80887715327549</v>
+      </c>
+      <c r="D35">
+        <f>Raw!D36*Raw!D$3/Raw!D$2</f>
+        <v>290.29719648658403</v>
+      </c>
+      <c r="E35">
+        <f>Raw!E36*Raw!E$3/Raw!E$2</f>
+        <v>287.24762862891635</v>
+      </c>
+      <c r="F35">
+        <f>Raw!F36*Raw!F$3/Raw!F$2</f>
+        <v>265.52989399293284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>414</v>
+      </c>
+      <c r="C36">
+        <f>Raw!C37*Raw!C$3/Raw!C$2</f>
+        <v>287.31346661637116</v>
+      </c>
+      <c r="D36">
+        <f>Raw!D37*Raw!D$3/Raw!D$2</f>
+        <v>282.94790037299964</v>
+      </c>
+      <c r="E36">
+        <f>Raw!E37*Raw!E$3/Raw!E$2</f>
+        <v>316.41247484909456</v>
+      </c>
+      <c r="F36">
+        <f>Raw!F37*Raw!F$3/Raw!F$2</f>
+        <v>283.06770318021199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>415</v>
+      </c>
+      <c r="D37">
+        <f>Raw!D38*Raw!D$3/Raw!D$2</f>
+        <v>239.15834436289256</v>
+      </c>
+      <c r="E37">
+        <f>Raw!E38*Raw!E$3/Raw!E$2</f>
+        <v>317.9042828398965</v>
+      </c>
+      <c r="F37">
+        <f>Raw!F38*Raw!F$3/Raw!F$2</f>
+        <v>277.09738515901063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>416</v>
+      </c>
+      <c r="E38">
+        <f>Raw!E39*Raw!E$3/Raw!E$2</f>
+        <v>278.44596148318482</v>
+      </c>
+      <c r="F38">
+        <f>Raw!F39*Raw!F$3/Raw!F$2</f>
+        <v>215.90162544169613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>417</v>
+      </c>
+      <c r="F39">
+        <f>Raw!F40*Raw!F$3/Raw!F$2</f>
+        <v>217.39420494699647</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X48"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11:X48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>325</v>
+      </c>
+      <c r="C1">
+        <v>326</v>
+      </c>
+      <c r="D1">
+        <v>327</v>
+      </c>
+      <c r="E1">
+        <v>330</v>
+      </c>
+      <c r="F1">
+        <v>331</v>
+      </c>
+      <c r="G1">
+        <v>401</v>
+      </c>
+      <c r="H1">
+        <v>402</v>
+      </c>
+      <c r="I1">
+        <v>403</v>
+      </c>
+      <c r="J1">
+        <v>404</v>
+      </c>
+      <c r="K1">
+        <v>405</v>
+      </c>
+      <c r="L1">
+        <v>406</v>
+      </c>
+      <c r="M1">
+        <v>407</v>
+      </c>
+      <c r="N1">
+        <v>408</v>
+      </c>
+      <c r="O1">
+        <v>409</v>
+      </c>
+      <c r="P1">
+        <v>410</v>
+      </c>
+      <c r="Q1">
+        <v>411</v>
+      </c>
+      <c r="R1">
+        <v>412</v>
+      </c>
+      <c r="S1">
+        <v>413</v>
+      </c>
+      <c r="T1">
+        <v>414</v>
+      </c>
+      <c r="U1">
+        <v>415</v>
+      </c>
+      <c r="V1">
+        <v>416</v>
+      </c>
+      <c r="W1">
+        <v>417</v>
+      </c>
+      <c r="X1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>302</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>303</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>304</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>305</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>306</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>307</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>308</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>309</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>310</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>311</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>312</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>313</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>314</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>315</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>316</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>9</v>
+      </c>
+      <c r="P16">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <v>9</v>
+      </c>
+      <c r="V16">
+        <v>9</v>
+      </c>
+      <c r="W16">
+        <v>9</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>317</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>318</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+      <c r="N18">
+        <v>21</v>
+      </c>
+      <c r="O18">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <v>21</v>
+      </c>
+      <c r="Q18">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <v>21</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+      <c r="T18">
+        <v>21</v>
+      </c>
+      <c r="U18">
+        <v>21</v>
+      </c>
+      <c r="V18">
+        <v>21</v>
+      </c>
+      <c r="W18">
+        <v>21</v>
+      </c>
+      <c r="X18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>319</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>25</v>
+      </c>
+      <c r="N19">
+        <v>25</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>25</v>
+      </c>
+      <c r="Q19">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <v>25</v>
+      </c>
+      <c r="S19">
+        <v>25</v>
+      </c>
+      <c r="T19">
+        <v>25</v>
+      </c>
+      <c r="U19">
+        <v>25</v>
+      </c>
+      <c r="V19">
+        <v>25</v>
+      </c>
+      <c r="W19">
+        <v>25</v>
+      </c>
+      <c r="X19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>320</v>
+      </c>
+      <c r="B20">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>43</v>
+      </c>
+      <c r="I20">
+        <v>43</v>
+      </c>
+      <c r="J20">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>43</v>
+      </c>
+      <c r="L20">
+        <v>43</v>
+      </c>
+      <c r="M20">
+        <v>44</v>
+      </c>
+      <c r="N20">
+        <v>44</v>
+      </c>
+      <c r="O20">
+        <v>45</v>
+      </c>
+      <c r="P20">
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <v>45</v>
+      </c>
+      <c r="R20">
+        <v>45</v>
+      </c>
+      <c r="S20">
+        <v>45</v>
+      </c>
+      <c r="T20">
+        <v>45</v>
+      </c>
+      <c r="U20">
+        <v>45</v>
+      </c>
+      <c r="V20">
+        <v>46</v>
+      </c>
+      <c r="W20">
+        <v>46</v>
+      </c>
+      <c r="X20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>321</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>33</v>
+      </c>
+      <c r="J21">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>34</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <v>36</v>
+      </c>
+      <c r="O21">
+        <v>36</v>
+      </c>
+      <c r="P21">
+        <v>36</v>
+      </c>
+      <c r="Q21">
+        <v>36</v>
+      </c>
+      <c r="R21">
+        <v>36</v>
+      </c>
+      <c r="S21">
+        <v>36</v>
+      </c>
+      <c r="T21">
+        <v>36</v>
+      </c>
+      <c r="U21">
+        <v>36</v>
+      </c>
+      <c r="V21">
+        <v>39</v>
+      </c>
+      <c r="W21">
+        <v>40</v>
+      </c>
+      <c r="X21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>322</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>44</v>
+      </c>
+      <c r="F22">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>44</v>
+      </c>
+      <c r="L22">
+        <v>44</v>
+      </c>
+      <c r="M22">
+        <v>45</v>
+      </c>
+      <c r="N22">
+        <v>45</v>
+      </c>
+      <c r="O22">
+        <v>45</v>
+      </c>
+      <c r="P22">
+        <v>45</v>
+      </c>
+      <c r="Q22">
+        <v>45</v>
+      </c>
+      <c r="R22">
+        <v>45</v>
+      </c>
+      <c r="S22">
+        <v>45</v>
+      </c>
+      <c r="T22">
+        <v>45</v>
+      </c>
+      <c r="U22">
+        <v>45</v>
+      </c>
+      <c r="V22">
+        <v>45</v>
+      </c>
+      <c r="W22">
+        <v>46</v>
+      </c>
+      <c r="X22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>323</v>
+      </c>
+      <c r="B23">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>73</v>
+      </c>
+      <c r="G23">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>75</v>
+      </c>
+      <c r="I23">
+        <v>75</v>
+      </c>
+      <c r="J23">
+        <v>77</v>
+      </c>
+      <c r="K23">
+        <v>77</v>
+      </c>
+      <c r="L23">
+        <v>77</v>
+      </c>
+      <c r="M23">
+        <v>79</v>
+      </c>
+      <c r="N23">
+        <v>80</v>
+      </c>
+      <c r="O23">
+        <v>80</v>
+      </c>
+      <c r="P23">
+        <v>80</v>
+      </c>
+      <c r="Q23">
+        <v>80</v>
+      </c>
+      <c r="R23">
+        <v>80</v>
+      </c>
+      <c r="S23">
+        <v>80</v>
+      </c>
+      <c r="T23">
+        <v>80</v>
+      </c>
+      <c r="U23">
+        <v>80</v>
+      </c>
+      <c r="V23">
+        <v>81</v>
+      </c>
+      <c r="W23">
+        <v>81</v>
+      </c>
+      <c r="X23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>324</v>
+      </c>
+      <c r="B24">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>64</v>
+      </c>
+      <c r="E24">
+        <v>72</v>
+      </c>
+      <c r="F24">
+        <v>74</v>
+      </c>
+      <c r="G24">
+        <v>77</v>
+      </c>
+      <c r="H24">
+        <v>78</v>
+      </c>
+      <c r="I24">
+        <v>81</v>
+      </c>
+      <c r="J24">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>84</v>
+      </c>
+      <c r="L24">
+        <v>84</v>
+      </c>
+      <c r="M24">
+        <v>88</v>
+      </c>
+      <c r="N24">
+        <v>89</v>
+      </c>
+      <c r="O24">
+        <v>90</v>
+      </c>
+      <c r="P24">
+        <v>90</v>
+      </c>
+      <c r="Q24">
+        <v>90</v>
+      </c>
+      <c r="R24">
+        <v>90</v>
+      </c>
+      <c r="S24">
+        <v>90</v>
+      </c>
+      <c r="T24">
+        <v>90</v>
+      </c>
+      <c r="U24">
+        <v>90</v>
+      </c>
+      <c r="V24">
+        <v>92</v>
+      </c>
+      <c r="W24">
+        <v>92</v>
+      </c>
+      <c r="X24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>325</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>75</v>
+      </c>
+      <c r="E25">
+        <v>98</v>
+      </c>
+      <c r="F25">
+        <v>99</v>
+      </c>
+      <c r="G25">
+        <v>101</v>
+      </c>
+      <c r="H25">
+        <v>102</v>
+      </c>
+      <c r="I25">
+        <v>103</v>
+      </c>
+      <c r="J25">
+        <v>106</v>
+      </c>
+      <c r="K25">
+        <v>106</v>
+      </c>
+      <c r="L25">
+        <v>106</v>
+      </c>
+      <c r="M25">
+        <v>109</v>
+      </c>
+      <c r="N25">
+        <v>110</v>
+      </c>
+      <c r="O25">
+        <v>112</v>
+      </c>
+      <c r="P25">
+        <v>112</v>
+      </c>
+      <c r="Q25">
+        <v>112</v>
+      </c>
+      <c r="R25">
+        <v>112</v>
+      </c>
+      <c r="S25">
+        <v>112</v>
+      </c>
+      <c r="T25">
+        <v>113</v>
+      </c>
+      <c r="U25">
+        <v>113</v>
+      </c>
+      <c r="V25">
+        <v>115</v>
+      </c>
+      <c r="W25">
+        <v>119</v>
+      </c>
+      <c r="X25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>326</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>54</v>
+      </c>
+      <c r="E26">
+        <v>121</v>
+      </c>
+      <c r="F26">
+        <v>135</v>
+      </c>
+      <c r="G26">
+        <v>140</v>
+      </c>
+      <c r="H26">
+        <v>139</v>
+      </c>
+      <c r="I26">
+        <v>149</v>
+      </c>
+      <c r="J26">
+        <v>154</v>
+      </c>
+      <c r="K26">
+        <v>155</v>
+      </c>
+      <c r="L26">
+        <v>156</v>
+      </c>
+      <c r="M26">
+        <v>164</v>
+      </c>
+      <c r="N26">
+        <v>167</v>
+      </c>
+      <c r="O26">
+        <v>170</v>
+      </c>
+      <c r="P26">
+        <v>170</v>
+      </c>
+      <c r="Q26">
+        <v>172</v>
+      </c>
+      <c r="R26">
+        <v>173</v>
+      </c>
+      <c r="S26">
+        <v>173</v>
+      </c>
+      <c r="T26">
+        <v>173</v>
+      </c>
+      <c r="U26">
+        <v>173</v>
+      </c>
+      <c r="V26">
+        <v>178</v>
+      </c>
+      <c r="W26">
+        <v>184</v>
+      </c>
+      <c r="X26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>327</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>130</v>
+      </c>
+      <c r="G27">
+        <v>142</v>
+      </c>
+      <c r="H27">
+        <v>148</v>
+      </c>
+      <c r="I27">
+        <v>160</v>
+      </c>
+      <c r="J27">
+        <v>166</v>
+      </c>
+      <c r="K27">
+        <v>167</v>
+      </c>
+      <c r="L27">
+        <v>167</v>
+      </c>
+      <c r="M27">
+        <v>175</v>
+      </c>
+      <c r="N27">
+        <v>179</v>
+      </c>
+      <c r="O27">
+        <v>183</v>
+      </c>
+      <c r="P27">
+        <v>183</v>
+      </c>
+      <c r="Q27">
+        <v>184</v>
+      </c>
+      <c r="R27">
+        <v>184</v>
+      </c>
+      <c r="S27">
+        <v>184</v>
+      </c>
+      <c r="T27">
+        <v>184</v>
+      </c>
+      <c r="U27">
+        <v>184</v>
+      </c>
+      <c r="V27">
+        <v>198</v>
+      </c>
+      <c r="W27">
+        <v>203</v>
+      </c>
+      <c r="X27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>328</v>
+      </c>
+      <c r="E28">
+        <v>122</v>
+      </c>
+      <c r="F28">
+        <v>132</v>
+      </c>
+      <c r="G28">
+        <v>148</v>
+      </c>
+      <c r="H28">
+        <v>158</v>
+      </c>
+      <c r="I28">
+        <v>182</v>
+      </c>
+      <c r="J28">
+        <v>190</v>
+      </c>
+      <c r="K28">
+        <v>191</v>
+      </c>
+      <c r="L28">
+        <v>191</v>
+      </c>
+      <c r="M28">
+        <v>220</v>
+      </c>
+      <c r="N28">
+        <v>230</v>
+      </c>
+      <c r="O28">
+        <v>230</v>
+      </c>
+      <c r="P28">
+        <v>232</v>
+      </c>
+      <c r="Q28">
+        <v>234</v>
+      </c>
+      <c r="R28">
+        <v>235</v>
+      </c>
+      <c r="S28">
+        <v>235</v>
+      </c>
+      <c r="T28">
+        <v>236</v>
+      </c>
+      <c r="U28">
+        <v>236</v>
+      </c>
+      <c r="V28">
+        <v>247</v>
+      </c>
+      <c r="W28">
+        <v>253</v>
+      </c>
+      <c r="X28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>329</v>
+      </c>
+      <c r="E29">
+        <v>94</v>
+      </c>
+      <c r="F29">
+        <v>136</v>
+      </c>
+      <c r="G29">
+        <v>161</v>
+      </c>
+      <c r="H29">
+        <v>166</v>
+      </c>
+      <c r="I29">
+        <v>192</v>
+      </c>
+      <c r="J29">
+        <v>212</v>
+      </c>
+      <c r="K29">
+        <v>214</v>
+      </c>
+      <c r="L29">
+        <v>215</v>
+      </c>
+      <c r="M29">
+        <v>241</v>
+      </c>
+      <c r="N29">
+        <v>247</v>
+      </c>
+      <c r="O29">
+        <v>249</v>
+      </c>
+      <c r="P29">
+        <v>252</v>
+      </c>
+      <c r="Q29">
+        <v>253</v>
+      </c>
+      <c r="R29">
+        <v>254</v>
+      </c>
+      <c r="S29">
+        <v>254</v>
+      </c>
+      <c r="T29">
+        <v>255</v>
+      </c>
+      <c r="U29">
+        <v>255</v>
+      </c>
+      <c r="V29">
+        <v>263</v>
+      </c>
+      <c r="W29">
+        <v>274</v>
+      </c>
+      <c r="X29">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>330</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>105</v>
+      </c>
+      <c r="G30">
+        <v>151</v>
+      </c>
+      <c r="H30">
+        <v>160</v>
+      </c>
+      <c r="I30">
+        <v>191</v>
+      </c>
+      <c r="J30">
+        <v>213</v>
+      </c>
+      <c r="K30">
+        <v>218</v>
+      </c>
+      <c r="L30">
+        <v>220</v>
+      </c>
+      <c r="M30">
+        <v>254</v>
+      </c>
+      <c r="N30">
+        <v>266</v>
+      </c>
+      <c r="O30">
+        <v>269</v>
+      </c>
+      <c r="P30">
+        <v>275</v>
+      </c>
+      <c r="Q30">
+        <v>275</v>
+      </c>
+      <c r="R30">
+        <v>277</v>
+      </c>
+      <c r="S30">
+        <v>277</v>
+      </c>
+      <c r="T30">
+        <v>277</v>
+      </c>
+      <c r="U30">
+        <v>277</v>
+      </c>
+      <c r="V30">
+        <v>287</v>
+      </c>
+      <c r="W30">
+        <v>295</v>
+      </c>
+      <c r="X30">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>331</v>
+      </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>148</v>
+      </c>
+      <c r="H31">
+        <v>180</v>
+      </c>
+      <c r="I31">
+        <v>204</v>
+      </c>
+      <c r="J31">
+        <v>254</v>
+      </c>
+      <c r="K31">
+        <v>258</v>
+      </c>
+      <c r="L31">
+        <v>262</v>
+      </c>
+      <c r="M31">
+        <v>309</v>
+      </c>
+      <c r="N31">
+        <v>319</v>
+      </c>
+      <c r="O31">
+        <v>323</v>
+      </c>
+      <c r="P31">
+        <v>324</v>
+      </c>
+      <c r="Q31">
+        <v>327</v>
+      </c>
+      <c r="R31">
+        <v>328</v>
+      </c>
+      <c r="S31">
+        <v>328</v>
+      </c>
+      <c r="T31">
+        <v>329</v>
+      </c>
+      <c r="U31">
+        <v>329</v>
+      </c>
+      <c r="V31">
+        <v>342</v>
+      </c>
+      <c r="W31">
+        <v>355</v>
+      </c>
+      <c r="X31">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>401</v>
+      </c>
+      <c r="G32">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>145</v>
+      </c>
+      <c r="I32">
+        <v>181</v>
+      </c>
+      <c r="J32">
+        <v>211</v>
+      </c>
+      <c r="K32">
+        <v>217</v>
+      </c>
+      <c r="L32">
+        <v>225</v>
+      </c>
+      <c r="M32">
+        <v>311</v>
+      </c>
+      <c r="N32">
+        <v>337</v>
+      </c>
+      <c r="O32">
+        <v>349</v>
+      </c>
+      <c r="P32">
+        <v>363</v>
+      </c>
+      <c r="Q32">
+        <v>363</v>
+      </c>
+      <c r="R32">
+        <v>365</v>
+      </c>
+      <c r="S32">
+        <v>365</v>
+      </c>
+      <c r="T32">
+        <v>366</v>
+      </c>
+      <c r="U32">
+        <v>366</v>
+      </c>
+      <c r="V32">
+        <v>383</v>
+      </c>
+      <c r="W32">
+        <v>396</v>
+      </c>
+      <c r="X32">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>402</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>131</v>
+      </c>
+      <c r="J33">
+        <v>197</v>
+      </c>
+      <c r="K33">
+        <v>213</v>
+      </c>
+      <c r="L33">
+        <v>225</v>
+      </c>
+      <c r="M33">
+        <v>325</v>
+      </c>
+      <c r="N33">
+        <v>361</v>
+      </c>
+      <c r="O33">
+        <v>368</v>
+      </c>
+      <c r="P33">
+        <v>392</v>
+      </c>
+      <c r="Q33">
+        <v>395</v>
+      </c>
+      <c r="R33">
+        <v>398</v>
+      </c>
+      <c r="S33">
+        <v>398</v>
+      </c>
+      <c r="T33">
+        <v>398</v>
+      </c>
+      <c r="U33">
+        <v>399</v>
+      </c>
+      <c r="V33">
+        <v>411</v>
+      </c>
+      <c r="W33">
+        <v>427</v>
+      </c>
+      <c r="X33">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>403</v>
+      </c>
+      <c r="I34">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>173</v>
+      </c>
+      <c r="K34">
+        <v>209</v>
+      </c>
+      <c r="L34">
+        <v>217</v>
+      </c>
+      <c r="M34">
+        <v>285</v>
+      </c>
+      <c r="N34">
+        <v>362</v>
+      </c>
+      <c r="O34">
+        <v>374</v>
+      </c>
+      <c r="P34">
+        <v>410</v>
+      </c>
+      <c r="Q34">
+        <v>412</v>
+      </c>
+      <c r="R34">
+        <v>418</v>
+      </c>
+      <c r="S34">
+        <v>418</v>
+      </c>
+      <c r="T34">
+        <v>420</v>
+      </c>
+      <c r="U34">
+        <v>421</v>
+      </c>
+      <c r="V34">
+        <v>429</v>
+      </c>
+      <c r="W34">
+        <v>436</v>
+      </c>
+      <c r="X34">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>404</v>
+      </c>
+      <c r="J35">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>137</v>
+      </c>
+      <c r="L35">
+        <v>190</v>
+      </c>
+      <c r="M35">
+        <v>272</v>
+      </c>
+      <c r="N35">
+        <v>336</v>
+      </c>
+      <c r="O35">
+        <v>357</v>
+      </c>
+      <c r="P35">
+        <v>398</v>
+      </c>
+      <c r="Q35">
+        <v>406</v>
+      </c>
+      <c r="R35">
+        <v>417</v>
+      </c>
+      <c r="S35">
+        <v>417</v>
+      </c>
+      <c r="T35">
+        <v>421</v>
+      </c>
+      <c r="U35">
+        <v>421</v>
+      </c>
+      <c r="V35">
+        <v>434</v>
+      </c>
+      <c r="W35">
+        <v>443</v>
+      </c>
+      <c r="X35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>405</v>
+      </c>
+      <c r="K36">
+        <v>34</v>
+      </c>
+      <c r="L36">
+        <v>184</v>
+      </c>
+      <c r="M36">
+        <v>290</v>
+      </c>
+      <c r="N36">
+        <v>379</v>
+      </c>
+      <c r="O36">
+        <v>406</v>
+      </c>
+      <c r="P36">
+        <v>447</v>
+      </c>
+      <c r="Q36">
+        <v>453</v>
+      </c>
+      <c r="R36">
+        <v>468</v>
+      </c>
+      <c r="S36">
+        <v>468</v>
+      </c>
+      <c r="T36">
+        <v>473</v>
+      </c>
+      <c r="U36">
+        <v>472</v>
+      </c>
+      <c r="V36">
+        <v>488</v>
+      </c>
+      <c r="W36">
+        <v>496</v>
+      </c>
+      <c r="X36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>406</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>199</v>
+      </c>
+      <c r="N37">
+        <v>327</v>
+      </c>
+      <c r="O37">
+        <v>364</v>
+      </c>
+      <c r="P37">
+        <v>427</v>
+      </c>
+      <c r="Q37">
+        <v>442</v>
+      </c>
+      <c r="R37">
+        <v>455</v>
+      </c>
+      <c r="S37">
+        <v>455</v>
+      </c>
+      <c r="T37">
+        <v>463</v>
+      </c>
+      <c r="U37">
+        <v>463</v>
+      </c>
+      <c r="V37">
+        <v>490</v>
+      </c>
+      <c r="W37">
+        <v>499</v>
+      </c>
+      <c r="X37">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>407</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>235</v>
+      </c>
+      <c r="O38">
+        <v>327</v>
+      </c>
+      <c r="P38">
+        <v>419</v>
+      </c>
+      <c r="Q38">
+        <v>459</v>
+      </c>
+      <c r="R38">
+        <v>476</v>
+      </c>
+      <c r="S38">
+        <v>476</v>
+      </c>
+      <c r="T38">
+        <v>487</v>
+      </c>
+      <c r="U38">
+        <v>487</v>
+      </c>
+      <c r="V38">
+        <v>509</v>
+      </c>
+      <c r="W38">
+        <v>519</v>
+      </c>
+      <c r="X38">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>408</v>
+      </c>
+      <c r="N39">
+        <v>34</v>
+      </c>
+      <c r="O39">
+        <v>221</v>
+      </c>
+      <c r="P39">
+        <v>321</v>
+      </c>
+      <c r="Q39">
+        <v>364</v>
+      </c>
+      <c r="R39">
+        <v>396</v>
+      </c>
+      <c r="S39">
+        <v>396</v>
+      </c>
+      <c r="T39">
+        <v>411</v>
+      </c>
+      <c r="U39">
+        <v>411</v>
+      </c>
+      <c r="V39">
+        <v>430</v>
+      </c>
+      <c r="W39">
+        <v>443</v>
+      </c>
+      <c r="X39">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>409</v>
+      </c>
+      <c r="O40">
+        <v>35</v>
+      </c>
+      <c r="P40">
+        <v>238</v>
+      </c>
+      <c r="Q40">
+        <v>291</v>
+      </c>
+      <c r="R40">
+        <v>340</v>
+      </c>
+      <c r="S40">
+        <v>340</v>
+      </c>
+      <c r="T40">
+        <v>358</v>
+      </c>
+      <c r="U40">
+        <v>363</v>
+      </c>
+      <c r="V40">
+        <v>391</v>
+      </c>
+      <c r="W40">
+        <v>409</v>
+      </c>
+      <c r="X40">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>410</v>
+      </c>
+      <c r="P41">
+        <v>32</v>
+      </c>
+      <c r="Q41">
+        <v>199</v>
+      </c>
+      <c r="R41">
+        <v>295</v>
+      </c>
+      <c r="S41">
+        <v>295</v>
+      </c>
+      <c r="T41">
+        <v>316</v>
+      </c>
+      <c r="U41">
+        <v>328</v>
+      </c>
+      <c r="V41">
+        <v>353</v>
+      </c>
+      <c r="W41">
+        <v>373</v>
+      </c>
+      <c r="X41">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>411</v>
+      </c>
+      <c r="Q42">
+        <v>29</v>
+      </c>
+      <c r="R42">
+        <v>191</v>
+      </c>
+      <c r="S42">
+        <v>191</v>
+      </c>
+      <c r="T42">
+        <v>264</v>
+      </c>
+      <c r="U42">
+        <v>283</v>
+      </c>
+      <c r="V42">
+        <v>329</v>
+      </c>
+      <c r="W42">
+        <v>350</v>
+      </c>
+      <c r="X42">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>412</v>
+      </c>
+      <c r="R43">
+        <v>29</v>
+      </c>
+      <c r="S43">
+        <v>29</v>
+      </c>
+      <c r="T43">
+        <v>195</v>
+      </c>
+      <c r="U43">
+        <v>241</v>
+      </c>
+      <c r="V43">
+        <v>303</v>
+      </c>
+      <c r="W43">
+        <v>332</v>
+      </c>
+      <c r="X43">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>413</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>29</v>
+      </c>
+      <c r="U44">
+        <v>156</v>
+      </c>
+      <c r="V44">
+        <v>279</v>
+      </c>
+      <c r="W44">
+        <v>314</v>
+      </c>
+      <c r="X44">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>414</v>
+      </c>
+      <c r="U45">
+        <v>43</v>
+      </c>
+      <c r="V45">
+        <v>152</v>
+      </c>
+      <c r="W45">
+        <v>214</v>
+      </c>
+      <c r="X45">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>415</v>
+      </c>
+      <c r="V46">
+        <v>13</v>
+      </c>
+      <c r="W46">
+        <v>37</v>
+      </c>
+      <c r="X46">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>416</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>417</v>
+      </c>
+      <c r="X48">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>414</v>
+      </c>
+      <c r="C1">
+        <v>415</v>
+      </c>
+      <c r="D1">
+        <v>416</v>
+      </c>
+      <c r="E1">
+        <v>417</v>
+      </c>
+      <c r="F1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>311</v>
+      </c>
+      <c r="B2">
+        <f>Confirmed!T11+Daily!B2</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>Confirmed!U11+Daily!C2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>Confirmed!V11+Daily!D2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>Confirmed!W11+Daily!E2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>Confirmed!X11+Daily!F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>312</v>
+      </c>
+      <c r="B3">
+        <f>Confirmed!T12+Daily!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>Confirmed!U12+Daily!C3</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>Confirmed!V12+Daily!D3</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>Confirmed!W12+Daily!E3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>Confirmed!X12+Daily!F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>313</v>
+      </c>
+      <c r="B4">
+        <f>Confirmed!T13+Daily!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>Confirmed!U13+Daily!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Confirmed!V13+Daily!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>Confirmed!W13+Daily!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Confirmed!X13+Daily!F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>314</v>
+      </c>
+      <c r="B5">
+        <f>Confirmed!T14+Daily!B5</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>Confirmed!U14+Daily!C5</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>Confirmed!V14+Daily!D5</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>Confirmed!W14+Daily!E5</f>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>Confirmed!X14+Daily!F5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>315</v>
+      </c>
+      <c r="B6">
+        <f>Confirmed!T15+Daily!B6</f>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f>Confirmed!U15+Daily!C6</f>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>Confirmed!V15+Daily!D6</f>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>Confirmed!W15+Daily!E6</f>
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f>Confirmed!X15+Daily!F6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>316</v>
+      </c>
+      <c r="B7">
+        <f>Confirmed!T16+Daily!B7</f>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f>Confirmed!U16+Daily!C7</f>
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f>Confirmed!V16+Daily!D7</f>
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f>Confirmed!W16+Daily!E7</f>
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <f>Confirmed!X16+Daily!F7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>317</v>
+      </c>
+      <c r="B8">
+        <f>Confirmed!T17+Daily!B8</f>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f>Confirmed!U17+Daily!C8</f>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f>Confirmed!V17+Daily!D8</f>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f>Confirmed!W17+Daily!E8</f>
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>Confirmed!X17+Daily!F8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>318</v>
+      </c>
+      <c r="B9">
+        <f>Confirmed!T18+Daily!B9</f>
+        <v>25.408902301018482</v>
+      </c>
+      <c r="C9">
+        <f>Confirmed!U18+Daily!C9</f>
+        <v>25.408902301018482</v>
+      </c>
+      <c r="D9">
+        <f>Confirmed!V18+Daily!D9</f>
+        <v>25.409577668150643</v>
+      </c>
+      <c r="E9">
+        <f>Confirmed!W18+Daily!E9</f>
+        <v>25.475423972405864</v>
+      </c>
+      <c r="F9">
+        <f>Confirmed!X18+Daily!F9</f>
+        <v>25.477738515901059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>319</v>
+      </c>
+      <c r="B10">
+        <f>Confirmed!T19+Daily!B10</f>
+        <v>29.408902301018482</v>
+      </c>
+      <c r="C10">
+        <f>Confirmed!U19+Daily!C10</f>
+        <v>29.408902301018482</v>
+      </c>
+      <c r="D10">
+        <f>Confirmed!V19+Daily!D10</f>
+        <v>29.409577668150643</v>
+      </c>
+      <c r="E10">
+        <f>Confirmed!W19+Daily!E10</f>
+        <v>29.475423972405864</v>
+      </c>
+      <c r="F10">
+        <f>Confirmed!X19+Daily!F10</f>
+        <v>29.477738515901059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>320</v>
+      </c>
+      <c r="B11">
+        <f>Confirmed!T20+Daily!B11</f>
+        <v>47.939268200678988</v>
+      </c>
+      <c r="C11">
+        <f>Confirmed!U20+Daily!C11</f>
+        <v>47.939268200678988</v>
+      </c>
+      <c r="D11">
+        <f>Confirmed!V20+Daily!D11</f>
+        <v>48.939718445433762</v>
+      </c>
+      <c r="E11">
+        <f>Confirmed!W20+Daily!E11</f>
+        <v>48.983615981603911</v>
+      </c>
+      <c r="F11">
+        <f>Confirmed!X20+Daily!F11</f>
+        <v>48.985159010600704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>321</v>
+      </c>
+      <c r="B12">
+        <f>Confirmed!T21+Daily!B12</f>
+        <v>41.817301647177167</v>
+      </c>
+      <c r="C12">
+        <f>Confirmed!U21+Daily!C12</f>
+        <v>41.817301647177167</v>
+      </c>
+      <c r="D12">
+        <f>Confirmed!V21+Daily!D12</f>
+        <v>43.409577668150646</v>
+      </c>
+      <c r="E12">
+        <f>Confirmed!W21+Daily!E12</f>
+        <v>44.475423972405864</v>
+      </c>
+      <c r="F12">
+        <f>Confirmed!X21+Daily!F12</f>
+        <v>44.477738515901059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>322</v>
+      </c>
+      <c r="B13">
+        <f>Confirmed!T22+Daily!B13</f>
+        <v>52.348170501697474</v>
+      </c>
+      <c r="C13">
+        <f>Confirmed!U22+Daily!C13</f>
+        <v>52.348170501697474</v>
+      </c>
+      <c r="D13">
+        <f>Confirmed!V22+Daily!D13</f>
+        <v>49.409577668150646</v>
+      </c>
+      <c r="E13">
+        <f>Confirmed!W22+Daily!E13</f>
+        <v>51.967231963207816</v>
+      </c>
+      <c r="F13">
+        <f>Confirmed!X22+Daily!F13</f>
+        <v>53.970318021201415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>323</v>
+      </c>
+      <c r="B14">
+        <f>Confirmed!T23+Daily!B14</f>
+        <v>84.408902301018486</v>
+      </c>
+      <c r="C14">
+        <f>Confirmed!U23+Daily!C14</f>
+        <v>84.408902301018486</v>
+      </c>
+      <c r="D14">
+        <f>Confirmed!V23+Daily!D14</f>
+        <v>85.409577668150646</v>
+      </c>
+      <c r="E14">
+        <f>Confirmed!W23+Daily!E14</f>
+        <v>85.475423972405864</v>
+      </c>
+      <c r="F14">
+        <f>Confirmed!X23+Daily!F14</f>
+        <v>85.477738515901066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>324</v>
+      </c>
+      <c r="B15">
+        <f>Confirmed!T24+Daily!B15</f>
+        <v>104.57387149503332</v>
+      </c>
+      <c r="C15">
+        <f>Confirmed!U24+Daily!C15</f>
+        <v>104.57387149503332</v>
+      </c>
+      <c r="D15">
+        <f>Confirmed!V24+Daily!D15</f>
+        <v>106.57610395860907</v>
+      </c>
+      <c r="E15">
+        <f>Confirmed!W24+Daily!E15</f>
+        <v>106.54512791031905</v>
+      </c>
+      <c r="F15">
+        <f>Confirmed!X24+Daily!F15</f>
+        <v>108.0452296819788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>325</v>
+      </c>
+      <c r="B16">
+        <f>Confirmed!T25+Daily!B16</f>
+        <v>126.16547214887464</v>
+      </c>
+      <c r="C16">
+        <f>Confirmed!U25+Daily!C16</f>
+        <v>126.16547214887464</v>
+      </c>
+      <c r="D16">
+        <f>Confirmed!V25+Daily!D16</f>
+        <v>128.16748887017206</v>
+      </c>
+      <c r="E16">
+        <f>Confirmed!W25+Daily!E16</f>
+        <v>132.20250071859729</v>
+      </c>
+      <c r="F16">
+        <f>Confirmed!X25+Daily!F16</f>
+        <v>133.20932862190813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>326</v>
+      </c>
+      <c r="B17">
+        <f>Confirmed!T26+Daily!B17</f>
+        <v>194.9220419967308</v>
+      </c>
+      <c r="C17">
+        <f>Confirmed!U26+Daily!C17</f>
+        <v>194.9220419967308</v>
+      </c>
+      <c r="D17">
+        <f>Confirmed!V26+Daily!D17</f>
+        <v>195.51582240404284</v>
+      </c>
+      <c r="E17">
+        <f>Confirmed!W26+Daily!E17</f>
+        <v>203.02055188272493</v>
+      </c>
+      <c r="F17">
+        <f>Confirmed!X26+Daily!F17</f>
+        <v>204.03038869257949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>327</v>
+      </c>
+      <c r="B18">
+        <f>Confirmed!T27+Daily!B18</f>
+        <v>229.25248333962026</v>
+      </c>
+      <c r="C18">
+        <f>Confirmed!U27+Daily!C18</f>
+        <v>229.25248333962026</v>
+      </c>
+      <c r="D18">
+        <f>Confirmed!V27+Daily!D18</f>
+        <v>234.50150403080255</v>
+      </c>
+      <c r="E18">
+        <f>Confirmed!W27+Daily!E18</f>
+        <v>239.17634377694739</v>
+      </c>
+      <c r="F18">
+        <f>Confirmed!X27+Daily!F18</f>
+        <v>241.19505300353356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>328</v>
+      </c>
+      <c r="B19">
+        <f>Confirmed!T28+Daily!B19</f>
+        <v>300.17402238149123</v>
+      </c>
+      <c r="C19">
+        <f>Confirmed!U28+Daily!C19</f>
+        <v>300.17402238149123</v>
+      </c>
+      <c r="D19">
+        <f>Confirmed!V28+Daily!D19</f>
+        <v>292.25941523282398</v>
+      </c>
+      <c r="E19">
+        <f>Confirmed!W28+Daily!E19</f>
+        <v>294.8452141419948</v>
+      </c>
+      <c r="F19">
+        <f>Confirmed!X28+Daily!F19</f>
+        <v>299.80720848056535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>329</v>
+      </c>
+      <c r="B20">
+        <f>Confirmed!T29+Daily!B20</f>
+        <v>333.74789387652459</v>
+      </c>
+      <c r="C20">
+        <f>Confirmed!U29+Daily!C20</f>
+        <v>332.33949453036587</v>
+      </c>
+      <c r="D20">
+        <f>Confirmed!V29+Daily!D20</f>
+        <v>328.65371194802071</v>
+      </c>
+      <c r="E20">
+        <f>Confirmed!W29+Daily!E20</f>
+        <v>339.63955159528598</v>
+      </c>
+      <c r="F20">
+        <f>Confirmed!X29+Daily!F20</f>
+        <v>336.76296819787984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>330</v>
+      </c>
+      <c r="B21">
+        <f>Confirmed!T30+Daily!B21</f>
+        <v>364.50446372438074</v>
+      </c>
+      <c r="C21">
+        <f>Confirmed!U30+Daily!C21</f>
+        <v>364.50446372438074</v>
+      </c>
+      <c r="D21">
+        <f>Confirmed!V30+Daily!D21</f>
+        <v>358.53314883888822</v>
+      </c>
+      <c r="E21">
+        <f>Confirmed!W30+Daily!E21</f>
+        <v>366.5321931589537</v>
+      </c>
+      <c r="F21">
+        <f>Confirmed!X30+Daily!F21</f>
+        <v>370.56918727915195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>331</v>
+      </c>
+      <c r="B22">
+        <f>Confirmed!T31+Daily!B22</f>
+        <v>439.8349050672702</v>
+      </c>
+      <c r="C22">
+        <f>Confirmed!U31+Daily!C22</f>
+        <v>439.8349050672702</v>
+      </c>
+      <c r="D22">
+        <f>Confirmed!V31+Daily!D22</f>
+        <v>438.2757790879557</v>
+      </c>
+      <c r="E22">
+        <f>Confirmed!W31+Daily!E22</f>
+        <v>454.20523138832999</v>
+      </c>
+      <c r="F22">
+        <f>Confirmed!X31+Daily!F22</f>
+        <v>450.77879858657241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>401</v>
+      </c>
+      <c r="B23">
+        <f>Confirmed!T32+Daily!B23</f>
+        <v>482.6522067144474</v>
+      </c>
+      <c r="C23">
+        <f>Confirmed!U32+Daily!C23</f>
+        <v>482.6522067144474</v>
+      </c>
+      <c r="D23">
+        <f>Confirmed!V32+Daily!D23</f>
+        <v>479.2757790879557</v>
+      </c>
+      <c r="E23">
+        <f>Confirmed!W32+Daily!E23</f>
+        <v>492.22161540672607</v>
+      </c>
+      <c r="F23">
+        <f>Confirmed!X32+Daily!F23</f>
+        <v>493.77879858657241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>402</v>
+      </c>
+      <c r="B24">
+        <f>Confirmed!T33+Daily!B24</f>
+        <v>549.67848610587203</v>
+      </c>
+      <c r="C24">
+        <f>Confirmed!U33+Daily!C24</f>
+        <v>544.79994970451401</v>
+      </c>
+      <c r="D24">
+        <f>Confirmed!V33+Daily!D24</f>
+        <v>532.07965347130312</v>
+      </c>
+      <c r="E24">
+        <f>Confirmed!W33+Daily!E24</f>
+        <v>548.06021845357861</v>
+      </c>
+      <c r="F24">
+        <f>Confirmed!X33+Daily!F24</f>
+        <v>552.12282685512366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>403</v>
+      </c>
+      <c r="B25">
+        <f>Confirmed!T34+Daily!B25</f>
+        <v>643.13944423487987</v>
+      </c>
+      <c r="C25">
+        <f>Confirmed!U34+Daily!C25</f>
+        <v>638.32214258770273</v>
+      </c>
+      <c r="D25">
+        <f>Confirmed!V34+Daily!D25</f>
+        <v>624.43003248706532</v>
+      </c>
+      <c r="E25">
+        <f>Confirmed!W34+Daily!E25</f>
+        <v>634.26128197757976</v>
+      </c>
+      <c r="F25">
+        <f>Confirmed!X34+Daily!F25</f>
+        <v>633.03533568904595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>404</v>
+      </c>
+      <c r="B26">
+        <f>Confirmed!T35+Daily!B26</f>
+        <v>626.62630453916768</v>
+      </c>
+      <c r="C26">
+        <f>Confirmed!U35+Daily!C26</f>
+        <v>628.03470388532628</v>
+      </c>
+      <c r="D26">
+        <f>Confirmed!V35+Daily!D26</f>
+        <v>628.02141739862827</v>
+      </c>
+      <c r="E26">
+        <f>Confirmed!W35+Daily!E26</f>
+        <v>638.42684679505601</v>
+      </c>
+      <c r="F26">
+        <f>Confirmed!X35+Daily!F26</f>
+        <v>640.03533568904595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>405</v>
+      </c>
+      <c r="B27">
+        <f>Confirmed!T36+Daily!B27</f>
+        <v>703.36514522821574</v>
+      </c>
+      <c r="C27">
+        <f>Confirmed!U36+Daily!C27</f>
+        <v>698.07871243555894</v>
+      </c>
+      <c r="D27">
+        <f>Confirmed!V36+Daily!D27</f>
+        <v>698.00613644567443</v>
+      </c>
+      <c r="E27">
+        <f>Confirmed!W36+Daily!E27</f>
+        <v>707.38919229663702</v>
+      </c>
+      <c r="F27">
+        <f>Confirmed!X36+Daily!F27</f>
+        <v>710.15519434628982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>406</v>
+      </c>
+      <c r="B28">
+        <f>Confirmed!T37+Daily!B28</f>
+        <v>694.89601408273609</v>
+      </c>
+      <c r="C28">
+        <f>Confirmed!U37+Daily!C28</f>
+        <v>690.48711178171766</v>
+      </c>
+      <c r="D28">
+        <f>Confirmed!V37+Daily!D28</f>
+        <v>700.00613644567443</v>
+      </c>
+      <c r="E28">
+        <f>Confirmed!W37+Daily!E28</f>
+        <v>713.37280827824088</v>
+      </c>
+      <c r="F28">
+        <f>Confirmed!X37+Daily!F28</f>
+        <v>717.49851590106005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>407</v>
+      </c>
+      <c r="B29">
+        <f>Confirmed!T38+Daily!B29</f>
+        <v>788.88733811140446</v>
+      </c>
+      <c r="C29">
+        <f>Confirmed!U38+Daily!C29</f>
+        <v>784.47843581038603</v>
+      </c>
+      <c r="D29">
+        <f>Confirmed!V38+Daily!D29</f>
+        <v>783.18998917097815</v>
+      </c>
+      <c r="E29">
+        <f>Confirmed!W38+Daily!E29</f>
+        <v>795.95415349238283</v>
+      </c>
+      <c r="F29">
+        <f>Confirmed!X38+Daily!F29</f>
+        <v>796.44042402826858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>408</v>
+      </c>
+      <c r="B30">
+        <f>Confirmed!T39+Daily!B30</f>
+        <v>708.47843581038603</v>
+      </c>
+      <c r="C30">
+        <f>Confirmed!U39+Daily!C30</f>
+        <v>708.47843581038603</v>
+      </c>
+      <c r="D30">
+        <f>Confirmed!V39+Daily!D30</f>
+        <v>704.18998917097815</v>
+      </c>
+      <c r="E30">
+        <f>Confirmed!W39+Daily!E30</f>
+        <v>717.11971830985908</v>
+      </c>
+      <c r="F30">
+        <f>Confirmed!X39+Daily!F30</f>
+        <v>720.94784452296813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>409</v>
+      </c>
+      <c r="B31">
+        <f>Confirmed!T40+Daily!B31</f>
+        <v>643.78259776185087</v>
+      </c>
+      <c r="C31">
+        <f>Confirmed!U40+Daily!C31</f>
+        <v>648.78259776185087</v>
+      </c>
+      <c r="D31">
+        <f>Confirmed!V40+Daily!D31</f>
+        <v>653.49235952352296</v>
+      </c>
+      <c r="E31">
+        <f>Confirmed!W40+Daily!E31</f>
+        <v>670.0663983903421</v>
+      </c>
+      <c r="F31">
+        <f>Confirmed!X40+Daily!F31</f>
+        <v>679.2310954063604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>410</v>
+      </c>
+      <c r="B32">
+        <f>Confirmed!T41+Daily!B32</f>
+        <v>636.80887715327549</v>
+      </c>
+      <c r="C32">
+        <f>Confirmed!U41+Daily!C32</f>
+        <v>631.29573745756318</v>
+      </c>
+      <c r="D32">
+        <f>Confirmed!V41+Daily!D32</f>
+        <v>635.94790037299958</v>
+      </c>
+      <c r="E32">
+        <f>Confirmed!W41+Daily!E32</f>
+        <v>648.61152630066113</v>
+      </c>
+      <c r="F32">
+        <f>Confirmed!X41+Daily!F32</f>
+        <v>664.44042402826858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>411</v>
+      </c>
+      <c r="B33">
+        <f>Confirmed!T42+Daily!B33</f>
+        <v>560.07003646422731</v>
+      </c>
+      <c r="C33">
+        <f>Confirmed!U42+Daily!C33</f>
+        <v>587.82660631208341</v>
+      </c>
+      <c r="D33">
+        <f>Confirmed!V42+Daily!D33</f>
+        <v>611.94790037299958</v>
+      </c>
+      <c r="E33">
+        <f>Confirmed!W42+Daily!E33</f>
+        <v>622.62791031905726</v>
+      </c>
+      <c r="F33">
+        <f>Confirmed!X42+Daily!F33</f>
+        <v>637.72367491166074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>412</v>
+      </c>
+      <c r="B34">
+        <f>Confirmed!T43+Daily!B34</f>
+        <v>498.29573745756318</v>
+      </c>
+      <c r="C34">
+        <f>Confirmed!U43+Daily!C34</f>
+        <v>545.82660631208341</v>
+      </c>
+      <c r="D34">
+        <f>Confirmed!V43+Daily!D34</f>
+        <v>578.65984839369503</v>
+      </c>
+      <c r="E34">
+        <f>Confirmed!W43+Daily!E34</f>
+        <v>598.88444955446971</v>
+      </c>
+      <c r="F34">
+        <f>Confirmed!X43+Daily!F34</f>
+        <v>637.2310954063604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>413</v>
+      </c>
+      <c r="B35">
+        <f>Confirmed!T44+Daily!B35</f>
+        <v>326.47843581038603</v>
+      </c>
+      <c r="C35">
+        <f>Confirmed!U44+Daily!C35</f>
+        <v>476.80887715327549</v>
+      </c>
+      <c r="D35">
+        <f>Confirmed!V44+Daily!D35</f>
+        <v>569.29719648658397</v>
+      </c>
+      <c r="E35">
+        <f>Confirmed!W44+Daily!E35</f>
+        <v>601.24762862891635</v>
+      </c>
+      <c r="F35">
+        <f>Confirmed!X44+Daily!F35</f>
+        <v>619.52989399293278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>414</v>
+      </c>
+      <c r="B36">
+        <f>Confirmed!T45+Daily!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>Confirmed!U45+Daily!C36</f>
+        <v>330.31346661637116</v>
+      </c>
+      <c r="D36">
+        <f>Confirmed!V45+Daily!D36</f>
+        <v>434.94790037299964</v>
+      </c>
+      <c r="E36">
+        <f>Confirmed!W45+Daily!E36</f>
+        <v>530.41247484909456</v>
+      </c>
+      <c r="F36">
+        <f>Confirmed!X45+Daily!F36</f>
+        <v>562.06770318021199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>415</v>
+      </c>
+      <c r="B37">
+        <f>Confirmed!T46+Daily!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>Confirmed!U46+Daily!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>Confirmed!V46+Daily!D37</f>
+        <v>252.15834436289256</v>
+      </c>
+      <c r="E37">
+        <f>Confirmed!W46+Daily!E37</f>
+        <v>354.9042828398965</v>
+      </c>
+      <c r="F37">
+        <f>Confirmed!X46+Daily!F37</f>
+        <v>483.09738515901063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>416</v>
+      </c>
+      <c r="B38">
+        <f>Confirmed!T47+Daily!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>Confirmed!U47+Daily!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>Confirmed!V47+Daily!D38</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>Confirmed!W47+Daily!E38</f>
+        <v>278.44596148318482</v>
+      </c>
+      <c r="F38">
+        <f>Confirmed!X47+Daily!F38</f>
+        <v>334.90162544169613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>417</v>
+      </c>
+      <c r="B39">
+        <f>Confirmed!T48+Daily!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>Confirmed!U48+Daily!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>Confirmed!V48+Daily!D39</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>Confirmed!W48+Daily!E39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>Confirmed!X48+Daily!F39</f>
+        <v>231.39420494699647</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>415</v>
+      </c>
+      <c r="B2">
+        <v>111424</v>
+      </c>
+      <c r="C2">
+        <v>29741</v>
+      </c>
+      <c r="D2">
+        <v>6840</v>
+      </c>
+      <c r="E2">
+        <v>4059</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <f>SUM(Daily!C$8:C$50)</f>
+        <v>4006.283792279643</v>
+      </c>
+      <c r="I2">
+        <f>E2-H2</f>
+        <v>52.716207720357033</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(I2)/E2</f>
+        <v>1.2987486504153002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>416</v>
+      </c>
+      <c r="B3">
+        <v>117565</v>
+      </c>
+      <c r="C3">
+        <v>30903</v>
+      </c>
+      <c r="D3">
+        <v>7563</v>
+      </c>
+      <c r="E3">
+        <v>3914</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <f>SUM(Daily!D$8:D$50)</f>
+        <v>3877.1211647214541</v>
+      </c>
+      <c r="I3">
+        <f>E3-H3</f>
+        <v>36.878835278545921</v>
+      </c>
+      <c r="J3" s="3">
+        <f>(I3)/E3</f>
+        <v>9.4222880118921618E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>417</v>
+      </c>
+      <c r="B4">
+        <v>122148</v>
+      </c>
+      <c r="C4">
+        <v>32843</v>
+      </c>
+      <c r="D4">
+        <v>7890</v>
+      </c>
+      <c r="E4">
+        <v>4309</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <f>SUM(Daily!E$8:E$50)</f>
+        <v>4252.02572578327</v>
+      </c>
+      <c r="I4">
+        <f>E4-H4</f>
+        <v>56.974274216730009</v>
+      </c>
+      <c r="J4" s="3">
+        <f>(I4)/E4</f>
+        <v>1.3222156931243911E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>418</v>
+      </c>
+      <c r="B5">
+        <v>126368</v>
+      </c>
+      <c r="C5">
+        <v>33079</v>
+      </c>
+      <c r="D5">
+        <v>8448</v>
+      </c>
+      <c r="E5">
+        <v>4264</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <f>SUM(Daily!F$8:F$50)</f>
+        <v>4239.8959717314483</v>
+      </c>
+      <c r="I5">
+        <f>E5-H5</f>
+        <v>24.104028268551701</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(I5)/E5</f>
+        <v>5.6529146971275096E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3077,19 +8270,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3136,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E4:E39" si="1">E4+1</f>
+        <f t="shared" ref="E5:E41" si="1">E4+1</f>
         <v>43902</v>
       </c>
     </row>
@@ -3181,7 +8374,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>5.7142857142857135</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
@@ -3197,7 +8390,7 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>9.5238095238095237</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
@@ -3213,10 +8406,10 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>7.6190476190476186</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
@@ -3232,10 +8425,10 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>20.952380952380953</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4.4777385159010601</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
@@ -3251,10 +8444,10 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>24.761904761904759</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4.4777385159010601</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
@@ -3270,10 +8463,10 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>47.619047619047613</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2.9851590106007069</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -3292,7 +8485,7 @@
         <v>40</v>
       </c>
       <c r="D14">
-        <v>5.7142857142857135</v>
+        <v>4.4777385159010601</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
@@ -3308,10 +8501,10 @@
         <v>80</v>
       </c>
       <c r="C15">
-        <v>47.619047619047613</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>3.8095238095238093</v>
+        <v>5.9703180212014137</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
@@ -3327,10 +8520,10 @@
         <v>91</v>
       </c>
       <c r="C16">
-        <v>81.904761904761898</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>15.238095238095237</v>
+        <v>4.4777385159010601</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
@@ -3346,10 +8539,10 @@
         <v>116</v>
       </c>
       <c r="C17">
-        <v>93.333333333333329</v>
+        <v>92</v>
       </c>
       <c r="D17">
-        <v>13.333333333333332</v>
+        <v>16.0452296819788</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
@@ -3368,7 +8561,7 @@
         <v>120</v>
       </c>
       <c r="D18">
-        <v>19.047619047619047</v>
+        <v>13.209328621908128</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
@@ -3384,10 +8577,10 @@
         <v>149</v>
       </c>
       <c r="C19">
-        <v>184.76190476190476</v>
+        <v>185</v>
       </c>
       <c r="D19">
-        <v>36.19047619047619</v>
+        <v>19.030388692579507</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
@@ -3403,10 +8596,10 @@
         <v>129</v>
       </c>
       <c r="C20">
-        <v>203.8095238095238</v>
+        <v>205</v>
       </c>
       <c r="D20">
-        <v>41.904761904761905</v>
+        <v>36.195053003533566</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
@@ -3422,10 +8615,10 @@
         <v>190</v>
       </c>
       <c r="C21">
-        <v>255.23809523809521</v>
+        <v>256</v>
       </c>
       <c r="D21">
-        <v>66.666666666666657</v>
+        <v>43.807208480565372</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
@@ -3441,10 +8634,10 @@
         <v>223</v>
       </c>
       <c r="C22">
-        <v>276.19047619047615</v>
+        <v>274</v>
       </c>
       <c r="D22">
-        <v>72.38095238095238</v>
+        <v>62.762968197879857</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -3460,10 +8653,10 @@
         <v>270</v>
       </c>
       <c r="C23">
-        <v>297.14285714285711</v>
+        <v>299</v>
       </c>
       <c r="D23">
-        <v>99.047619047619037</v>
+        <v>71.569187279151947</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
@@ -3479,10 +8672,10 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>356.19047619047615</v>
+        <v>356</v>
       </c>
       <c r="D24">
-        <v>97.142857142857139</v>
+        <v>94.778798586572435</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -3498,10 +8691,10 @@
         <v>319</v>
       </c>
       <c r="C25">
-        <v>398.09523809523807</v>
+        <v>399</v>
       </c>
       <c r="D25">
-        <v>121.9047619047619</v>
+        <v>94.778798586572435</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -3517,10 +8710,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>430.47619047619042</v>
+        <v>431</v>
       </c>
       <c r="D26">
-        <v>200</v>
+        <v>121.12282685512368</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -3536,10 +8729,10 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>438.09523809523807</v>
+        <v>439</v>
       </c>
       <c r="D27">
-        <v>196.19047619047618</v>
+        <v>194.03533568904592</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -3555,10 +8748,10 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>445.71428571428567</v>
+        <v>446</v>
       </c>
       <c r="D28">
-        <v>213.33333333333331</v>
+        <v>194.03533568904592</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -3574,10 +8767,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>499.04761904761904</v>
+        <v>500</v>
       </c>
       <c r="D29">
-        <v>215.23809523809521</v>
+        <v>210.15519434628976</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -3593,10 +8786,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>500.95238095238091</v>
+        <v>506</v>
       </c>
       <c r="D30">
-        <v>278.09523809523807</v>
+        <v>211.49851590106007</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -3612,10 +8805,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>521.90476190476193</v>
+        <v>528</v>
       </c>
       <c r="D31">
-        <v>276.19047619047615</v>
+        <v>268.44042402826852</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -3631,10 +8824,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>445.71428571428567</v>
+        <v>454</v>
       </c>
       <c r="D32">
-        <v>262.85714285714283</v>
+        <v>266.94784452296818</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -3650,10 +8843,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>411.42857142857139</v>
+        <v>424</v>
       </c>
       <c r="D33">
-        <v>278.09523809523807</v>
+        <v>255.23109540636042</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -3669,10 +8862,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>375.23809523809524</v>
+        <v>396</v>
       </c>
       <c r="D34">
-        <v>274.28571428571428</v>
+        <v>268.44042402826852</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -3688,10 +8881,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>352.38095238095235</v>
+        <v>381</v>
       </c>
       <c r="D35">
-        <v>268.57142857142856</v>
+        <v>256.72367491166079</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -3707,10 +8900,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>335.23809523809524</v>
+        <v>382</v>
       </c>
       <c r="D36">
-        <v>289.52380952380952</v>
+        <v>255.23109540636042</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -3726,10 +8919,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>314.28571428571428</v>
+        <v>354</v>
       </c>
       <c r="D37">
-        <v>318.09523809523807</v>
+        <v>265.52989399293284</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -3745,10 +8938,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>215.23809523809521</v>
+        <v>279</v>
       </c>
       <c r="D38">
-        <v>320</v>
+        <v>283.06770318021199</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -3764,10 +8957,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="D39">
-        <v>280</v>
+        <v>277.09738515901063</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -3783,7 +8976,14 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="D40">
+        <v>215.90162544169613</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>43937</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3794,6 +8994,16 @@
       <c r="B41">
         <v>757</v>
       </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>217.39420494699647</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>43938</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -622,61 +622,64 @@
                   <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>299</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>399</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>431</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>439</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>500</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>506</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>528</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>454</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>424</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>396</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>381</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>382</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>354</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>279</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>206</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>119</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14</c:v>
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,101 +969,110 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="8">
+                  <c:v>4.4735729386892178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4735729386892178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9823819591261453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4735729386892178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9647639182522907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4735729386892178</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.197040169133192</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.012684989429175</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.16138125440451</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.766455250176179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.779140239605354</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.844679351656097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.181818181818187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.181818181818187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122.50133897110641</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>195.34601832276252</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>195.34601832276252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>209.95968992248061</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>209.95968992248061</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>265.28287526427061</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>266.77406624383366</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>253.65158562367864</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>260.95842142353769</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>250.6692036645525</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>249.17801268498943</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>257.97603946441154</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>274.0063424947146</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>265.28287526427061</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>199.67047216349542</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>249.17801268498943</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>179.31571529245949</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.4777385159010601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.4777385159010601</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9851590106007069</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.4777385159010601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.9703180212014137</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.4777385159010601</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0452296819788</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.209328621908128</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.030388692579507</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36.195053003533566</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43.807208480565372</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62.762968197879857</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71.569187279151947</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>94.778798586572435</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.778798586572435</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>121.12282685512368</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>194.03533568904592</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>194.03533568904592</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>210.15519434628976</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>211.49851590106007</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>268.44042402826852</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>266.94784452296818</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>255.23109540636042</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>268.44042402826852</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>256.72367491166079</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>255.23109540636042</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>265.52989399293284</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>283.06770318021199</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>277.09738515901063</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>215.90162544169613</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>217.39420494699647</c:v>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,8 +1088,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="476259648"/>
-        <c:axId val="476260208"/>
+        <c:axId val="289900352"/>
+        <c:axId val="296094416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1618,11 +1630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476259648"/>
-        <c:axId val="476260208"/>
+        <c:axId val="289900352"/>
+        <c:axId val="296094416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476259648"/>
+        <c:axId val="289900352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476260208"/>
+        <c:crossAx val="296094416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1673,7 +1685,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476260208"/>
+        <c:axId val="296094416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476259648"/>
+        <c:crossAx val="289900352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2366,7 +2378,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2377,7 +2389,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6290733"/>
+    <xdr:ext cx="8667750" cy="6298406"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2666,7 +2678,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2728,15 +2740,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -2752,8 +2764,11 @@
       <c r="F1">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2772,8 +2787,11 @@
       <c r="F2">
         <v>7075</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2792,33 +2810,36 @@
       <c r="F3">
         <v>528</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>316</v>
       </c>
@@ -2837,8 +2858,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>317</v>
       </c>
@@ -2857,8 +2881,11 @@
       <c r="F10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>318</v>
       </c>
@@ -2877,8 +2904,11 @@
       <c r="F11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>319</v>
       </c>
@@ -2897,8 +2927,11 @@
       <c r="F12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>320</v>
       </c>
@@ -2917,8 +2950,11 @@
       <c r="F13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>321</v>
       </c>
@@ -2937,8 +2973,11 @@
       <c r="F14">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>322</v>
       </c>
@@ -2957,8 +2996,11 @@
       <c r="F15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>323</v>
       </c>
@@ -2977,8 +3019,11 @@
       <c r="F16">
         <v>215</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>324</v>
       </c>
@@ -2997,8 +3042,11 @@
       <c r="F17">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>325</v>
       </c>
@@ -3017,8 +3065,11 @@
       <c r="F18">
         <v>255</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>326</v>
       </c>
@@ -3037,8 +3088,11 @@
       <c r="F19">
         <v>485</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>327</v>
       </c>
@@ -3057,8 +3111,11 @@
       <c r="F20">
         <v>587</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>328</v>
       </c>
@@ -3077,8 +3134,11 @@
       <c r="F21">
         <v>841</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>329</v>
       </c>
@@ -3097,8 +3157,11 @@
       <c r="F22">
         <v>959</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>330</v>
       </c>
@@ -3117,8 +3180,11 @@
       <c r="F23">
         <v>1270</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>331</v>
       </c>
@@ -3137,8 +3203,11 @@
       <c r="F24">
         <v>1270</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>401</v>
       </c>
@@ -3157,8 +3226,11 @@
       <c r="F25">
         <v>1623</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>402</v>
       </c>
@@ -3177,8 +3249,11 @@
       <c r="F26">
         <v>2600</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>403</v>
       </c>
@@ -3197,8 +3272,11 @@
       <c r="F27">
         <v>2600</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>404</v>
       </c>
@@ -3217,8 +3295,11 @@
       <c r="F28">
         <v>2816</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>405</v>
       </c>
@@ -3237,8 +3318,11 @@
       <c r="F29">
         <v>2834</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>406</v>
       </c>
@@ -3257,8 +3341,11 @@
       <c r="F30">
         <v>3597</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>407</v>
       </c>
@@ -3277,8 +3364,11 @@
       <c r="F31">
         <v>3577</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>408</v>
       </c>
@@ -3297,8 +3387,11 @@
       <c r="F32">
         <v>3420</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>409</v>
       </c>
@@ -3317,8 +3410,11 @@
       <c r="F33">
         <v>3597</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>410</v>
       </c>
@@ -3337,8 +3433,11 @@
       <c r="F34">
         <v>3440</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>411</v>
       </c>
@@ -3357,8 +3456,11 @@
       <c r="F35">
         <v>3420</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>412</v>
       </c>
@@ -3377,8 +3479,11 @@
       <c r="F36">
         <v>3558</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>413</v>
       </c>
@@ -3394,8 +3499,11 @@
       <c r="F37">
         <v>3793</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>414</v>
       </c>
@@ -3408,8 +3516,11 @@
       <c r="F38">
         <v>3713</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>415</v>
       </c>
@@ -3419,18 +3530,32 @@
       <c r="F39">
         <v>2893</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>416</v>
       </c>
       <c r="F40">
         <v>2913</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>417</v>
+      </c>
+      <c r="G41">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3440,15 +3565,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3464,795 +3589,959 @@
       <c r="F1">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>Raw!B9*Raw!B$3/Raw!B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>Raw!C9*Raw!C$3/Raw!C$2</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>Raw!D9*Raw!D$3/Raw!D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>Raw!E9*Raw!E$3/Raw!E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>Raw!F9*Raw!F$3/Raw!F$2</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>Raw!G9*Raw!G$3/Raw!G$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
       <c r="B8">
-        <f>Raw!B9*Raw!B$3/Raw!B$2</f>
-        <v>0</v>
+        <f>Raw!B10*Raw!B$3/Raw!B$2</f>
+        <v>4.4089023010184833</v>
       </c>
       <c r="C8">
-        <f>Raw!C9*Raw!C$3/Raw!C$2</f>
-        <v>0</v>
+        <f>Raw!C10*Raw!C$3/Raw!C$2</f>
+        <v>4.4089023010184833</v>
       </c>
       <c r="D8">
-        <f>Raw!D9*Raw!D$3/Raw!D$2</f>
-        <v>0</v>
+        <f>Raw!D10*Raw!D$3/Raw!D$2</f>
+        <v>4.4095776681506438</v>
       </c>
       <c r="E8">
-        <f>Raw!E9*Raw!E$3/Raw!E$2</f>
-        <v>0</v>
+        <f>Raw!E10*Raw!E$3/Raw!E$2</f>
+        <v>4.4754239724058635</v>
       </c>
       <c r="F8">
-        <f>Raw!F9*Raw!F$3/Raw!F$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F10*Raw!F$3/Raw!F$2</f>
+        <v>4.4777385159010601</v>
+      </c>
+      <c r="G8">
+        <f>Raw!G10*Raw!G$3/Raw!G$2</f>
+        <v>4.4735729386892178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
       <c r="B9">
-        <f>Raw!B10*Raw!B$3/Raw!B$2</f>
+        <f>Raw!B11*Raw!B$3/Raw!B$2</f>
         <v>4.4089023010184833</v>
       </c>
       <c r="C9">
-        <f>Raw!C10*Raw!C$3/Raw!C$2</f>
+        <f>Raw!C11*Raw!C$3/Raw!C$2</f>
         <v>4.4089023010184833</v>
       </c>
       <c r="D9">
-        <f>Raw!D10*Raw!D$3/Raw!D$2</f>
+        <f>Raw!D11*Raw!D$3/Raw!D$2</f>
         <v>4.4095776681506438</v>
       </c>
       <c r="E9">
-        <f>Raw!E10*Raw!E$3/Raw!E$2</f>
+        <f>Raw!E11*Raw!E$3/Raw!E$2</f>
         <v>4.4754239724058635</v>
       </c>
       <c r="F9">
-        <f>Raw!F10*Raw!F$3/Raw!F$2</f>
+        <f>Raw!F11*Raw!F$3/Raw!F$2</f>
         <v>4.4777385159010601</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>Raw!G11*Raw!G$3/Raw!G$2</f>
+        <v>4.4735729386892178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
       <c r="B10">
-        <f>Raw!B11*Raw!B$3/Raw!B$2</f>
-        <v>4.4089023010184833</v>
+        <f>Raw!B12*Raw!B$3/Raw!B$2</f>
+        <v>2.9392682006789892</v>
       </c>
       <c r="C10">
-        <f>Raw!C11*Raw!C$3/Raw!C$2</f>
-        <v>4.4089023010184833</v>
+        <f>Raw!C12*Raw!C$3/Raw!C$2</f>
+        <v>2.9392682006789892</v>
       </c>
       <c r="D10">
-        <f>Raw!D11*Raw!D$3/Raw!D$2</f>
-        <v>4.4095776681506438</v>
+        <f>Raw!D12*Raw!D$3/Raw!D$2</f>
+        <v>2.9397184454337624</v>
       </c>
       <c r="E10">
-        <f>Raw!E11*Raw!E$3/Raw!E$2</f>
-        <v>4.4754239724058635</v>
+        <f>Raw!E12*Raw!E$3/Raw!E$2</f>
+        <v>2.9836159816039092</v>
       </c>
       <c r="F10">
-        <f>Raw!F11*Raw!F$3/Raw!F$2</f>
-        <v>4.4777385159010601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F12*Raw!F$3/Raw!F$2</f>
+        <v>2.9851590106007069</v>
+      </c>
+      <c r="G10">
+        <f>Raw!G12*Raw!G$3/Raw!G$2</f>
+        <v>2.9823819591261453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
       <c r="B11">
-        <f>Raw!B12*Raw!B$3/Raw!B$2</f>
-        <v>2.9392682006789892</v>
+        <f>Raw!B13*Raw!B$3/Raw!B$2</f>
+        <v>5.8173016471771657</v>
       </c>
       <c r="C11">
-        <f>Raw!C12*Raw!C$3/Raw!C$2</f>
-        <v>2.9392682006789892</v>
+        <f>Raw!C13*Raw!C$3/Raw!C$2</f>
+        <v>5.8173016471771657</v>
       </c>
       <c r="D11">
-        <f>Raw!D12*Raw!D$3/Raw!D$2</f>
-        <v>2.9397184454337624</v>
+        <f>Raw!D13*Raw!D$3/Raw!D$2</f>
+        <v>4.4095776681506438</v>
       </c>
       <c r="E11">
-        <f>Raw!E12*Raw!E$3/Raw!E$2</f>
-        <v>2.9836159816039092</v>
+        <f>Raw!E13*Raw!E$3/Raw!E$2</f>
+        <v>4.4754239724058635</v>
       </c>
       <c r="F11">
-        <f>Raw!F12*Raw!F$3/Raw!F$2</f>
-        <v>2.9851590106007069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F13*Raw!F$3/Raw!F$2</f>
+        <v>4.4777385159010601</v>
+      </c>
+      <c r="G11">
+        <f>Raw!G13*Raw!G$3/Raw!G$2</f>
+        <v>4.4735729386892178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
       <c r="B12">
-        <f>Raw!B13*Raw!B$3/Raw!B$2</f>
-        <v>5.8173016471771657</v>
+        <f>Raw!B14*Raw!B$3/Raw!B$2</f>
+        <v>7.3481705016974725</v>
       </c>
       <c r="C12">
-        <f>Raw!C13*Raw!C$3/Raw!C$2</f>
-        <v>5.8173016471771657</v>
+        <f>Raw!C14*Raw!C$3/Raw!C$2</f>
+        <v>7.3481705016974725</v>
       </c>
       <c r="D12">
-        <f>Raw!D13*Raw!D$3/Raw!D$2</f>
+        <f>Raw!D14*Raw!D$3/Raw!D$2</f>
         <v>4.4095776681506438</v>
       </c>
       <c r="E12">
-        <f>Raw!E13*Raw!E$3/Raw!E$2</f>
-        <v>4.4754239724058635</v>
+        <f>Raw!E14*Raw!E$3/Raw!E$2</f>
+        <v>5.9672319632078183</v>
       </c>
       <c r="F12">
-        <f>Raw!F13*Raw!F$3/Raw!F$2</f>
-        <v>4.4777385159010601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F14*Raw!F$3/Raw!F$2</f>
+        <v>5.9703180212014137</v>
+      </c>
+      <c r="G12">
+        <f>Raw!G14*Raw!G$3/Raw!G$2</f>
+        <v>5.9647639182522907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
       <c r="B13">
-        <f>Raw!B14*Raw!B$3/Raw!B$2</f>
-        <v>7.3481705016974725</v>
+        <f>Raw!B15*Raw!B$3/Raw!B$2</f>
+        <v>4.4089023010184833</v>
       </c>
       <c r="C13">
-        <f>Raw!C14*Raw!C$3/Raw!C$2</f>
-        <v>7.3481705016974725</v>
+        <f>Raw!C15*Raw!C$3/Raw!C$2</f>
+        <v>4.4089023010184833</v>
       </c>
       <c r="D13">
-        <f>Raw!D14*Raw!D$3/Raw!D$2</f>
+        <f>Raw!D15*Raw!D$3/Raw!D$2</f>
         <v>4.4095776681506438</v>
       </c>
       <c r="E13">
-        <f>Raw!E14*Raw!E$3/Raw!E$2</f>
-        <v>5.9672319632078183</v>
+        <f>Raw!E15*Raw!E$3/Raw!E$2</f>
+        <v>4.4754239724058635</v>
       </c>
       <c r="F13">
-        <f>Raw!F14*Raw!F$3/Raw!F$2</f>
-        <v>5.9703180212014137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F15*Raw!F$3/Raw!F$2</f>
+        <v>4.4777385159010601</v>
+      </c>
+      <c r="G13">
+        <f>Raw!G15*Raw!G$3/Raw!G$2</f>
+        <v>4.4735729386892178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
       <c r="B14">
-        <f>Raw!B15*Raw!B$3/Raw!B$2</f>
-        <v>4.4089023010184833</v>
+        <f>Raw!B16*Raw!B$3/Raw!B$2</f>
+        <v>14.573871495033321</v>
       </c>
       <c r="C14">
-        <f>Raw!C15*Raw!C$3/Raw!C$2</f>
-        <v>4.4089023010184833</v>
+        <f>Raw!C16*Raw!C$3/Raw!C$2</f>
+        <v>14.573871495033321</v>
       </c>
       <c r="D14">
-        <f>Raw!D15*Raw!D$3/Raw!D$2</f>
-        <v>4.4095776681506438</v>
+        <f>Raw!D16*Raw!D$3/Raw!D$2</f>
+        <v>14.576103958609073</v>
       </c>
       <c r="E14">
-        <f>Raw!E15*Raw!E$3/Raw!E$2</f>
-        <v>4.4754239724058635</v>
+        <f>Raw!E16*Raw!E$3/Raw!E$2</f>
+        <v>14.545127910319056</v>
       </c>
       <c r="F14">
-        <f>Raw!F15*Raw!F$3/Raw!F$2</f>
-        <v>4.4777385159010601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F16*Raw!F$3/Raw!F$2</f>
+        <v>16.0452296819788</v>
+      </c>
+      <c r="G14">
+        <f>Raw!G16*Raw!G$3/Raw!G$2</f>
+        <v>16.030303030303031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
       <c r="B15">
-        <f>Raw!B16*Raw!B$3/Raw!B$2</f>
-        <v>14.573871495033321</v>
+        <f>Raw!B17*Raw!B$3/Raw!B$2</f>
+        <v>13.165472148874638</v>
       </c>
       <c r="C15">
-        <f>Raw!C16*Raw!C$3/Raw!C$2</f>
-        <v>14.573871495033321</v>
+        <f>Raw!C17*Raw!C$3/Raw!C$2</f>
+        <v>13.165472148874638</v>
       </c>
       <c r="D15">
-        <f>Raw!D16*Raw!D$3/Raw!D$2</f>
-        <v>14.576103958609073</v>
+        <f>Raw!D17*Raw!D$3/Raw!D$2</f>
+        <v>13.167488870172061</v>
       </c>
       <c r="E15">
-        <f>Raw!E16*Raw!E$3/Raw!E$2</f>
-        <v>14.545127910319056</v>
+        <f>Raw!E17*Raw!E$3/Raw!E$2</f>
+        <v>13.202500718597298</v>
       </c>
       <c r="F15">
-        <f>Raw!F16*Raw!F$3/Raw!F$2</f>
-        <v>16.0452296819788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F17*Raw!F$3/Raw!F$2</f>
+        <v>13.209328621908128</v>
+      </c>
+      <c r="G15">
+        <f>Raw!G17*Raw!G$3/Raw!G$2</f>
+        <v>13.197040169133192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
       <c r="B16">
-        <f>Raw!B17*Raw!B$3/Raw!B$2</f>
-        <v>13.165472148874638</v>
+        <f>Raw!B18*Raw!B$3/Raw!B$2</f>
+        <v>21.922041996730794</v>
       </c>
       <c r="C16">
-        <f>Raw!C17*Raw!C$3/Raw!C$2</f>
-        <v>13.165472148874638</v>
+        <f>Raw!C18*Raw!C$3/Raw!C$2</f>
+        <v>21.922041996730794</v>
       </c>
       <c r="D16">
-        <f>Raw!D17*Raw!D$3/Raw!D$2</f>
-        <v>13.167488870172061</v>
+        <f>Raw!D18*Raw!D$3/Raw!D$2</f>
+        <v>17.515822404042837</v>
       </c>
       <c r="E16">
-        <f>Raw!E17*Raw!E$3/Raw!E$2</f>
-        <v>13.202500718597298</v>
+        <f>Raw!E18*Raw!E$3/Raw!E$2</f>
+        <v>19.02055188272492</v>
       </c>
       <c r="F16">
-        <f>Raw!F17*Raw!F$3/Raw!F$2</f>
-        <v>13.209328621908128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F18*Raw!F$3/Raw!F$2</f>
+        <v>19.030388692579507</v>
+      </c>
+      <c r="G16">
+        <f>Raw!G18*Raw!G$3/Raw!G$2</f>
+        <v>19.012684989429175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
       <c r="B17">
-        <f>Raw!B18*Raw!B$3/Raw!B$2</f>
-        <v>21.922041996730794</v>
+        <f>Raw!B19*Raw!B$3/Raw!B$2</f>
+        <v>45.252483339620269</v>
       </c>
       <c r="C17">
-        <f>Raw!C18*Raw!C$3/Raw!C$2</f>
-        <v>21.922041996730794</v>
+        <f>Raw!C19*Raw!C$3/Raw!C$2</f>
+        <v>45.252483339620269</v>
       </c>
       <c r="D17">
-        <f>Raw!D18*Raw!D$3/Raw!D$2</f>
-        <v>17.515822404042837</v>
+        <f>Raw!D19*Raw!D$3/Raw!D$2</f>
+        <v>36.50150403080255</v>
       </c>
       <c r="E17">
-        <f>Raw!E18*Raw!E$3/Raw!E$2</f>
-        <v>19.02055188272492</v>
+        <f>Raw!E19*Raw!E$3/Raw!E$2</f>
+        <v>36.176343776947398</v>
       </c>
       <c r="F17">
-        <f>Raw!F18*Raw!F$3/Raw!F$2</f>
-        <v>19.030388692579507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F19*Raw!F$3/Raw!F$2</f>
+        <v>36.195053003533566</v>
+      </c>
+      <c r="G17">
+        <f>Raw!G19*Raw!G$3/Raw!G$2</f>
+        <v>36.16138125440451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
       <c r="B18">
-        <f>Raw!B19*Raw!B$3/Raw!B$2</f>
-        <v>45.252483339620269</v>
+        <f>Raw!B20*Raw!B$3/Raw!B$2</f>
+        <v>64.174022381491255</v>
       </c>
       <c r="C18">
-        <f>Raw!C19*Raw!C$3/Raw!C$2</f>
-        <v>45.252483339620269</v>
+        <f>Raw!C20*Raw!C$3/Raw!C$2</f>
+        <v>64.174022381491255</v>
       </c>
       <c r="D18">
-        <f>Raw!D19*Raw!D$3/Raw!D$2</f>
-        <v>36.50150403080255</v>
+        <f>Raw!D20*Raw!D$3/Raw!D$2</f>
+        <v>45.259415232823969</v>
       </c>
       <c r="E18">
-        <f>Raw!E19*Raw!E$3/Raw!E$2</f>
-        <v>36.176343776947398</v>
+        <f>Raw!E20*Raw!E$3/Raw!E$2</f>
+        <v>41.845214141994823</v>
       </c>
       <c r="F18">
-        <f>Raw!F19*Raw!F$3/Raw!F$2</f>
-        <v>36.195053003533566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F20*Raw!F$3/Raw!F$2</f>
+        <v>43.807208480565372</v>
+      </c>
+      <c r="G18">
+        <f>Raw!G20*Raw!G$3/Raw!G$2</f>
+        <v>43.766455250176179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
       <c r="B19">
-        <f>Raw!B20*Raw!B$3/Raw!B$2</f>
-        <v>64.174022381491255</v>
+        <f>Raw!B21*Raw!B$3/Raw!B$2</f>
+        <v>78.747893876524586</v>
       </c>
       <c r="C19">
-        <f>Raw!C20*Raw!C$3/Raw!C$2</f>
-        <v>64.174022381491255</v>
+        <f>Raw!C21*Raw!C$3/Raw!C$2</f>
+        <v>77.339494530365897</v>
       </c>
       <c r="D19">
-        <f>Raw!D20*Raw!D$3/Raw!D$2</f>
-        <v>45.259415232823969</v>
+        <f>Raw!D21*Raw!D$3/Raw!D$2</f>
+        <v>65.6537119480207</v>
       </c>
       <c r="E19">
-        <f>Raw!E20*Raw!E$3/Raw!E$2</f>
-        <v>41.845214141994823</v>
+        <f>Raw!E21*Raw!E$3/Raw!E$2</f>
+        <v>65.639551595286008</v>
       </c>
       <c r="F19">
-        <f>Raw!F20*Raw!F$3/Raw!F$2</f>
-        <v>43.807208480565372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F21*Raw!F$3/Raw!F$2</f>
+        <v>62.762968197879857</v>
+      </c>
+      <c r="G19">
+        <f>Raw!G21*Raw!G$3/Raw!G$2</f>
+        <v>62.779140239605354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
       <c r="B20">
-        <f>Raw!B21*Raw!B$3/Raw!B$2</f>
-        <v>78.747893876524586</v>
+        <f>Raw!B22*Raw!B$3/Raw!B$2</f>
+        <v>87.504463724380741</v>
       </c>
       <c r="C20">
-        <f>Raw!C21*Raw!C$3/Raw!C$2</f>
-        <v>77.339494530365897</v>
+        <f>Raw!C22*Raw!C$3/Raw!C$2</f>
+        <v>87.504463724380741</v>
       </c>
       <c r="D20">
-        <f>Raw!D21*Raw!D$3/Raw!D$2</f>
-        <v>65.6537119480207</v>
+        <f>Raw!D22*Raw!D$3/Raw!D$2</f>
+        <v>71.533148838888224</v>
       </c>
       <c r="E20">
-        <f>Raw!E21*Raw!E$3/Raw!E$2</f>
-        <v>65.639551595286008</v>
+        <f>Raw!E22*Raw!E$3/Raw!E$2</f>
+        <v>71.532193158953717</v>
       </c>
       <c r="F20">
-        <f>Raw!F21*Raw!F$3/Raw!F$2</f>
-        <v>62.762968197879857</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F22*Raw!F$3/Raw!F$2</f>
+        <v>71.569187279151947</v>
+      </c>
+      <c r="G20">
+        <f>Raw!G22*Raw!G$3/Raw!G$2</f>
+        <v>72.844679351656097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
       <c r="B21">
-        <f>Raw!B22*Raw!B$3/Raw!B$2</f>
-        <v>87.504463724380741</v>
+        <f>Raw!B23*Raw!B$3/Raw!B$2</f>
+        <v>110.83490506727021</v>
       </c>
       <c r="C21">
-        <f>Raw!C22*Raw!C$3/Raw!C$2</f>
-        <v>87.504463724380741</v>
+        <f>Raw!C23*Raw!C$3/Raw!C$2</f>
+        <v>110.83490506727021</v>
       </c>
       <c r="D21">
-        <f>Raw!D22*Raw!D$3/Raw!D$2</f>
-        <v>71.533148838888224</v>
+        <f>Raw!D23*Raw!D$3/Raw!D$2</f>
+        <v>96.275779087955726</v>
       </c>
       <c r="E21">
-        <f>Raw!E22*Raw!E$3/Raw!E$2</f>
-        <v>71.532193158953717</v>
+        <f>Raw!E23*Raw!E$3/Raw!E$2</f>
+        <v>99.205231388329977</v>
       </c>
       <c r="F21">
-        <f>Raw!F22*Raw!F$3/Raw!F$2</f>
-        <v>71.569187279151947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F23*Raw!F$3/Raw!F$2</f>
+        <v>94.778798586572435</v>
+      </c>
+      <c r="G21">
+        <f>Raw!G23*Raw!G$3/Raw!G$2</f>
+        <v>96.181818181818187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
       <c r="B22">
-        <f>Raw!B23*Raw!B$3/Raw!B$2</f>
-        <v>110.83490506727021</v>
+        <f>Raw!B24*Raw!B$3/Raw!B$2</f>
+        <v>116.65220671444737</v>
       </c>
       <c r="C22">
-        <f>Raw!C23*Raw!C$3/Raw!C$2</f>
-        <v>110.83490506727021</v>
+        <f>Raw!C24*Raw!C$3/Raw!C$2</f>
+        <v>116.65220671444737</v>
       </c>
       <c r="D22">
-        <f>Raw!D23*Raw!D$3/Raw!D$2</f>
+        <f>Raw!D24*Raw!D$3/Raw!D$2</f>
         <v>96.275779087955726</v>
       </c>
       <c r="E22">
-        <f>Raw!E23*Raw!E$3/Raw!E$2</f>
-        <v>99.205231388329977</v>
+        <f>Raw!E24*Raw!E$3/Raw!E$2</f>
+        <v>96.221615406726073</v>
       </c>
       <c r="F22">
-        <f>Raw!F23*Raw!F$3/Raw!F$2</f>
+        <f>Raw!F24*Raw!F$3/Raw!F$2</f>
         <v>94.778798586572435</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f>Raw!G24*Raw!G$3/Raw!G$2</f>
+        <v>96.181818181818187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
       <c r="B23">
-        <f>Raw!B24*Raw!B$3/Raw!B$2</f>
-        <v>116.65220671444737</v>
+        <f>Raw!B25*Raw!B$3/Raw!B$2</f>
+        <v>151.678486105872</v>
       </c>
       <c r="C23">
-        <f>Raw!C24*Raw!C$3/Raw!C$2</f>
-        <v>116.65220671444737</v>
+        <f>Raw!C25*Raw!C$3/Raw!C$2</f>
+        <v>145.79994970451401</v>
       </c>
       <c r="D23">
-        <f>Raw!D24*Raw!D$3/Raw!D$2</f>
-        <v>96.275779087955726</v>
+        <f>Raw!D25*Raw!D$3/Raw!D$2</f>
+        <v>121.07965347130309</v>
       </c>
       <c r="E23">
-        <f>Raw!E24*Raw!E$3/Raw!E$2</f>
-        <v>96.221615406726073</v>
+        <f>Raw!E25*Raw!E$3/Raw!E$2</f>
+        <v>121.06021845357861</v>
       </c>
       <c r="F23">
-        <f>Raw!F24*Raw!F$3/Raw!F$2</f>
-        <v>94.778798586572435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F25*Raw!F$3/Raw!F$2</f>
+        <v>121.12282685512368</v>
+      </c>
+      <c r="G23">
+        <f>Raw!G25*Raw!G$3/Raw!G$2</f>
+        <v>122.50133897110641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
       <c r="B24">
-        <f>Raw!B25*Raw!B$3/Raw!B$2</f>
-        <v>151.678486105872</v>
+        <f>Raw!B26*Raw!B$3/Raw!B$2</f>
+        <v>223.13944423487993</v>
       </c>
       <c r="C24">
-        <f>Raw!C25*Raw!C$3/Raw!C$2</f>
-        <v>145.79994970451401</v>
+        <f>Raw!C26*Raw!C$3/Raw!C$2</f>
+        <v>217.32214258770276</v>
       </c>
       <c r="D24">
-        <f>Raw!D25*Raw!D$3/Raw!D$2</f>
-        <v>121.07965347130309</v>
+        <f>Raw!D26*Raw!D$3/Raw!D$2</f>
+        <v>195.43003248706535</v>
       </c>
       <c r="E24">
-        <f>Raw!E25*Raw!E$3/Raw!E$2</f>
-        <v>121.06021845357861</v>
+        <f>Raw!E26*Raw!E$3/Raw!E$2</f>
+        <v>198.26128197757976</v>
       </c>
       <c r="F24">
-        <f>Raw!F25*Raw!F$3/Raw!F$2</f>
-        <v>121.12282685512368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F26*Raw!F$3/Raw!F$2</f>
+        <v>194.03533568904592</v>
+      </c>
+      <c r="G24">
+        <f>Raw!G26*Raw!G$3/Raw!G$2</f>
+        <v>195.34601832276252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
       <c r="B25">
-        <f>Raw!B26*Raw!B$3/Raw!B$2</f>
-        <v>223.13944423487993</v>
+        <f>Raw!B27*Raw!B$3/Raw!B$2</f>
+        <v>205.62630453916762</v>
       </c>
       <c r="C25">
-        <f>Raw!C26*Raw!C$3/Raw!C$2</f>
-        <v>217.32214258770276</v>
+        <f>Raw!C27*Raw!C$3/Raw!C$2</f>
+        <v>207.03470388532628</v>
       </c>
       <c r="D25">
-        <f>Raw!D26*Raw!D$3/Raw!D$2</f>
-        <v>195.43003248706535</v>
+        <f>Raw!D27*Raw!D$3/Raw!D$2</f>
+        <v>194.02141739862833</v>
       </c>
       <c r="E25">
-        <f>Raw!E26*Raw!E$3/Raw!E$2</f>
-        <v>198.26128197757976</v>
+        <f>Raw!E27*Raw!E$3/Raw!E$2</f>
+        <v>195.42684679505604</v>
       </c>
       <c r="F25">
-        <f>Raw!F26*Raw!F$3/Raw!F$2</f>
+        <f>Raw!F27*Raw!F$3/Raw!F$2</f>
         <v>194.03533568904592</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f>Raw!G27*Raw!G$3/Raw!G$2</f>
+        <v>195.34601832276252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
       <c r="B26">
-        <f>Raw!B27*Raw!B$3/Raw!B$2</f>
-        <v>205.62630453916762</v>
+        <f>Raw!B28*Raw!B$3/Raw!B$2</f>
+        <v>230.36514522821577</v>
       </c>
       <c r="C26">
-        <f>Raw!C27*Raw!C$3/Raw!C$2</f>
-        <v>207.03470388532628</v>
+        <f>Raw!C28*Raw!C$3/Raw!C$2</f>
+        <v>226.07871243555891</v>
       </c>
       <c r="D26">
-        <f>Raw!D27*Raw!D$3/Raw!D$2</f>
-        <v>194.02141739862833</v>
+        <f>Raw!D28*Raw!D$3/Raw!D$2</f>
+        <v>210.0061364456744</v>
       </c>
       <c r="E26">
-        <f>Raw!E27*Raw!E$3/Raw!E$2</f>
-        <v>195.42684679505604</v>
+        <f>Raw!E28*Raw!E$3/Raw!E$2</f>
+        <v>211.38919229663696</v>
       </c>
       <c r="F26">
-        <f>Raw!F27*Raw!F$3/Raw!F$2</f>
-        <v>194.03533568904592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F28*Raw!F$3/Raw!F$2</f>
+        <v>210.15519434628976</v>
+      </c>
+      <c r="G26">
+        <f>Raw!G28*Raw!G$3/Raw!G$2</f>
+        <v>209.95968992248061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
       <c r="B27">
-        <f>Raw!B28*Raw!B$3/Raw!B$2</f>
-        <v>230.36514522821577</v>
+        <f>Raw!B29*Raw!B$3/Raw!B$2</f>
+        <v>231.89601408273609</v>
       </c>
       <c r="C27">
-        <f>Raw!C28*Raw!C$3/Raw!C$2</f>
-        <v>226.07871243555891</v>
+        <f>Raw!C29*Raw!C$3/Raw!C$2</f>
+        <v>227.4871117817176</v>
       </c>
       <c r="D27">
-        <f>Raw!D28*Raw!D$3/Raw!D$2</f>
+        <f>Raw!D29*Raw!D$3/Raw!D$2</f>
         <v>210.0061364456744</v>
       </c>
       <c r="E27">
-        <f>Raw!E28*Raw!E$3/Raw!E$2</f>
-        <v>211.38919229663696</v>
+        <f>Raw!E29*Raw!E$3/Raw!E$2</f>
+        <v>214.37280827824088</v>
       </c>
       <c r="F27">
-        <f>Raw!F28*Raw!F$3/Raw!F$2</f>
-        <v>210.15519434628976</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F29*Raw!F$3/Raw!F$2</f>
+        <v>211.49851590106007</v>
+      </c>
+      <c r="G27">
+        <f>Raw!G29*Raw!G$3/Raw!G$2</f>
+        <v>209.95968992248061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
       <c r="B28">
-        <f>Raw!B29*Raw!B$3/Raw!B$2</f>
-        <v>231.89601408273609</v>
+        <f>Raw!B30*Raw!B$3/Raw!B$2</f>
+        <v>301.88733811140452</v>
       </c>
       <c r="C28">
-        <f>Raw!C29*Raw!C$3/Raw!C$2</f>
-        <v>227.4871117817176</v>
+        <f>Raw!C30*Raw!C$3/Raw!C$2</f>
+        <v>297.47843581038603</v>
       </c>
       <c r="D28">
-        <f>Raw!D29*Raw!D$3/Raw!D$2</f>
-        <v>210.0061364456744</v>
+        <f>Raw!D30*Raw!D$3/Raw!D$2</f>
+        <v>274.18998917097821</v>
       </c>
       <c r="E28">
-        <f>Raw!E29*Raw!E$3/Raw!E$2</f>
-        <v>214.37280827824088</v>
+        <f>Raw!E30*Raw!E$3/Raw!E$2</f>
+        <v>276.95415349238289</v>
       </c>
       <c r="F28">
-        <f>Raw!F29*Raw!F$3/Raw!F$2</f>
-        <v>211.49851590106007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F30*Raw!F$3/Raw!F$2</f>
+        <v>268.44042402826852</v>
+      </c>
+      <c r="G28">
+        <f>Raw!G30*Raw!G$3/Raw!G$2</f>
+        <v>265.28287526427061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
       <c r="B29">
-        <f>Raw!B30*Raw!B$3/Raw!B$2</f>
-        <v>301.88733811140452</v>
+        <f>Raw!B31*Raw!B$3/Raw!B$2</f>
+        <v>297.47843581038603</v>
       </c>
       <c r="C29">
-        <f>Raw!C30*Raw!C$3/Raw!C$2</f>
+        <f>Raw!C31*Raw!C$3/Raw!C$2</f>
         <v>297.47843581038603</v>
       </c>
       <c r="D29">
-        <f>Raw!D30*Raw!D$3/Raw!D$2</f>
+        <f>Raw!D31*Raw!D$3/Raw!D$2</f>
         <v>274.18998917097821</v>
       </c>
       <c r="E29">
-        <f>Raw!E30*Raw!E$3/Raw!E$2</f>
-        <v>276.95415349238289</v>
+        <f>Raw!E31*Raw!E$3/Raw!E$2</f>
+        <v>274.11971830985914</v>
       </c>
       <c r="F29">
-        <f>Raw!F30*Raw!F$3/Raw!F$2</f>
-        <v>268.44042402826852</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F31*Raw!F$3/Raw!F$2</f>
+        <v>266.94784452296818</v>
+      </c>
+      <c r="G29">
+        <f>Raw!G31*Raw!G$3/Raw!G$2</f>
+        <v>266.77406624383366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
       <c r="B30">
-        <f>Raw!B31*Raw!B$3/Raw!B$2</f>
-        <v>297.47843581038603</v>
+        <f>Raw!B32*Raw!B$3/Raw!B$2</f>
+        <v>285.78259776185087</v>
       </c>
       <c r="C30">
-        <f>Raw!C31*Raw!C$3/Raw!C$2</f>
-        <v>297.47843581038603</v>
+        <f>Raw!C32*Raw!C$3/Raw!C$2</f>
+        <v>285.78259776185087</v>
       </c>
       <c r="D30">
-        <f>Raw!D31*Raw!D$3/Raw!D$2</f>
-        <v>274.18998917097821</v>
+        <f>Raw!D32*Raw!D$3/Raw!D$2</f>
+        <v>262.49235952352302</v>
       </c>
       <c r="E30">
-        <f>Raw!E31*Raw!E$3/Raw!E$2</f>
-        <v>274.11971830985914</v>
+        <f>Raw!E32*Raw!E$3/Raw!E$2</f>
+        <v>261.06639839034204</v>
       </c>
       <c r="F30">
-        <f>Raw!F31*Raw!F$3/Raw!F$2</f>
-        <v>266.94784452296818</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F32*Raw!F$3/Raw!F$2</f>
+        <v>255.23109540636042</v>
+      </c>
+      <c r="G30">
+        <f>Raw!G32*Raw!G$3/Raw!G$2</f>
+        <v>253.65158562367864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
       <c r="B31">
-        <f>Raw!B32*Raw!B$3/Raw!B$2</f>
-        <v>285.78259776185087</v>
+        <f>Raw!B33*Raw!B$3/Raw!B$2</f>
+        <v>320.80887715327549</v>
       </c>
       <c r="C31">
-        <f>Raw!C32*Raw!C$3/Raw!C$2</f>
-        <v>285.78259776185087</v>
+        <f>Raw!C33*Raw!C$3/Raw!C$2</f>
+        <v>303.29573745756318</v>
       </c>
       <c r="D31">
-        <f>Raw!D32*Raw!D$3/Raw!D$2</f>
-        <v>262.49235952352302</v>
+        <f>Raw!D33*Raw!D$3/Raw!D$2</f>
+        <v>282.94790037299964</v>
       </c>
       <c r="E31">
-        <f>Raw!E32*Raw!E$3/Raw!E$2</f>
-        <v>261.06639839034204</v>
+        <f>Raw!E33*Raw!E$3/Raw!E$2</f>
+        <v>275.61152630066113</v>
       </c>
       <c r="F31">
-        <f>Raw!F32*Raw!F$3/Raw!F$2</f>
-        <v>255.23109540636042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F33*Raw!F$3/Raw!F$2</f>
+        <v>268.44042402826852</v>
+      </c>
+      <c r="G31">
+        <f>Raw!G33*Raw!G$3/Raw!G$2</f>
+        <v>260.95842142353769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
       <c r="B32">
-        <f>Raw!B33*Raw!B$3/Raw!B$2</f>
-        <v>320.80887715327549</v>
+        <f>Raw!B34*Raw!B$3/Raw!B$2</f>
+        <v>296.07003646422731</v>
       </c>
       <c r="C32">
-        <f>Raw!C33*Raw!C$3/Raw!C$2</f>
-        <v>303.29573745756318</v>
+        <f>Raw!C34*Raw!C$3/Raw!C$2</f>
+        <v>304.82660631208347</v>
       </c>
       <c r="D32">
-        <f>Raw!D33*Raw!D$3/Raw!D$2</f>
+        <f>Raw!D34*Raw!D$3/Raw!D$2</f>
         <v>282.94790037299964</v>
       </c>
       <c r="E32">
-        <f>Raw!E33*Raw!E$3/Raw!E$2</f>
-        <v>275.61152630066113</v>
+        <f>Raw!E34*Raw!E$3/Raw!E$2</f>
+        <v>272.62791031905721</v>
       </c>
       <c r="F32">
-        <f>Raw!F33*Raw!F$3/Raw!F$2</f>
-        <v>268.44042402826852</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F34*Raw!F$3/Raw!F$2</f>
+        <v>256.72367491166079</v>
+      </c>
+      <c r="G32">
+        <f>Raw!G34*Raw!G$3/Raw!G$2</f>
+        <v>250.6692036645525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
       <c r="B33">
-        <f>Raw!B34*Raw!B$3/Raw!B$2</f>
-        <v>296.07003646422731</v>
+        <f>Raw!B35*Raw!B$3/Raw!B$2</f>
+        <v>303.29573745756318</v>
       </c>
       <c r="C33">
-        <f>Raw!C34*Raw!C$3/Raw!C$2</f>
+        <f>Raw!C35*Raw!C$3/Raw!C$2</f>
         <v>304.82660631208347</v>
       </c>
       <c r="D33">
-        <f>Raw!D34*Raw!D$3/Raw!D$2</f>
-        <v>282.94790037299964</v>
+        <f>Raw!D35*Raw!D$3/Raw!D$2</f>
+        <v>275.65984839369509</v>
       </c>
       <c r="E33">
-        <f>Raw!E34*Raw!E$3/Raw!E$2</f>
-        <v>272.62791031905721</v>
+        <f>Raw!E35*Raw!E$3/Raw!E$2</f>
+        <v>266.88444955446965</v>
       </c>
       <c r="F33">
-        <f>Raw!F34*Raw!F$3/Raw!F$2</f>
-        <v>256.72367491166079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F35*Raw!F$3/Raw!F$2</f>
+        <v>255.23109540636042</v>
+      </c>
+      <c r="G33">
+        <f>Raw!G35*Raw!G$3/Raw!G$2</f>
+        <v>249.17801268498943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
       <c r="B34">
-        <f>Raw!B35*Raw!B$3/Raw!B$2</f>
-        <v>303.29573745756318</v>
+        <f>Raw!B36*Raw!B$3/Raw!B$2</f>
+        <v>297.47843581038603</v>
       </c>
       <c r="C34">
-        <f>Raw!C35*Raw!C$3/Raw!C$2</f>
-        <v>304.82660631208347</v>
+        <f>Raw!C36*Raw!C$3/Raw!C$2</f>
+        <v>320.80887715327549</v>
       </c>
       <c r="D34">
-        <f>Raw!D35*Raw!D$3/Raw!D$2</f>
-        <v>275.65984839369509</v>
+        <f>Raw!D36*Raw!D$3/Raw!D$2</f>
+        <v>290.29719648658403</v>
       </c>
       <c r="E34">
-        <f>Raw!E35*Raw!E$3/Raw!E$2</f>
-        <v>266.88444955446965</v>
+        <f>Raw!E36*Raw!E$3/Raw!E$2</f>
+        <v>287.24762862891635</v>
       </c>
       <c r="F34">
-        <f>Raw!F35*Raw!F$3/Raw!F$2</f>
-        <v>255.23109540636042</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F36*Raw!F$3/Raw!F$2</f>
+        <v>265.52989399293284</v>
+      </c>
+      <c r="G34">
+        <f>Raw!G36*Raw!G$3/Raw!G$2</f>
+        <v>257.97603946441154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
       <c r="B35">
-        <f>Raw!B36*Raw!B$3/Raw!B$2</f>
-        <v>297.47843581038603</v>
+        <f>Raw!B37*Raw!B$3/Raw!B$2</f>
+        <v>0</v>
       </c>
       <c r="C35">
-        <f>Raw!C36*Raw!C$3/Raw!C$2</f>
-        <v>320.80887715327549</v>
+        <f>Raw!C37*Raw!C$3/Raw!C$2</f>
+        <v>287.31346661637116</v>
       </c>
       <c r="D35">
-        <f>Raw!D36*Raw!D$3/Raw!D$2</f>
-        <v>290.29719648658403</v>
+        <f>Raw!D37*Raw!D$3/Raw!D$2</f>
+        <v>282.94790037299964</v>
       </c>
       <c r="E35">
-        <f>Raw!E36*Raw!E$3/Raw!E$2</f>
-        <v>287.24762862891635</v>
+        <f>Raw!E37*Raw!E$3/Raw!E$2</f>
+        <v>316.41247484909456</v>
       </c>
       <c r="F35">
-        <f>Raw!F36*Raw!F$3/Raw!F$2</f>
-        <v>265.52989399293284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F37*Raw!F$3/Raw!F$2</f>
+        <v>283.06770318021199</v>
+      </c>
+      <c r="G35">
+        <f>Raw!G37*Raw!G$3/Raw!G$2</f>
+        <v>274.0063424947146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
       <c r="C36">
-        <f>Raw!C37*Raw!C$3/Raw!C$2</f>
-        <v>287.31346661637116</v>
+        <f>Raw!C38*Raw!C$3/Raw!C$2</f>
+        <v>0</v>
       </c>
       <c r="D36">
-        <f>Raw!D37*Raw!D$3/Raw!D$2</f>
-        <v>282.94790037299964</v>
+        <f>Raw!D38*Raw!D$3/Raw!D$2</f>
+        <v>239.15834436289256</v>
       </c>
       <c r="E36">
-        <f>Raw!E37*Raw!E$3/Raw!E$2</f>
-        <v>316.41247484909456</v>
+        <f>Raw!E38*Raw!E$3/Raw!E$2</f>
+        <v>317.9042828398965</v>
       </c>
       <c r="F36">
-        <f>Raw!F37*Raw!F$3/Raw!F$2</f>
-        <v>283.06770318021199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F38*Raw!F$3/Raw!F$2</f>
+        <v>277.09738515901063</v>
+      </c>
+      <c r="G36">
+        <f>Raw!G38*Raw!G$3/Raw!G$2</f>
+        <v>265.28287526427061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
       <c r="D37">
-        <f>Raw!D38*Raw!D$3/Raw!D$2</f>
-        <v>239.15834436289256</v>
+        <f>Raw!D39*Raw!D$3/Raw!D$2</f>
+        <v>0</v>
       </c>
       <c r="E37">
-        <f>Raw!E38*Raw!E$3/Raw!E$2</f>
-        <v>317.9042828398965</v>
+        <f>Raw!E39*Raw!E$3/Raw!E$2</f>
+        <v>278.44596148318482</v>
       </c>
       <c r="F37">
-        <f>Raw!F38*Raw!F$3/Raw!F$2</f>
-        <v>277.09738515901063</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F39*Raw!F$3/Raw!F$2</f>
+        <v>215.90162544169613</v>
+      </c>
+      <c r="G37">
+        <f>Raw!G39*Raw!G$3/Raw!G$2</f>
+        <v>199.67047216349542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
       <c r="E38">
-        <f>Raw!E39*Raw!E$3/Raw!E$2</f>
-        <v>278.44596148318482</v>
+        <f>Raw!E40*Raw!E$3/Raw!E$2</f>
+        <v>0</v>
       </c>
       <c r="F38">
-        <f>Raw!F39*Raw!F$3/Raw!F$2</f>
-        <v>215.90162544169613</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <f>Raw!F40*Raw!F$3/Raw!F$2</f>
+        <v>217.39420494699647</v>
+      </c>
+      <c r="G38">
+        <f>Raw!G40*Raw!G$3/Raw!G$2</f>
+        <v>249.17801268498943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
       <c r="F39">
-        <f>Raw!F40*Raw!F$3/Raw!F$2</f>
-        <v>217.39420494699647</v>
+        <f>Raw!F41*Raw!F$3/Raw!F$2</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>Raw!G41*Raw!G$3/Raw!G$2</f>
+        <v>179.31571529245949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>418</v>
+      </c>
+      <c r="G40">
+        <f>Raw!G42*Raw!G$3/Raw!G$2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4262,15 +4551,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11:X48"/>
+    <sheetView topLeftCell="J31" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11:Y49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -4340,8 +4629,11 @@
       <c r="X1">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -4414,8 +4706,11 @@
       <c r="X2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -4488,8 +4783,11 @@
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -4562,8 +4860,11 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -4636,8 +4937,11 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -4710,8 +5014,11 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -4784,8 +5091,11 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -4858,8 +5168,11 @@
       <c r="X8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -4932,8 +5245,11 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -5006,8 +5322,11 @@
       <c r="X10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -5080,8 +5399,11 @@
       <c r="X11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -5154,8 +5476,11 @@
       <c r="X12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -5228,8 +5553,11 @@
       <c r="X13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -5302,8 +5630,11 @@
       <c r="X14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -5376,8 +5707,11 @@
       <c r="X15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -5450,8 +5784,11 @@
       <c r="X16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -5524,8 +5861,11 @@
       <c r="X17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -5598,8 +5938,11 @@
       <c r="X18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -5672,8 +6015,11 @@
       <c r="X19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -5746,8 +6092,11 @@
       <c r="X20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -5820,8 +6169,11 @@
       <c r="X21">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -5894,8 +6246,11 @@
       <c r="X22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -5968,8 +6323,11 @@
       <c r="X23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -6042,8 +6400,11 @@
       <c r="X24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -6116,8 +6477,11 @@
       <c r="X25">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -6187,8 +6551,11 @@
       <c r="X26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -6255,8 +6622,11 @@
       <c r="X27">
         <v>205</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -6320,8 +6690,11 @@
       <c r="X28">
         <v>256</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -6385,8 +6758,11 @@
       <c r="X29">
         <v>274</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -6450,8 +6826,11 @@
       <c r="X30">
         <v>299</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -6512,8 +6891,11 @@
       <c r="X31">
         <v>356</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y31">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -6571,8 +6953,11 @@
       <c r="X32">
         <v>399</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y32">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -6627,8 +7012,11 @@
       <c r="X33">
         <v>431</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y33">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -6680,8 +7068,11 @@
       <c r="X34">
         <v>439</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y34">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -6730,8 +7121,11 @@
       <c r="X35">
         <v>446</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -6777,8 +7171,11 @@
       <c r="X36">
         <v>500</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y36">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -6821,8 +7218,11 @@
       <c r="X37">
         <v>506</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y37">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -6862,8 +7262,11 @@
       <c r="X38">
         <v>528</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y38">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -6900,8 +7303,11 @@
       <c r="X39">
         <v>454</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y39">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -6935,8 +7341,11 @@
       <c r="X40">
         <v>424</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y40">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -6967,8 +7376,11 @@
       <c r="X41">
         <v>396</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -6996,8 +7408,11 @@
       <c r="X42">
         <v>381</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -7022,8 +7437,11 @@
       <c r="X43">
         <v>382</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -7045,8 +7463,11 @@
       <c r="X44">
         <v>354</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y44">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -7062,8 +7483,11 @@
       <c r="X45">
         <v>279</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -7076,8 +7500,11 @@
       <c r="X46">
         <v>206</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y46">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -7087,13 +7514,27 @@
       <c r="X47">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y47">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
       <c r="X48">
         <v>14</v>
+      </c>
+      <c r="Y48">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>418</v>
+      </c>
+      <c r="Y49">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7103,15 +7544,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -7127,8 +7568,11 @@
       <c r="F1">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -7152,8 +7596,12 @@
         <f>Confirmed!X11+Daily!F2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>Confirmed!Y11+Daily!G2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -7177,8 +7625,12 @@
         <f>Confirmed!X12+Daily!F3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>Confirmed!Y12+Daily!G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -7202,8 +7654,12 @@
         <f>Confirmed!X13+Daily!F4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f>Confirmed!Y13+Daily!G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -7227,8 +7683,12 @@
         <f>Confirmed!X14+Daily!F5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f>Confirmed!Y14+Daily!G5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -7252,8 +7712,12 @@
         <f>Confirmed!X15+Daily!F6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f>Confirmed!Y15+Daily!G6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -7277,33 +7741,41 @@
         <f>Confirmed!X16+Daily!F7</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>Confirmed!Y16+Daily!G7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
       <c r="B8">
         <f>Confirmed!T17+Daily!B8</f>
-        <v>7</v>
+        <v>11.408902301018482</v>
       </c>
       <c r="C8">
         <f>Confirmed!U17+Daily!C8</f>
-        <v>7</v>
+        <v>11.408902301018482</v>
       </c>
       <c r="D8">
         <f>Confirmed!V17+Daily!D8</f>
-        <v>7</v>
+        <v>11.409577668150643</v>
       </c>
       <c r="E8">
         <f>Confirmed!W17+Daily!E8</f>
-        <v>7</v>
+        <v>11.475423972405864</v>
       </c>
       <c r="F8">
         <f>Confirmed!X17+Daily!F8</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11.477738515901059</v>
+      </c>
+      <c r="G8">
+        <f>Confirmed!Y17+Daily!G8</f>
+        <v>11.473572938689218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -7327,68 +7799,80 @@
         <f>Confirmed!X18+Daily!F9</f>
         <v>25.477738515901059</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>Confirmed!Y18+Daily!G9</f>
+        <v>25.473572938689216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
       <c r="B10">
         <f>Confirmed!T19+Daily!B10</f>
-        <v>29.408902301018482</v>
+        <v>27.939268200678988</v>
       </c>
       <c r="C10">
         <f>Confirmed!U19+Daily!C10</f>
-        <v>29.408902301018482</v>
+        <v>27.939268200678988</v>
       </c>
       <c r="D10">
         <f>Confirmed!V19+Daily!D10</f>
-        <v>29.409577668150643</v>
+        <v>27.939718445433762</v>
       </c>
       <c r="E10">
         <f>Confirmed!W19+Daily!E10</f>
-        <v>29.475423972405864</v>
+        <v>27.983615981603908</v>
       </c>
       <c r="F10">
         <f>Confirmed!X19+Daily!F10</f>
-        <v>29.477738515901059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27.985159010600707</v>
+      </c>
+      <c r="G10">
+        <f>Confirmed!Y19+Daily!G10</f>
+        <v>27.982381959126144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
       <c r="B11">
         <f>Confirmed!T20+Daily!B11</f>
-        <v>47.939268200678988</v>
+        <v>50.817301647177167</v>
       </c>
       <c r="C11">
         <f>Confirmed!U20+Daily!C11</f>
-        <v>47.939268200678988</v>
+        <v>50.817301647177167</v>
       </c>
       <c r="D11">
         <f>Confirmed!V20+Daily!D11</f>
-        <v>48.939718445433762</v>
+        <v>50.409577668150646</v>
       </c>
       <c r="E11">
         <f>Confirmed!W20+Daily!E11</f>
-        <v>48.983615981603911</v>
+        <v>50.475423972405864</v>
       </c>
       <c r="F11">
         <f>Confirmed!X20+Daily!F11</f>
-        <v>48.985159010600704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50.477738515901059</v>
+      </c>
+      <c r="G11">
+        <f>Confirmed!Y20+Daily!G11</f>
+        <v>50.473572938689216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
       <c r="B12">
         <f>Confirmed!T21+Daily!B12</f>
-        <v>41.817301647177167</v>
+        <v>43.348170501697474</v>
       </c>
       <c r="C12">
         <f>Confirmed!U21+Daily!C12</f>
-        <v>41.817301647177167</v>
+        <v>43.348170501697474</v>
       </c>
       <c r="D12">
         <f>Confirmed!V21+Daily!D12</f>
@@ -7396,24 +7880,28 @@
       </c>
       <c r="E12">
         <f>Confirmed!W21+Daily!E12</f>
-        <v>44.475423972405864</v>
+        <v>45.967231963207816</v>
       </c>
       <c r="F12">
         <f>Confirmed!X21+Daily!F12</f>
-        <v>44.477738515901059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45.970318021201415</v>
+      </c>
+      <c r="G12">
+        <f>Confirmed!Y21+Daily!G12</f>
+        <v>45.964763918252288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
       <c r="B13">
         <f>Confirmed!T22+Daily!B13</f>
-        <v>52.348170501697474</v>
+        <v>49.408902301018486</v>
       </c>
       <c r="C13">
         <f>Confirmed!U22+Daily!C13</f>
-        <v>52.348170501697474</v>
+        <v>49.408902301018486</v>
       </c>
       <c r="D13">
         <f>Confirmed!V22+Daily!D13</f>
@@ -7421,224 +7909,260 @@
       </c>
       <c r="E13">
         <f>Confirmed!W22+Daily!E13</f>
-        <v>51.967231963207816</v>
+        <v>50.475423972405864</v>
       </c>
       <c r="F13">
         <f>Confirmed!X22+Daily!F13</f>
-        <v>53.970318021201415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52.477738515901059</v>
+      </c>
+      <c r="G13">
+        <f>Confirmed!Y22+Daily!G13</f>
+        <v>52.473572938689216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
       <c r="B14">
         <f>Confirmed!T23+Daily!B14</f>
-        <v>84.408902301018486</v>
+        <v>94.573871495033316</v>
       </c>
       <c r="C14">
         <f>Confirmed!U23+Daily!C14</f>
-        <v>84.408902301018486</v>
+        <v>94.573871495033316</v>
       </c>
       <c r="D14">
         <f>Confirmed!V23+Daily!D14</f>
-        <v>85.409577668150646</v>
+        <v>95.576103958609067</v>
       </c>
       <c r="E14">
         <f>Confirmed!W23+Daily!E14</f>
-        <v>85.475423972405864</v>
+        <v>95.545127910319053</v>
       </c>
       <c r="F14">
         <f>Confirmed!X23+Daily!F14</f>
-        <v>85.477738515901066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97.045229681978796</v>
+      </c>
+      <c r="G14">
+        <f>Confirmed!Y23+Daily!G14</f>
+        <v>97.030303030303031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
       <c r="B15">
         <f>Confirmed!T24+Daily!B15</f>
-        <v>104.57387149503332</v>
+        <v>103.16547214887464</v>
       </c>
       <c r="C15">
         <f>Confirmed!U24+Daily!C15</f>
-        <v>104.57387149503332</v>
+        <v>103.16547214887464</v>
       </c>
       <c r="D15">
         <f>Confirmed!V24+Daily!D15</f>
-        <v>106.57610395860907</v>
+        <v>105.16748887017206</v>
       </c>
       <c r="E15">
         <f>Confirmed!W24+Daily!E15</f>
-        <v>106.54512791031905</v>
+        <v>105.20250071859729</v>
       </c>
       <c r="F15">
         <f>Confirmed!X24+Daily!F15</f>
-        <v>108.0452296819788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>105.20932862190813</v>
+      </c>
+      <c r="G15">
+        <f>Confirmed!Y24+Daily!G15</f>
+        <v>105.19704016913319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
       <c r="B16">
         <f>Confirmed!T25+Daily!B16</f>
-        <v>126.16547214887464</v>
+        <v>134.9220419967308</v>
       </c>
       <c r="C16">
         <f>Confirmed!U25+Daily!C16</f>
-        <v>126.16547214887464</v>
+        <v>134.9220419967308</v>
       </c>
       <c r="D16">
         <f>Confirmed!V25+Daily!D16</f>
-        <v>128.16748887017206</v>
+        <v>132.51582240404284</v>
       </c>
       <c r="E16">
         <f>Confirmed!W25+Daily!E16</f>
-        <v>132.20250071859729</v>
+        <v>138.02055188272493</v>
       </c>
       <c r="F16">
         <f>Confirmed!X25+Daily!F16</f>
-        <v>133.20932862190813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139.03038869257949</v>
+      </c>
+      <c r="G16">
+        <f>Confirmed!Y25+Daily!G16</f>
+        <v>139.01268498942918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
       <c r="B17">
         <f>Confirmed!T26+Daily!B17</f>
-        <v>194.9220419967308</v>
+        <v>218.25248333962026</v>
       </c>
       <c r="C17">
         <f>Confirmed!U26+Daily!C17</f>
-        <v>194.9220419967308</v>
+        <v>218.25248333962026</v>
       </c>
       <c r="D17">
         <f>Confirmed!V26+Daily!D17</f>
-        <v>195.51582240404284</v>
+        <v>214.50150403080255</v>
       </c>
       <c r="E17">
         <f>Confirmed!W26+Daily!E17</f>
-        <v>203.02055188272493</v>
+        <v>220.17634377694739</v>
       </c>
       <c r="F17">
         <f>Confirmed!X26+Daily!F17</f>
-        <v>204.03038869257949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>221.19505300353356</v>
+      </c>
+      <c r="G17">
+        <f>Confirmed!Y26+Daily!G17</f>
+        <v>221.16138125440452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
       <c r="B18">
         <f>Confirmed!T27+Daily!B18</f>
-        <v>229.25248333962026</v>
+        <v>248.17402238149126</v>
       </c>
       <c r="C18">
         <f>Confirmed!U27+Daily!C18</f>
-        <v>229.25248333962026</v>
+        <v>248.17402238149126</v>
       </c>
       <c r="D18">
         <f>Confirmed!V27+Daily!D18</f>
-        <v>234.50150403080255</v>
+        <v>243.25941523282398</v>
       </c>
       <c r="E18">
         <f>Confirmed!W27+Daily!E18</f>
-        <v>239.17634377694739</v>
+        <v>244.84521414199483</v>
       </c>
       <c r="F18">
         <f>Confirmed!X27+Daily!F18</f>
-        <v>241.19505300353356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>248.80720848056538</v>
+      </c>
+      <c r="G18">
+        <f>Confirmed!Y27+Daily!G18</f>
+        <v>248.76645525017619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
       <c r="B19">
         <f>Confirmed!T28+Daily!B19</f>
-        <v>300.17402238149123</v>
+        <v>314.74789387652459</v>
       </c>
       <c r="C19">
         <f>Confirmed!U28+Daily!C19</f>
-        <v>300.17402238149123</v>
+        <v>313.33949453036587</v>
       </c>
       <c r="D19">
         <f>Confirmed!V28+Daily!D19</f>
-        <v>292.25941523282398</v>
+        <v>312.65371194802071</v>
       </c>
       <c r="E19">
         <f>Confirmed!W28+Daily!E19</f>
-        <v>294.8452141419948</v>
+        <v>318.63955159528598</v>
       </c>
       <c r="F19">
         <f>Confirmed!X28+Daily!F19</f>
-        <v>299.80720848056535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318.76296819787984</v>
+      </c>
+      <c r="G19">
+        <f>Confirmed!Y28+Daily!G19</f>
+        <v>318.77914023960534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
       <c r="B20">
         <f>Confirmed!T29+Daily!B20</f>
-        <v>333.74789387652459</v>
+        <v>342.50446372438074</v>
       </c>
       <c r="C20">
         <f>Confirmed!U29+Daily!C20</f>
-        <v>332.33949453036587</v>
+        <v>342.50446372438074</v>
       </c>
       <c r="D20">
         <f>Confirmed!V29+Daily!D20</f>
-        <v>328.65371194802071</v>
+        <v>334.53314883888822</v>
       </c>
       <c r="E20">
         <f>Confirmed!W29+Daily!E20</f>
-        <v>339.63955159528598</v>
+        <v>345.5321931589537</v>
       </c>
       <c r="F20">
         <f>Confirmed!X29+Daily!F20</f>
-        <v>336.76296819787984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>345.56918727915195</v>
+      </c>
+      <c r="G20">
+        <f>Confirmed!Y29+Daily!G20</f>
+        <v>346.84467935165611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
       <c r="B21">
         <f>Confirmed!T30+Daily!B21</f>
-        <v>364.50446372438074</v>
+        <v>387.8349050672702</v>
       </c>
       <c r="C21">
         <f>Confirmed!U30+Daily!C21</f>
-        <v>364.50446372438074</v>
+        <v>387.8349050672702</v>
       </c>
       <c r="D21">
         <f>Confirmed!V30+Daily!D21</f>
-        <v>358.53314883888822</v>
+        <v>383.2757790879557</v>
       </c>
       <c r="E21">
         <f>Confirmed!W30+Daily!E21</f>
-        <v>366.5321931589537</v>
+        <v>394.20523138832999</v>
       </c>
       <c r="F21">
         <f>Confirmed!X30+Daily!F21</f>
-        <v>370.56918727915195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>393.77879858657241</v>
+      </c>
+      <c r="G21">
+        <f>Confirmed!Y30+Daily!G21</f>
+        <v>396.18181818181819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
       <c r="B22">
         <f>Confirmed!T31+Daily!B22</f>
-        <v>439.8349050672702</v>
+        <v>445.6522067144474</v>
       </c>
       <c r="C22">
         <f>Confirmed!U31+Daily!C22</f>
-        <v>439.8349050672702</v>
+        <v>445.6522067144474</v>
       </c>
       <c r="D22">
         <f>Confirmed!V31+Daily!D22</f>
@@ -7646,124 +8170,144 @@
       </c>
       <c r="E22">
         <f>Confirmed!W31+Daily!E22</f>
-        <v>454.20523138832999</v>
+        <v>451.22161540672607</v>
       </c>
       <c r="F22">
         <f>Confirmed!X31+Daily!F22</f>
         <v>450.77879858657241</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f>Confirmed!Y31+Daily!G22</f>
+        <v>452.18181818181819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
       <c r="B23">
         <f>Confirmed!T32+Daily!B23</f>
-        <v>482.6522067144474</v>
+        <v>517.67848610587203</v>
       </c>
       <c r="C23">
         <f>Confirmed!U32+Daily!C23</f>
-        <v>482.6522067144474</v>
+        <v>511.79994970451401</v>
       </c>
       <c r="D23">
         <f>Confirmed!V32+Daily!D23</f>
-        <v>479.2757790879557</v>
+        <v>504.07965347130312</v>
       </c>
       <c r="E23">
         <f>Confirmed!W32+Daily!E23</f>
-        <v>492.22161540672607</v>
+        <v>517.06021845357861</v>
       </c>
       <c r="F23">
         <f>Confirmed!X32+Daily!F23</f>
-        <v>493.77879858657241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>520.12282685512366</v>
+      </c>
+      <c r="G23">
+        <f>Confirmed!Y32+Daily!G23</f>
+        <v>523.50133897110641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
       <c r="B24">
         <f>Confirmed!T33+Daily!B24</f>
-        <v>549.67848610587203</v>
+        <v>621.13944423487987</v>
       </c>
       <c r="C24">
         <f>Confirmed!U33+Daily!C24</f>
-        <v>544.79994970451401</v>
+        <v>616.32214258770273</v>
       </c>
       <c r="D24">
         <f>Confirmed!V33+Daily!D24</f>
-        <v>532.07965347130312</v>
+        <v>606.43003248706532</v>
       </c>
       <c r="E24">
         <f>Confirmed!W33+Daily!E24</f>
-        <v>548.06021845357861</v>
+        <v>625.26128197757976</v>
       </c>
       <c r="F24">
         <f>Confirmed!X33+Daily!F24</f>
-        <v>552.12282685512366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>625.03533568904595</v>
+      </c>
+      <c r="G24">
+        <f>Confirmed!Y33+Daily!G24</f>
+        <v>628.34601832276257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
       <c r="B25">
         <f>Confirmed!T34+Daily!B25</f>
-        <v>643.13944423487987</v>
+        <v>625.62630453916768</v>
       </c>
       <c r="C25">
         <f>Confirmed!U34+Daily!C25</f>
-        <v>638.32214258770273</v>
+        <v>628.03470388532628</v>
       </c>
       <c r="D25">
         <f>Confirmed!V34+Daily!D25</f>
-        <v>624.43003248706532</v>
+        <v>623.02141739862827</v>
       </c>
       <c r="E25">
         <f>Confirmed!W34+Daily!E25</f>
-        <v>634.26128197757976</v>
+        <v>631.42684679505601</v>
       </c>
       <c r="F25">
         <f>Confirmed!X34+Daily!F25</f>
         <v>633.03533568904595</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f>Confirmed!Y34+Daily!G25</f>
+        <v>636.34601832276257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
       <c r="B26">
         <f>Confirmed!T35+Daily!B26</f>
-        <v>626.62630453916768</v>
+        <v>651.36514522821574</v>
       </c>
       <c r="C26">
         <f>Confirmed!U35+Daily!C26</f>
-        <v>628.03470388532628</v>
+        <v>647.07871243555894</v>
       </c>
       <c r="D26">
         <f>Confirmed!V35+Daily!D26</f>
-        <v>628.02141739862827</v>
+        <v>644.00613644567443</v>
       </c>
       <c r="E26">
         <f>Confirmed!W35+Daily!E26</f>
-        <v>638.42684679505601</v>
+        <v>654.38919229663702</v>
       </c>
       <c r="F26">
         <f>Confirmed!X35+Daily!F26</f>
-        <v>640.03533568904595</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>656.15519434628982</v>
+      </c>
+      <c r="G26">
+        <f>Confirmed!Y35+Daily!G26</f>
+        <v>655.95968992248061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
       <c r="B27">
         <f>Confirmed!T36+Daily!B27</f>
-        <v>703.36514522821574</v>
+        <v>704.89601408273609</v>
       </c>
       <c r="C27">
         <f>Confirmed!U36+Daily!C27</f>
-        <v>698.07871243555894</v>
+        <v>699.48711178171766</v>
       </c>
       <c r="D27">
         <f>Confirmed!V36+Daily!D27</f>
@@ -7771,45 +8315,53 @@
       </c>
       <c r="E27">
         <f>Confirmed!W36+Daily!E27</f>
-        <v>707.38919229663702</v>
+        <v>710.37280827824088</v>
       </c>
       <c r="F27">
         <f>Confirmed!X36+Daily!F27</f>
-        <v>710.15519434628982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>711.49851590106005</v>
+      </c>
+      <c r="G27">
+        <f>Confirmed!Y36+Daily!G27</f>
+        <v>713.95968992248061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
       <c r="B28">
         <f>Confirmed!T37+Daily!B28</f>
-        <v>694.89601408273609</v>
+        <v>764.88733811140446</v>
       </c>
       <c r="C28">
         <f>Confirmed!U37+Daily!C28</f>
-        <v>690.48711178171766</v>
+        <v>760.47843581038603</v>
       </c>
       <c r="D28">
         <f>Confirmed!V37+Daily!D28</f>
-        <v>700.00613644567443</v>
+        <v>764.18998917097815</v>
       </c>
       <c r="E28">
         <f>Confirmed!W37+Daily!E28</f>
-        <v>713.37280827824088</v>
+        <v>775.95415349238283</v>
       </c>
       <c r="F28">
         <f>Confirmed!X37+Daily!F28</f>
-        <v>717.49851590106005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>774.44042402826858</v>
+      </c>
+      <c r="G28">
+        <f>Confirmed!Y37+Daily!G28</f>
+        <v>775.28287526427061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
       <c r="B29">
         <f>Confirmed!T38+Daily!B29</f>
-        <v>788.88733811140446</v>
+        <v>784.47843581038603</v>
       </c>
       <c r="C29">
         <f>Confirmed!U38+Daily!C29</f>
@@ -7821,74 +8373,86 @@
       </c>
       <c r="E29">
         <f>Confirmed!W38+Daily!E29</f>
-        <v>795.95415349238283</v>
+        <v>793.11971830985908</v>
       </c>
       <c r="F29">
         <f>Confirmed!X38+Daily!F29</f>
-        <v>796.44042402826858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>794.94784452296813</v>
+      </c>
+      <c r="G29">
+        <f>Confirmed!Y38+Daily!G29</f>
+        <v>795.77406624383366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
       <c r="B30">
         <f>Confirmed!T39+Daily!B30</f>
-        <v>708.47843581038603</v>
+        <v>696.78259776185087</v>
       </c>
       <c r="C30">
         <f>Confirmed!U39+Daily!C30</f>
-        <v>708.47843581038603</v>
+        <v>696.78259776185087</v>
       </c>
       <c r="D30">
         <f>Confirmed!V39+Daily!D30</f>
-        <v>704.18998917097815</v>
+        <v>692.49235952352296</v>
       </c>
       <c r="E30">
         <f>Confirmed!W39+Daily!E30</f>
-        <v>717.11971830985908</v>
+        <v>704.0663983903421</v>
       </c>
       <c r="F30">
         <f>Confirmed!X39+Daily!F30</f>
-        <v>720.94784452296813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>709.2310954063604</v>
+      </c>
+      <c r="G30">
+        <f>Confirmed!Y39+Daily!G30</f>
+        <v>712.65158562367867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
       <c r="B31">
         <f>Confirmed!T40+Daily!B31</f>
-        <v>643.78259776185087</v>
+        <v>678.80887715327549</v>
       </c>
       <c r="C31">
         <f>Confirmed!U40+Daily!C31</f>
-        <v>648.78259776185087</v>
+        <v>666.29573745756318</v>
       </c>
       <c r="D31">
         <f>Confirmed!V40+Daily!D31</f>
-        <v>653.49235952352296</v>
+        <v>673.94790037299958</v>
       </c>
       <c r="E31">
         <f>Confirmed!W40+Daily!E31</f>
-        <v>670.0663983903421</v>
+        <v>684.61152630066113</v>
       </c>
       <c r="F31">
         <f>Confirmed!X40+Daily!F31</f>
-        <v>679.2310954063604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>692.44042402826858</v>
+      </c>
+      <c r="G31">
+        <f>Confirmed!Y40+Daily!G31</f>
+        <v>691.95842142353763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
       <c r="B32">
         <f>Confirmed!T41+Daily!B32</f>
-        <v>636.80887715327549</v>
+        <v>612.07003646422731</v>
       </c>
       <c r="C32">
         <f>Confirmed!U41+Daily!C32</f>
-        <v>631.29573745756318</v>
+        <v>632.82660631208341</v>
       </c>
       <c r="D32">
         <f>Confirmed!V41+Daily!D32</f>
@@ -7896,20 +8460,24 @@
       </c>
       <c r="E32">
         <f>Confirmed!W41+Daily!E32</f>
-        <v>648.61152630066113</v>
+        <v>645.62791031905726</v>
       </c>
       <c r="F32">
         <f>Confirmed!X41+Daily!F32</f>
-        <v>664.44042402826858</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>652.72367491166074</v>
+      </c>
+      <c r="G32">
+        <f>Confirmed!Y41+Daily!G32</f>
+        <v>662.66920366455247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
       <c r="B33">
         <f>Confirmed!T42+Daily!B33</f>
-        <v>560.07003646422731</v>
+        <v>567.29573745756318</v>
       </c>
       <c r="C33">
         <f>Confirmed!U42+Daily!C33</f>
@@ -7917,68 +8485,80 @@
       </c>
       <c r="D33">
         <f>Confirmed!V42+Daily!D33</f>
-        <v>611.94790037299958</v>
+        <v>604.65984839369503</v>
       </c>
       <c r="E33">
         <f>Confirmed!W42+Daily!E33</f>
-        <v>622.62791031905726</v>
+        <v>616.88444955446971</v>
       </c>
       <c r="F33">
         <f>Confirmed!X42+Daily!F33</f>
-        <v>637.72367491166074</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>636.2310954063604</v>
+      </c>
+      <c r="G33">
+        <f>Confirmed!Y42+Daily!G33</f>
+        <v>642.17801268498943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
       <c r="B34">
         <f>Confirmed!T43+Daily!B34</f>
-        <v>498.29573745756318</v>
+        <v>492.47843581038603</v>
       </c>
       <c r="C34">
         <f>Confirmed!U43+Daily!C34</f>
-        <v>545.82660631208341</v>
+        <v>561.80887715327549</v>
       </c>
       <c r="D34">
         <f>Confirmed!V43+Daily!D34</f>
-        <v>578.65984839369503</v>
+        <v>593.29719648658397</v>
       </c>
       <c r="E34">
         <f>Confirmed!W43+Daily!E34</f>
-        <v>598.88444955446971</v>
+        <v>619.24762862891635</v>
       </c>
       <c r="F34">
         <f>Confirmed!X43+Daily!F34</f>
-        <v>637.2310954063604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>647.52989399293278</v>
+      </c>
+      <c r="G34">
+        <f>Confirmed!Y43+Daily!G34</f>
+        <v>659.97603946441154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
       <c r="B35">
         <f>Confirmed!T44+Daily!B35</f>
-        <v>326.47843581038603</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <f>Confirmed!U44+Daily!C35</f>
-        <v>476.80887715327549</v>
+        <v>443.31346661637116</v>
       </c>
       <c r="D35">
         <f>Confirmed!V44+Daily!D35</f>
-        <v>569.29719648658397</v>
+        <v>561.94790037299958</v>
       </c>
       <c r="E35">
         <f>Confirmed!W44+Daily!E35</f>
-        <v>601.24762862891635</v>
+        <v>630.41247484909456</v>
       </c>
       <c r="F35">
         <f>Confirmed!X44+Daily!F35</f>
-        <v>619.52989399293278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>637.06770318021199</v>
+      </c>
+      <c r="G35">
+        <f>Confirmed!Y44+Daily!G35</f>
+        <v>659.00634249471454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -7988,22 +8568,26 @@
       </c>
       <c r="C36">
         <f>Confirmed!U45+Daily!C36</f>
-        <v>330.31346661637116</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <f>Confirmed!V45+Daily!D36</f>
-        <v>434.94790037299964</v>
+        <v>391.15834436289254</v>
       </c>
       <c r="E36">
         <f>Confirmed!W45+Daily!E36</f>
-        <v>530.41247484909456</v>
+        <v>531.9042828398965</v>
       </c>
       <c r="F36">
         <f>Confirmed!X45+Daily!F36</f>
-        <v>562.06770318021199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>556.09738515901063</v>
+      </c>
+      <c r="G36">
+        <f>Confirmed!Y45+Daily!G36</f>
+        <v>576.28287526427061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -8017,18 +8601,22 @@
       </c>
       <c r="D37">
         <f>Confirmed!V46+Daily!D37</f>
-        <v>252.15834436289256</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <f>Confirmed!W46+Daily!E37</f>
-        <v>354.9042828398965</v>
+        <v>315.44596148318482</v>
       </c>
       <c r="F37">
         <f>Confirmed!X46+Daily!F37</f>
-        <v>483.09738515901063</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>421.90162544169613</v>
+      </c>
+      <c r="G37">
+        <f>Confirmed!Y46+Daily!G37</f>
+        <v>460.67047216349545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -8046,14 +8634,18 @@
       </c>
       <c r="E38">
         <f>Confirmed!W47+Daily!E38</f>
-        <v>278.44596148318482</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f>Confirmed!X47+Daily!F38</f>
-        <v>334.90162544169613</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>336.39420494699647</v>
+      </c>
+      <c r="G38">
+        <f>Confirmed!Y47+Daily!G38</f>
+        <v>445.17801268498943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -8075,7 +8667,29 @@
       </c>
       <c r="F39">
         <f>Confirmed!X48+Daily!F39</f>
-        <v>231.39420494699647</v>
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <f>Confirmed!Y48+Daily!G39</f>
+        <v>273.31571529245946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>418</v>
+      </c>
+      <c r="G40">
+        <f>Confirmed!Y49+Daily!G40</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>419</v>
+      </c>
+      <c r="G41">
+        <f>Confirmed!Y50+Daily!G41</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8259,8 +8873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8329,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E41" si="1">E4+1</f>
+        <f t="shared" ref="E5:E43" si="1">E4+1</f>
         <v>43902</v>
       </c>
     </row>
@@ -8392,6 +9006,9 @@
       <c r="C9">
         <v>9</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>43906</v>
@@ -8409,7 +9026,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4.4735729386892178</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
@@ -8428,7 +9045,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>4.4777385159010601</v>
+        <v>4.4735729386892178</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
@@ -8447,7 +9064,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>4.4777385159010601</v>
+        <v>2.9823819591261453</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
@@ -8466,7 +9083,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>2.9851590106007069</v>
+        <v>4.4735729386892178</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -8485,7 +9102,7 @@
         <v>40</v>
       </c>
       <c r="D14">
-        <v>4.4777385159010601</v>
+        <v>5.9647639182522907</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
@@ -8504,7 +9121,7 @@
         <v>48</v>
       </c>
       <c r="D15">
-        <v>5.9703180212014137</v>
+        <v>4.4735729386892178</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
@@ -8523,7 +9140,7 @@
         <v>81</v>
       </c>
       <c r="D16">
-        <v>4.4777385159010601</v>
+        <v>16.030303030303031</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
@@ -8542,7 +9159,7 @@
         <v>92</v>
       </c>
       <c r="D17">
-        <v>16.0452296819788</v>
+        <v>13.197040169133192</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
@@ -8561,7 +9178,7 @@
         <v>120</v>
       </c>
       <c r="D18">
-        <v>13.209328621908128</v>
+        <v>19.012684989429175</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
@@ -8580,7 +9197,7 @@
         <v>185</v>
       </c>
       <c r="D19">
-        <v>19.030388692579507</v>
+        <v>36.16138125440451</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
@@ -8599,7 +9216,7 @@
         <v>205</v>
       </c>
       <c r="D20">
-        <v>36.195053003533566</v>
+        <v>43.766455250176179</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
@@ -8618,7 +9235,7 @@
         <v>256</v>
       </c>
       <c r="D21">
-        <v>43.807208480565372</v>
+        <v>62.779140239605354</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
@@ -8637,7 +9254,7 @@
         <v>274</v>
       </c>
       <c r="D22">
-        <v>62.762968197879857</v>
+        <v>72.844679351656097</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -8653,10 +9270,10 @@
         <v>270</v>
       </c>
       <c r="C23">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D23">
-        <v>71.569187279151947</v>
+        <v>96.181818181818187</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
@@ -8675,7 +9292,7 @@
         <v>356</v>
       </c>
       <c r="D24">
-        <v>94.778798586572435</v>
+        <v>96.181818181818187</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -8691,10 +9308,10 @@
         <v>319</v>
       </c>
       <c r="C25">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D25">
-        <v>94.778798586572435</v>
+        <v>122.50133897110641</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -8710,10 +9327,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D26">
-        <v>121.12282685512368</v>
+        <v>195.34601832276252</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -8729,10 +9346,10 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D27">
-        <v>194.03533568904592</v>
+        <v>195.34601832276252</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -8751,7 +9368,7 @@
         <v>446</v>
       </c>
       <c r="D28">
-        <v>194.03533568904592</v>
+        <v>209.95968992248061</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -8767,10 +9384,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D29">
-        <v>210.15519434628976</v>
+        <v>209.95968992248061</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -8786,10 +9403,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D30">
-        <v>211.49851590106007</v>
+        <v>265.28287526427061</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -8805,10 +9422,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D31">
-        <v>268.44042402826852</v>
+        <v>266.77406624383366</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -8824,10 +9441,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D32">
-        <v>266.94784452296818</v>
+        <v>253.65158562367864</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -8843,10 +9460,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D33">
-        <v>255.23109540636042</v>
+        <v>260.95842142353769</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -8862,10 +9479,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="D34">
-        <v>268.44042402826852</v>
+        <v>250.6692036645525</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -8881,10 +9498,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D35">
-        <v>256.72367491166079</v>
+        <v>249.17801268498943</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -8900,10 +9517,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D36">
-        <v>255.23109540636042</v>
+        <v>257.97603946441154</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -8919,10 +9536,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="D37">
-        <v>265.52989399293284</v>
+        <v>274.0063424947146</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -8938,10 +9555,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="D38">
-        <v>283.06770318021199</v>
+        <v>265.28287526427061</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -8957,10 +9574,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="D39">
-        <v>277.09738515901063</v>
+        <v>199.67047216349542</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -8976,10 +9593,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="D40">
-        <v>215.90162544169613</v>
+        <v>249.17801268498943</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -8995,10 +9612,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D41">
-        <v>217.39420494699647</v>
+        <v>179.31571529245949</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -9013,6 +9630,16 @@
       <c r="B42">
         <v>777</v>
       </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>43939</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -9022,6 +9649,13 @@
       <c r="B43">
         <v>683</v>
       </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>43940</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>InfluenzaDate</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>Currently, errors are on the order of magnitude of 1%</t>
+  </si>
+  <si>
+    <t>419est</t>
+  </si>
+  <si>
+    <t>419act</t>
+  </si>
+  <si>
+    <t>419estround</t>
+  </si>
+  <si>
+    <t>(OBSOLETED AS OF 4/20)</t>
+  </si>
+  <si>
+    <t>(NOTE: This became obsolete when NYC started releasing its probables as well as confirmed numbers in spreadsheet form on 4/20)</t>
   </si>
 </sst>
 </file>
@@ -613,7 +628,7 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>205</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>256</c:v>
@@ -625,61 +640,64 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>356</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>433</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>446</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>504</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>510</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>529</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>431</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>412</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>393</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>385</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>311</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>261</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>196</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>94</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23</c:v>
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,107 +987,107 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4735729386892178</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4735729386892178</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9823819591261453</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4735729386892178</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9647639182522907</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4735729386892178</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.030303030303031</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.197040169133192</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.012684989429175</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.16138125440451</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.766455250176179</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62.779140239605354</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.844679351656097</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>96.181818181818187</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>96.181818181818187</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>122.50133897110641</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>195.34601832276252</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>195.34601832276252</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>209.95968992248061</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>209.95968992248061</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>265.28287526427061</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>266.77406624383366</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>253.65158562367864</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>260.95842142353769</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>250.6692036645525</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>249.17801268498943</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>257.97603946441154</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>274.0063424947146</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>265.28287526427061</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>199.67047216349542</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>249.17801268498943</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>179.31571529245949</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -1088,8 +1106,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="289900352"/>
-        <c:axId val="296094416"/>
+        <c:axId val="301431600"/>
+        <c:axId val="301426000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1630,11 +1648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="289900352"/>
-        <c:axId val="296094416"/>
+        <c:axId val="301431600"/>
+        <c:axId val="301426000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="289900352"/>
+        <c:axId val="301431600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296094416"/>
+        <c:crossAx val="301426000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1685,7 +1703,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296094416"/>
+        <c:axId val="301426000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289900352"/>
+        <c:crossAx val="301431600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2675,62 +2693,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3565,15 +3591,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3592,33 +3618,39 @@
       <c r="G1">
         <v>419</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3647,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3675,8 +3707,11 @@
         <f>Raw!G10*Raw!G$3/Raw!G$2</f>
         <v>4.4735729386892178</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -3704,8 +3739,11 @@
         <f>Raw!G11*Raw!G$3/Raw!G$2</f>
         <v>4.4735729386892178</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -3733,8 +3771,11 @@
         <f>Raw!G12*Raw!G$3/Raw!G$2</f>
         <v>2.9823819591261453</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -3762,8 +3803,11 @@
         <f>Raw!G13*Raw!G$3/Raw!G$2</f>
         <v>4.4735729386892178</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -3791,8 +3835,11 @@
         <f>Raw!G14*Raw!G$3/Raw!G$2</f>
         <v>5.9647639182522907</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -3820,8 +3867,11 @@
         <f>Raw!G15*Raw!G$3/Raw!G$2</f>
         <v>4.4735729386892178</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -3849,8 +3899,11 @@
         <f>Raw!G16*Raw!G$3/Raw!G$2</f>
         <v>16.030303030303031</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -3878,8 +3931,11 @@
         <f>Raw!G17*Raw!G$3/Raw!G$2</f>
         <v>13.197040169133192</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -3907,8 +3963,11 @@
         <f>Raw!G18*Raw!G$3/Raw!G$2</f>
         <v>19.012684989429175</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -3936,8 +3995,11 @@
         <f>Raw!G19*Raw!G$3/Raw!G$2</f>
         <v>36.16138125440451</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -3965,8 +4027,11 @@
         <f>Raw!G20*Raw!G$3/Raw!G$2</f>
         <v>43.766455250176179</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -3994,8 +4059,11 @@
         <f>Raw!G21*Raw!G$3/Raw!G$2</f>
         <v>62.779140239605354</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4023,8 +4091,11 @@
         <f>Raw!G22*Raw!G$3/Raw!G$2</f>
         <v>72.844679351656097</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4052,8 +4123,11 @@
         <f>Raw!G23*Raw!G$3/Raw!G$2</f>
         <v>96.181818181818187</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4081,8 +4155,11 @@
         <f>Raw!G24*Raw!G$3/Raw!G$2</f>
         <v>96.181818181818187</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4110,8 +4187,11 @@
         <f>Raw!G25*Raw!G$3/Raw!G$2</f>
         <v>122.50133897110641</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4139,8 +4219,11 @@
         <f>Raw!G26*Raw!G$3/Raw!G$2</f>
         <v>195.34601832276252</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4168,8 +4251,11 @@
         <f>Raw!G27*Raw!G$3/Raw!G$2</f>
         <v>195.34601832276252</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -4197,8 +4283,11 @@
         <f>Raw!G28*Raw!G$3/Raw!G$2</f>
         <v>209.95968992248061</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -4226,8 +4315,11 @@
         <f>Raw!G29*Raw!G$3/Raw!G$2</f>
         <v>209.95968992248061</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -4255,8 +4347,11 @@
         <f>Raw!G30*Raw!G$3/Raw!G$2</f>
         <v>265.28287526427061</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -4284,8 +4379,11 @@
         <f>Raw!G31*Raw!G$3/Raw!G$2</f>
         <v>266.77406624383366</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -4313,8 +4411,11 @@
         <f>Raw!G32*Raw!G$3/Raw!G$2</f>
         <v>253.65158562367864</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -4342,8 +4443,11 @@
         <f>Raw!G33*Raw!G$3/Raw!G$2</f>
         <v>260.95842142353769</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -4371,8 +4475,11 @@
         <f>Raw!G34*Raw!G$3/Raw!G$2</f>
         <v>250.6692036645525</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -4400,8 +4507,11 @@
         <f>Raw!G35*Raw!G$3/Raw!G$2</f>
         <v>249.17801268498943</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -4429,8 +4539,11 @@
         <f>Raw!G36*Raw!G$3/Raw!G$2</f>
         <v>257.97603946441154</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -4458,8 +4571,11 @@
         <f>Raw!G37*Raw!G$3/Raw!G$2</f>
         <v>274.0063424947146</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -4483,8 +4599,11 @@
         <f>Raw!G38*Raw!G$3/Raw!G$2</f>
         <v>265.28287526427061</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -4504,8 +4623,11 @@
         <f>Raw!G39*Raw!G$3/Raw!G$2</f>
         <v>199.67047216349542</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -4521,8 +4643,11 @@
         <f>Raw!G40*Raw!G$3/Raw!G$2</f>
         <v>249.17801268498943</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -4534,14 +4659,20 @@
         <f>Raw!G41*Raw!G$3/Raw!G$2</f>
         <v>179.31571529245949</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
       <c r="G40">
         <f>Raw!G42*Raw!G$3/Raw!G$2</f>
         <v>0</v>
+      </c>
+      <c r="H40">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4551,15 +4682,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="J31" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11:Y49"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -4632,8 +4763,11 @@
       <c r="Y1">
         <v>419</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -4709,8 +4843,11 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -4786,8 +4923,11 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -4863,8 +5003,11 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -4940,8 +5083,11 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -5017,8 +5163,11 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -5094,8 +5243,11 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -5171,8 +5323,11 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -5248,8 +5403,11 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -5325,8 +5483,11 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -5402,8 +5563,11 @@
       <c r="Y11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -5479,8 +5643,11 @@
       <c r="Y12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -5556,8 +5723,11 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -5633,8 +5803,11 @@
       <c r="Y14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -5710,8 +5883,11 @@
       <c r="Y15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -5787,8 +5963,11 @@
       <c r="Y16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -5864,8 +6043,11 @@
       <c r="Y17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -5941,8 +6123,11 @@
       <c r="Y18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -6018,8 +6203,11 @@
       <c r="Y19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -6095,8 +6283,11 @@
       <c r="Y20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -6172,8 +6363,11 @@
       <c r="Y21">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -6249,8 +6443,11 @@
       <c r="Y22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -6326,8 +6523,11 @@
       <c r="Y23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -6403,8 +6603,11 @@
       <c r="Y24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -6480,8 +6683,11 @@
       <c r="Y25">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -6554,8 +6760,11 @@
       <c r="Y26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -6625,8 +6834,11 @@
       <c r="Y27">
         <v>205</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -6693,8 +6905,11 @@
       <c r="Y28">
         <v>256</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -6761,8 +6976,11 @@
       <c r="Y29">
         <v>274</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -6829,8 +7047,11 @@
       <c r="Y30">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -6894,8 +7115,11 @@
       <c r="Y31">
         <v>356</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z31">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -6956,8 +7180,11 @@
       <c r="Y32">
         <v>401</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -7015,8 +7242,11 @@
       <c r="Y33">
         <v>433</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z33">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -7071,8 +7301,11 @@
       <c r="Y34">
         <v>441</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z34">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -7124,8 +7357,11 @@
       <c r="Y35">
         <v>446</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -7174,8 +7410,11 @@
       <c r="Y36">
         <v>504</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z36">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -7221,8 +7460,11 @@
       <c r="Y37">
         <v>510</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z37">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -7265,8 +7507,11 @@
       <c r="Y38">
         <v>529</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z38">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -7306,8 +7551,11 @@
       <c r="Y39">
         <v>459</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z39">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -7344,8 +7592,11 @@
       <c r="Y40">
         <v>431</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z40">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -7379,8 +7630,11 @@
       <c r="Y41">
         <v>412</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z41">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -7411,8 +7665,11 @@
       <c r="Y42">
         <v>393</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z42">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -7440,8 +7697,11 @@
       <c r="Y43">
         <v>402</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z43">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -7466,8 +7726,11 @@
       <c r="Y44">
         <v>385</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z44">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -7486,8 +7749,11 @@
       <c r="Y45">
         <v>311</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -7503,8 +7769,11 @@
       <c r="Y46">
         <v>261</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z46">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -7517,8 +7786,11 @@
       <c r="Y47">
         <v>196</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z47">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -7528,13 +7800,24 @@
       <c r="Y48">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z48">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
       <c r="Y49">
         <v>23</v>
+      </c>
+      <c r="Z49">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z50">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -7544,15 +7827,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:G41"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -7571,8 +7854,11 @@
       <c r="G1">
         <v>419</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -7600,8 +7886,12 @@
         <f>Confirmed!Y11+Daily!G2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>Confirmed!Z11+Daily!H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -7629,8 +7919,12 @@
         <f>Confirmed!Y12+Daily!G3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>Confirmed!Z12+Daily!H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -7658,8 +7952,12 @@
         <f>Confirmed!Y13+Daily!G4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>Confirmed!Z13+Daily!H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -7687,8 +7985,12 @@
         <f>Confirmed!Y14+Daily!G5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>Confirmed!Z14+Daily!H5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -7716,8 +8018,12 @@
         <f>Confirmed!Y15+Daily!G6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f>Confirmed!Z15+Daily!H6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -7745,8 +8051,12 @@
         <f>Confirmed!Y16+Daily!G7</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>Confirmed!Z16+Daily!H7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -7774,8 +8084,12 @@
         <f>Confirmed!Y17+Daily!G8</f>
         <v>11.473572938689218</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f>Confirmed!Z17+Daily!H8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -7803,8 +8117,12 @@
         <f>Confirmed!Y18+Daily!G9</f>
         <v>25.473572938689216</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>Confirmed!Z18+Daily!H9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -7832,8 +8150,12 @@
         <f>Confirmed!Y19+Daily!G10</f>
         <v>27.982381959126144</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>Confirmed!Z19+Daily!H10</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -7861,8 +8183,12 @@
         <f>Confirmed!Y20+Daily!G11</f>
         <v>50.473572938689216</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f>Confirmed!Z20+Daily!H11</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -7890,8 +8216,12 @@
         <f>Confirmed!Y21+Daily!G12</f>
         <v>45.964763918252288</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>Confirmed!Z21+Daily!H12</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -7919,8 +8249,12 @@
         <f>Confirmed!Y22+Daily!G13</f>
         <v>52.473572938689216</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>Confirmed!Z22+Daily!H13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -7948,8 +8282,12 @@
         <f>Confirmed!Y23+Daily!G14</f>
         <v>97.030303030303031</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f>Confirmed!Z23+Daily!H14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -7977,8 +8315,12 @@
         <f>Confirmed!Y24+Daily!G15</f>
         <v>105.19704016913319</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f>Confirmed!Z24+Daily!H15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -8006,8 +8348,12 @@
         <f>Confirmed!Y25+Daily!G16</f>
         <v>139.01268498942918</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>Confirmed!Z25+Daily!H16</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -8035,8 +8381,12 @@
         <f>Confirmed!Y26+Daily!G17</f>
         <v>221.16138125440452</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f>Confirmed!Z26+Daily!H17</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -8064,8 +8414,12 @@
         <f>Confirmed!Y27+Daily!G18</f>
         <v>248.76645525017619</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f>Confirmed!Z27+Daily!H18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -8093,8 +8447,12 @@
         <f>Confirmed!Y28+Daily!G19</f>
         <v>318.77914023960534</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f>Confirmed!Z28+Daily!H19</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -8122,8 +8480,12 @@
         <f>Confirmed!Y29+Daily!G20</f>
         <v>346.84467935165611</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f>Confirmed!Z29+Daily!H20</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -8151,8 +8513,12 @@
         <f>Confirmed!Y30+Daily!G21</f>
         <v>396.18181818181819</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f>Confirmed!Z30+Daily!H21</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -8180,8 +8546,12 @@
         <f>Confirmed!Y31+Daily!G22</f>
         <v>452.18181818181819</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f>Confirmed!Z31+Daily!H22</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -8209,8 +8579,12 @@
         <f>Confirmed!Y32+Daily!G23</f>
         <v>523.50133897110641</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f>Confirmed!Z32+Daily!H23</f>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -8238,8 +8612,12 @@
         <f>Confirmed!Y33+Daily!G24</f>
         <v>628.34601832276257</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f>Confirmed!Z33+Daily!H24</f>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -8267,8 +8645,12 @@
         <f>Confirmed!Y34+Daily!G25</f>
         <v>636.34601832276257</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f>Confirmed!Z34+Daily!H25</f>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -8296,8 +8678,12 @@
         <f>Confirmed!Y35+Daily!G26</f>
         <v>655.95968992248061</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f>Confirmed!Z35+Daily!H26</f>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -8325,8 +8711,12 @@
         <f>Confirmed!Y36+Daily!G27</f>
         <v>713.95968992248061</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f>Confirmed!Z36+Daily!H27</f>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -8354,8 +8744,12 @@
         <f>Confirmed!Y37+Daily!G28</f>
         <v>775.28287526427061</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f>Confirmed!Z37+Daily!H28</f>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -8383,8 +8777,12 @@
         <f>Confirmed!Y38+Daily!G29</f>
         <v>795.77406624383366</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f>Confirmed!Z38+Daily!H29</f>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -8412,8 +8810,12 @@
         <f>Confirmed!Y39+Daily!G30</f>
         <v>712.65158562367867</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f>Confirmed!Z39+Daily!H30</f>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -8441,8 +8843,12 @@
         <f>Confirmed!Y40+Daily!G31</f>
         <v>691.95842142353763</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f>Confirmed!Z40+Daily!H31</f>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -8470,8 +8876,12 @@
         <f>Confirmed!Y41+Daily!G32</f>
         <v>662.66920366455247</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f>Confirmed!Z41+Daily!H32</f>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -8499,8 +8909,12 @@
         <f>Confirmed!Y42+Daily!G33</f>
         <v>642.17801268498943</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f>Confirmed!Z42+Daily!H33</f>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -8528,8 +8942,12 @@
         <f>Confirmed!Y43+Daily!G34</f>
         <v>659.97603946441154</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f>Confirmed!Z43+Daily!H34</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -8557,8 +8975,12 @@
         <f>Confirmed!Y44+Daily!G35</f>
         <v>659.00634249471454</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f>Confirmed!Z44+Daily!H35</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -8586,8 +9008,12 @@
         <f>Confirmed!Y45+Daily!G36</f>
         <v>576.28287526427061</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f>Confirmed!Z45+Daily!H36</f>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -8615,8 +9041,12 @@
         <f>Confirmed!Y46+Daily!G37</f>
         <v>460.67047216349545</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f>Confirmed!Z46+Daily!H37</f>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -8644,8 +9074,12 @@
         <f>Confirmed!Y47+Daily!G38</f>
         <v>445.17801268498943</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f>Confirmed!Z47+Daily!H38</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -8673,8 +9107,12 @@
         <f>Confirmed!Y48+Daily!G39</f>
         <v>273.31571529245946</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f>Confirmed!Z48+Daily!H39</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -8682,14 +9120,22 @@
         <f>Confirmed!Y49+Daily!G40</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f>Confirmed!Z49+Daily!H40</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
       <c r="G41">
         <f>Confirmed!Y50+Daily!G41</f>
         <v>0</v>
+      </c>
+      <c r="H41">
+        <f>Confirmed!Z50+Daily!H41</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8699,15 +9145,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8735,8 +9181,17 @@
       <c r="J1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>415</v>
       </c>
@@ -8767,8 +9222,17 @@
         <f>(I2)/E2</f>
         <v>1.2987486504153002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>311</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>416</v>
       </c>
@@ -8799,8 +9263,17 @@
         <f>(I3)/E3</f>
         <v>9.4222880118921618E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>312</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>417</v>
       </c>
@@ -8831,8 +9304,17 @@
         <f>(I4)/E4</f>
         <v>1.3222156931243911E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>313</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>418</v>
       </c>
@@ -8862,6 +9344,434 @@
       <c r="J5" s="3">
         <f>(I5)/E5</f>
         <v>5.6529146971275096E-3</v>
+      </c>
+      <c r="L5">
+        <v>314</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>315</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>316</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>ROUND(M7,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>317</v>
+      </c>
+      <c r="M8">
+        <v>4.4735729386892178</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N40" si="0">ROUND(M8,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>318</v>
+      </c>
+      <c r="M9">
+        <v>4.4735729386892178</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>319</v>
+      </c>
+      <c r="M10">
+        <v>2.9823819591261453</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>320</v>
+      </c>
+      <c r="M11">
+        <v>4.4735729386892178</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>321</v>
+      </c>
+      <c r="M12">
+        <v>5.9647639182522907</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>322</v>
+      </c>
+      <c r="M13">
+        <v>4.4735729386892178</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>323</v>
+      </c>
+      <c r="M14">
+        <v>16.030303030303031</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>324</v>
+      </c>
+      <c r="M15">
+        <v>13.197040169133192</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>325</v>
+      </c>
+      <c r="M16">
+        <v>19.012684989429175</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>326</v>
+      </c>
+      <c r="M17">
+        <v>36.16138125440451</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>327</v>
+      </c>
+      <c r="M18">
+        <v>43.766455250176179</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>328</v>
+      </c>
+      <c r="M19">
+        <v>62.779140239605354</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>329</v>
+      </c>
+      <c r="M20">
+        <v>72.844679351656097</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>330</v>
+      </c>
+      <c r="M21">
+        <v>96.181818181818187</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>331</v>
+      </c>
+      <c r="M22">
+        <v>96.181818181818187</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>401</v>
+      </c>
+      <c r="M23">
+        <v>122.50133897110641</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>402</v>
+      </c>
+      <c r="M24">
+        <v>195.34601832276252</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>403</v>
+      </c>
+      <c r="M25">
+        <v>195.34601832276252</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>404</v>
+      </c>
+      <c r="M26">
+        <v>209.95968992248061</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>405</v>
+      </c>
+      <c r="M27">
+        <v>209.95968992248061</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>406</v>
+      </c>
+      <c r="M28">
+        <v>265.28287526427061</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>407</v>
+      </c>
+      <c r="M29">
+        <v>266.77406624383366</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>408</v>
+      </c>
+      <c r="M30">
+        <v>253.65158562367864</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>409</v>
+      </c>
+      <c r="M31">
+        <v>260.95842142353769</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>410</v>
+      </c>
+      <c r="M32">
+        <v>250.6692036645525</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>411</v>
+      </c>
+      <c r="M33">
+        <v>249.17801268498943</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>412</v>
+      </c>
+      <c r="M34">
+        <v>257.97603946441154</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>413</v>
+      </c>
+      <c r="M35">
+        <v>274.0063424947146</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>414</v>
+      </c>
+      <c r="M36">
+        <v>265.28287526427061</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>415</v>
+      </c>
+      <c r="M37">
+        <v>199.67047216349542</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>416</v>
+      </c>
+      <c r="M38">
+        <v>249.17801268498943</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>417</v>
+      </c>
+      <c r="M39">
+        <v>179.31571529245949</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>418</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8873,8 +9783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8974,6 +9884,9 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>43904</v>
@@ -9006,9 +9919,6 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>43906</v>
@@ -9026,7 +9936,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>4.4735729386892178</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
@@ -9045,7 +9955,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>4.4735729386892178</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
@@ -9064,7 +9974,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>2.9823819591261453</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
@@ -9083,7 +9993,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>4.4735729386892178</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
@@ -9102,7 +10012,7 @@
         <v>40</v>
       </c>
       <c r="D14">
-        <v>5.9647639182522907</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
@@ -9121,7 +10031,7 @@
         <v>48</v>
       </c>
       <c r="D15">
-        <v>4.4735729386892178</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
@@ -9140,7 +10050,7 @@
         <v>81</v>
       </c>
       <c r="D16">
-        <v>16.030303030303031</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
@@ -9159,7 +10069,7 @@
         <v>92</v>
       </c>
       <c r="D17">
-        <v>13.197040169133192</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
@@ -9178,7 +10088,7 @@
         <v>120</v>
       </c>
       <c r="D18">
-        <v>19.012684989429175</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
@@ -9197,7 +10107,7 @@
         <v>185</v>
       </c>
       <c r="D19">
-        <v>36.16138125440451</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
@@ -9213,10 +10123,10 @@
         <v>129</v>
       </c>
       <c r="C20">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20">
-        <v>43.766455250176179</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
@@ -9235,7 +10145,7 @@
         <v>256</v>
       </c>
       <c r="D21">
-        <v>62.779140239605354</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
@@ -9254,7 +10164,7 @@
         <v>274</v>
       </c>
       <c r="D22">
-        <v>72.844679351656097</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -9273,7 +10183,7 @@
         <v>300</v>
       </c>
       <c r="D23">
-        <v>96.181818181818187</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
@@ -9289,10 +10199,10 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D24">
-        <v>96.181818181818187</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -9311,7 +10221,7 @@
         <v>401</v>
       </c>
       <c r="D25">
-        <v>122.50133897110641</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -9327,10 +10237,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D26">
-        <v>195.34601832276252</v>
+        <v>193</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -9349,7 +10259,7 @@
         <v>441</v>
       </c>
       <c r="D27">
-        <v>195.34601832276252</v>
+        <v>192</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -9365,10 +10275,10 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D28">
-        <v>209.95968992248061</v>
+        <v>211</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -9384,10 +10294,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D29">
-        <v>209.95968992248061</v>
+        <v>207</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -9403,10 +10313,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D30">
-        <v>265.28287526427061</v>
+        <v>263</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -9422,10 +10332,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D31">
-        <v>266.77406624383366</v>
+        <v>266</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -9444,7 +10354,7 @@
         <v>459</v>
       </c>
       <c r="D32">
-        <v>253.65158562367864</v>
+        <v>254</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -9460,10 +10370,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D33">
-        <v>260.95842142353769</v>
+        <v>256</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -9479,10 +10389,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D34">
-        <v>250.6692036645525</v>
+        <v>244</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -9498,10 +10408,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D35">
-        <v>249.17801268498943</v>
+        <v>238</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -9517,10 +10427,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D36">
-        <v>257.97603946441154</v>
+        <v>256</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -9536,10 +10446,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D37">
-        <v>274.0063424947146</v>
+        <v>267</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -9555,10 +10465,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D38">
-        <v>265.28287526427061</v>
+        <v>259</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -9574,10 +10484,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D39">
-        <v>199.67047216349542</v>
+        <v>197</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -9593,10 +10503,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D40">
-        <v>249.17801268498943</v>
+        <v>243</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -9612,10 +10522,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="D41">
-        <v>179.31571529245949</v>
+        <v>198</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -9631,10 +10541,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -9649,6 +10559,9 @@
       <c r="B43">
         <v>683</v>
       </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
       <c r="D43">
         <v>0</v>
       </c>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -610,7 +610,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>48</c:v>
@@ -631,73 +631,76 @@
                   <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>256</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>274</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>358</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>435</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>441</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>513</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>436</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>417</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>401</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>409</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>393</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>326</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>280</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>226</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>175</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>99</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18</c:v>
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,6 +993,12 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1024,10 +1033,10 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>96</c:v>
@@ -1036,61 +1045,61 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>121</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>193</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>192</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>211</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>207</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>263</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>254</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>244</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>238</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>267</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>259</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>197</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>198</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>198</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,8 +1115,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="301431600"/>
-        <c:axId val="301426000"/>
+        <c:axId val="294038992"/>
+        <c:axId val="294039552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1648,11 +1657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="301431600"/>
-        <c:axId val="301426000"/>
+        <c:axId val="294038992"/>
+        <c:axId val="294039552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="301431600"/>
+        <c:axId val="294038992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301426000"/>
+        <c:crossAx val="294039552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1703,7 +1712,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="301426000"/>
+        <c:axId val="294039552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301431600"/>
+        <c:crossAx val="294038992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2396,7 +2405,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2695,7 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3591,15 +3600,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3621,36 +3630,54 @@
       <c r="H1">
         <v>420</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3678,8 +3705,11 @@
         <f>Raw!G9*Raw!G$3/Raw!G$2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3710,8 +3740,11 @@
       <c r="H8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -3742,8 +3775,11 @@
       <c r="H9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -3774,8 +3810,11 @@
       <c r="H10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -3806,8 +3845,11 @@
       <c r="H11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -3838,8 +3880,11 @@
       <c r="H12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -3870,8 +3915,11 @@
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -3902,8 +3950,11 @@
       <c r="H14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -3934,8 +3985,11 @@
       <c r="H15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -3966,8 +4020,11 @@
       <c r="H16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -3998,8 +4055,11 @@
       <c r="H17">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -4030,8 +4090,11 @@
       <c r="H18">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -4062,8 +4125,11 @@
       <c r="H19">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4094,8 +4160,11 @@
       <c r="H20">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4126,8 +4195,11 @@
       <c r="H21">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4158,8 +4230,11 @@
       <c r="H22">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4190,8 +4265,11 @@
       <c r="H23">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4222,8 +4300,11 @@
       <c r="H24">
         <v>193</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4254,8 +4335,11 @@
       <c r="H25">
         <v>192</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -4286,8 +4370,11 @@
       <c r="H26">
         <v>211</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -4318,8 +4405,11 @@
       <c r="H27">
         <v>207</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -4350,8 +4440,11 @@
       <c r="H28">
         <v>263</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -4382,8 +4475,11 @@
       <c r="H29">
         <v>266</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -4414,8 +4510,11 @@
       <c r="H30">
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -4446,8 +4545,11 @@
       <c r="H31">
         <v>256</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -4478,8 +4580,11 @@
       <c r="H32">
         <v>244</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -4510,8 +4615,11 @@
       <c r="H33">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -4542,8 +4650,11 @@
       <c r="H34">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -4574,8 +4685,11 @@
       <c r="H35">
         <v>267</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -4602,8 +4716,11 @@
       <c r="H36">
         <v>259</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -4626,8 +4743,11 @@
       <c r="H37">
         <v>197</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -4646,8 +4766,11 @@
       <c r="H38">
         <v>243</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -4662,8 +4785,11 @@
       <c r="H39">
         <v>198</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -4673,6 +4799,19 @@
       </c>
       <c r="H40">
         <v>198</v>
+      </c>
+      <c r="I40">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4682,15 +4821,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView topLeftCell="L32" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11:AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -4766,8 +4905,11 @@
       <c r="Z1">
         <v>420</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -4846,8 +4988,11 @@
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -4926,8 +5071,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -5006,8 +5154,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -5086,8 +5237,11 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -5166,8 +5320,11 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -5246,8 +5403,11 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -5326,8 +5486,11 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -5406,8 +5569,11 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -5486,8 +5652,11 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -5566,8 +5735,11 @@
       <c r="Z11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -5646,8 +5818,11 @@
       <c r="Z12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -5726,8 +5901,11 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -5806,8 +5984,11 @@
       <c r="Z14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -5886,8 +6067,11 @@
       <c r="Z15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -5966,8 +6150,11 @@
       <c r="Z16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -6046,8 +6233,11 @@
       <c r="Z17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -6126,8 +6316,11 @@
       <c r="Z18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -6206,8 +6399,11 @@
       <c r="Z19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -6286,8 +6482,11 @@
       <c r="Z20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -6366,8 +6565,11 @@
       <c r="Z21">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -6446,8 +6648,11 @@
       <c r="Z22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -6526,8 +6731,11 @@
       <c r="Z23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -6606,8 +6814,11 @@
       <c r="Z24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -6686,8 +6897,11 @@
       <c r="Z25">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -6763,8 +6977,11 @@
       <c r="Z26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -6837,8 +7054,11 @@
       <c r="Z27">
         <v>206</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -6908,8 +7128,11 @@
       <c r="Z28">
         <v>256</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -6979,8 +7202,11 @@
       <c r="Z29">
         <v>274</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -7050,8 +7276,11 @@
       <c r="Z30">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -7118,8 +7347,11 @@
       <c r="Z31">
         <v>358</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -7183,8 +7415,11 @@
       <c r="Z32">
         <v>401</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -7245,8 +7480,11 @@
       <c r="Z33">
         <v>435</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -7304,8 +7542,11 @@
       <c r="Z34">
         <v>441</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -7360,8 +7601,11 @@
       <c r="Z35">
         <v>450</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -7413,8 +7657,11 @@
       <c r="Z36">
         <v>506</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -7463,8 +7710,11 @@
       <c r="Z37">
         <v>513</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA37">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -7510,8 +7760,11 @@
       <c r="Z38">
         <v>533</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA38">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -7554,8 +7807,11 @@
       <c r="Z39">
         <v>459</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA39">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -7595,8 +7851,11 @@
       <c r="Z40">
         <v>436</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA40">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -7633,8 +7892,11 @@
       <c r="Z41">
         <v>417</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA41">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -7668,8 +7930,11 @@
       <c r="Z42">
         <v>401</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA42">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -7700,8 +7965,11 @@
       <c r="Z43">
         <v>409</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -7729,8 +7997,11 @@
       <c r="Z44">
         <v>393</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA44">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -7752,8 +8023,11 @@
       <c r="Z45">
         <v>326</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -7772,8 +8046,11 @@
       <c r="Z46">
         <v>280</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA46">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -7789,8 +8066,11 @@
       <c r="Z47">
         <v>226</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -7803,8 +8083,11 @@
       <c r="Z48">
         <v>175</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA48">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -7814,10 +8097,21 @@
       <c r="Z49">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA49">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="Z50">
         <v>18</v>
+      </c>
+      <c r="AA50">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA51">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7827,15 +8121,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H41"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -7857,8 +8151,11 @@
       <c r="H1">
         <v>420</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -7890,8 +8187,12 @@
         <f>Confirmed!Z11+Daily!H2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f>Confirmed!AA11+Daily!I2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -7923,8 +8224,12 @@
         <f>Confirmed!Z12+Daily!H3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f>Confirmed!AA12+Daily!I3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -7956,8 +8261,12 @@
         <f>Confirmed!Z13+Daily!H4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f>Confirmed!AA13+Daily!I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -7989,8 +8298,12 @@
         <f>Confirmed!Z14+Daily!H5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f>Confirmed!AA14+Daily!I5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -8022,8 +8335,12 @@
         <f>Confirmed!Z15+Daily!H6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f>Confirmed!AA15+Daily!I6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -8055,8 +8372,12 @@
         <f>Confirmed!Z16+Daily!H7</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f>Confirmed!AA16+Daily!I7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -8088,8 +8409,12 @@
         <f>Confirmed!Z17+Daily!H8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f>Confirmed!AA17+Daily!I8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -8121,8 +8446,12 @@
         <f>Confirmed!Z18+Daily!H9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f>Confirmed!AA18+Daily!I9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -8154,8 +8483,12 @@
         <f>Confirmed!Z19+Daily!H10</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f>Confirmed!AA19+Daily!I10</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -8187,8 +8520,12 @@
         <f>Confirmed!Z20+Daily!H11</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f>Confirmed!AA20+Daily!I11</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -8220,8 +8557,12 @@
         <f>Confirmed!Z21+Daily!H12</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f>Confirmed!AA21+Daily!I12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -8253,8 +8594,12 @@
         <f>Confirmed!Z22+Daily!H13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f>Confirmed!AA22+Daily!I13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -8286,8 +8631,12 @@
         <f>Confirmed!Z23+Daily!H14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f>Confirmed!AA23+Daily!I14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -8319,8 +8668,12 @@
         <f>Confirmed!Z24+Daily!H15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f>Confirmed!AA24+Daily!I15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -8352,8 +8705,12 @@
         <f>Confirmed!Z25+Daily!H16</f>
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f>Confirmed!AA25+Daily!I16</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -8385,8 +8742,12 @@
         <f>Confirmed!Z26+Daily!H17</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f>Confirmed!AA26+Daily!I17</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -8418,8 +8779,12 @@
         <f>Confirmed!Z27+Daily!H18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f>Confirmed!AA27+Daily!I18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -8451,8 +8816,12 @@
         <f>Confirmed!Z28+Daily!H19</f>
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f>Confirmed!AA28+Daily!I19</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -8484,8 +8853,12 @@
         <f>Confirmed!Z29+Daily!H20</f>
         <v>347</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f>Confirmed!AA29+Daily!I20</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -8517,8 +8890,12 @@
         <f>Confirmed!Z30+Daily!H21</f>
         <v>396</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f>Confirmed!AA30+Daily!I21</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -8550,8 +8927,12 @@
         <f>Confirmed!Z31+Daily!H22</f>
         <v>454</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f>Confirmed!AA31+Daily!I22</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -8583,8 +8964,12 @@
         <f>Confirmed!Z32+Daily!H23</f>
         <v>522</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f>Confirmed!AA32+Daily!I23</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -8616,8 +9001,12 @@
         <f>Confirmed!Z33+Daily!H24</f>
         <v>628</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f>Confirmed!AA33+Daily!I24</f>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -8649,8 +9038,12 @@
         <f>Confirmed!Z34+Daily!H25</f>
         <v>633</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f>Confirmed!AA34+Daily!I25</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -8682,8 +9075,12 @@
         <f>Confirmed!Z35+Daily!H26</f>
         <v>661</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f>Confirmed!AA35+Daily!I26</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -8715,8 +9112,12 @@
         <f>Confirmed!Z36+Daily!H27</f>
         <v>713</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f>Confirmed!AA36+Daily!I27</f>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -8748,8 +9149,12 @@
         <f>Confirmed!Z37+Daily!H28</f>
         <v>776</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f>Confirmed!AA37+Daily!I28</f>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -8781,8 +9186,12 @@
         <f>Confirmed!Z38+Daily!H29</f>
         <v>799</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f>Confirmed!AA38+Daily!I29</f>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -8814,8 +9223,12 @@
         <f>Confirmed!Z39+Daily!H30</f>
         <v>713</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>Confirmed!AA39+Daily!I30</f>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -8847,8 +9260,12 @@
         <f>Confirmed!Z40+Daily!H31</f>
         <v>692</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f>Confirmed!AA40+Daily!I31</f>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -8880,8 +9297,12 @@
         <f>Confirmed!Z41+Daily!H32</f>
         <v>661</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f>Confirmed!AA41+Daily!I32</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -8913,8 +9334,12 @@
         <f>Confirmed!Z42+Daily!H33</f>
         <v>639</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f>Confirmed!AA42+Daily!I33</f>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -8946,8 +9371,12 @@
         <f>Confirmed!Z43+Daily!H34</f>
         <v>665</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f>Confirmed!AA43+Daily!I34</f>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -8979,8 +9408,12 @@
         <f>Confirmed!Z44+Daily!H35</f>
         <v>660</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f>Confirmed!AA44+Daily!I35</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -9012,8 +9445,12 @@
         <f>Confirmed!Z45+Daily!H36</f>
         <v>585</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f>Confirmed!AA45+Daily!I36</f>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -9045,8 +9482,12 @@
         <f>Confirmed!Z46+Daily!H37</f>
         <v>477</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f>Confirmed!AA46+Daily!I37</f>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -9078,8 +9519,12 @@
         <f>Confirmed!Z47+Daily!H38</f>
         <v>469</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f>Confirmed!AA47+Daily!I38</f>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -9111,8 +9556,12 @@
         <f>Confirmed!Z48+Daily!H39</f>
         <v>373</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f>Confirmed!AA48+Daily!I39</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -9124,8 +9573,12 @@
         <f>Confirmed!Z49+Daily!H40</f>
         <v>297</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f>Confirmed!AA49+Daily!I40</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -9136,6 +9589,19 @@
       <c r="H41">
         <f>Confirmed!Z50+Daily!H41</f>
         <v>18</v>
+      </c>
+      <c r="I41">
+        <f>Confirmed!AA50+Daily!I41</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>420</v>
+      </c>
+      <c r="I42">
+        <f>Confirmed!AA51+Daily!I42</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -9783,8 +10249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9853,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E43" si="1">E4+1</f>
+        <f t="shared" ref="C4:E45" si="1">E4+1</f>
         <v>43902</v>
       </c>
     </row>
@@ -9903,6 +10369,9 @@
       <c r="C8">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>43905</v>
@@ -9919,6 +10388,9 @@
       <c r="C9">
         <v>9</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>43906</v>
@@ -10009,7 +10481,7 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -10142,10 +10614,10 @@
         <v>190</v>
       </c>
       <c r="C21">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D21">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
@@ -10161,10 +10633,10 @@
         <v>223</v>
       </c>
       <c r="C22">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D22">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -10199,7 +10671,7 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D24">
         <v>96</v>
@@ -10221,7 +10693,7 @@
         <v>401</v>
       </c>
       <c r="D25">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -10237,10 +10709,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D26">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -10256,10 +10728,10 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D27">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -10275,10 +10747,10 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D28">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -10294,10 +10766,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D29">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -10313,10 +10785,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D30">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -10332,7 +10804,7 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D31">
         <v>266</v>
@@ -10351,10 +10823,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D32">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -10370,7 +10842,7 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="D33">
         <v>256</v>
@@ -10389,10 +10861,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="D34">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -10408,10 +10880,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="D35">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -10427,7 +10899,7 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="D36">
         <v>256</v>
@@ -10446,10 +10918,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D37">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -10465,10 +10937,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="D38">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -10484,10 +10956,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="D39">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -10503,7 +10975,7 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="D40">
         <v>243</v>
@@ -10522,10 +10994,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="D41">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -10541,10 +11013,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="D42">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -10560,10 +11032,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -10578,6 +11050,13 @@
       <c r="B44">
         <v>623</v>
       </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>43941</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -10587,6 +11066,10 @@
       <c r="B45">
         <v>568</v>
       </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>43942</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -252,7 +252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1115,8 +1114,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="294038992"/>
-        <c:axId val="294039552"/>
+        <c:axId val="289179760"/>
+        <c:axId val="289176960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1657,11 +1656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="294038992"/>
-        <c:axId val="294039552"/>
+        <c:axId val="289179760"/>
+        <c:axId val="289176960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="294038992"/>
+        <c:axId val="289179760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294039552"/>
+        <c:crossAx val="289176960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1712,7 +1711,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="294039552"/>
+        <c:axId val="289176960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294038992"/>
+        <c:crossAx val="289179760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,7 +1775,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2405,7 +2403,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2416,7 +2414,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6298406"/>
+    <xdr:ext cx="8661400" cy="6290733"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3600,15 +3598,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3633,32 +3631,44 @@
       <c r="I1">
         <v>421</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -3668,16 +3678,22 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3708,8 +3724,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3743,8 +3762,11 @@
       <c r="I8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -3778,8 +3800,11 @@
       <c r="I9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -3813,8 +3838,11 @@
       <c r="I10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -3848,8 +3876,11 @@
       <c r="I11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -3883,8 +3914,11 @@
       <c r="I12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -3918,8 +3952,11 @@
       <c r="I13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -3953,8 +3990,11 @@
       <c r="I14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -3988,8 +4028,11 @@
       <c r="I15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -4023,8 +4066,11 @@
       <c r="I16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -4058,8 +4104,11 @@
       <c r="I17">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -4093,8 +4142,11 @@
       <c r="I18">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -4128,8 +4180,11 @@
       <c r="I19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4163,8 +4218,11 @@
       <c r="I20">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4198,8 +4256,11 @@
       <c r="I21">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4233,8 +4294,11 @@
       <c r="I22">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4268,8 +4332,11 @@
       <c r="I23">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4303,8 +4370,11 @@
       <c r="I24">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4338,8 +4408,11 @@
       <c r="I25">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -4373,8 +4446,11 @@
       <c r="I26">
         <v>212</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -4408,8 +4484,11 @@
       <c r="I27">
         <v>208</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -4443,8 +4522,11 @@
       <c r="I28">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -4478,8 +4560,11 @@
       <c r="I29">
         <v>266</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -4513,8 +4598,11 @@
       <c r="I30">
         <v>255</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -4548,8 +4636,11 @@
       <c r="I31">
         <v>256</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -4583,8 +4674,11 @@
       <c r="I32">
         <v>246</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -4618,8 +4712,11 @@
       <c r="I33">
         <v>234</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -4653,8 +4750,11 @@
       <c r="I34">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -4688,8 +4788,11 @@
       <c r="I35">
         <v>266</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -4719,8 +4822,11 @@
       <c r="I36">
         <v>256</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -4746,8 +4852,11 @@
       <c r="I37">
         <v>194</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -4769,8 +4878,11 @@
       <c r="I38">
         <v>243</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -4788,8 +4900,11 @@
       <c r="I39">
         <v>195</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -4803,15 +4918,29 @@
       <c r="I40">
         <v>234</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I41">
         <v>240</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I42">
         <v>0</v>
+      </c>
+      <c r="J42">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4823,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="L32" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11:AA51"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8123,8 +8252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10319,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="C4:E45" si="1">E4+1</f>
+        <f t="shared" ref="E5:E45" si="1">E4+1</f>
         <v>43902</v>
       </c>
     </row>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -246,12 +246,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>/Probable COVID Deaths, NYC 3/15/2020=9/21/1918 </a:t>
+              <a:t>/Probable COVID Deaths, NYC 3/15/2020=9/25/1918 </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -578,128 +579,131 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>360</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>401</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>438</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>444</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>453</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>511</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>517</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>538</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>462</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>450</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>429</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>423</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>423</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>418</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>350</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>298</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>251</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>223</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>178</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12</c:v>
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,116 +993,122 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>96</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>125</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>190</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>266</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>255</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>256</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>240</c:v>
+                <c:pt idx="47">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,8 +1124,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="289179760"/>
-        <c:axId val="289176960"/>
+        <c:axId val="509381968"/>
+        <c:axId val="509385888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1656,11 +1666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="289179760"/>
-        <c:axId val="289176960"/>
+        <c:axId val="509381968"/>
+        <c:axId val="509385888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="289179760"/>
+        <c:axId val="509381968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289176960"/>
+        <c:crossAx val="509385888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1711,7 +1721,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="289176960"/>
+        <c:axId val="509385888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289179760"/>
+        <c:crossAx val="509381968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1775,6 +1785,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2403,7 +2414,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2414,7 +2425,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6290733"/>
+    <xdr:ext cx="8667750" cy="6298406"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3600,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4950,15 +4961,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -5037,8 +5048,11 @@
       <c r="AA1">
         <v>421</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -5121,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -5204,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -5287,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -5370,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -5453,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -5536,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -5619,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -5702,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -5785,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -5867,8 +5881,11 @@
       <c r="AA11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -5950,8 +5967,11 @@
       <c r="AA12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -6033,8 +6053,11 @@
       <c r="AA13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -6116,8 +6139,11 @@
       <c r="AA14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -6199,8 +6225,11 @@
       <c r="AA15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -6282,8 +6311,11 @@
       <c r="AA16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -6365,8 +6397,11 @@
       <c r="AA17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -6448,8 +6483,11 @@
       <c r="AA18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -6531,8 +6569,11 @@
       <c r="AA19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -6614,8 +6655,11 @@
       <c r="AA20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -6697,8 +6741,11 @@
       <c r="AA21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -6780,8 +6827,11 @@
       <c r="AA22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -6863,8 +6913,11 @@
       <c r="AA23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -6946,8 +6999,11 @@
       <c r="AA24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -7029,8 +7085,11 @@
       <c r="AA25">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -7109,8 +7168,11 @@
       <c r="AA26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -7186,8 +7248,11 @@
       <c r="AA27">
         <v>206</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -7260,8 +7325,11 @@
       <c r="AA28">
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB28">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -7334,8 +7402,11 @@
       <c r="AA29">
         <v>276</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB29">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -7408,8 +7479,11 @@
       <c r="AA30">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB30">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -7479,8 +7553,11 @@
       <c r="AA31">
         <v>360</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB31">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -7547,8 +7624,11 @@
       <c r="AA32">
         <v>401</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB32">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -7612,8 +7692,11 @@
       <c r="AA33">
         <v>438</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB33">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -7674,8 +7757,11 @@
       <c r="AA34">
         <v>444</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB34">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -7733,8 +7819,11 @@
       <c r="AA35">
         <v>453</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -7789,8 +7878,11 @@
       <c r="AA36">
         <v>511</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB36">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -7842,8 +7934,11 @@
       <c r="AA37">
         <v>517</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB37">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -7892,8 +7987,11 @@
       <c r="AA38">
         <v>538</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB38">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -7939,8 +8037,11 @@
       <c r="AA39">
         <v>462</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB39">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -7983,8 +8084,11 @@
       <c r="AA40">
         <v>450</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB40">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -8024,8 +8128,11 @@
       <c r="AA41">
         <v>429</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB41">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -8062,8 +8169,11 @@
       <c r="AA42">
         <v>423</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB42">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -8097,8 +8207,11 @@
       <c r="AA43">
         <v>423</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB43">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -8129,8 +8242,11 @@
       <c r="AA44">
         <v>418</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB44">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -8155,8 +8271,11 @@
       <c r="AA45">
         <v>350</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB45">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -8178,8 +8297,11 @@
       <c r="AA46">
         <v>298</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB46">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -8198,8 +8320,11 @@
       <c r="AA47">
         <v>251</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB47">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -8215,8 +8340,11 @@
       <c r="AA48">
         <v>223</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB48">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -8229,18 +8357,61 @@
       <c r="AA49">
         <v>178</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB49">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>419</v>
+      </c>
       <c r="Z50">
         <v>18</v>
       </c>
       <c r="AA50">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB50">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>420</v>
+      </c>
       <c r="AA51">
         <v>12</v>
+      </c>
+      <c r="AB51">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>421</v>
+      </c>
+      <c r="AB52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -8250,15 +8421,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -8283,8 +8452,12 @@
       <c r="I1">
         <v>421</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1">
+        <f>422</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -8320,8 +8493,12 @@
         <f>Confirmed!AA11+Daily!I2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>Confirmed!AB11+Daily!J2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -8357,8 +8534,12 @@
         <f>Confirmed!AA12+Daily!I3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f>Confirmed!AB12+Daily!J3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -8394,8 +8575,12 @@
         <f>Confirmed!AA13+Daily!I4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f>Confirmed!AB13+Daily!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -8431,8 +8616,12 @@
         <f>Confirmed!AA14+Daily!I5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f>Confirmed!AB14+Daily!J5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -8468,8 +8657,12 @@
         <f>Confirmed!AA15+Daily!I6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f>Confirmed!AB15+Daily!J6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -8505,8 +8698,12 @@
         <f>Confirmed!AA16+Daily!I7</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f>Confirmed!AB16+Daily!J7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -8542,8 +8739,12 @@
         <f>Confirmed!AA17+Daily!I8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f>Confirmed!AB17+Daily!J8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -8579,8 +8780,12 @@
         <f>Confirmed!AA18+Daily!I9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f>Confirmed!AB18+Daily!J9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -8616,8 +8821,12 @@
         <f>Confirmed!AA19+Daily!I10</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f>Confirmed!AB19+Daily!J10</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -8653,8 +8862,12 @@
         <f>Confirmed!AA20+Daily!I11</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f>Confirmed!AB20+Daily!J11</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -8690,8 +8903,12 @@
         <f>Confirmed!AA21+Daily!I12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>Confirmed!AB21+Daily!J12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -8727,8 +8944,12 @@
         <f>Confirmed!AA22+Daily!I13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>Confirmed!AB22+Daily!J13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -8764,8 +8985,12 @@
         <f>Confirmed!AA23+Daily!I14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f>Confirmed!AB23+Daily!J14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -8801,8 +9026,12 @@
         <f>Confirmed!AA24+Daily!I15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f>Confirmed!AB24+Daily!J15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -8838,8 +9067,12 @@
         <f>Confirmed!AA25+Daily!I16</f>
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f>Confirmed!AB25+Daily!J16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -8875,8 +9108,12 @@
         <f>Confirmed!AA26+Daily!I17</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <f>Confirmed!AB26+Daily!J17</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -8912,8 +9149,12 @@
         <f>Confirmed!AA27+Daily!I18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <f>Confirmed!AB27+Daily!J18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -8949,8 +9190,12 @@
         <f>Confirmed!AA28+Daily!I19</f>
         <v>324</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f>Confirmed!AB28+Daily!J19</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -8986,8 +9231,12 @@
         <f>Confirmed!AA29+Daily!I20</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f>Confirmed!AB29+Daily!J20</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -9023,8 +9272,12 @@
         <f>Confirmed!AA30+Daily!I21</f>
         <v>396</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f>Confirmed!AB30+Daily!J21</f>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -9060,8 +9313,12 @@
         <f>Confirmed!AA31+Daily!I22</f>
         <v>456</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f>Confirmed!AB31+Daily!J22</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -9097,8 +9354,12 @@
         <f>Confirmed!AA32+Daily!I23</f>
         <v>526</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f>Confirmed!AB32+Daily!J23</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -9134,8 +9395,12 @@
         <f>Confirmed!AA33+Daily!I24</f>
         <v>628</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f>Confirmed!AB33+Daily!J24</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -9171,8 +9436,12 @@
         <f>Confirmed!AA34+Daily!I25</f>
         <v>640</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <f>Confirmed!AB34+Daily!J25</f>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -9208,8 +9477,12 @@
         <f>Confirmed!AA35+Daily!I26</f>
         <v>665</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f>Confirmed!AB35+Daily!J26</f>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -9245,8 +9518,12 @@
         <f>Confirmed!AA36+Daily!I27</f>
         <v>719</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f>Confirmed!AB36+Daily!J27</f>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -9282,8 +9559,12 @@
         <f>Confirmed!AA37+Daily!I28</f>
         <v>782</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f>Confirmed!AB37+Daily!J28</f>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -9319,8 +9600,12 @@
         <f>Confirmed!AA38+Daily!I29</f>
         <v>804</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f>Confirmed!AB38+Daily!J29</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -9356,8 +9641,12 @@
         <f>Confirmed!AA39+Daily!I30</f>
         <v>717</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f>Confirmed!AB39+Daily!J30</f>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -9393,8 +9682,12 @@
         <f>Confirmed!AA40+Daily!I31</f>
         <v>706</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f>Confirmed!AB40+Daily!J31</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -9430,8 +9723,12 @@
         <f>Confirmed!AA41+Daily!I32</f>
         <v>675</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f>Confirmed!AB41+Daily!J32</f>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -9467,8 +9764,12 @@
         <f>Confirmed!AA42+Daily!I33</f>
         <v>657</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f>Confirmed!AB42+Daily!J33</f>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -9504,8 +9805,12 @@
         <f>Confirmed!AA43+Daily!I34</f>
         <v>679</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f>Confirmed!AB43+Daily!J34</f>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -9541,8 +9846,12 @@
         <f>Confirmed!AA44+Daily!I35</f>
         <v>684</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f>Confirmed!AB44+Daily!J35</f>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -9578,8 +9887,12 @@
         <f>Confirmed!AA45+Daily!I36</f>
         <v>606</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <f>Confirmed!AB45+Daily!J36</f>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -9615,8 +9928,12 @@
         <f>Confirmed!AA46+Daily!I37</f>
         <v>492</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f>Confirmed!AB46+Daily!J37</f>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -9652,8 +9969,12 @@
         <f>Confirmed!AA47+Daily!I38</f>
         <v>494</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <f>Confirmed!AB47+Daily!J38</f>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -9689,8 +10010,12 @@
         <f>Confirmed!AA48+Daily!I39</f>
         <v>418</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <f>Confirmed!AB48+Daily!J39</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -9706,8 +10031,12 @@
         <f>Confirmed!AA49+Daily!I40</f>
         <v>412</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <f>Confirmed!AB49+Daily!J40</f>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -9723,14 +10052,55 @@
         <f>Confirmed!AA50+Daily!I41</f>
         <v>330</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <f>Confirmed!AB50+Daily!J41</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
       <c r="I42">
         <f>Confirmed!AA51+Daily!I42</f>
         <v>12</v>
+      </c>
+      <c r="J42">
+        <f>Confirmed!AB51+Daily!J42</f>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>421</v>
+      </c>
+      <c r="J43">
+        <f>Confirmed!AB52+Daily!J43</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>422</v>
+      </c>
+      <c r="J44">
+        <f>Confirmed!AB53+Daily!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -10379,7 +10749,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C44"/>
+      <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10429,12 +10799,7 @@
       <c r="B4">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43901</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -10444,13 +10809,7 @@
       <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:E45" si="1">E4+1</f>
-        <v>43902</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -10460,13 +10819,7 @@
       <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>43903</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -10476,16 +10829,7 @@
       <c r="B7">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>43904</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -10496,14 +10840,10 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>43905</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10515,14 +10855,11 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>43906</v>
+        <f t="shared" ref="E9:E52" si="1">E8+1</f>
+        <v>43902</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -10534,14 +10871,11 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>43907</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -10553,14 +10887,14 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>43908</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10572,14 +10906,14 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>43909</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -10591,14 +10925,14 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>43910</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10610,14 +10944,14 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>43911</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10629,14 +10963,14 @@
         <v>80</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>43912</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -10648,14 +10982,14 @@
         <v>91</v>
       </c>
       <c r="C16">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>43913</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -10667,14 +11001,14 @@
         <v>116</v>
       </c>
       <c r="C17">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>43914</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -10686,14 +11020,14 @@
         <v>109</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>43915</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -10705,14 +11039,14 @@
         <v>149</v>
       </c>
       <c r="C19">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -10724,14 +11058,14 @@
         <v>129</v>
       </c>
       <c r="C20">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>43917</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -10743,14 +11077,14 @@
         <v>190</v>
       </c>
       <c r="C21">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>43918</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -10762,14 +11096,14 @@
         <v>223</v>
       </c>
       <c r="C22">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c r="D22">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>43919</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -10781,14 +11115,14 @@
         <v>270</v>
       </c>
       <c r="C23">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="D23">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>43920</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -10800,14 +11134,14 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>360</v>
+        <v>206</v>
       </c>
       <c r="D24">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>43921</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -10819,14 +11153,14 @@
         <v>319</v>
       </c>
       <c r="C25">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="D25">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>43922</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -10838,14 +11172,14 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>438</v>
+        <v>277</v>
       </c>
       <c r="D26">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>43923</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -10857,14 +11191,14 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>444</v>
+        <v>303</v>
       </c>
       <c r="D27">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>43924</v>
+        <v>43920</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -10876,14 +11210,14 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D28">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>43925</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10895,14 +11229,14 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>511</v>
+        <v>402</v>
       </c>
       <c r="D29">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>43926</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10914,14 +11248,14 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="D30">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>43927</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10933,14 +11267,14 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="D31">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>43928</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -10952,14 +11286,14 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D32">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>43929</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -10971,14 +11305,14 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="D33">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>43930</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -10990,14 +11324,14 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="D34">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>43931</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11009,14 +11343,14 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>423</v>
+        <v>543</v>
       </c>
       <c r="D35">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>43932</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -11028,14 +11362,14 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="D36">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>43933</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11047,14 +11381,14 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="D37">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>43934</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -11066,14 +11400,14 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>350</v>
+        <v>445</v>
       </c>
       <c r="D38">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>43935</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -11085,14 +11419,14 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>298</v>
+        <v>442</v>
       </c>
       <c r="D39">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>43936</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -11104,14 +11438,14 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>251</v>
+        <v>447</v>
       </c>
       <c r="D40">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>43937</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -11123,14 +11457,14 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>223</v>
+        <v>441</v>
       </c>
       <c r="D41">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>43938</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -11142,14 +11476,14 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="D42">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>43939</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11161,14 +11495,14 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="D43">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>43940</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -11180,11 +11514,14 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>263</v>
+      </c>
+      <c r="D44">
+        <v>236</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>43941</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11195,9 +11532,15 @@
       <c r="B45">
         <v>568</v>
       </c>
+      <c r="C45">
+        <v>247</v>
+      </c>
+      <c r="D45">
+        <v>195</v>
+      </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>43942</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -11208,6 +11551,16 @@
       <c r="B46">
         <v>527</v>
       </c>
+      <c r="C46">
+        <v>219</v>
+      </c>
+      <c r="D46">
+        <v>230</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>43939</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -11217,6 +11570,16 @@
       <c r="B47">
         <v>522</v>
       </c>
+      <c r="C47">
+        <v>177</v>
+      </c>
+      <c r="D47">
+        <v>239</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>43940</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -11226,8 +11589,18 @@
       <c r="B48">
         <v>459</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>246</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -11235,8 +11608,18 @@
       <c r="B49">
         <v>378</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>44137</v>
@@ -11244,8 +11627,12 @@
       <c r="B50">
         <v>365</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>44138</v>
@@ -11253,8 +11640,12 @@
       <c r="B51">
         <v>328</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>44139</v>
@@ -11262,8 +11653,12 @@
       <c r="B52">
         <v>323</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E52" s="2">
+        <f t="shared" si="1"/>
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>44140</v>
@@ -11272,7 +11667,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>44141</v>
@@ -11281,7 +11676,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>44142</v>
@@ -11290,7 +11685,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>44143</v>
@@ -11299,7 +11694,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>44144</v>
@@ -11308,7 +11703,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>44145</v>
@@ -11317,7 +11712,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>44146</v>
@@ -11326,7 +11721,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>44147</v>
@@ -11335,7 +11730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>44148</v>
@@ -11344,7 +11739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>44149</v>
@@ -11353,7 +11748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>44150</v>
@@ -11362,7 +11757,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>44151</v>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -649,61 +649,64 @@
                   <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>447</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>459</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>516</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>521</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>543</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>470</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>470</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>445</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>442</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>447</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>441</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>378</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>323</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>263</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>247</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>219</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>177</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>96</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9</c:v>
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1015,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5</c:v>
@@ -1030,85 +1033,88 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>126</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>191</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>196</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>217</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>211</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>269</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>267</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>254</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>250</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>242</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>225</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>254</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>249</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>184</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>236</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>246</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>21</c:v>
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,8 +1130,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="509381968"/>
-        <c:axId val="509385888"/>
+        <c:axId val="509386448"/>
+        <c:axId val="509374688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1666,11 +1672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509381968"/>
-        <c:axId val="509385888"/>
+        <c:axId val="509386448"/>
+        <c:axId val="509374688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509381968"/>
+        <c:axId val="509386448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509385888"/>
+        <c:crossAx val="509374688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1721,7 +1727,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509385888"/>
+        <c:axId val="509374688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509381968"/>
+        <c:crossAx val="509386448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3609,15 +3615,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3645,8 +3651,11 @@
       <c r="J1">
         <v>422</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -3657,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -3668,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -3679,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -3692,8 +3701,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -3703,8 +3715,11 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3738,8 +3753,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3776,8 +3794,11 @@
       <c r="J8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -3814,8 +3835,11 @@
       <c r="J9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -3852,8 +3876,11 @@
       <c r="J10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -3890,8 +3917,11 @@
       <c r="J11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -3928,8 +3958,11 @@
       <c r="J12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -3966,8 +3999,11 @@
       <c r="J13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -4004,8 +4040,11 @@
       <c r="J14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -4042,8 +4081,11 @@
       <c r="J15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -4080,8 +4122,11 @@
       <c r="J16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -4118,8 +4163,11 @@
       <c r="J17">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -4156,8 +4204,11 @@
       <c r="J18">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -4194,8 +4245,11 @@
       <c r="J19">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4232,8 +4286,11 @@
       <c r="J20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4270,8 +4327,11 @@
       <c r="J21">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4308,8 +4368,11 @@
       <c r="J22">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4346,8 +4409,11 @@
       <c r="J23">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4384,8 +4450,11 @@
       <c r="J24">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4422,8 +4491,11 @@
       <c r="J25">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -4460,8 +4532,11 @@
       <c r="J26">
         <v>217</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -4498,8 +4573,11 @@
       <c r="J27">
         <v>211</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -4536,8 +4614,11 @@
       <c r="J28">
         <v>269</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -4574,8 +4655,11 @@
       <c r="J29">
         <v>267</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -4612,8 +4696,11 @@
       <c r="J30">
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -4650,8 +4737,11 @@
       <c r="J31">
         <v>250</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -4688,8 +4778,11 @@
       <c r="J32">
         <v>242</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -4726,8 +4819,11 @@
       <c r="J33">
         <v>225</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -4764,8 +4860,11 @@
       <c r="J34">
         <v>254</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -4802,8 +4901,11 @@
       <c r="J35">
         <v>258</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -4836,8 +4938,11 @@
       <c r="J36">
         <v>249</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -4866,8 +4971,11 @@
       <c r="J37">
         <v>184</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -4892,8 +5000,11 @@
       <c r="J38">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -4914,8 +5025,11 @@
       <c r="J39">
         <v>195</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -4932,26 +5046,43 @@
       <c r="J40">
         <v>230</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I41">
         <v>240</v>
       </c>
       <c r="J41">
         <v>239</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J43">
         <v>21</v>
+      </c>
+      <c r="K43">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4961,15 +5092,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11:AC53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -5051,8 +5182,11 @@
       <c r="AB1">
         <v>422</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -5134,8 +5268,11 @@
       <c r="AA2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -5217,8 +5354,11 @@
       <c r="AA3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -5300,8 +5440,11 @@
       <c r="AA4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -5383,8 +5526,11 @@
       <c r="AA5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -5466,8 +5612,11 @@
       <c r="AA6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -5549,8 +5698,11 @@
       <c r="AA7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -5632,8 +5784,11 @@
       <c r="AA8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -5715,8 +5870,11 @@
       <c r="AA9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -5798,8 +5956,11 @@
       <c r="AA10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -5884,8 +6045,11 @@
       <c r="AB11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -5970,8 +6134,11 @@
       <c r="AB12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -6056,8 +6223,11 @@
       <c r="AB13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -6142,8 +6312,11 @@
       <c r="AB14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -6228,8 +6401,11 @@
       <c r="AB15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -6314,8 +6490,11 @@
       <c r="AB16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -6400,8 +6579,11 @@
       <c r="AB17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -6486,8 +6668,11 @@
       <c r="AB18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -6572,8 +6757,11 @@
       <c r="AB19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -6658,8 +6846,11 @@
       <c r="AB20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -6744,8 +6935,11 @@
       <c r="AB21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -6830,8 +7024,11 @@
       <c r="AB22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -6916,8 +7113,11 @@
       <c r="AB23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -7002,8 +7202,11 @@
       <c r="AB24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -7088,8 +7291,11 @@
       <c r="AB25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -7171,8 +7377,11 @@
       <c r="AB26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -7251,8 +7460,11 @@
       <c r="AB27">
         <v>206</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC27">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -7328,8 +7540,11 @@
       <c r="AB28">
         <v>261</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC28">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -7405,8 +7620,11 @@
       <c r="AB29">
         <v>277</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC29">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -7482,8 +7700,11 @@
       <c r="AB30">
         <v>303</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC30">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -7556,8 +7777,11 @@
       <c r="AB31">
         <v>362</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC31">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -7627,8 +7851,11 @@
       <c r="AB32">
         <v>402</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC32">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -7695,8 +7922,11 @@
       <c r="AB33">
         <v>441</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC33">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -7760,8 +7990,11 @@
       <c r="AB34">
         <v>447</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC34">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -7822,8 +8055,11 @@
       <c r="AB35">
         <v>459</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC35">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -7881,8 +8117,11 @@
       <c r="AB36">
         <v>516</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC36">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -7937,8 +8176,11 @@
       <c r="AB37">
         <v>521</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC37">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -7990,8 +8232,11 @@
       <c r="AB38">
         <v>543</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC38">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -8040,8 +8285,11 @@
       <c r="AB39">
         <v>470</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC39">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -8087,8 +8335,11 @@
       <c r="AB40">
         <v>470</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC40">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -8131,8 +8382,11 @@
       <c r="AB41">
         <v>445</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC41">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -8172,8 +8426,11 @@
       <c r="AB42">
         <v>442</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC42">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -8210,8 +8467,11 @@
       <c r="AB43">
         <v>447</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC43">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -8245,8 +8505,11 @@
       <c r="AB44">
         <v>441</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC44">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -8274,8 +8537,11 @@
       <c r="AB45">
         <v>378</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC45">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -8300,8 +8566,11 @@
       <c r="AB46">
         <v>323</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC46">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -8323,8 +8592,11 @@
       <c r="AB47">
         <v>263</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC47">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -8343,8 +8615,11 @@
       <c r="AB48">
         <v>247</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC48">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -8360,8 +8635,11 @@
       <c r="AB49">
         <v>219</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC49">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -8374,8 +8652,11 @@
       <c r="AB50">
         <v>177</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC50">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -8385,31 +8666,40 @@
       <c r="AB51">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC51">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
       <c r="AB52">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC52">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -8421,13 +8711,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -8456,8 +8748,11 @@
         <f>422</f>
         <v>422</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -8497,8 +8792,12 @@
         <f>Confirmed!AB11+Daily!J2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>Confirmed!AC11+Daily!K2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -8538,8 +8837,12 @@
         <f>Confirmed!AB12+Daily!J3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f>Confirmed!AC12+Daily!K3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -8579,8 +8882,12 @@
         <f>Confirmed!AB13+Daily!J4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f>Confirmed!AC13+Daily!K4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -8620,8 +8927,12 @@
         <f>Confirmed!AB14+Daily!J5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f>Confirmed!AC14+Daily!K5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -8661,8 +8972,12 @@
         <f>Confirmed!AB15+Daily!J6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f>Confirmed!AC15+Daily!K6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -8702,8 +9017,12 @@
         <f>Confirmed!AB16+Daily!J7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f>Confirmed!AC16+Daily!K7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -8743,8 +9062,12 @@
         <f>Confirmed!AB17+Daily!J8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f>Confirmed!AC17+Daily!K8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -8784,8 +9107,12 @@
         <f>Confirmed!AB18+Daily!J9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <f>Confirmed!AC18+Daily!K9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -8825,8 +9152,12 @@
         <f>Confirmed!AB19+Daily!J10</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f>Confirmed!AC19+Daily!K10</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -8866,8 +9197,12 @@
         <f>Confirmed!AB20+Daily!J11</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f>Confirmed!AC20+Daily!K11</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -8907,8 +9242,12 @@
         <f>Confirmed!AB21+Daily!J12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f>Confirmed!AC21+Daily!K12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -8948,8 +9287,12 @@
         <f>Confirmed!AB22+Daily!J13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f>Confirmed!AC22+Daily!K13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -8989,8 +9332,12 @@
         <f>Confirmed!AB23+Daily!J14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f>Confirmed!AC23+Daily!K14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -9030,8 +9377,12 @@
         <f>Confirmed!AB24+Daily!J15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f>Confirmed!AC24+Daily!K15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -9071,8 +9422,12 @@
         <f>Confirmed!AB25+Daily!J16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f>Confirmed!AC25+Daily!K16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -9112,8 +9467,12 @@
         <f>Confirmed!AB26+Daily!J17</f>
         <v>224</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f>Confirmed!AC26+Daily!K17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -9153,8 +9512,12 @@
         <f>Confirmed!AB27+Daily!J18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f>Confirmed!AC27+Daily!K18</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -9194,8 +9557,12 @@
         <f>Confirmed!AB28+Daily!J19</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f>Confirmed!AC28+Daily!K19</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -9235,8 +9602,12 @@
         <f>Confirmed!AB29+Daily!J20</f>
         <v>352</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f>Confirmed!AC29+Daily!K20</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -9276,8 +9647,12 @@
         <f>Confirmed!AB30+Daily!J21</f>
         <v>398</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f>Confirmed!AC30+Daily!K21</f>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -9317,8 +9692,12 @@
         <f>Confirmed!AB31+Daily!J22</f>
         <v>460</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f>Confirmed!AC31+Daily!K22</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -9358,8 +9737,12 @@
         <f>Confirmed!AB32+Daily!J23</f>
         <v>528</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f>Confirmed!AC32+Daily!K23</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -9399,8 +9782,12 @@
         <f>Confirmed!AB33+Daily!J24</f>
         <v>632</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f>Confirmed!AC33+Daily!K24</f>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -9440,8 +9827,12 @@
         <f>Confirmed!AB34+Daily!J25</f>
         <v>643</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f>Confirmed!AC34+Daily!K25</f>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -9481,8 +9872,12 @@
         <f>Confirmed!AB35+Daily!J26</f>
         <v>676</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f>Confirmed!AC35+Daily!K26</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -9522,8 +9917,12 @@
         <f>Confirmed!AB36+Daily!J27</f>
         <v>727</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f>Confirmed!AC36+Daily!K27</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -9563,8 +9962,12 @@
         <f>Confirmed!AB37+Daily!J28</f>
         <v>790</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <f>Confirmed!AC37+Daily!K28</f>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -9604,8 +10007,12 @@
         <f>Confirmed!AB38+Daily!J29</f>
         <v>810</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f>Confirmed!AC38+Daily!K29</f>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -9645,8 +10052,12 @@
         <f>Confirmed!AB39+Daily!J30</f>
         <v>724</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <f>Confirmed!AC39+Daily!K30</f>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -9686,8 +10097,12 @@
         <f>Confirmed!AB40+Daily!J31</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f>Confirmed!AC40+Daily!K31</f>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -9727,8 +10142,12 @@
         <f>Confirmed!AB41+Daily!J32</f>
         <v>687</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <f>Confirmed!AC41+Daily!K32</f>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -9768,8 +10187,12 @@
         <f>Confirmed!AB42+Daily!J33</f>
         <v>667</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f>Confirmed!AC42+Daily!K33</f>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -9809,8 +10232,12 @@
         <f>Confirmed!AB43+Daily!J34</f>
         <v>701</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <f>Confirmed!AC43+Daily!K34</f>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -9850,8 +10277,12 @@
         <f>Confirmed!AB44+Daily!J35</f>
         <v>699</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <f>Confirmed!AC44+Daily!K35</f>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -9891,8 +10322,12 @@
         <f>Confirmed!AB45+Daily!J36</f>
         <v>627</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f>Confirmed!AC45+Daily!K36</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -9932,8 +10367,12 @@
         <f>Confirmed!AB46+Daily!J37</f>
         <v>507</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <f>Confirmed!AC46+Daily!K37</f>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -9973,8 +10412,12 @@
         <f>Confirmed!AB47+Daily!J38</f>
         <v>499</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <f>Confirmed!AC47+Daily!K38</f>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -10014,8 +10457,12 @@
         <f>Confirmed!AB48+Daily!J39</f>
         <v>442</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <f>Confirmed!AC48+Daily!K39</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -10035,8 +10482,12 @@
         <f>Confirmed!AB49+Daily!J40</f>
         <v>449</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <f>Confirmed!AC49+Daily!K40</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -10056,8 +10507,12 @@
         <f>Confirmed!AB50+Daily!J41</f>
         <v>416</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <f>Confirmed!AC50+Daily!K41</f>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -10069,8 +10524,12 @@
         <f>Confirmed!AB51+Daily!J42</f>
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <f>Confirmed!AC51+Daily!K42</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -10078,8 +10537,12 @@
         <f>Confirmed!AB52+Daily!J43</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <f>Confirmed!AC52+Daily!K43</f>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -10087,20 +10550,36 @@
         <f>Confirmed!AB53+Daily!J44</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <f>Confirmed!AC53+Daily!K44</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <f>Confirmed!AC54+Daily!K45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <f>Confirmed!AC55+Daily!K46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
+      </c>
+      <c r="K47">
+        <f>Confirmed!AC56+Daily!K47</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10748,8 +11227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E7"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11004,7 +11483,7 @@
         <v>46</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
@@ -11118,7 +11597,7 @@
         <v>185</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
@@ -11137,7 +11616,7 @@
         <v>206</v>
       </c>
       <c r="D24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -11156,7 +11635,7 @@
         <v>261</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -11175,7 +11654,7 @@
         <v>277</v>
       </c>
       <c r="D26">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -11213,7 +11692,7 @@
         <v>362</v>
       </c>
       <c r="D28">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -11232,7 +11711,7 @@
         <v>402</v>
       </c>
       <c r="D29">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -11251,7 +11730,7 @@
         <v>441</v>
       </c>
       <c r="D30">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -11267,10 +11746,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D31">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -11286,10 +11765,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D32">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -11305,10 +11784,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D33">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -11324,10 +11803,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D34">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -11343,10 +11822,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D35">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -11362,10 +11841,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D36">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -11381,10 +11860,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D37">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -11400,10 +11879,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D38">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -11419,10 +11898,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D39">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -11438,10 +11917,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D40">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -11457,10 +11936,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D41">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -11476,10 +11955,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D42">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -11495,10 +11974,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D43">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -11514,10 +11993,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D44">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -11533,10 +12012,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="D45">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -11552,10 +12031,10 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="D46">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
@@ -11571,10 +12050,10 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D47">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
@@ -11590,10 +12069,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="D48">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -11609,10 +12088,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D49">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -11627,6 +12106,12 @@
       <c r="B50">
         <v>365</v>
       </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>43943</v>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -619,7 +619,7 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>121</c:v>
@@ -628,85 +628,94 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>206</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>261</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>277</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>303</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>362</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>402</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>441</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>449</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>463</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>517</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>523</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>546</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>474</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>481</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>453</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>448</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>455</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>453</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>389</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>335</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>274</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>268</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>246</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>221</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>185</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>76</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15</c:v>
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,10 +1033,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>19</c:v>
@@ -1042,79 +1051,88 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>124</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>194</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>193</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>209</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>265</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>263</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>247</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>243</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>233</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>226</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>246</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>253</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>241</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>171</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>230</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>180</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>210</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>205</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>236</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>220</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30</c:v>
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,8 +1148,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="509386448"/>
-        <c:axId val="509374688"/>
+        <c:axId val="296040992"/>
+        <c:axId val="296041552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1672,11 +1690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509386448"/>
-        <c:axId val="509374688"/>
+        <c:axId val="296040992"/>
+        <c:axId val="296041552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509386448"/>
+        <c:axId val="296040992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +1736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509374688"/>
+        <c:crossAx val="296041552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1727,7 +1745,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509374688"/>
+        <c:axId val="296041552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509386448"/>
+        <c:crossAx val="296040992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2420,7 +2438,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="58" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2431,7 +2449,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6298406"/>
+    <xdr:ext cx="8657897" cy="6279931"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3615,15 +3633,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K44"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3654,8 +3672,17 @@
       <c r="K1">
         <v>423</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <v>424</v>
+      </c>
+      <c r="M1">
+        <v>425</v>
+      </c>
+      <c r="N1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -3666,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -3677,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -3688,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -3704,8 +3731,17 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -3718,8 +3754,17 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3756,8 +3801,17 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3797,8 +3851,17 @@
       <c r="K8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -3838,8 +3901,17 @@
       <c r="K9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -3879,8 +3951,17 @@
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -3920,8 +4001,17 @@
       <c r="K11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -3961,8 +4051,17 @@
       <c r="K12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -4002,8 +4101,17 @@
       <c r="K13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -4043,8 +4151,17 @@
       <c r="K14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -4084,8 +4201,17 @@
       <c r="K15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -4125,8 +4251,17 @@
       <c r="K16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -4166,8 +4301,17 @@
       <c r="K17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -4207,8 +4351,17 @@
       <c r="K18">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>45</v>
+      </c>
+      <c r="N18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -4248,8 +4401,17 @@
       <c r="K19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>64</v>
+      </c>
+      <c r="M19">
+        <v>65</v>
+      </c>
+      <c r="N19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4289,8 +4451,17 @@
       <c r="K20">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>74</v>
+      </c>
+      <c r="M20">
+        <v>74</v>
+      </c>
+      <c r="N20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4330,8 +4501,17 @@
       <c r="K21">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>96</v>
+      </c>
+      <c r="M21">
+        <v>96</v>
+      </c>
+      <c r="N21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4371,8 +4551,17 @@
       <c r="K22">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>98</v>
+      </c>
+      <c r="M22">
+        <v>99</v>
+      </c>
+      <c r="N22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4412,8 +4601,17 @@
       <c r="K23">
         <v>124</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>121</v>
+      </c>
+      <c r="M23">
+        <v>121</v>
+      </c>
+      <c r="N23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4453,8 +4651,17 @@
       <c r="K24">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>192</v>
+      </c>
+      <c r="M24">
+        <v>194</v>
+      </c>
+      <c r="N24">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4494,8 +4701,17 @@
       <c r="K25">
         <v>193</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>191</v>
+      </c>
+      <c r="M25">
+        <v>190</v>
+      </c>
+      <c r="N25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -4535,8 +4751,17 @@
       <c r="K26">
         <v>212</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>211</v>
+      </c>
+      <c r="M26">
+        <v>212</v>
+      </c>
+      <c r="N26">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -4576,8 +4801,17 @@
       <c r="K27">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>205</v>
+      </c>
+      <c r="M27">
+        <v>204</v>
+      </c>
+      <c r="N27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -4617,8 +4851,17 @@
       <c r="K28">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>264</v>
+      </c>
+      <c r="M28">
+        <v>263</v>
+      </c>
+      <c r="N28">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -4658,8 +4901,17 @@
       <c r="K29">
         <v>263</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>258</v>
+      </c>
+      <c r="M29">
+        <v>258</v>
+      </c>
+      <c r="N29">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -4699,8 +4951,17 @@
       <c r="K30">
         <v>247</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>238</v>
+      </c>
+      <c r="M30">
+        <v>239</v>
+      </c>
+      <c r="N30">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -4740,8 +5001,17 @@
       <c r="K31">
         <v>243</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>231</v>
+      </c>
+      <c r="M31">
+        <v>226</v>
+      </c>
+      <c r="N31">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -4781,8 +5051,17 @@
       <c r="K32">
         <v>233</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>227</v>
+      </c>
+      <c r="M32">
+        <v>223</v>
+      </c>
+      <c r="N32">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -4822,8 +5101,17 @@
       <c r="K33">
         <v>226</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>214</v>
+      </c>
+      <c r="M33">
+        <v>209</v>
+      </c>
+      <c r="N33">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -4863,8 +5151,17 @@
       <c r="K34">
         <v>246</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>237</v>
+      </c>
+      <c r="M34">
+        <v>230</v>
+      </c>
+      <c r="N34">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -4904,8 +5201,17 @@
       <c r="K35">
         <v>253</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>245</v>
+      </c>
+      <c r="M35">
+        <v>246</v>
+      </c>
+      <c r="N35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -4941,8 +5247,17 @@
       <c r="K36">
         <v>241</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>218</v>
+      </c>
+      <c r="M36">
+        <v>209</v>
+      </c>
+      <c r="N36">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -4974,8 +5289,17 @@
       <c r="K37">
         <v>171</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>158</v>
+      </c>
+      <c r="M37">
+        <v>158</v>
+      </c>
+      <c r="N37">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -5003,8 +5327,17 @@
       <c r="K38">
         <v>230</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>209</v>
+      </c>
+      <c r="M38">
+        <v>207</v>
+      </c>
+      <c r="N38">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -5028,8 +5361,17 @@
       <c r="K39">
         <v>180</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>168</v>
+      </c>
+      <c r="M39">
+        <v>163</v>
+      </c>
+      <c r="N39">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -5049,8 +5391,20 @@
       <c r="K40">
         <v>210</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>196</v>
+      </c>
+      <c r="M40">
+        <v>195</v>
+      </c>
+      <c r="N40">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>419</v>
+      </c>
       <c r="I41">
         <v>240</v>
       </c>
@@ -5060,8 +5414,20 @@
       <c r="K41">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>196</v>
+      </c>
+      <c r="M41">
+        <v>195</v>
+      </c>
+      <c r="N41">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>420</v>
+      </c>
       <c r="I42">
         <v>0</v>
       </c>
@@ -5071,18 +5437,84 @@
       <c r="K42">
         <v>236</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>210</v>
+      </c>
+      <c r="M42">
+        <v>211</v>
+      </c>
+      <c r="N42">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>421</v>
+      </c>
       <c r="J43">
         <v>21</v>
       </c>
       <c r="K43">
         <v>220</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>196</v>
+      </c>
+      <c r="M43">
+        <v>198</v>
+      </c>
+      <c r="N43">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>422</v>
+      </c>
       <c r="K44">
         <v>30</v>
+      </c>
+      <c r="L44">
+        <v>201</v>
+      </c>
+      <c r="M44">
+        <v>228</v>
+      </c>
+      <c r="N44">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>423</v>
+      </c>
+      <c r="L45">
+        <v>28</v>
+      </c>
+      <c r="M45">
+        <v>218</v>
+      </c>
+      <c r="N45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>424</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>425</v>
+      </c>
+      <c r="N47">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5092,15 +5524,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC56"/>
+  <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11:AC53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF11" sqref="A1:AF56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -5185,8 +5617,17 @@
       <c r="AC1">
         <v>423</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD1">
+        <v>424</v>
+      </c>
+      <c r="AE1">
+        <v>425</v>
+      </c>
+      <c r="AF1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -5272,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -5358,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -5444,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -5530,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -5616,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -5702,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -5788,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -5874,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -5960,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -6048,8 +6489,17 @@
       <c r="AC11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -6137,8 +6587,17 @@
       <c r="AC12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -6226,8 +6685,17 @@
       <c r="AC13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -6315,8 +6783,17 @@
       <c r="AC14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -6404,8 +6881,17 @@
       <c r="AC15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD15">
+        <v>6</v>
+      </c>
+      <c r="AE15">
+        <v>6</v>
+      </c>
+      <c r="AF15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -6493,8 +6979,17 @@
       <c r="AC16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD16">
+        <v>9</v>
+      </c>
+      <c r="AE16">
+        <v>9</v>
+      </c>
+      <c r="AF16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -6582,8 +7077,17 @@
       <c r="AC17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>7</v>
+      </c>
+      <c r="AF17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -6671,8 +7175,17 @@
       <c r="AC18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD18">
+        <v>21</v>
+      </c>
+      <c r="AE18">
+        <v>21</v>
+      </c>
+      <c r="AF18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -6760,8 +7273,17 @@
       <c r="AC19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD19">
+        <v>25</v>
+      </c>
+      <c r="AE19">
+        <v>25</v>
+      </c>
+      <c r="AF19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -6849,8 +7371,17 @@
       <c r="AC20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD20">
+        <v>46</v>
+      </c>
+      <c r="AE20">
+        <v>46</v>
+      </c>
+      <c r="AF20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -6938,8 +7469,17 @@
       <c r="AC21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD21">
+        <v>41</v>
+      </c>
+      <c r="AE21">
+        <v>41</v>
+      </c>
+      <c r="AF21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -7027,8 +7567,17 @@
       <c r="AC22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD22">
+        <v>48</v>
+      </c>
+      <c r="AE22">
+        <v>48</v>
+      </c>
+      <c r="AF22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -7116,8 +7665,17 @@
       <c r="AC23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD23">
+        <v>81</v>
+      </c>
+      <c r="AE23">
+        <v>81</v>
+      </c>
+      <c r="AF23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -7205,8 +7763,17 @@
       <c r="AC24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD24">
+        <v>92</v>
+      </c>
+      <c r="AE24">
+        <v>92</v>
+      </c>
+      <c r="AF24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -7294,8 +7861,17 @@
       <c r="AC25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD25">
+        <v>121</v>
+      </c>
+      <c r="AE25">
+        <v>121</v>
+      </c>
+      <c r="AF25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -7380,8 +7956,17 @@
       <c r="AC26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD26">
+        <v>185</v>
+      </c>
+      <c r="AE26">
+        <v>185</v>
+      </c>
+      <c r="AF26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -7463,8 +8048,17 @@
       <c r="AC27">
         <v>206</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD27">
+        <v>207</v>
+      </c>
+      <c r="AE27">
+        <v>207</v>
+      </c>
+      <c r="AF27">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -7543,8 +8137,17 @@
       <c r="AC28">
         <v>261</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD28">
+        <v>262</v>
+      </c>
+      <c r="AE28">
+        <v>262</v>
+      </c>
+      <c r="AF28">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -7623,8 +8226,17 @@
       <c r="AC29">
         <v>277</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD29">
+        <v>278</v>
+      </c>
+      <c r="AE29">
+        <v>278</v>
+      </c>
+      <c r="AF29">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -7703,8 +8315,17 @@
       <c r="AC30">
         <v>303</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD30">
+        <v>303</v>
+      </c>
+      <c r="AE30">
+        <v>303</v>
+      </c>
+      <c r="AF30">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -7780,8 +8401,17 @@
       <c r="AC31">
         <v>362</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD31">
+        <v>362</v>
+      </c>
+      <c r="AE31">
+        <v>362</v>
+      </c>
+      <c r="AF31">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -7854,8 +8484,17 @@
       <c r="AC32">
         <v>402</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD32">
+        <v>405</v>
+      </c>
+      <c r="AE32">
+        <v>405</v>
+      </c>
+      <c r="AF32">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -7925,8 +8564,17 @@
       <c r="AC33">
         <v>441</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD33">
+        <v>444</v>
+      </c>
+      <c r="AE33">
+        <v>445</v>
+      </c>
+      <c r="AF33">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -7993,8 +8641,17 @@
       <c r="AC34">
         <v>449</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD34">
+        <v>453</v>
+      </c>
+      <c r="AE34">
+        <v>455</v>
+      </c>
+      <c r="AF34">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -8058,8 +8715,17 @@
       <c r="AC35">
         <v>463</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD35">
+        <v>464</v>
+      </c>
+      <c r="AE35">
+        <v>466</v>
+      </c>
+      <c r="AF35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -8120,8 +8786,17 @@
       <c r="AC36">
         <v>517</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD36">
+        <v>521</v>
+      </c>
+      <c r="AE36">
+        <v>523</v>
+      </c>
+      <c r="AF36">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -8179,8 +8854,17 @@
       <c r="AC37">
         <v>523</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD37">
+        <v>527</v>
+      </c>
+      <c r="AE37">
+        <v>529</v>
+      </c>
+      <c r="AF37">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -8235,8 +8919,17 @@
       <c r="AC38">
         <v>546</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD38">
+        <v>550</v>
+      </c>
+      <c r="AE38">
+        <v>552</v>
+      </c>
+      <c r="AF38">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -8288,8 +8981,17 @@
       <c r="AC39">
         <v>474</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD39">
+        <v>491</v>
+      </c>
+      <c r="AE39">
+        <v>492</v>
+      </c>
+      <c r="AF39">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -8338,8 +9040,17 @@
       <c r="AC40">
         <v>481</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD40">
+        <v>493</v>
+      </c>
+      <c r="AE40">
+        <v>498</v>
+      </c>
+      <c r="AF40">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -8385,8 +9096,17 @@
       <c r="AC41">
         <v>453</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD41">
+        <v>468</v>
+      </c>
+      <c r="AE41">
+        <v>474</v>
+      </c>
+      <c r="AF41">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -8429,8 +9149,17 @@
       <c r="AC42">
         <v>448</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD42">
+        <v>463</v>
+      </c>
+      <c r="AE42">
+        <v>471</v>
+      </c>
+      <c r="AF42">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -8470,8 +9199,17 @@
       <c r="AC43">
         <v>455</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD43">
+        <v>480</v>
+      </c>
+      <c r="AE43">
+        <v>487</v>
+      </c>
+      <c r="AF43">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -8508,8 +9246,17 @@
       <c r="AC44">
         <v>453</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD44">
+        <v>473</v>
+      </c>
+      <c r="AE44">
+        <v>480</v>
+      </c>
+      <c r="AF44">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -8540,8 +9287,17 @@
       <c r="AC45">
         <v>389</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD45">
+        <v>417</v>
+      </c>
+      <c r="AE45">
+        <v>434</v>
+      </c>
+      <c r="AF45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -8569,8 +9325,17 @@
       <c r="AC46">
         <v>335</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD46">
+        <v>358</v>
+      </c>
+      <c r="AE46">
+        <v>369</v>
+      </c>
+      <c r="AF46">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -8595,8 +9360,17 @@
       <c r="AC47">
         <v>274</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD47">
+        <v>311</v>
+      </c>
+      <c r="AE47">
+        <v>316</v>
+      </c>
+      <c r="AF47">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -8618,8 +9392,17 @@
       <c r="AC48">
         <v>268</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD48">
+        <v>283</v>
+      </c>
+      <c r="AE48">
+        <v>289</v>
+      </c>
+      <c r="AF48">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -8638,8 +9421,17 @@
       <c r="AC49">
         <v>246</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD49">
+        <v>263</v>
+      </c>
+      <c r="AE49">
+        <v>270</v>
+      </c>
+      <c r="AF49">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -8655,8 +9447,17 @@
       <c r="AC50">
         <v>221</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD50">
+        <v>243</v>
+      </c>
+      <c r="AE50">
+        <v>249</v>
+      </c>
+      <c r="AF50">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -8669,8 +9470,17 @@
       <c r="AC51">
         <v>185</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD51">
+        <v>216</v>
+      </c>
+      <c r="AE51">
+        <v>223</v>
+      </c>
+      <c r="AF51">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -8680,28 +9490,64 @@
       <c r="AC52">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD52">
+        <v>158</v>
+      </c>
+      <c r="AE52">
+        <v>162</v>
+      </c>
+      <c r="AF52">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
       <c r="AC53">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD53">
+        <v>78</v>
+      </c>
+      <c r="AE53">
+        <v>107</v>
+      </c>
+      <c r="AF53">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD54">
+        <v>12</v>
+      </c>
+      <c r="AE54">
+        <v>76</v>
+      </c>
+      <c r="AF54">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE55">
+        <v>11</v>
+      </c>
+      <c r="AF55">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
+      </c>
+      <c r="AF56">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8711,15 +9557,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K44"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -8751,8 +9597,17 @@
       <c r="K1">
         <v>423</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <v>424</v>
+      </c>
+      <c r="M1">
+        <v>425</v>
+      </c>
+      <c r="N1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -8796,8 +9651,20 @@
         <f>Confirmed!AC11+Daily!K2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <f>Confirmed!AD11+Daily!L2</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>Confirmed!AE11+Daily!M2</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>Confirmed!AF11+Daily!N2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -8841,8 +9708,20 @@
         <f>Confirmed!AC12+Daily!K3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <f>Confirmed!AD12+Daily!L3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>Confirmed!AE12+Daily!M3</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>Confirmed!AF12+Daily!N3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -8886,8 +9765,20 @@
         <f>Confirmed!AC13+Daily!K4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <f>Confirmed!AD13+Daily!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>Confirmed!AE13+Daily!M4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>Confirmed!AF13+Daily!N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -8931,8 +9822,20 @@
         <f>Confirmed!AC14+Daily!K5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <f>Confirmed!AD14+Daily!L5</f>
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f>Confirmed!AE14+Daily!M5</f>
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f>Confirmed!AF14+Daily!N5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -8976,8 +9879,20 @@
         <f>Confirmed!AC15+Daily!K6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <f>Confirmed!AD15+Daily!L6</f>
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f>Confirmed!AE15+Daily!M6</f>
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <f>Confirmed!AF15+Daily!N6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -9021,8 +9936,20 @@
         <f>Confirmed!AC16+Daily!K7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <f>Confirmed!AD16+Daily!L7</f>
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <f>Confirmed!AE16+Daily!M7</f>
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <f>Confirmed!AF16+Daily!N7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -9066,8 +9993,20 @@
         <f>Confirmed!AC17+Daily!K8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f>Confirmed!AD17+Daily!L8</f>
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <f>Confirmed!AE17+Daily!M8</f>
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <f>Confirmed!AF17+Daily!N8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -9111,8 +10050,20 @@
         <f>Confirmed!AC18+Daily!K9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f>Confirmed!AD18+Daily!L9</f>
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <f>Confirmed!AE18+Daily!M9</f>
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <f>Confirmed!AF18+Daily!N9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -9156,8 +10107,20 @@
         <f>Confirmed!AC19+Daily!K10</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f>Confirmed!AD19+Daily!L10</f>
+        <v>27</v>
+      </c>
+      <c r="M10">
+        <f>Confirmed!AE19+Daily!M10</f>
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <f>Confirmed!AF19+Daily!N10</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -9201,8 +10164,20 @@
         <f>Confirmed!AC20+Daily!K11</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f>Confirmed!AD20+Daily!L11</f>
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <f>Confirmed!AE20+Daily!M11</f>
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <f>Confirmed!AF20+Daily!N11</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -9246,8 +10221,20 @@
         <f>Confirmed!AC21+Daily!K12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <f>Confirmed!AD21+Daily!L12</f>
+        <v>46</v>
+      </c>
+      <c r="M12">
+        <f>Confirmed!AE21+Daily!M12</f>
+        <v>46</v>
+      </c>
+      <c r="N12">
+        <f>Confirmed!AF21+Daily!N12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -9291,8 +10278,20 @@
         <f>Confirmed!AC22+Daily!K13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <f>Confirmed!AD22+Daily!L13</f>
+        <v>52</v>
+      </c>
+      <c r="M13">
+        <f>Confirmed!AE22+Daily!M13</f>
+        <v>52</v>
+      </c>
+      <c r="N13">
+        <f>Confirmed!AF22+Daily!N13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -9336,8 +10335,20 @@
         <f>Confirmed!AC23+Daily!K14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f>Confirmed!AD23+Daily!L14</f>
+        <v>96</v>
+      </c>
+      <c r="M14">
+        <f>Confirmed!AE23+Daily!M14</f>
+        <v>96</v>
+      </c>
+      <c r="N14">
+        <f>Confirmed!AF23+Daily!N14</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -9381,8 +10392,20 @@
         <f>Confirmed!AC24+Daily!K15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <f>Confirmed!AD24+Daily!L15</f>
+        <v>105</v>
+      </c>
+      <c r="M15">
+        <f>Confirmed!AE24+Daily!M15</f>
+        <v>105</v>
+      </c>
+      <c r="N15">
+        <f>Confirmed!AF24+Daily!N15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -9426,8 +10449,20 @@
         <f>Confirmed!AC25+Daily!K16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f>Confirmed!AD25+Daily!L16</f>
+        <v>140</v>
+      </c>
+      <c r="M16">
+        <f>Confirmed!AE25+Daily!M16</f>
+        <v>140</v>
+      </c>
+      <c r="N16">
+        <f>Confirmed!AF25+Daily!N16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -9471,8 +10506,20 @@
         <f>Confirmed!AC26+Daily!K17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f>Confirmed!AD26+Daily!L17</f>
+        <v>225</v>
+      </c>
+      <c r="M17">
+        <f>Confirmed!AE26+Daily!M17</f>
+        <v>225</v>
+      </c>
+      <c r="N17">
+        <f>Confirmed!AF26+Daily!N17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -9516,8 +10563,20 @@
         <f>Confirmed!AC27+Daily!K18</f>
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>Confirmed!AD27+Daily!L18</f>
+        <v>251</v>
+      </c>
+      <c r="M18">
+        <f>Confirmed!AE27+Daily!M18</f>
+        <v>252</v>
+      </c>
+      <c r="N18">
+        <f>Confirmed!AF27+Daily!N18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -9561,8 +10620,20 @@
         <f>Confirmed!AC28+Daily!K19</f>
         <v>325</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f>Confirmed!AD28+Daily!L19</f>
+        <v>326</v>
+      </c>
+      <c r="M19">
+        <f>Confirmed!AE28+Daily!M19</f>
+        <v>327</v>
+      </c>
+      <c r="N19">
+        <f>Confirmed!AF28+Daily!N19</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -9606,8 +10677,20 @@
         <f>Confirmed!AC29+Daily!K20</f>
         <v>351</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>Confirmed!AD29+Daily!L20</f>
+        <v>352</v>
+      </c>
+      <c r="M20">
+        <f>Confirmed!AE29+Daily!M20</f>
+        <v>352</v>
+      </c>
+      <c r="N20">
+        <f>Confirmed!AF29+Daily!N20</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -9651,8 +10734,20 @@
         <f>Confirmed!AC30+Daily!K21</f>
         <v>398</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f>Confirmed!AD30+Daily!L21</f>
+        <v>399</v>
+      </c>
+      <c r="M21">
+        <f>Confirmed!AE30+Daily!M21</f>
+        <v>399</v>
+      </c>
+      <c r="N21">
+        <f>Confirmed!AF30+Daily!N21</f>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -9696,8 +10791,20 @@
         <f>Confirmed!AC31+Daily!K22</f>
         <v>461</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>Confirmed!AD31+Daily!L22</f>
+        <v>460</v>
+      </c>
+      <c r="M22">
+        <f>Confirmed!AE31+Daily!M22</f>
+        <v>461</v>
+      </c>
+      <c r="N22">
+        <f>Confirmed!AF31+Daily!N22</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -9741,8 +10848,20 @@
         <f>Confirmed!AC32+Daily!K23</f>
         <v>526</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <f>Confirmed!AD32+Daily!L23</f>
+        <v>526</v>
+      </c>
+      <c r="M23">
+        <f>Confirmed!AE32+Daily!M23</f>
+        <v>526</v>
+      </c>
+      <c r="N23">
+        <f>Confirmed!AF32+Daily!N23</f>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -9786,8 +10905,20 @@
         <f>Confirmed!AC33+Daily!K24</f>
         <v>635</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f>Confirmed!AD33+Daily!L24</f>
+        <v>636</v>
+      </c>
+      <c r="M24">
+        <f>Confirmed!AE33+Daily!M24</f>
+        <v>639</v>
+      </c>
+      <c r="N24">
+        <f>Confirmed!AF33+Daily!N24</f>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -9831,8 +10962,20 @@
         <f>Confirmed!AC34+Daily!K25</f>
         <v>642</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f>Confirmed!AD34+Daily!L25</f>
+        <v>644</v>
+      </c>
+      <c r="M25">
+        <f>Confirmed!AE34+Daily!M25</f>
+        <v>645</v>
+      </c>
+      <c r="N25">
+        <f>Confirmed!AF34+Daily!N25</f>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -9876,8 +11019,20 @@
         <f>Confirmed!AC35+Daily!K26</f>
         <v>675</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f>Confirmed!AD35+Daily!L26</f>
+        <v>675</v>
+      </c>
+      <c r="M26">
+        <f>Confirmed!AE35+Daily!M26</f>
+        <v>678</v>
+      </c>
+      <c r="N26">
+        <f>Confirmed!AF35+Daily!N26</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -9921,8 +11076,20 @@
         <f>Confirmed!AC36+Daily!K27</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>Confirmed!AD36+Daily!L27</f>
+        <v>726</v>
+      </c>
+      <c r="M27">
+        <f>Confirmed!AE36+Daily!M27</f>
+        <v>727</v>
+      </c>
+      <c r="N27">
+        <f>Confirmed!AF36+Daily!N27</f>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -9966,8 +11133,20 @@
         <f>Confirmed!AC37+Daily!K28</f>
         <v>788</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f>Confirmed!AD37+Daily!L28</f>
+        <v>791</v>
+      </c>
+      <c r="M28">
+        <f>Confirmed!AE37+Daily!M28</f>
+        <v>792</v>
+      </c>
+      <c r="N28">
+        <f>Confirmed!AF37+Daily!N28</f>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -10011,8 +11190,20 @@
         <f>Confirmed!AC38+Daily!K29</f>
         <v>809</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f>Confirmed!AD38+Daily!L29</f>
+        <v>808</v>
+      </c>
+      <c r="M29">
+        <f>Confirmed!AE38+Daily!M29</f>
+        <v>810</v>
+      </c>
+      <c r="N29">
+        <f>Confirmed!AF38+Daily!N29</f>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -10056,8 +11247,20 @@
         <f>Confirmed!AC39+Daily!K30</f>
         <v>721</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f>Confirmed!AD39+Daily!L30</f>
+        <v>729</v>
+      </c>
+      <c r="M30">
+        <f>Confirmed!AE39+Daily!M30</f>
+        <v>731</v>
+      </c>
+      <c r="N30">
+        <f>Confirmed!AF39+Daily!N30</f>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -10101,8 +11304,20 @@
         <f>Confirmed!AC40+Daily!K31</f>
         <v>724</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f>Confirmed!AD40+Daily!L31</f>
+        <v>724</v>
+      </c>
+      <c r="M31">
+        <f>Confirmed!AE40+Daily!M31</f>
+        <v>724</v>
+      </c>
+      <c r="N31">
+        <f>Confirmed!AF40+Daily!N31</f>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -10146,8 +11361,20 @@
         <f>Confirmed!AC41+Daily!K32</f>
         <v>686</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f>Confirmed!AD41+Daily!L32</f>
+        <v>695</v>
+      </c>
+      <c r="M32">
+        <f>Confirmed!AE41+Daily!M32</f>
+        <v>697</v>
+      </c>
+      <c r="N32">
+        <f>Confirmed!AF41+Daily!N32</f>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -10191,8 +11418,20 @@
         <f>Confirmed!AC42+Daily!K33</f>
         <v>674</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>Confirmed!AD42+Daily!L33</f>
+        <v>677</v>
+      </c>
+      <c r="M33">
+        <f>Confirmed!AE42+Daily!M33</f>
+        <v>680</v>
+      </c>
+      <c r="N33">
+        <f>Confirmed!AF42+Daily!N33</f>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -10236,8 +11475,20 @@
         <f>Confirmed!AC43+Daily!K34</f>
         <v>701</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f>Confirmed!AD43+Daily!L34</f>
+        <v>717</v>
+      </c>
+      <c r="M34">
+        <f>Confirmed!AE43+Daily!M34</f>
+        <v>717</v>
+      </c>
+      <c r="N34">
+        <f>Confirmed!AF43+Daily!N34</f>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -10281,8 +11532,20 @@
         <f>Confirmed!AC44+Daily!K35</f>
         <v>706</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f>Confirmed!AD44+Daily!L35</f>
+        <v>718</v>
+      </c>
+      <c r="M35">
+        <f>Confirmed!AE44+Daily!M35</f>
+        <v>726</v>
+      </c>
+      <c r="N35">
+        <f>Confirmed!AF44+Daily!N35</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -10326,8 +11589,20 @@
         <f>Confirmed!AC45+Daily!K36</f>
         <v>630</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <f>Confirmed!AD45+Daily!L36</f>
+        <v>635</v>
+      </c>
+      <c r="M36">
+        <f>Confirmed!AE45+Daily!M36</f>
+        <v>643</v>
+      </c>
+      <c r="N36">
+        <f>Confirmed!AF45+Daily!N36</f>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -10371,8 +11646,20 @@
         <f>Confirmed!AC46+Daily!K37</f>
         <v>506</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <f>Confirmed!AD46+Daily!L37</f>
+        <v>516</v>
+      </c>
+      <c r="M37">
+        <f>Confirmed!AE46+Daily!M37</f>
+        <v>527</v>
+      </c>
+      <c r="N37">
+        <f>Confirmed!AF46+Daily!N37</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -10416,8 +11703,20 @@
         <f>Confirmed!AC47+Daily!K38</f>
         <v>504</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <f>Confirmed!AD47+Daily!L38</f>
+        <v>520</v>
+      </c>
+      <c r="M38">
+        <f>Confirmed!AE47+Daily!M38</f>
+        <v>523</v>
+      </c>
+      <c r="N38">
+        <f>Confirmed!AF47+Daily!N38</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -10461,8 +11760,20 @@
         <f>Confirmed!AC48+Daily!K39</f>
         <v>448</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <f>Confirmed!AD48+Daily!L39</f>
+        <v>451</v>
+      </c>
+      <c r="M39">
+        <f>Confirmed!AE48+Daily!M39</f>
+        <v>452</v>
+      </c>
+      <c r="N39">
+        <f>Confirmed!AF48+Daily!N39</f>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -10486,8 +11797,20 @@
         <f>Confirmed!AC49+Daily!K40</f>
         <v>456</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <f>Confirmed!AD49+Daily!L40</f>
+        <v>459</v>
+      </c>
+      <c r="M40">
+        <f>Confirmed!AE49+Daily!M40</f>
+        <v>465</v>
+      </c>
+      <c r="N40">
+        <f>Confirmed!AF49+Daily!N40</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -10511,8 +11834,20 @@
         <f>Confirmed!AC50+Daily!K41</f>
         <v>426</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <f>Confirmed!AD50+Daily!L41</f>
+        <v>439</v>
+      </c>
+      <c r="M41">
+        <f>Confirmed!AE50+Daily!M41</f>
+        <v>444</v>
+      </c>
+      <c r="N41">
+        <f>Confirmed!AF50+Daily!N41</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -10528,8 +11863,20 @@
         <f>Confirmed!AC51+Daily!K42</f>
         <v>421</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <f>Confirmed!AD51+Daily!L42</f>
+        <v>426</v>
+      </c>
+      <c r="M42">
+        <f>Confirmed!AE51+Daily!M42</f>
+        <v>434</v>
+      </c>
+      <c r="N42">
+        <f>Confirmed!AF51+Daily!N42</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -10541,8 +11888,20 @@
         <f>Confirmed!AC52+Daily!K43</f>
         <v>296</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f>Confirmed!AD52+Daily!L43</f>
+        <v>354</v>
+      </c>
+      <c r="M43">
+        <f>Confirmed!AE52+Daily!M43</f>
+        <v>360</v>
+      </c>
+      <c r="N43">
+        <f>Confirmed!AF52+Daily!N43</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -10554,8 +11913,20 @@
         <f>Confirmed!AC53+Daily!K44</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <f>Confirmed!AD53+Daily!L44</f>
+        <v>279</v>
+      </c>
+      <c r="M44">
+        <f>Confirmed!AE53+Daily!M44</f>
+        <v>335</v>
+      </c>
+      <c r="N44">
+        <f>Confirmed!AF53+Daily!N44</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -10563,8 +11934,20 @@
         <f>Confirmed!AC54+Daily!K45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <f>Confirmed!AD54+Daily!L45</f>
+        <v>40</v>
+      </c>
+      <c r="M45">
+        <f>Confirmed!AE54+Daily!M45</f>
+        <v>294</v>
+      </c>
+      <c r="N45">
+        <f>Confirmed!AF54+Daily!N45</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -10572,13 +11955,43 @@
         <f>Confirmed!AC55+Daily!K46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <f>Confirmed!AD55+Daily!L46</f>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f>Confirmed!AE55+Daily!M46</f>
+        <v>32</v>
+      </c>
+      <c r="N46">
+        <f>Confirmed!AF55+Daily!N46</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
       <c r="K47">
         <f>Confirmed!AC56+Daily!K47</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>Confirmed!AD56+Daily!L47</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f>Confirmed!AE56+Daily!M47</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>Confirmed!AF56+Daily!N47</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <f>Confirmed!AF57+Daily!N48</f>
         <v>0</v>
       </c>
     </row>
@@ -11227,8 +12640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11337,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E52" si="1">E8+1</f>
+        <f t="shared" ref="E9:E53" si="1">E8+1</f>
         <v>43902</v>
       </c>
     </row>
@@ -11540,7 +12953,7 @@
         <v>81</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
@@ -11556,10 +12969,10 @@
         <v>190</v>
       </c>
       <c r="C21">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
@@ -11613,7 +13026,7 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D24">
         <v>45</v>
@@ -11632,7 +13045,7 @@
         <v>319</v>
       </c>
       <c r="C25">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D25">
         <v>64</v>
@@ -11651,10 +13064,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -11670,10 +13083,10 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D27">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -11689,7 +13102,7 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -11708,10 +13121,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D29">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -11727,10 +13140,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D30">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -11746,10 +13159,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D31">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -11765,10 +13178,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D32">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -11784,10 +13197,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D33">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -11803,10 +13216,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D34">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -11822,10 +13235,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D35">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -11841,10 +13254,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="D36">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -11860,10 +13273,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D37">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -11879,10 +13292,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D38">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -11898,10 +13311,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="D39">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -11917,10 +13330,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="D40">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -11936,10 +13349,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="D41">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -11955,10 +13368,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="D42">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -11974,10 +13387,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="D43">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -11993,10 +13406,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="D44">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -12012,10 +13425,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D45">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -12031,10 +13444,10 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="D46">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
@@ -12050,10 +13463,10 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="D47">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
@@ -12069,10 +13482,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="D48">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -12088,10 +13501,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="D49">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -12107,10 +13520,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -12125,6 +13538,12 @@
       <c r="B51">
         <v>328</v>
       </c>
+      <c r="C51">
+        <v>161</v>
+      </c>
+      <c r="D51">
+        <v>191</v>
+      </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
         <v>43944</v>
@@ -12138,6 +13557,12 @@
       <c r="B52">
         <v>323</v>
       </c>
+      <c r="C52">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
         <v>43945</v>
@@ -12151,6 +13576,16 @@
       <c r="B53">
         <v>353</v>
       </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="1"/>
+        <v>43946</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -252,7 +252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1148,8 +1147,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="296040992"/>
-        <c:axId val="296041552"/>
+        <c:axId val="295107600"/>
+        <c:axId val="295108160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1690,11 +1689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296040992"/>
-        <c:axId val="296041552"/>
+        <c:axId val="295107600"/>
+        <c:axId val="295108160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296040992"/>
+        <c:axId val="295107600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296041552"/>
+        <c:crossAx val="295108160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1745,7 +1744,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296041552"/>
+        <c:axId val="295108160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296040992"/>
+        <c:crossAx val="295107600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1809,7 +1808,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3633,15 +3631,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:N47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3681,8 +3679,11 @@
       <c r="N1">
         <v>426</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -4161,7 +4162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -12640,7 +12641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D53"/>
     </sheetView>
   </sheetViews>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -252,6 +252,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -618,7 +619,7 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>121</c:v>
@@ -627,22 +628,22 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>207</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>278</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>305</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>363</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>408</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>445</c:v>
@@ -651,70 +652,73 @@
                   <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>469</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>526</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>534</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>555</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>499</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>502</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>477</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>476</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>492</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>487</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>445</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>382</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>334</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>302</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>295</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>283</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>264</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>215</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>192</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>161</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>81</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10</c:v>
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,12 +1008,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1035,7 +1033,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>19</c:v>
@@ -1044,22 +1042,22 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>99</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>119</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>196</c:v>
@@ -1068,16 +1066,16 @@
                   <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>203</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>258</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>257</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>233</c:v>
@@ -1086,52 +1084,55 @@
                   <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>222</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>206</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>225</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>199</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>148</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>191</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>151</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>174</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>165</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>177</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>164</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>165</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>191</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>200</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14</c:v>
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,8 +1148,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="295107600"/>
-        <c:axId val="295108160"/>
+        <c:axId val="295113200"/>
+        <c:axId val="108548784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1689,11 +1690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295107600"/>
-        <c:axId val="295108160"/>
+        <c:axId val="295113200"/>
+        <c:axId val="108548784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="295107600"/>
+        <c:axId val="295113200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295108160"/>
+        <c:crossAx val="108548784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1744,7 +1745,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="295108160"/>
+        <c:axId val="108548784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295107600"/>
+        <c:crossAx val="295113200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,6 +1809,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3631,10 +3633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3811,6 +3813,9 @@
       <c r="N7">
         <v>1</v>
       </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -3861,6 +3866,9 @@
       <c r="N8">
         <v>4</v>
       </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -3911,6 +3919,9 @@
       <c r="N9">
         <v>4</v>
       </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -3961,6 +3972,9 @@
       <c r="N10">
         <v>2</v>
       </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -4011,6 +4025,9 @@
       <c r="N11">
         <v>4</v>
       </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -4061,6 +4078,9 @@
       <c r="N12">
         <v>5</v>
       </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -4111,6 +4131,9 @@
       <c r="N13">
         <v>4</v>
       </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -4161,6 +4184,9 @@
       <c r="N14">
         <v>15</v>
       </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -4211,6 +4237,9 @@
       <c r="N15">
         <v>12</v>
       </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -4261,8 +4290,11 @@
       <c r="N16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -4311,8 +4343,11 @@
       <c r="N17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -4361,8 +4396,11 @@
       <c r="N18">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -4411,8 +4449,11 @@
       <c r="N19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4461,8 +4502,11 @@
       <c r="N20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4511,8 +4555,11 @@
       <c r="N21">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4561,8 +4608,11 @@
       <c r="N22">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4611,8 +4661,11 @@
       <c r="N23">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4661,8 +4714,11 @@
       <c r="N24">
         <v>196</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4711,8 +4767,11 @@
       <c r="N25">
         <v>191</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -4761,8 +4820,11 @@
       <c r="N26">
         <v>211</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -4811,8 +4873,11 @@
       <c r="N27">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -4861,8 +4926,11 @@
       <c r="N28">
         <v>258</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -4911,8 +4979,11 @@
       <c r="N29">
         <v>257</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -4961,8 +5032,11 @@
       <c r="N30">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -5011,8 +5085,11 @@
       <c r="N31">
         <v>227</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -5061,8 +5138,11 @@
       <c r="N32">
         <v>222</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -5111,8 +5191,11 @@
       <c r="N33">
         <v>206</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -5161,8 +5244,11 @@
       <c r="N34">
         <v>225</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -5211,8 +5297,11 @@
       <c r="N35">
         <v>239</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -5257,8 +5346,11 @@
       <c r="N36">
         <v>199</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -5299,8 +5391,11 @@
       <c r="N37">
         <v>148</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -5337,8 +5432,11 @@
       <c r="N38">
         <v>191</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -5371,8 +5469,11 @@
       <c r="N39">
         <v>151</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -5401,8 +5502,11 @@
       <c r="N40">
         <v>174</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -5424,8 +5528,11 @@
       <c r="N41">
         <v>165</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -5447,8 +5554,11 @@
       <c r="N42">
         <v>177</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -5467,8 +5577,11 @@
       <c r="N43">
         <v>164</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -5484,8 +5597,11 @@
       <c r="N44">
         <v>165</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -5498,8 +5614,11 @@
       <c r="N45">
         <v>191</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -5509,13 +5628,24 @@
       <c r="N46">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
       <c r="N47">
         <v>14</v>
+      </c>
+      <c r="O47">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5525,15 +5655,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF56"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF11" sqref="A1:AF56"/>
+    <sheetView topLeftCell="S41" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11:AG57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -5628,7 +5758,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -5714,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -5800,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -5886,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -5972,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -6058,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -6144,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -6230,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -6316,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -6402,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -6499,8 +6629,11 @@
       <c r="AF11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -6597,8 +6730,11 @@
       <c r="AF12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -6695,8 +6831,11 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -6793,8 +6932,11 @@
       <c r="AF14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -6891,8 +7033,11 @@
       <c r="AF15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -6989,8 +7134,11 @@
       <c r="AF16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -7087,8 +7235,11 @@
       <c r="AF17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -7185,8 +7336,11 @@
       <c r="AF18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -7283,8 +7437,11 @@
       <c r="AF19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -7381,8 +7538,11 @@
       <c r="AF20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -7479,8 +7639,11 @@
       <c r="AF21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -7577,8 +7740,11 @@
       <c r="AF22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -7675,8 +7841,11 @@
       <c r="AF23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -7773,8 +7942,11 @@
       <c r="AF24">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -7871,8 +8043,11 @@
       <c r="AF25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -7966,8 +8141,11 @@
       <c r="AF26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -8058,8 +8236,11 @@
       <c r="AF27">
         <v>207</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -8147,8 +8328,11 @@
       <c r="AF28">
         <v>263</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG28">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -8236,8 +8420,11 @@
       <c r="AF29">
         <v>278</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG29">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -8325,8 +8512,11 @@
       <c r="AF30">
         <v>305</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG30">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -8411,8 +8601,11 @@
       <c r="AF31">
         <v>363</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG31">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -8494,8 +8687,11 @@
       <c r="AF32">
         <v>408</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG32">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -8574,8 +8770,11 @@
       <c r="AF33">
         <v>445</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG33">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -8651,8 +8850,11 @@
       <c r="AF34">
         <v>456</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG34">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -8725,8 +8927,11 @@
       <c r="AF35">
         <v>469</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG35">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -8796,8 +9001,11 @@
       <c r="AF36">
         <v>526</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG36">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -8864,8 +9072,11 @@
       <c r="AF37">
         <v>534</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG37">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -8929,8 +9140,11 @@
       <c r="AF38">
         <v>555</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG38">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -8991,8 +9205,11 @@
       <c r="AF39">
         <v>499</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG39">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -9050,8 +9267,11 @@
       <c r="AF40">
         <v>502</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG40">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -9106,8 +9326,11 @@
       <c r="AF41">
         <v>477</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG41">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -9159,8 +9382,11 @@
       <c r="AF42">
         <v>476</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG42">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -9209,8 +9435,11 @@
       <c r="AF43">
         <v>492</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG43">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -9256,8 +9485,11 @@
       <c r="AF44">
         <v>487</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG44">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -9297,8 +9529,11 @@
       <c r="AF45">
         <v>445</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG45">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -9335,8 +9570,11 @@
       <c r="AF46">
         <v>382</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG46">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -9370,8 +9608,11 @@
       <c r="AF47">
         <v>334</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG47">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -9402,8 +9643,11 @@
       <c r="AF48">
         <v>302</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG48">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -9431,8 +9675,11 @@
       <c r="AF49">
         <v>295</v>
       </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG49">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -9457,8 +9704,11 @@
       <c r="AF50">
         <v>283</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG50">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -9480,8 +9730,11 @@
       <c r="AF51">
         <v>264</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG51">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -9500,8 +9753,11 @@
       <c r="AF52">
         <v>215</v>
       </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG52">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -9517,8 +9773,11 @@
       <c r="AF53">
         <v>192</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG53">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -9531,8 +9790,11 @@
       <c r="AF54">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG54">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -9542,13 +9804,24 @@
       <c r="AF55">
         <v>81</v>
       </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG55">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
       <c r="AF56">
         <v>10</v>
+      </c>
+      <c r="AG56">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG57">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -9558,15 +9831,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -9607,8 +9880,11 @@
       <c r="N1">
         <v>426</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -9664,8 +9940,12 @@
         <f>Confirmed!AF11+Daily!N2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <f>Confirmed!AG11+Daily!O2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -9721,8 +10001,12 @@
         <f>Confirmed!AF12+Daily!N3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <f>Confirmed!AG12+Daily!O3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -9778,8 +10062,12 @@
         <f>Confirmed!AF13+Daily!N4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <f>Confirmed!AG13+Daily!O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -9835,8 +10123,12 @@
         <f>Confirmed!AF14+Daily!N5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <f>Confirmed!AG14+Daily!O5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -9892,8 +10184,12 @@
         <f>Confirmed!AF15+Daily!N6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <f>Confirmed!AG15+Daily!O6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -9949,8 +10245,12 @@
         <f>Confirmed!AF16+Daily!N7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <f>Confirmed!AG16+Daily!O7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -10006,8 +10306,12 @@
         <f>Confirmed!AF17+Daily!N8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <f>Confirmed!AG17+Daily!O8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -10063,8 +10367,12 @@
         <f>Confirmed!AF18+Daily!N9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <f>Confirmed!AG18+Daily!O9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -10120,8 +10428,12 @@
         <f>Confirmed!AF19+Daily!N10</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <f>Confirmed!AG19+Daily!O10</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -10177,8 +10489,12 @@
         <f>Confirmed!AF20+Daily!N11</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <f>Confirmed!AG20+Daily!O11</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -10234,8 +10550,12 @@
         <f>Confirmed!AF21+Daily!N12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <f>Confirmed!AG21+Daily!O12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -10291,8 +10611,12 @@
         <f>Confirmed!AF22+Daily!N13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <f>Confirmed!AG22+Daily!O13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -10348,8 +10672,12 @@
         <f>Confirmed!AF23+Daily!N14</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <f>Confirmed!AG23+Daily!O14</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -10405,8 +10733,12 @@
         <f>Confirmed!AF24+Daily!N15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <f>Confirmed!AG24+Daily!O15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -10462,8 +10794,12 @@
         <f>Confirmed!AF25+Daily!N16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <f>Confirmed!AG25+Daily!O16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -10519,8 +10855,12 @@
         <f>Confirmed!AF26+Daily!N17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <f>Confirmed!AG26+Daily!O17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -10576,8 +10916,12 @@
         <f>Confirmed!AF27+Daily!N18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <f>Confirmed!AG27+Daily!O18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -10633,8 +10977,12 @@
         <f>Confirmed!AF28+Daily!N19</f>
         <v>327</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <f>Confirmed!AG28+Daily!O19</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -10690,8 +11038,12 @@
         <f>Confirmed!AF29+Daily!N20</f>
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <f>Confirmed!AG29+Daily!O20</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -10747,8 +11099,12 @@
         <f>Confirmed!AF30+Daily!N21</f>
         <v>398</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <f>Confirmed!AG30+Daily!O21</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -10804,8 +11160,12 @@
         <f>Confirmed!AF31+Daily!N22</f>
         <v>462</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <f>Confirmed!AG31+Daily!O22</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -10861,8 +11221,12 @@
         <f>Confirmed!AF32+Daily!N23</f>
         <v>527</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <f>Confirmed!AG32+Daily!O23</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -10918,8 +11282,12 @@
         <f>Confirmed!AF33+Daily!N24</f>
         <v>641</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <f>Confirmed!AG33+Daily!O24</f>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -10975,8 +11343,12 @@
         <f>Confirmed!AF34+Daily!N25</f>
         <v>647</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <f>Confirmed!AG34+Daily!O25</f>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -11032,8 +11404,12 @@
         <f>Confirmed!AF35+Daily!N26</f>
         <v>680</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <f>Confirmed!AG35+Daily!O26</f>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -11089,8 +11465,12 @@
         <f>Confirmed!AF36+Daily!N27</f>
         <v>729</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <f>Confirmed!AG36+Daily!O27</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -11146,8 +11526,12 @@
         <f>Confirmed!AF37+Daily!N28</f>
         <v>792</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <f>Confirmed!AG37+Daily!O28</f>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -11203,8 +11587,12 @@
         <f>Confirmed!AF38+Daily!N29</f>
         <v>812</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <f>Confirmed!AG38+Daily!O29</f>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -11260,8 +11648,12 @@
         <f>Confirmed!AF39+Daily!N30</f>
         <v>732</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <f>Confirmed!AG39+Daily!O30</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -11317,8 +11709,12 @@
         <f>Confirmed!AF40+Daily!N31</f>
         <v>729</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <f>Confirmed!AG40+Daily!O31</f>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -11374,8 +11770,12 @@
         <f>Confirmed!AF41+Daily!N32</f>
         <v>699</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <f>Confirmed!AG41+Daily!O32</f>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -11431,8 +11831,12 @@
         <f>Confirmed!AF42+Daily!N33</f>
         <v>682</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <f>Confirmed!AG42+Daily!O33</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -11488,8 +11892,12 @@
         <f>Confirmed!AF43+Daily!N34</f>
         <v>717</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <f>Confirmed!AG43+Daily!O34</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -11545,8 +11953,12 @@
         <f>Confirmed!AF44+Daily!N35</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <f>Confirmed!AG44+Daily!O35</f>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -11602,8 +12014,12 @@
         <f>Confirmed!AF45+Daily!N36</f>
         <v>644</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <f>Confirmed!AG45+Daily!O36</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -11659,8 +12075,12 @@
         <f>Confirmed!AF46+Daily!N37</f>
         <v>530</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <f>Confirmed!AG46+Daily!O37</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -11716,8 +12136,12 @@
         <f>Confirmed!AF47+Daily!N38</f>
         <v>525</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <f>Confirmed!AG47+Daily!O38</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -11773,8 +12197,12 @@
         <f>Confirmed!AF48+Daily!N39</f>
         <v>453</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <f>Confirmed!AG48+Daily!O39</f>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -11810,8 +12238,12 @@
         <f>Confirmed!AF49+Daily!N40</f>
         <v>469</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <f>Confirmed!AG49+Daily!O40</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -11847,8 +12279,12 @@
         <f>Confirmed!AF50+Daily!N41</f>
         <v>448</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <f>Confirmed!AG50+Daily!O41</f>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -11876,8 +12312,12 @@
         <f>Confirmed!AF51+Daily!N42</f>
         <v>441</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <f>Confirmed!AG51+Daily!O42</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -11901,8 +12341,12 @@
         <f>Confirmed!AF52+Daily!N43</f>
         <v>379</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <f>Confirmed!AG52+Daily!O43</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -11926,8 +12370,12 @@
         <f>Confirmed!AF53+Daily!N44</f>
         <v>357</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <f>Confirmed!AG53+Daily!O44</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -11947,8 +12395,12 @@
         <f>Confirmed!AF54+Daily!N45</f>
         <v>352</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <f>Confirmed!AG54+Daily!O45</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -11968,8 +12420,12 @@
         <f>Confirmed!AF55+Daily!N46</f>
         <v>281</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <f>Confirmed!AG55+Daily!O46</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -11989,10 +12445,27 @@
         <f>Confirmed!AF56+Daily!N47</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <f>Confirmed!AG56+Daily!O47</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>426</v>
+      </c>
       <c r="N48">
         <f>Confirmed!AF57+Daily!N48</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f>Confirmed!AG57+Daily!O48</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <f>Confirmed!AG58+Daily!O49</f>
         <v>0</v>
       </c>
     </row>
@@ -12641,8 +13114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D53"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12751,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E53" si="1">E8+1</f>
+        <f t="shared" ref="E9:E54" si="1">E8+1</f>
         <v>43902</v>
       </c>
     </row>
@@ -12782,9 +13255,6 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>43904</v>
@@ -12801,9 +13271,6 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>43905</v>
@@ -12970,10 +13437,10 @@
         <v>190</v>
       </c>
       <c r="C21">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
@@ -13027,10 +13494,10 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -13065,10 +13532,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D26">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -13084,7 +13551,7 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D27">
         <v>93</v>
@@ -13103,10 +13570,10 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D28">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -13122,10 +13589,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D29">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -13179,10 +13646,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D32">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -13198,10 +13665,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D33">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -13217,10 +13684,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D34">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -13236,10 +13703,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D35">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -13255,7 +13722,7 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D36">
         <v>233</v>
@@ -13274,7 +13741,7 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D37">
         <v>227</v>
@@ -13293,10 +13760,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D38">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -13312,10 +13779,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D39">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -13331,10 +13798,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D40">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -13350,7 +13817,7 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D41">
         <v>239</v>
@@ -13369,10 +13836,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D42">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -13388,10 +13855,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D43">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -13407,10 +13874,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D44">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -13426,10 +13893,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D45">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -13445,10 +13912,10 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D46">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
@@ -13464,10 +13931,10 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D47">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
@@ -13483,10 +13950,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D48">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -13502,10 +13969,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D49">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -13521,10 +13988,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D50">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -13540,10 +14007,10 @@
         <v>328</v>
       </c>
       <c r="C51">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="D51">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
@@ -13559,10 +14026,10 @@
         <v>323</v>
       </c>
       <c r="C52">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="D52">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
@@ -13578,10 +14045,10 @@
         <v>353</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
@@ -13596,6 +14063,16 @@
       <c r="B54">
         <v>221</v>
       </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>43947</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -628,43 +628,43 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>205</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>263</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>306</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>365</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>411</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>445</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>456</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>463</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>520</c:v>
+                  <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>538</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>502</c:v>
+                  <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>505</c:v>
@@ -679,25 +679,25 @@
                   <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>488</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>453</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>386</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>338</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>308</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>292</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>275</c:v>
@@ -706,19 +706,22 @@
                   <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>217</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>201</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>57</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7</c:v>
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1045,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>47</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>64</c:v>
@@ -1051,88 +1054,91 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>118</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>196</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>191</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>216</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>208</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>255</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>233</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>221</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>224</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>239</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>192</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>145</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>168</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>166</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>145</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>156</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>176</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>142</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17</c:v>
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,8 +1154,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="295113200"/>
-        <c:axId val="108548784"/>
+        <c:axId val="290811040"/>
+        <c:axId val="290811600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1690,11 +1696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295113200"/>
-        <c:axId val="108548784"/>
+        <c:axId val="290811040"/>
+        <c:axId val="290811600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="295113200"/>
+        <c:axId val="290811040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108548784"/>
+        <c:crossAx val="290811600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1745,7 +1751,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108548784"/>
+        <c:axId val="290811600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295113200"/>
+        <c:crossAx val="290811040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2438,7 +2444,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3633,15 +3639,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O48"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3684,8 +3690,11 @@
       <c r="O1">
         <v>427</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -3696,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -3707,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -3718,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -3744,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -3767,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3816,8 +3825,11 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3869,8 +3881,11 @@
       <c r="O8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -3922,8 +3937,11 @@
       <c r="O9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -3975,8 +3993,11 @@
       <c r="O10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -4028,8 +4049,11 @@
       <c r="O11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -4081,8 +4105,11 @@
       <c r="O12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -4134,8 +4161,11 @@
       <c r="O13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -4187,8 +4217,11 @@
       <c r="O14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -4240,8 +4273,11 @@
       <c r="O15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -4293,8 +4329,11 @@
       <c r="O16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -4346,8 +4385,11 @@
       <c r="O17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -4399,8 +4441,11 @@
       <c r="O18">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -4452,8 +4497,11 @@
       <c r="O19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4505,8 +4553,11 @@
       <c r="O20">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4558,8 +4609,11 @@
       <c r="O21">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4611,8 +4665,11 @@
       <c r="O22">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4664,8 +4721,11 @@
       <c r="O23">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4717,8 +4777,11 @@
       <c r="O24">
         <v>196</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4770,8 +4833,11 @@
       <c r="O25">
         <v>191</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -4823,8 +4889,11 @@
       <c r="O26">
         <v>216</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -4876,8 +4945,11 @@
       <c r="O27">
         <v>208</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -4929,8 +5001,11 @@
       <c r="O28">
         <v>254</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -4982,8 +5057,11 @@
       <c r="O29">
         <v>255</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -5035,8 +5113,11 @@
       <c r="O30">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -5088,8 +5169,11 @@
       <c r="O31">
         <v>227</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -5141,8 +5225,11 @@
       <c r="O32">
         <v>221</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -5194,8 +5281,11 @@
       <c r="O33">
         <v>205</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -5247,8 +5337,11 @@
       <c r="O34">
         <v>224</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -5300,8 +5393,11 @@
       <c r="O35">
         <v>239</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -5349,8 +5445,11 @@
       <c r="O36">
         <v>192</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -5394,8 +5493,11 @@
       <c r="O37">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -5435,8 +5537,11 @@
       <c r="O38">
         <v>188</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -5472,8 +5577,11 @@
       <c r="O39">
         <v>145</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -5505,8 +5613,11 @@
       <c r="O40">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -5531,8 +5642,11 @@
       <c r="O41">
         <v>157</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -5557,8 +5671,11 @@
       <c r="O42">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -5580,8 +5697,11 @@
       <c r="O43">
         <v>156</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -5600,8 +5720,11 @@
       <c r="O44">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -5617,8 +5740,11 @@
       <c r="O45">
         <v>156</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -5631,8 +5757,11 @@
       <c r="O46">
         <v>176</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -5642,10 +5771,21 @@
       <c r="O47">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>17</v>
+      </c>
+      <c r="P48">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5655,15 +5795,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView topLeftCell="S41" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11:AG57"/>
+    <sheetView topLeftCell="V41" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11:AH58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -5757,8 +5897,14 @@
       <c r="AF1">
         <v>426</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG1">
+        <v>427</v>
+      </c>
+      <c r="AH1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -5844,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -5930,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -6016,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -6102,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -6188,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -6274,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -6360,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -6446,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -6532,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -6632,8 +6778,11 @@
       <c r="AG11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -6733,8 +6882,11 @@
       <c r="AG12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -6834,8 +6986,11 @@
       <c r="AG13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -6935,8 +7090,11 @@
       <c r="AG14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -7036,8 +7194,11 @@
       <c r="AG15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -7137,8 +7298,11 @@
       <c r="AG16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -7238,8 +7402,11 @@
       <c r="AG17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -7339,8 +7506,11 @@
       <c r="AG18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -7440,8 +7610,11 @@
       <c r="AG19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -7541,8 +7714,11 @@
       <c r="AG20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -7642,8 +7818,11 @@
       <c r="AG21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -7743,8 +7922,11 @@
       <c r="AG22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -7844,8 +8026,11 @@
       <c r="AG23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -7945,8 +8130,11 @@
       <c r="AG24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -8046,8 +8234,11 @@
       <c r="AG25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -8144,8 +8335,11 @@
       <c r="AG26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -8239,8 +8433,11 @@
       <c r="AG27">
         <v>205</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH27">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -8331,8 +8528,11 @@
       <c r="AG28">
         <v>263</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH28">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -8423,8 +8623,11 @@
       <c r="AG29">
         <v>277</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH29">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -8515,8 +8718,11 @@
       <c r="AG30">
         <v>306</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH30">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -8604,8 +8810,11 @@
       <c r="AG31">
         <v>365</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH31">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -8690,8 +8899,11 @@
       <c r="AG32">
         <v>411</v>
       </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH32">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -8773,8 +8985,11 @@
       <c r="AG33">
         <v>445</v>
       </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH33">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -8853,8 +9068,11 @@
       <c r="AG34">
         <v>456</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH34">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -8930,8 +9148,11 @@
       <c r="AG35">
         <v>463</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -9004,8 +9225,11 @@
       <c r="AG36">
         <v>520</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH36">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -9075,8 +9299,11 @@
       <c r="AG37">
         <v>538</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH37">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -9143,8 +9370,11 @@
       <c r="AG38">
         <v>556</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH38">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -9208,8 +9438,11 @@
       <c r="AG39">
         <v>502</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH39">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -9270,8 +9503,11 @@
       <c r="AG40">
         <v>505</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH40">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -9329,8 +9565,11 @@
       <c r="AG41">
         <v>478</v>
       </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH41">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -9385,8 +9624,11 @@
       <c r="AG42">
         <v>479</v>
       </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH42">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -9438,8 +9680,11 @@
       <c r="AG43">
         <v>494</v>
       </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH43">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -9488,8 +9733,11 @@
       <c r="AG44">
         <v>488</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH44">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -9532,8 +9780,11 @@
       <c r="AG45">
         <v>453</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -9573,8 +9824,11 @@
       <c r="AG46">
         <v>386</v>
       </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH46">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -9611,8 +9865,11 @@
       <c r="AG47">
         <v>338</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH47">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -9646,8 +9903,11 @@
       <c r="AG48">
         <v>308</v>
       </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH48">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -9678,8 +9938,11 @@
       <c r="AG49">
         <v>301</v>
       </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH49">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -9707,8 +9970,11 @@
       <c r="AG50">
         <v>292</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH50">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -9733,8 +9999,11 @@
       <c r="AG51">
         <v>275</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH51">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -9756,8 +10025,11 @@
       <c r="AG52">
         <v>226</v>
       </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH52">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -9776,8 +10048,11 @@
       <c r="AG53">
         <v>217</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH53">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -9793,8 +10068,11 @@
       <c r="AG54">
         <v>201</v>
       </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH54">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -9807,8 +10085,11 @@
       <c r="AG55">
         <v>145</v>
       </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH55">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -9818,10 +10099,21 @@
       <c r="AG56">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH56">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AG57">
         <v>7</v>
+      </c>
+      <c r="AH57">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH58">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9831,15 +10123,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49:P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -9883,8 +10175,11 @@
       <c r="O1">
         <v>427</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -9944,8 +10239,12 @@
         <f>Confirmed!AG11+Daily!O2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <f>Confirmed!AH11+Daily!P2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -10005,8 +10304,12 @@
         <f>Confirmed!AG12+Daily!O3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <f>Confirmed!AH12+Daily!P3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -10066,8 +10369,12 @@
         <f>Confirmed!AG13+Daily!O4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f>Confirmed!AH13+Daily!P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -10127,8 +10434,12 @@
         <f>Confirmed!AG14+Daily!O5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f>Confirmed!AH14+Daily!P5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -10188,8 +10499,12 @@
         <f>Confirmed!AG15+Daily!O6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f>Confirmed!AH15+Daily!P6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -10249,8 +10564,12 @@
         <f>Confirmed!AG16+Daily!O7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <f>Confirmed!AH16+Daily!P7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -10310,8 +10629,12 @@
         <f>Confirmed!AG17+Daily!O8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <f>Confirmed!AH17+Daily!P8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -10371,8 +10694,12 @@
         <f>Confirmed!AG18+Daily!O9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <f>Confirmed!AH18+Daily!P9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -10432,8 +10759,12 @@
         <f>Confirmed!AG19+Daily!O10</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f>Confirmed!AH19+Daily!P10</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -10493,8 +10824,12 @@
         <f>Confirmed!AG20+Daily!O11</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f>Confirmed!AH20+Daily!P11</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -10554,8 +10889,12 @@
         <f>Confirmed!AG21+Daily!O12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f>Confirmed!AH21+Daily!P12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -10615,8 +10954,12 @@
         <f>Confirmed!AG22+Daily!O13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <f>Confirmed!AH22+Daily!P13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -10676,8 +11019,12 @@
         <f>Confirmed!AG23+Daily!O14</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <f>Confirmed!AH23+Daily!P14</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -10737,8 +11084,12 @@
         <f>Confirmed!AG24+Daily!O15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <f>Confirmed!AH24+Daily!P15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -10798,8 +11149,12 @@
         <f>Confirmed!AG25+Daily!O16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <f>Confirmed!AH25+Daily!P16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -10859,8 +11214,12 @@
         <f>Confirmed!AG26+Daily!O17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <f>Confirmed!AH26+Daily!P17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -10920,8 +11279,12 @@
         <f>Confirmed!AG27+Daily!O18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <f>Confirmed!AH27+Daily!P18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -10981,8 +11344,12 @@
         <f>Confirmed!AG28+Daily!O19</f>
         <v>327</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f>Confirmed!AH28+Daily!P19</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -11042,8 +11409,12 @@
         <f>Confirmed!AG29+Daily!O20</f>
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <f>Confirmed!AH29+Daily!P20</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -11103,8 +11474,12 @@
         <f>Confirmed!AG30+Daily!O21</f>
         <v>399</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f>Confirmed!AH30+Daily!P21</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -11164,8 +11539,12 @@
         <f>Confirmed!AG31+Daily!O22</f>
         <v>462</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f>Confirmed!AH31+Daily!P22</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -11225,8 +11604,12 @@
         <f>Confirmed!AG32+Daily!O23</f>
         <v>529</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f>Confirmed!AH32+Daily!P23</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -11286,8 +11669,12 @@
         <f>Confirmed!AG33+Daily!O24</f>
         <v>641</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <f>Confirmed!AH33+Daily!P24</f>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -11347,8 +11734,12 @@
         <f>Confirmed!AG34+Daily!O25</f>
         <v>647</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <f>Confirmed!AH34+Daily!P25</f>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -11408,8 +11799,12 @@
         <f>Confirmed!AG35+Daily!O26</f>
         <v>679</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <f>Confirmed!AH35+Daily!P26</f>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -11469,8 +11864,12 @@
         <f>Confirmed!AG36+Daily!O27</f>
         <v>728</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <f>Confirmed!AH36+Daily!P27</f>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -11530,8 +11929,12 @@
         <f>Confirmed!AG37+Daily!O28</f>
         <v>792</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <f>Confirmed!AH37+Daily!P28</f>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -11591,8 +11994,12 @@
         <f>Confirmed!AG38+Daily!O29</f>
         <v>811</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <f>Confirmed!AH38+Daily!P29</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -11652,8 +12059,12 @@
         <f>Confirmed!AG39+Daily!O30</f>
         <v>735</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f>Confirmed!AH39+Daily!P30</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -11713,8 +12124,12 @@
         <f>Confirmed!AG40+Daily!O31</f>
         <v>732</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f>Confirmed!AH40+Daily!P31</f>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -11774,8 +12189,12 @@
         <f>Confirmed!AG41+Daily!O32</f>
         <v>699</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <f>Confirmed!AH41+Daily!P32</f>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -11835,8 +12254,12 @@
         <f>Confirmed!AG42+Daily!O33</f>
         <v>684</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f>Confirmed!AH42+Daily!P33</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -11896,8 +12319,12 @@
         <f>Confirmed!AG43+Daily!O34</f>
         <v>718</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <f>Confirmed!AH43+Daily!P34</f>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -11957,8 +12384,12 @@
         <f>Confirmed!AG44+Daily!O35</f>
         <v>727</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f>Confirmed!AH44+Daily!P35</f>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -12018,8 +12449,12 @@
         <f>Confirmed!AG45+Daily!O36</f>
         <v>645</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <f>Confirmed!AH45+Daily!P36</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -12079,8 +12514,12 @@
         <f>Confirmed!AG46+Daily!O37</f>
         <v>530</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f>Confirmed!AH46+Daily!P37</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -12140,8 +12579,12 @@
         <f>Confirmed!AG47+Daily!O38</f>
         <v>526</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <f>Confirmed!AH47+Daily!P38</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -12201,8 +12644,12 @@
         <f>Confirmed!AG48+Daily!O39</f>
         <v>453</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <f>Confirmed!AH48+Daily!P39</f>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -12242,8 +12689,12 @@
         <f>Confirmed!AG49+Daily!O40</f>
         <v>469</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <f>Confirmed!AH49+Daily!P40</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -12283,8 +12734,12 @@
         <f>Confirmed!AG50+Daily!O41</f>
         <v>449</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <f>Confirmed!AH50+Daily!P41</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -12316,8 +12771,12 @@
         <f>Confirmed!AG51+Daily!O42</f>
         <v>441</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <f>Confirmed!AH51+Daily!P42</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -12345,8 +12804,12 @@
         <f>Confirmed!AG52+Daily!O43</f>
         <v>382</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <f>Confirmed!AH52+Daily!P43</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -12374,8 +12837,12 @@
         <f>Confirmed!AG53+Daily!O44</f>
         <v>362</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <f>Confirmed!AH53+Daily!P44</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -12399,8 +12866,12 @@
         <f>Confirmed!AG54+Daily!O45</f>
         <v>357</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <f>Confirmed!AH54+Daily!P45</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -12424,8 +12895,12 @@
         <f>Confirmed!AG55+Daily!O46</f>
         <v>321</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <f>Confirmed!AH55+Daily!P46</f>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -12449,8 +12924,12 @@
         <f>Confirmed!AG56+Daily!O47</f>
         <v>199</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <f>Confirmed!AH56+Daily!P47</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>426</v>
       </c>
@@ -12462,10 +12941,24 @@
         <f>Confirmed!AG57+Daily!O48</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <f>Confirmed!AH57+Daily!P48</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O49">
         <f>Confirmed!AG58+Daily!O49</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>Confirmed!AH58+Daily!P49</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <f>Confirmed!AH59+Daily!P50</f>
         <v>0</v>
       </c>
     </row>
@@ -13114,8 +13607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13224,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E54" si="1">E8+1</f>
+        <f t="shared" ref="E9:E55" si="1">E8+1</f>
         <v>43902</v>
       </c>
     </row>
@@ -13494,10 +13987,10 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D24">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -13513,7 +14006,7 @@
         <v>319</v>
       </c>
       <c r="C25">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D25">
         <v>64</v>
@@ -13551,10 +14044,10 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D27">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -13570,10 +14063,10 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D28">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -13589,10 +14082,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D29">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -13608,10 +14101,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D30">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -13627,10 +14120,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D31">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -13646,10 +14139,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D32">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -13665,10 +14158,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D33">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -13684,10 +14177,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D34">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -13706,7 +14199,7 @@
         <v>556</v>
       </c>
       <c r="D35">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -13722,10 +14215,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D36">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -13763,7 +14256,7 @@
         <v>478</v>
       </c>
       <c r="D38">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -13801,7 +14294,7 @@
         <v>494</v>
       </c>
       <c r="D40">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -13817,10 +14310,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D41">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -13836,10 +14329,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D42">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -13855,10 +14348,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D43">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -13874,10 +14367,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D44">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -13893,10 +14386,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D45">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -13915,7 +14408,7 @@
         <v>301</v>
       </c>
       <c r="D46">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
@@ -13931,7 +14424,7 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D47">
         <v>157</v>
@@ -13953,7 +14446,7 @@
         <v>275</v>
       </c>
       <c r="D48">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -13988,10 +14481,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D50">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -14007,10 +14500,10 @@
         <v>328</v>
       </c>
       <c r="C51">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D51">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
@@ -14029,7 +14522,7 @@
         <v>145</v>
       </c>
       <c r="D52">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
@@ -14045,10 +14538,10 @@
         <v>353</v>
       </c>
       <c r="C53">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D53">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
@@ -14064,10 +14557,10 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
@@ -14082,6 +14575,16 @@
       <c r="B55">
         <v>214</v>
       </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>43948</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -604,10 +604,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>41</c:v>
@@ -616,112 +616,118 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>121</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>207</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>262</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>277</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>305</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>556</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>505</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>339</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>309</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>301</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>293</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>275</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>226</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>218</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>145</c:v>
-                </c:pt>
                 <c:pt idx="51">
-                  <c:v>80</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>68</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10</c:v>
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,6 +1017,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1033,112 +1054,118 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>94</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>98</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>117</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>193</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>209</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>203</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>251</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>254</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>227</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>220</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>205</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>223</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>238</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>191</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>142</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>190</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>144</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>169</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>157</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>165</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>156</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>147</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>158</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>184</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>164</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>151</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19</c:v>
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,8 +1181,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="290811040"/>
-        <c:axId val="290811600"/>
+        <c:axId val="372050720"/>
+        <c:axId val="372060240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1696,11 +1723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290811040"/>
-        <c:axId val="290811600"/>
+        <c:axId val="372050720"/>
+        <c:axId val="372060240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="290811040"/>
+        <c:axId val="372050720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290811600"/>
+        <c:crossAx val="372060240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1751,7 +1778,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="290811600"/>
+        <c:axId val="372060240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290811040"/>
+        <c:crossAx val="372050720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2444,7 +2471,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="58" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3639,15 +3666,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:P49"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3693,8 +3720,14 @@
       <c r="P1">
         <v>428</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1">
+        <v>429</v>
+      </c>
+      <c r="R1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -3704,8 +3737,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -3715,8 +3751,11 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -3726,8 +3765,11 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -3752,8 +3794,11 @@
       <c r="N5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -3775,8 +3820,11 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3828,8 +3876,14 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3884,8 +3938,14 @@
       <c r="P8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -3940,8 +4000,14 @@
       <c r="P9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -3996,8 +4062,14 @@
       <c r="P10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -4052,8 +4124,14 @@
       <c r="P11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -4108,8 +4186,14 @@
       <c r="P12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -4164,8 +4248,14 @@
       <c r="P13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -4220,8 +4310,14 @@
       <c r="P14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -4276,8 +4372,14 @@
       <c r="P15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -4332,8 +4434,14 @@
       <c r="P16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>19</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -4388,8 +4496,14 @@
       <c r="P17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>40</v>
+      </c>
+      <c r="R17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -4444,8 +4558,14 @@
       <c r="P18">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>45</v>
+      </c>
+      <c r="R18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -4500,8 +4620,14 @@
       <c r="P19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>62</v>
+      </c>
+      <c r="R19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4556,8 +4682,14 @@
       <c r="P20">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>75</v>
+      </c>
+      <c r="R20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4612,8 +4744,14 @@
       <c r="P21">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>93</v>
+      </c>
+      <c r="R21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4668,8 +4806,14 @@
       <c r="P22">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>98</v>
+      </c>
+      <c r="R22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4724,8 +4868,14 @@
       <c r="P23">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>118</v>
+      </c>
+      <c r="R23">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4780,8 +4930,14 @@
       <c r="P24">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <v>195</v>
+      </c>
+      <c r="R24">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4836,8 +4992,14 @@
       <c r="P25">
         <v>193</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <v>189</v>
+      </c>
+      <c r="R25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -4892,8 +5054,14 @@
       <c r="P26">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <v>208</v>
+      </c>
+      <c r="R26">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -4948,8 +5116,14 @@
       <c r="P27">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <v>201</v>
+      </c>
+      <c r="R27">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -5004,8 +5178,14 @@
       <c r="P28">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <v>253</v>
+      </c>
+      <c r="R28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -5060,8 +5240,14 @@
       <c r="P29">
         <v>254</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <v>253</v>
+      </c>
+      <c r="R29">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -5116,8 +5302,14 @@
       <c r="P30">
         <v>234</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <v>229</v>
+      </c>
+      <c r="R30">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -5172,8 +5364,14 @@
       <c r="P31">
         <v>227</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <v>222</v>
+      </c>
+      <c r="R31">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -5228,8 +5426,14 @@
       <c r="P32">
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>217</v>
+      </c>
+      <c r="R32">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -5284,8 +5488,14 @@
       <c r="P33">
         <v>205</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <v>199</v>
+      </c>
+      <c r="R33">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -5340,8 +5550,14 @@
       <c r="P34">
         <v>223</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <v>215</v>
+      </c>
+      <c r="R34">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -5396,8 +5612,14 @@
       <c r="P35">
         <v>238</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <v>234</v>
+      </c>
+      <c r="R35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -5448,8 +5670,14 @@
       <c r="P36">
         <v>191</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <v>181</v>
+      </c>
+      <c r="R36">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -5496,8 +5724,14 @@
       <c r="P37">
         <v>142</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <v>131</v>
+      </c>
+      <c r="R37">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -5540,8 +5774,14 @@
       <c r="P38">
         <v>190</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <v>184</v>
+      </c>
+      <c r="R38">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -5580,8 +5820,14 @@
       <c r="P39">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <v>133</v>
+      </c>
+      <c r="R39">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -5616,8 +5862,14 @@
       <c r="P40">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <v>153</v>
+      </c>
+      <c r="R40">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -5645,8 +5897,14 @@
       <c r="P41">
         <v>157</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <v>149</v>
+      </c>
+      <c r="R41">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -5674,8 +5932,14 @@
       <c r="P42">
         <v>165</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <v>153</v>
+      </c>
+      <c r="R42">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -5700,8 +5964,14 @@
       <c r="P43">
         <v>156</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <v>142</v>
+      </c>
+      <c r="R43">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -5723,8 +5993,14 @@
       <c r="P44">
         <v>147</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>135</v>
+      </c>
+      <c r="R44">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -5743,8 +6019,14 @@
       <c r="P45">
         <v>158</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <v>138</v>
+      </c>
+      <c r="R45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -5760,8 +6042,14 @@
       <c r="P46">
         <v>184</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <v>142</v>
+      </c>
+      <c r="R46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -5774,18 +6062,49 @@
       <c r="P47">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q47">
+        <v>124</v>
+      </c>
+      <c r="R47">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>17</v>
       </c>
       <c r="P48">
         <v>151</v>
       </c>
-    </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <v>136</v>
+      </c>
+      <c r="R48">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>19</v>
+      </c>
+      <c r="Q49">
+        <v>171</v>
+      </c>
+      <c r="R49">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="Q50">
+        <v>11</v>
+      </c>
+      <c r="R50">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="R51">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5795,15 +6114,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH58"/>
+  <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView topLeftCell="V41" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11:AH58"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11:AJ60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -5903,8 +6222,14 @@
       <c r="AH1">
         <v>428</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI1">
+        <v>429</v>
+      </c>
+      <c r="AJ1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -5990,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -6076,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -6162,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -6248,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -6334,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -6420,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -6506,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -6592,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -6678,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -6781,8 +7106,14 @@
       <c r="AH11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -6885,8 +7216,14 @@
       <c r="AH12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -6989,8 +7326,14 @@
       <c r="AH13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -7093,8 +7436,14 @@
       <c r="AH14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI14">
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -7197,8 +7546,14 @@
       <c r="AH15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI15">
+        <v>6</v>
+      </c>
+      <c r="AJ15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -7301,8 +7656,14 @@
       <c r="AH16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI16">
+        <v>9</v>
+      </c>
+      <c r="AJ16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -7405,8 +7766,14 @@
       <c r="AH17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI17">
+        <v>7</v>
+      </c>
+      <c r="AJ17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -7509,8 +7876,14 @@
       <c r="AH18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI18">
+        <v>21</v>
+      </c>
+      <c r="AJ18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -7613,8 +7986,14 @@
       <c r="AH19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI19">
+        <v>24</v>
+      </c>
+      <c r="AJ19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -7717,8 +8096,14 @@
       <c r="AH20">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI20">
+        <v>45</v>
+      </c>
+      <c r="AJ20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -7821,8 +8206,14 @@
       <c r="AH21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI21">
+        <v>41</v>
+      </c>
+      <c r="AJ21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -7925,8 +8316,14 @@
       <c r="AH22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI22">
+        <v>48</v>
+      </c>
+      <c r="AJ22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -8029,8 +8426,14 @@
       <c r="AH23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI23">
+        <v>81</v>
+      </c>
+      <c r="AJ23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -8133,8 +8536,14 @@
       <c r="AH24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI24">
+        <v>92</v>
+      </c>
+      <c r="AJ24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -8237,8 +8646,14 @@
       <c r="AH25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI25">
+        <v>121</v>
+      </c>
+      <c r="AJ25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -8338,8 +8753,14 @@
       <c r="AH26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI26">
+        <v>185</v>
+      </c>
+      <c r="AJ26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -8436,8 +8857,14 @@
       <c r="AH27">
         <v>207</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI27">
+        <v>207</v>
+      </c>
+      <c r="AJ27">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -8531,8 +8958,14 @@
       <c r="AH28">
         <v>262</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI28">
+        <v>264</v>
+      </c>
+      <c r="AJ28">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -8626,8 +9059,14 @@
       <c r="AH29">
         <v>277</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI29">
+        <v>278</v>
+      </c>
+      <c r="AJ29">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -8721,8 +9160,14 @@
       <c r="AH30">
         <v>305</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI30">
+        <v>307</v>
+      </c>
+      <c r="AJ30">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -8813,8 +9258,14 @@
       <c r="AH31">
         <v>364</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI31">
+        <v>364</v>
+      </c>
+      <c r="AJ31">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -8902,8 +9353,14 @@
       <c r="AH32">
         <v>412</v>
       </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI32">
+        <v>413</v>
+      </c>
+      <c r="AJ32">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -8988,8 +9445,14 @@
       <c r="AH33">
         <v>446</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI33">
+        <v>448</v>
+      </c>
+      <c r="AJ33">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -9071,8 +9534,14 @@
       <c r="AH34">
         <v>454</v>
       </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI34">
+        <v>459</v>
+      </c>
+      <c r="AJ34">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -9151,8 +9620,14 @@
       <c r="AH35">
         <v>470</v>
       </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI35">
+        <v>470</v>
+      </c>
+      <c r="AJ35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -9228,8 +9703,14 @@
       <c r="AH36">
         <v>524</v>
       </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI36">
+        <v>526</v>
+      </c>
+      <c r="AJ36">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -9302,8 +9783,14 @@
       <c r="AH37">
         <v>539</v>
       </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI37">
+        <v>540</v>
+      </c>
+      <c r="AJ37">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -9373,8 +9860,14 @@
       <c r="AH38">
         <v>556</v>
       </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI38">
+        <v>560</v>
+      </c>
+      <c r="AJ38">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -9441,8 +9934,14 @@
       <c r="AH39">
         <v>501</v>
       </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI39">
+        <v>507</v>
+      </c>
+      <c r="AJ39">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -9506,8 +10005,14 @@
       <c r="AH40">
         <v>505</v>
       </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI40">
+        <v>511</v>
+      </c>
+      <c r="AJ40">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -9568,8 +10073,14 @@
       <c r="AH41">
         <v>478</v>
       </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI41">
+        <v>483</v>
+      </c>
+      <c r="AJ41">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -9627,8 +10138,14 @@
       <c r="AH42">
         <v>479</v>
       </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI42">
+        <v>485</v>
+      </c>
+      <c r="AJ42">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -9683,8 +10200,14 @@
       <c r="AH43">
         <v>494</v>
       </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI43">
+        <v>502</v>
+      </c>
+      <c r="AJ43">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -9736,8 +10259,14 @@
       <c r="AH44">
         <v>487</v>
       </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI44">
+        <v>497</v>
+      </c>
+      <c r="AJ44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -9783,8 +10312,14 @@
       <c r="AH45">
         <v>454</v>
       </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI45">
+        <v>462</v>
+      </c>
+      <c r="AJ45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -9827,8 +10362,14 @@
       <c r="AH46">
         <v>388</v>
       </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI46">
+        <v>401</v>
+      </c>
+      <c r="AJ46">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -9868,8 +10409,14 @@
       <c r="AH47">
         <v>339</v>
       </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI47">
+        <v>350</v>
+      </c>
+      <c r="AJ47">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -9906,8 +10453,14 @@
       <c r="AH48">
         <v>309</v>
       </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI48">
+        <v>319</v>
+      </c>
+      <c r="AJ48">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -9941,8 +10494,14 @@
       <c r="AH49">
         <v>301</v>
       </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI49">
+        <v>316</v>
+      </c>
+      <c r="AJ49">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -9973,8 +10532,14 @@
       <c r="AH50">
         <v>293</v>
       </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI50">
+        <v>305</v>
+      </c>
+      <c r="AJ50">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -10002,8 +10567,14 @@
       <c r="AH51">
         <v>275</v>
       </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI51">
+        <v>292</v>
+      </c>
+      <c r="AJ51">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -10028,8 +10599,14 @@
       <c r="AH52">
         <v>226</v>
       </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI52">
+        <v>245</v>
+      </c>
+      <c r="AJ52">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -10051,8 +10628,14 @@
       <c r="AH53">
         <v>218</v>
       </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI53">
+        <v>239</v>
+      </c>
+      <c r="AJ53">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -10071,8 +10654,14 @@
       <c r="AH54">
         <v>203</v>
       </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI54">
+        <v>231</v>
+      </c>
+      <c r="AJ54">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -10088,8 +10677,14 @@
       <c r="AH55">
         <v>145</v>
       </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI55">
+        <v>198</v>
+      </c>
+      <c r="AJ55">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -10102,18 +10697,49 @@
       <c r="AH56">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI56">
+        <v>144</v>
+      </c>
+      <c r="AJ56">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="AG57">
         <v>7</v>
       </c>
       <c r="AH57">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI57">
+        <v>123</v>
+      </c>
+      <c r="AJ57">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="AH58">
         <v>10</v>
+      </c>
+      <c r="AI58">
+        <v>64</v>
+      </c>
+      <c r="AJ58">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI59">
+        <v>7</v>
+      </c>
+      <c r="AJ59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ60">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10123,15 +10749,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49:P50"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R51" sqref="R1:R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -10178,8 +10804,14 @@
       <c r="P1">
         <v>428</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1">
+        <v>429</v>
+      </c>
+      <c r="R1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -10243,8 +10875,16 @@
         <f>Confirmed!AH11+Daily!P2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <f>Confirmed!AI11+Daily!Q2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>Confirmed!AJ11+Daily!R2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -10308,8 +10948,16 @@
         <f>Confirmed!AH12+Daily!P3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <f>Confirmed!AI12+Daily!Q3</f>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>Confirmed!AJ12+Daily!R3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -10373,8 +11021,16 @@
         <f>Confirmed!AH13+Daily!P4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <f>Confirmed!AI13+Daily!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>Confirmed!AJ13+Daily!R4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -10438,8 +11094,16 @@
         <f>Confirmed!AH14+Daily!P5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <f>Confirmed!AI14+Daily!Q5</f>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f>Confirmed!AJ14+Daily!R5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -10503,8 +11167,16 @@
         <f>Confirmed!AH15+Daily!P6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <f>Confirmed!AI15+Daily!Q6</f>
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <f>Confirmed!AJ15+Daily!R6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -10568,8 +11240,16 @@
         <f>Confirmed!AH16+Daily!P7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <f>Confirmed!AI16+Daily!Q7</f>
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <f>Confirmed!AJ16+Daily!R7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -10633,8 +11313,16 @@
         <f>Confirmed!AH17+Daily!P8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <f>Confirmed!AI17+Daily!Q8</f>
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <f>Confirmed!AJ17+Daily!R8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -10698,8 +11386,16 @@
         <f>Confirmed!AH18+Daily!P9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <f>Confirmed!AI18+Daily!Q9</f>
+        <v>25</v>
+      </c>
+      <c r="R9">
+        <f>Confirmed!AJ18+Daily!R9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -10763,8 +11459,16 @@
         <f>Confirmed!AH19+Daily!P10</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <f>Confirmed!AI19+Daily!Q10</f>
+        <v>26</v>
+      </c>
+      <c r="R10">
+        <f>Confirmed!AJ19+Daily!R10</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -10828,8 +11532,16 @@
         <f>Confirmed!AH20+Daily!P11</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <f>Confirmed!AI20+Daily!Q11</f>
+        <v>49</v>
+      </c>
+      <c r="R11">
+        <f>Confirmed!AJ20+Daily!R11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -10893,8 +11605,16 @@
         <f>Confirmed!AH21+Daily!P12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <f>Confirmed!AI21+Daily!Q12</f>
+        <v>46</v>
+      </c>
+      <c r="R12">
+        <f>Confirmed!AJ21+Daily!R12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -10958,8 +11678,16 @@
         <f>Confirmed!AH22+Daily!P13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <f>Confirmed!AI22+Daily!Q13</f>
+        <v>52</v>
+      </c>
+      <c r="R13">
+        <f>Confirmed!AJ22+Daily!R13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -11023,8 +11751,16 @@
         <f>Confirmed!AH23+Daily!P14</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <f>Confirmed!AI23+Daily!Q14</f>
+        <v>97</v>
+      </c>
+      <c r="R14">
+        <f>Confirmed!AJ23+Daily!R14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -11088,8 +11824,16 @@
         <f>Confirmed!AH24+Daily!P15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <f>Confirmed!AI24+Daily!Q15</f>
+        <v>105</v>
+      </c>
+      <c r="R15">
+        <f>Confirmed!AJ24+Daily!R15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -11153,8 +11897,16 @@
         <f>Confirmed!AH25+Daily!P16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <f>Confirmed!AI25+Daily!Q16</f>
+        <v>140</v>
+      </c>
+      <c r="R16">
+        <f>Confirmed!AJ25+Daily!R16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -11218,8 +11970,16 @@
         <f>Confirmed!AH26+Daily!P17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <f>Confirmed!AI26+Daily!Q17</f>
+        <v>225</v>
+      </c>
+      <c r="R17">
+        <f>Confirmed!AJ26+Daily!R17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -11283,8 +12043,16 @@
         <f>Confirmed!AH27+Daily!P18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <f>Confirmed!AI27+Daily!Q18</f>
+        <v>252</v>
+      </c>
+      <c r="R18">
+        <f>Confirmed!AJ27+Daily!R18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -11348,8 +12116,16 @@
         <f>Confirmed!AH28+Daily!P19</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <f>Confirmed!AI28+Daily!Q19</f>
+        <v>326</v>
+      </c>
+      <c r="R19">
+        <f>Confirmed!AJ28+Daily!R19</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -11413,8 +12189,16 @@
         <f>Confirmed!AH29+Daily!P20</f>
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <f>Confirmed!AI29+Daily!Q20</f>
+        <v>353</v>
+      </c>
+      <c r="R20">
+        <f>Confirmed!AJ29+Daily!R20</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -11478,8 +12262,16 @@
         <f>Confirmed!AH30+Daily!P21</f>
         <v>399</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <f>Confirmed!AI30+Daily!Q21</f>
+        <v>400</v>
+      </c>
+      <c r="R21">
+        <f>Confirmed!AJ30+Daily!R21</f>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -11543,8 +12335,16 @@
         <f>Confirmed!AH31+Daily!P22</f>
         <v>462</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <f>Confirmed!AI31+Daily!Q22</f>
+        <v>462</v>
+      </c>
+      <c r="R22">
+        <f>Confirmed!AJ31+Daily!R22</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -11608,8 +12408,16 @@
         <f>Confirmed!AH32+Daily!P23</f>
         <v>529</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <f>Confirmed!AI32+Daily!Q23</f>
+        <v>531</v>
+      </c>
+      <c r="R23">
+        <f>Confirmed!AJ32+Daily!R23</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -11673,8 +12481,16 @@
         <f>Confirmed!AH33+Daily!P24</f>
         <v>641</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <f>Confirmed!AI33+Daily!Q24</f>
+        <v>643</v>
+      </c>
+      <c r="R24">
+        <f>Confirmed!AJ33+Daily!R24</f>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -11738,8 +12554,16 @@
         <f>Confirmed!AH34+Daily!P25</f>
         <v>647</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <f>Confirmed!AI34+Daily!Q25</f>
+        <v>648</v>
+      </c>
+      <c r="R25">
+        <f>Confirmed!AJ34+Daily!R25</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -11803,8 +12627,16 @@
         <f>Confirmed!AH35+Daily!P26</f>
         <v>679</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <f>Confirmed!AI35+Daily!Q26</f>
+        <v>678</v>
+      </c>
+      <c r="R26">
+        <f>Confirmed!AJ35+Daily!R26</f>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -11868,8 +12700,16 @@
         <f>Confirmed!AH36+Daily!P27</f>
         <v>727</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <f>Confirmed!AI36+Daily!Q27</f>
+        <v>727</v>
+      </c>
+      <c r="R27">
+        <f>Confirmed!AJ36+Daily!R27</f>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -11933,8 +12773,16 @@
         <f>Confirmed!AH37+Daily!P28</f>
         <v>790</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <f>Confirmed!AI37+Daily!Q28</f>
+        <v>793</v>
+      </c>
+      <c r="R28">
+        <f>Confirmed!AJ37+Daily!R28</f>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -11998,8 +12846,16 @@
         <f>Confirmed!AH38+Daily!P29</f>
         <v>810</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <f>Confirmed!AI38+Daily!Q29</f>
+        <v>813</v>
+      </c>
+      <c r="R29">
+        <f>Confirmed!AJ38+Daily!R29</f>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -12063,8 +12919,16 @@
         <f>Confirmed!AH39+Daily!P30</f>
         <v>735</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <f>Confirmed!AI39+Daily!Q30</f>
+        <v>736</v>
+      </c>
+      <c r="R30">
+        <f>Confirmed!AJ39+Daily!R30</f>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -12128,8 +12992,16 @@
         <f>Confirmed!AH40+Daily!P31</f>
         <v>732</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <f>Confirmed!AI40+Daily!Q31</f>
+        <v>733</v>
+      </c>
+      <c r="R31">
+        <f>Confirmed!AJ40+Daily!R31</f>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -12193,8 +13065,16 @@
         <f>Confirmed!AH41+Daily!P32</f>
         <v>698</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <f>Confirmed!AI41+Daily!Q32</f>
+        <v>700</v>
+      </c>
+      <c r="R32">
+        <f>Confirmed!AJ41+Daily!R32</f>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -12258,8 +13138,16 @@
         <f>Confirmed!AH42+Daily!P33</f>
         <v>684</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <f>Confirmed!AI42+Daily!Q33</f>
+        <v>684</v>
+      </c>
+      <c r="R33">
+        <f>Confirmed!AJ42+Daily!R33</f>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -12323,8 +13211,16 @@
         <f>Confirmed!AH43+Daily!P34</f>
         <v>717</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <f>Confirmed!AI43+Daily!Q34</f>
+        <v>717</v>
+      </c>
+      <c r="R34">
+        <f>Confirmed!AJ43+Daily!R34</f>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -12388,8 +13284,16 @@
         <f>Confirmed!AH44+Daily!P35</f>
         <v>725</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <f>Confirmed!AI44+Daily!Q35</f>
+        <v>731</v>
+      </c>
+      <c r="R35">
+        <f>Confirmed!AJ44+Daily!R35</f>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -12453,8 +13357,16 @@
         <f>Confirmed!AH45+Daily!P36</f>
         <v>645</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <f>Confirmed!AI45+Daily!Q36</f>
+        <v>643</v>
+      </c>
+      <c r="R36">
+        <f>Confirmed!AJ45+Daily!R36</f>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -12518,8 +13430,16 @@
         <f>Confirmed!AH46+Daily!P37</f>
         <v>530</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <f>Confirmed!AI46+Daily!Q37</f>
+        <v>532</v>
+      </c>
+      <c r="R37">
+        <f>Confirmed!AJ46+Daily!R37</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -12583,8 +13503,16 @@
         <f>Confirmed!AH47+Daily!P38</f>
         <v>529</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <f>Confirmed!AI47+Daily!Q38</f>
+        <v>534</v>
+      </c>
+      <c r="R38">
+        <f>Confirmed!AJ47+Daily!R38</f>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -12648,8 +13576,16 @@
         <f>Confirmed!AH48+Daily!P39</f>
         <v>453</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <f>Confirmed!AI48+Daily!Q39</f>
+        <v>452</v>
+      </c>
+      <c r="R39">
+        <f>Confirmed!AJ48+Daily!R39</f>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -12693,8 +13629,16 @@
         <f>Confirmed!AH49+Daily!P40</f>
         <v>470</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <f>Confirmed!AI49+Daily!Q40</f>
+        <v>469</v>
+      </c>
+      <c r="R40">
+        <f>Confirmed!AJ49+Daily!R40</f>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -12738,8 +13682,16 @@
         <f>Confirmed!AH50+Daily!P41</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <f>Confirmed!AI50+Daily!Q41</f>
+        <v>454</v>
+      </c>
+      <c r="R41">
+        <f>Confirmed!AJ50+Daily!R41</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -12775,8 +13727,16 @@
         <f>Confirmed!AH51+Daily!P42</f>
         <v>440</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <f>Confirmed!AI51+Daily!Q42</f>
+        <v>445</v>
+      </c>
+      <c r="R42">
+        <f>Confirmed!AJ51+Daily!R42</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -12808,8 +13768,16 @@
         <f>Confirmed!AH52+Daily!P43</f>
         <v>382</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <f>Confirmed!AI52+Daily!Q43</f>
+        <v>387</v>
+      </c>
+      <c r="R43">
+        <f>Confirmed!AJ52+Daily!R43</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -12841,8 +13809,16 @@
         <f>Confirmed!AH53+Daily!P44</f>
         <v>365</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <f>Confirmed!AI53+Daily!Q44</f>
+        <v>374</v>
+      </c>
+      <c r="R44">
+        <f>Confirmed!AJ53+Daily!R44</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -12870,8 +13846,16 @@
         <f>Confirmed!AH54+Daily!P45</f>
         <v>361</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <f>Confirmed!AI54+Daily!Q45</f>
+        <v>369</v>
+      </c>
+      <c r="R45">
+        <f>Confirmed!AJ54+Daily!R45</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -12899,8 +13883,16 @@
         <f>Confirmed!AH55+Daily!P46</f>
         <v>329</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <f>Confirmed!AI55+Daily!Q46</f>
+        <v>340</v>
+      </c>
+      <c r="R46">
+        <f>Confirmed!AJ55+Daily!R46</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -12928,8 +13920,16 @@
         <f>Confirmed!AH56+Daily!P47</f>
         <v>244</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q47">
+        <f>Confirmed!AI56+Daily!Q47</f>
+        <v>268</v>
+      </c>
+      <c r="R47">
+        <f>Confirmed!AJ56+Daily!R47</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>426</v>
       </c>
@@ -12945,8 +13945,19 @@
         <f>Confirmed!AH57+Daily!P48</f>
         <v>219</v>
       </c>
-    </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <f>Confirmed!AI57+Daily!Q48</f>
+        <v>259</v>
+      </c>
+      <c r="R48">
+        <f>Confirmed!AJ57+Daily!R48</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>427</v>
+      </c>
       <c r="O49">
         <f>Confirmed!AG58+Daily!O49</f>
         <v>0</v>
@@ -12955,10 +13966,48 @@
         <f>Confirmed!AH58+Daily!P49</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="Q49">
+        <f>Confirmed!AI58+Daily!Q49</f>
+        <v>235</v>
+      </c>
+      <c r="R49">
+        <f>Confirmed!AJ58+Daily!R49</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>428</v>
+      </c>
       <c r="P50">
         <f>Confirmed!AH59+Daily!P50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>Confirmed!AI59+Daily!Q50</f>
+        <v>18</v>
+      </c>
+      <c r="R50">
+        <f>Confirmed!AJ59+Daily!R50</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>429</v>
+      </c>
+      <c r="Q51">
+        <f>Confirmed!AI60+Daily!Q51</f>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f>Confirmed!AJ60+Daily!R51</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R52">
+        <f>Confirmed!AJ61+Daily!R52</f>
         <v>0</v>
       </c>
     </row>
@@ -13607,8 +14656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D55"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B56" sqref="B2:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13701,6 +14750,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" s="2">
         <v>43901</v>
       </c>
@@ -13716,8 +14768,11 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E55" si="1">E8+1</f>
+        <f t="shared" ref="E9:E57" si="1">E8+1</f>
         <v>43902</v>
       </c>
     </row>
@@ -13732,6 +14787,9 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>43903</v>
@@ -13748,6 +14806,9 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>43904</v>
@@ -13764,6 +14825,9 @@
       <c r="C12">
         <v>6</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>43905</v>
@@ -13835,7 +14899,7 @@
         <v>91</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -13854,7 +14918,7 @@
         <v>116</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -13911,10 +14975,10 @@
         <v>129</v>
       </c>
       <c r="C20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
@@ -13930,10 +14994,10 @@
         <v>190</v>
       </c>
       <c r="C21">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
@@ -13949,10 +15013,10 @@
         <v>223</v>
       </c>
       <c r="C22">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -13987,10 +15051,10 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -14006,10 +15070,10 @@
         <v>319</v>
       </c>
       <c r="C25">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -14025,10 +15089,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -14044,10 +15108,10 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D27">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -14063,10 +15127,10 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D28">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -14082,10 +15146,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D29">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -14101,10 +15165,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D30">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -14120,10 +15184,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D31">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -14139,10 +15203,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D32">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -14158,10 +15222,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D33">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -14177,10 +15241,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D34">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -14196,10 +15260,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D35">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -14215,10 +15279,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D36">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -14234,10 +15298,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D37">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -14253,10 +15317,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D38">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -14272,10 +15336,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D39">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -14291,10 +15355,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D40">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -14310,10 +15374,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="D41">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -14329,10 +15393,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D42">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -14348,10 +15412,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D43">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -14367,10 +15431,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="D44">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -14386,10 +15450,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D45">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -14405,10 +15469,10 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="D46">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
@@ -14424,10 +15488,10 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="D47">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
@@ -14443,10 +15507,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="D48">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -14462,10 +15526,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D49">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -14481,10 +15545,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="D50">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -14500,10 +15564,10 @@
         <v>328</v>
       </c>
       <c r="C51">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D51">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
@@ -14519,10 +15583,10 @@
         <v>323</v>
       </c>
       <c r="C52">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="D52">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
@@ -14538,10 +15602,10 @@
         <v>353</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="D53">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
@@ -14557,10 +15621,10 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="D54">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
@@ -14576,10 +15640,10 @@
         <v>214</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
@@ -14594,6 +15658,16 @@
       <c r="B56">
         <v>190</v>
       </c>
+      <c r="C56">
+        <v>58</v>
+      </c>
+      <c r="D56">
+        <v>133</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>43949</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -14603,6 +15677,16 @@
       <c r="B57">
         <v>160</v>
       </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>22</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="1"/>
+        <v>43950</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Errors" sheetId="7" r:id="rId6"/>
     <sheet name="Plotter" sheetId="2" r:id="rId7"/>
     <sheet name="FluvCovid" sheetId="3" r:id="rId8"/>
+    <sheet name="Chart1" sheetId="10" r:id="rId9"/>
+    <sheet name="smootheddeaths" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>InfluenzaDate</t>
   </si>
@@ -136,6 +138,24 @@
   </si>
   <si>
     <t>(NOTE: This became obsolete when NYC started releasing its probables as well as confirmed numbers in spreadsheet form on 4/20)</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Five-day</t>
+  </si>
+  <si>
+    <t>rawderiv</t>
+  </si>
+  <si>
+    <t>five-day deriv</t>
+  </si>
+  <si>
+    <t>Adj5day</t>
+  </si>
+  <si>
+    <t>adjusted 5-day deriv</t>
   </si>
 </sst>
 </file>
@@ -252,7 +272,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1181,8 +1200,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="372050720"/>
-        <c:axId val="372060240"/>
+        <c:axId val="289296208"/>
+        <c:axId val="289296768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1723,11 +1742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372050720"/>
-        <c:axId val="372060240"/>
+        <c:axId val="289296208"/>
+        <c:axId val="289296768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="372050720"/>
+        <c:axId val="289296208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,7 +1788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372060240"/>
+        <c:crossAx val="289296768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1778,7 +1797,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="372060240"/>
+        <c:axId val="289296768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372050720"/>
+        <c:crossAx val="289296208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1842,7 +1861,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1914,7 +1932,2059 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Change in NYC death</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> rate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(probable + confirmed), 5-day</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> moving average</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>smootheddeaths!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>five-day deriv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>smootheddeaths!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>smootheddeaths!$F$2:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-16.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-33.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-30.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-53.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-51.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-17.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-29.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-14.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-22.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-18.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>smootheddeaths!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adjusted 5-day deriv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>smootheddeaths!$G$2:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.6000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.2000000000000455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-16.799999999999955</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-33.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-30.600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-53.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-50.820150346224182</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-36.412855945280398</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-14.865074205104236</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-25.170262585297507</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6.8747505456085491</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.8490790270965363</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.8224778276365328</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-21.876564773767313</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.0318287115708813</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.26226333959050407</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-12.246744010496514</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.4361418307171334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="388481744"/>
+        <c:axId val="388477824"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Raw</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$A$2:$A$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="48"/>
+                      <c:pt idx="0">
+                        <c:v>43901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43902</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43903</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43904</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43905</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43906</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43907</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43908</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43909</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43910</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43911</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43912</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43913</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43914</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43915</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43916</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43917</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43918</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43919</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43920</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43922</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43923</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43924</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43925</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43926</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43927</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43935</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43938</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43939</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43940</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43941</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43942</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43943</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43944</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43945</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43946</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43947</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43948</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$B$2:$B$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="48"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>225</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>252</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>326</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>354</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>402</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>461</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>531</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>643</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>649</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>674</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>727</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>794</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>813</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>739</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>730</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>699</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>689</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>718</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>728</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>646</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>532</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>536</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>451</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>469</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>456</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>443</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>388</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>377</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>351</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>277</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>276</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>289</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Five-day</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$A$2:$A$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="48"/>
+                      <c:pt idx="0">
+                        <c:v>43901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43902</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43903</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43904</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43905</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43906</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43907</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43908</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43909</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43910</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43911</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43912</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43913</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43914</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43915</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43916</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43917</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43918</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43919</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43920</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43922</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43923</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43924</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43925</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43926</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43927</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43935</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43938</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43939</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43940</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43941</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43942</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43943</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43944</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43945</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43946</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43947</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43948</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$C$2:$C$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="48"/>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>24.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31.4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39.6</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>69.8</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>123.8</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>163.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>209.6</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>259.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>311.8</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>359</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>414.8</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>478.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>537.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>591.6</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>644.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>697.4</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>731.4</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>749.4</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>760.6</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>755</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>734</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>715</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>712.8</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>696</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>662.6</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>632</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>578.6</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>526.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>488.8</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>471</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>441.4</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>427.2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>408.8</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>387.8</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>354.6</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>332.2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>314</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>284</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>rawderiv</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$A$2:$A$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="48"/>
+                      <c:pt idx="0">
+                        <c:v>43901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43902</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43903</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43904</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43905</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43906</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43907</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43908</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43909</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43910</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43911</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43912</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43913</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43914</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43915</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43916</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43917</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43918</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43919</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43920</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43922</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43923</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43924</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43925</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43926</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43927</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43935</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43938</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43939</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43940</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43941</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43942</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43943</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43944</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43945</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43946</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43947</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43948</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$E$2:$E$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="48"/>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-74</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-9</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-10</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-82</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-114</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-85</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-13</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-13</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-55</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>-8</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>-26</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>-74</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>13</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>Adjusted five-day</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$D$2:$D$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="48"/>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>24.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31.4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39.6</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>69.8</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>123.8</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>163.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>209.6</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>259.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>311.8</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>359</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>414.8</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>478.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>537.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>591.6</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>644.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>697.4</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>731.4</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>749.4</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>760.6</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>755</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>734</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>715</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>712.8</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>696</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>662.6</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>632</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>578.6</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>527.77984965377584</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>491.36699370849544</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>476.50191950339121</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>451.3316569180937</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>444.45690637248515</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>434.60782734538861</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>425.78534951775208</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>403.90878474398477</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>395.87695603241389</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>396.13921937200439</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>383.89247536150788</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>378.45633353079074</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="388481744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388477824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="388477824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388481744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2467,6 +4537,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -2478,7 +5064,45 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="58" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657897" cy="6279931"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3666,15 +6290,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R51"/>
+    <sheetView topLeftCell="N37" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -3726,8 +6350,11 @@
       <c r="R1">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -3740,8 +6367,11 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -3754,8 +6384,11 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -3768,8 +6401,11 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -3797,8 +6433,11 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -3823,8 +6462,11 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -3882,8 +6524,11 @@
       <c r="R7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -3944,8 +6589,11 @@
       <c r="R8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -4006,8 +6654,11 @@
       <c r="R9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -4068,8 +6719,11 @@
       <c r="R10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -4130,8 +6784,11 @@
       <c r="R11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -4192,8 +6849,11 @@
       <c r="R12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -4254,8 +6914,11 @@
       <c r="R13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -4316,8 +6979,11 @@
       <c r="R14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -4378,8 +7044,11 @@
       <c r="R15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -4440,8 +7109,11 @@
       <c r="R16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -4502,8 +7174,11 @@
       <c r="R17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -4564,8 +7239,11 @@
       <c r="R18">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -4626,8 +7304,11 @@
       <c r="R19">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -4688,8 +7369,11 @@
       <c r="R20">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -4750,8 +7434,11 @@
       <c r="R21">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -4812,8 +7499,11 @@
       <c r="R22">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -4874,8 +7564,11 @@
       <c r="R23">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -4936,8 +7629,11 @@
       <c r="R24">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -4998,8 +7694,11 @@
       <c r="R25">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -5060,8 +7759,11 @@
       <c r="R26">
         <v>207</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -5122,8 +7824,11 @@
       <c r="R27">
         <v>198</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -5184,8 +7889,11 @@
       <c r="R28">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -5246,8 +7954,11 @@
       <c r="R29">
         <v>248</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -5308,8 +8019,11 @@
       <c r="R30">
         <v>229</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -5370,8 +8084,11 @@
       <c r="R31">
         <v>219</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -5432,8 +8149,11 @@
       <c r="R32">
         <v>214</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -5494,8 +8214,11 @@
       <c r="R33">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -5556,8 +8279,11 @@
       <c r="R34">
         <v>211</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -5618,8 +8344,11 @@
       <c r="R35">
         <v>225</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -5676,8 +8405,11 @@
       <c r="R36">
         <v>184</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -5730,8 +8462,11 @@
       <c r="R37">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -5780,8 +8515,11 @@
       <c r="R38">
         <v>174</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -5826,8 +8564,11 @@
       <c r="R39">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -5868,8 +8609,11 @@
       <c r="R40">
         <v>145</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -5903,8 +8647,11 @@
       <c r="R41">
         <v>141</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -5938,8 +8685,11 @@
       <c r="R42">
         <v>147</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -5970,8 +8720,11 @@
       <c r="R43">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -5999,8 +8752,11 @@
       <c r="R44">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -6025,8 +8781,11 @@
       <c r="R45">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -6048,8 +8807,11 @@
       <c r="R46">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -6068,8 +8830,11 @@
       <c r="R47">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>17</v>
       </c>
@@ -6082,8 +8847,11 @@
       <c r="R48">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>19</v>
       </c>
@@ -6093,18 +8861,32 @@
       <c r="R49">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="16:19" x14ac:dyDescent="0.3">
       <c r="Q50">
         <v>11</v>
       </c>
       <c r="R50">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="16:19" x14ac:dyDescent="0.3">
       <c r="R51">
         <v>22</v>
+      </c>
+      <c r="S51">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="S52">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6114,15 +8896,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ60"/>
+  <dimension ref="A1:AK61"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11:AJ60"/>
+      <selection activeCell="AK11" sqref="AK11:AK61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -6228,8 +9010,11 @@
       <c r="AJ1">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -6315,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -6401,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -6487,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -6573,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -6659,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -6745,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -6831,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -6917,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -7003,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -7112,8 +9897,11 @@
       <c r="AJ11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -7222,8 +10010,11 @@
       <c r="AJ12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -7332,8 +10123,11 @@
       <c r="AJ13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -7442,8 +10236,11 @@
       <c r="AJ14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -7552,8 +10349,11 @@
       <c r="AJ15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -7662,8 +10462,11 @@
       <c r="AJ16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -7772,8 +10575,11 @@
       <c r="AJ17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -7882,8 +10688,11 @@
       <c r="AJ18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -7992,8 +10801,11 @@
       <c r="AJ19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -8102,8 +10914,11 @@
       <c r="AJ20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -8212,8 +11027,11 @@
       <c r="AJ21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -8322,8 +11140,11 @@
       <c r="AJ22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -8432,8 +11253,11 @@
       <c r="AJ23">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -8542,8 +11366,11 @@
       <c r="AJ24">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -8652,8 +11479,11 @@
       <c r="AJ25">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -8759,8 +11589,11 @@
       <c r="AJ26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -8863,8 +11696,11 @@
       <c r="AJ27">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK27">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -8964,8 +11800,11 @@
       <c r="AJ28">
         <v>264</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK28">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -9065,8 +11904,11 @@
       <c r="AJ29">
         <v>280</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK29">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -9166,8 +12008,11 @@
       <c r="AJ30">
         <v>310</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK30">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -9264,8 +12109,11 @@
       <c r="AJ31">
         <v>366</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK31">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -9359,8 +12207,11 @@
       <c r="AJ32">
         <v>414</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK32">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -9451,8 +12302,11 @@
       <c r="AJ33">
         <v>452</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK33">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -9540,8 +12394,11 @@
       <c r="AJ34">
         <v>462</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK34">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -9626,8 +12483,11 @@
       <c r="AJ35">
         <v>471</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -9709,8 +12569,11 @@
       <c r="AJ36">
         <v>529</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK36">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -9789,8 +12652,11 @@
       <c r="AJ37">
         <v>544</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK37">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -9866,8 +12732,11 @@
       <c r="AJ38">
         <v>564</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK38">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -9940,8 +12809,11 @@
       <c r="AJ39">
         <v>510</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK39">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -10011,8 +12883,11 @@
       <c r="AJ40">
         <v>514</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK40">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -10079,8 +12954,11 @@
       <c r="AJ41">
         <v>485</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK41">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -10144,8 +13022,11 @@
       <c r="AJ42">
         <v>487</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK42">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -10206,8 +13087,11 @@
       <c r="AJ43">
         <v>506</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK43">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -10265,8 +13149,11 @@
       <c r="AJ44">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK44">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -10318,8 +13205,11 @@
       <c r="AJ45">
         <v>463</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -10368,8 +13258,11 @@
       <c r="AJ46">
         <v>408</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK46">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -10415,8 +13308,11 @@
       <c r="AJ47">
         <v>364</v>
       </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK47">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -10459,8 +13355,11 @@
       <c r="AJ48">
         <v>324</v>
       </c>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK48">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -10500,8 +13399,11 @@
       <c r="AJ49">
         <v>322</v>
       </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK49">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -10538,8 +13440,11 @@
       <c r="AJ50">
         <v>310</v>
       </c>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK50">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -10573,8 +13478,11 @@
       <c r="AJ51">
         <v>298</v>
       </c>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK51">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -10605,8 +13513,11 @@
       <c r="AJ52">
         <v>254</v>
       </c>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK52">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -10634,8 +13545,11 @@
       <c r="AJ53">
         <v>249</v>
       </c>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK53">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -10660,8 +13574,11 @@
       <c r="AJ54">
         <v>250</v>
       </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK54">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -10683,8 +13600,11 @@
       <c r="AJ55">
         <v>218</v>
       </c>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK55">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -10703,8 +13623,11 @@
       <c r="AJ56">
         <v>165</v>
       </c>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK56">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="AG57">
         <v>7</v>
       </c>
@@ -10717,8 +13640,11 @@
       <c r="AJ57">
         <v>146</v>
       </c>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK57">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="AH58">
         <v>10</v>
       </c>
@@ -10728,18 +13654,32 @@
       <c r="AJ58">
         <v>104</v>
       </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK58">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="AI59">
         <v>7</v>
       </c>
       <c r="AJ59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="AJ60">
         <v>3</v>
+      </c>
+      <c r="AK60">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AK61">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10749,15 +13689,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R51" sqref="R1:R51"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -10810,8 +13750,11 @@
       <c r="R1">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -10883,8 +13826,12 @@
         <f>Confirmed!AJ11+Daily!R2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <f>Confirmed!AK11+Daily!S2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -10956,8 +13903,12 @@
         <f>Confirmed!AJ12+Daily!R3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <f>Confirmed!AK12+Daily!S3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -11029,8 +13980,12 @@
         <f>Confirmed!AJ13+Daily!R4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <f>Confirmed!AK13+Daily!S4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -11102,8 +14057,12 @@
         <f>Confirmed!AJ14+Daily!R5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <f>Confirmed!AK14+Daily!S5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -11175,8 +14134,12 @@
         <f>Confirmed!AJ15+Daily!R6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <f>Confirmed!AK15+Daily!S6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -11248,8 +14211,12 @@
         <f>Confirmed!AJ16+Daily!R7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <f>Confirmed!AK16+Daily!S7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -11321,8 +14288,12 @@
         <f>Confirmed!AJ17+Daily!R8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <f>Confirmed!AK17+Daily!S8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -11394,8 +14365,12 @@
         <f>Confirmed!AJ18+Daily!R9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <f>Confirmed!AK18+Daily!S9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -11467,8 +14442,12 @@
         <f>Confirmed!AJ19+Daily!R10</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <f>Confirmed!AK19+Daily!S10</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -11540,8 +14519,12 @@
         <f>Confirmed!AJ20+Daily!R11</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <f>Confirmed!AK20+Daily!S11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -11613,8 +14596,12 @@
         <f>Confirmed!AJ21+Daily!R12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <f>Confirmed!AK21+Daily!S12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -11686,8 +14673,12 @@
         <f>Confirmed!AJ22+Daily!R13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <f>Confirmed!AK22+Daily!S13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -11759,8 +14750,12 @@
         <f>Confirmed!AJ23+Daily!R14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <f>Confirmed!AK23+Daily!S14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -11832,8 +14827,12 @@
         <f>Confirmed!AJ24+Daily!R15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <f>Confirmed!AK24+Daily!S15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -11905,8 +14904,12 @@
         <f>Confirmed!AJ25+Daily!R16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <f>Confirmed!AK25+Daily!S16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -11978,8 +14981,12 @@
         <f>Confirmed!AJ26+Daily!R17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <f>Confirmed!AK26+Daily!S17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -12051,8 +15058,12 @@
         <f>Confirmed!AJ27+Daily!R18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18">
+        <f>Confirmed!AK27+Daily!S18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -12124,8 +15135,12 @@
         <f>Confirmed!AJ28+Daily!R19</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <f>Confirmed!AK28+Daily!S19</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -12197,8 +15212,12 @@
         <f>Confirmed!AJ29+Daily!R20</f>
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20">
+        <f>Confirmed!AK29+Daily!S20</f>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -12270,8 +15289,12 @@
         <f>Confirmed!AJ30+Daily!R21</f>
         <v>401</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <f>Confirmed!AK30+Daily!S21</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -12343,8 +15366,12 @@
         <f>Confirmed!AJ31+Daily!R22</f>
         <v>461</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <f>Confirmed!AK31+Daily!S22</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -12416,8 +15443,12 @@
         <f>Confirmed!AJ32+Daily!R23</f>
         <v>530</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <f>Confirmed!AK32+Daily!S23</f>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -12489,8 +15520,12 @@
         <f>Confirmed!AJ33+Daily!R24</f>
         <v>643</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <f>Confirmed!AK33+Daily!S24</f>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -12562,8 +15597,12 @@
         <f>Confirmed!AJ34+Daily!R25</f>
         <v>648</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <f>Confirmed!AK34+Daily!S25</f>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -12635,8 +15674,12 @@
         <f>Confirmed!AJ35+Daily!R26</f>
         <v>678</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <f>Confirmed!AK35+Daily!S26</f>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -12708,8 +15751,12 @@
         <f>Confirmed!AJ36+Daily!R27</f>
         <v>727</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <f>Confirmed!AK36+Daily!S27</f>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -12781,8 +15828,12 @@
         <f>Confirmed!AJ37+Daily!R28</f>
         <v>794</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <f>Confirmed!AK37+Daily!S28</f>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -12854,8 +15905,12 @@
         <f>Confirmed!AJ38+Daily!R29</f>
         <v>812</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <f>Confirmed!AK38+Daily!S29</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -12927,8 +15982,12 @@
         <f>Confirmed!AJ39+Daily!R30</f>
         <v>739</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <f>Confirmed!AK39+Daily!S30</f>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -13000,8 +16059,12 @@
         <f>Confirmed!AJ40+Daily!R31</f>
         <v>733</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31">
+        <f>Confirmed!AK40+Daily!S31</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -13073,8 +16136,12 @@
         <f>Confirmed!AJ41+Daily!R32</f>
         <v>699</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32">
+        <f>Confirmed!AK41+Daily!S32</f>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -13146,8 +16213,12 @@
         <f>Confirmed!AJ42+Daily!R33</f>
         <v>686</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <f>Confirmed!AK42+Daily!S33</f>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -13219,8 +16290,12 @@
         <f>Confirmed!AJ43+Daily!R34</f>
         <v>717</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <f>Confirmed!AK43+Daily!S34</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -13292,8 +16367,12 @@
         <f>Confirmed!AJ44+Daily!R35</f>
         <v>725</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35">
+        <f>Confirmed!AK44+Daily!S35</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -13365,8 +16444,12 @@
         <f>Confirmed!AJ45+Daily!R36</f>
         <v>647</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36">
+        <f>Confirmed!AK45+Daily!S36</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -13438,8 +16521,12 @@
         <f>Confirmed!AJ46+Daily!R37</f>
         <v>534</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <f>Confirmed!AK46+Daily!S37</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -13511,8 +16598,12 @@
         <f>Confirmed!AJ47+Daily!R38</f>
         <v>538</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <f>Confirmed!AK47+Daily!S38</f>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -13584,8 +16675,12 @@
         <f>Confirmed!AJ48+Daily!R39</f>
         <v>452</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <f>Confirmed!AK48+Daily!S39</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -13637,8 +16732,12 @@
         <f>Confirmed!AJ49+Daily!R40</f>
         <v>467</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <f>Confirmed!AK49+Daily!S40</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -13690,8 +16789,12 @@
         <f>Confirmed!AJ50+Daily!R41</f>
         <v>451</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41">
+        <f>Confirmed!AK50+Daily!S41</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -13735,8 +16838,12 @@
         <f>Confirmed!AJ51+Daily!R42</f>
         <v>445</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42">
+        <f>Confirmed!AK51+Daily!S42</f>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -13776,8 +16883,12 @@
         <f>Confirmed!AJ52+Daily!R43</f>
         <v>387</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <f>Confirmed!AK52+Daily!S43</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -13817,8 +16928,12 @@
         <f>Confirmed!AJ53+Daily!R44</f>
         <v>376</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <f>Confirmed!AK53+Daily!S44</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -13854,8 +16969,12 @@
         <f>Confirmed!AJ54+Daily!R45</f>
         <v>375</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <f>Confirmed!AK54+Daily!S45</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -13891,8 +17010,12 @@
         <f>Confirmed!AJ55+Daily!R46</f>
         <v>348</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <f>Confirmed!AK55+Daily!S46</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -13928,8 +17051,12 @@
         <f>Confirmed!AJ56+Daily!R47</f>
         <v>276</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <f>Confirmed!AK56+Daily!S47</f>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>426</v>
       </c>
@@ -13953,8 +17080,12 @@
         <f>Confirmed!AJ57+Daily!R48</f>
         <v>272</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <f>Confirmed!AK57+Daily!S48</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>427</v>
       </c>
@@ -13974,8 +17105,12 @@
         <f>Confirmed!AJ58+Daily!R49</f>
         <v>279</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <f>Confirmed!AK58+Daily!S49</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>428</v>
       </c>
@@ -13991,8 +17126,12 @@
         <f>Confirmed!AJ59+Daily!R50</f>
         <v>191</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <f>Confirmed!AK59+Daily!S50</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>429</v>
       </c>
@@ -14004,10 +17143,24 @@
         <f>Confirmed!AJ60+Daily!R51</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51">
+        <f>Confirmed!AK60+Daily!S51</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R52">
         <f>Confirmed!AJ61+Daily!R52</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>Confirmed!AK61+Daily!S52</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <f>Confirmed!AK62+Daily!S53</f>
         <v>0</v>
       </c>
     </row>
@@ -14656,7 +17809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="B56" sqref="B2:B56"/>
     </sheetView>
   </sheetViews>
@@ -15835,4 +18988,1529 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>43902</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>B3-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A53" si="0">A3+1</f>
+        <v>43903</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C35" si="1">SUM(B2:B6)/5</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>B4-B3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>43904</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="D5">
+        <v>3.8</v>
+      </c>
+      <c r="E5">
+        <f>B5-B4</f>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>SUM(E3:E7)/5</f>
+        <v>1.8</v>
+      </c>
+      <c r="G5">
+        <f>D5-D4</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>43905</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="D6">
+        <v>5.8</v>
+      </c>
+      <c r="E6">
+        <f>B6-B5</f>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F52" si="2">SUM(E4:E8)/5</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G53" si="3">D6-D5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>43906</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+      <c r="D7">
+        <v>10.8</v>
+      </c>
+      <c r="E7">
+        <f>B7-B6</f>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>43907</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+      <c r="D8">
+        <v>15.6</v>
+      </c>
+      <c r="E8">
+        <f>B8-B7</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>4.7999999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>43908</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>24.2</v>
+      </c>
+      <c r="D9">
+        <v>24.2</v>
+      </c>
+      <c r="E9">
+        <f>B9-B8</f>
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>8.6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>43909</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>31.4</v>
+      </c>
+      <c r="D10">
+        <v>31.4</v>
+      </c>
+      <c r="E10">
+        <f>B10-B9</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>43910</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>39.6</v>
+      </c>
+      <c r="D11">
+        <v>39.6</v>
+      </c>
+      <c r="E11">
+        <f>B11-B10</f>
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>8.2000000000000028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>43911</v>
+      </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <f>B12-B11</f>
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>43912</v>
+      </c>
+      <c r="B13">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>69.8</v>
+      </c>
+      <c r="D13">
+        <v>69.8</v>
+      </c>
+      <c r="E13">
+        <f>B13-B12</f>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>15.8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>15.799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>43913</v>
+      </c>
+      <c r="B14">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <f>B14-B13</f>
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>18.2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>18.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>43914</v>
+      </c>
+      <c r="B15">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>123.8</v>
+      </c>
+      <c r="D15">
+        <v>123.8</v>
+      </c>
+      <c r="E15">
+        <f>B15-B14</f>
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>43915</v>
+      </c>
+      <c r="B16">
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>163.80000000000001</v>
+      </c>
+      <c r="D16">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="E16">
+        <f>B16-B15</f>
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>40.000000000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>43916</v>
+      </c>
+      <c r="B17">
+        <v>225</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>209.6</v>
+      </c>
+      <c r="D17">
+        <v>209.6</v>
+      </c>
+      <c r="E17">
+        <f>B17-B16</f>
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>45.8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>45.799999999999983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>43917</v>
+      </c>
+      <c r="B18">
+        <v>252</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>259.39999999999998</v>
+      </c>
+      <c r="D18">
+        <v>259.39999999999998</v>
+      </c>
+      <c r="E18">
+        <f>B18-B17</f>
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>49.8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>49.799999999999983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>43918</v>
+      </c>
+      <c r="B19">
+        <v>326</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>311.8</v>
+      </c>
+      <c r="D19">
+        <v>311.8</v>
+      </c>
+      <c r="E19">
+        <f>B19-B18</f>
+        <v>74</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>52.4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>52.400000000000034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>43919</v>
+      </c>
+      <c r="B20">
+        <v>354</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="D20">
+        <v>359</v>
+      </c>
+      <c r="E20">
+        <f>B20-B19</f>
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>47.2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>47.199999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>43920</v>
+      </c>
+      <c r="B21">
+        <v>402</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>414.8</v>
+      </c>
+      <c r="D21">
+        <v>414.8</v>
+      </c>
+      <c r="E21">
+        <f>B21-B20</f>
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>55.8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>55.800000000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>43921</v>
+      </c>
+      <c r="B22">
+        <v>461</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>478.2</v>
+      </c>
+      <c r="D22">
+        <v>478.2</v>
+      </c>
+      <c r="E22">
+        <f>B22-B21</f>
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>63.4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>63.399999999999977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>43922</v>
+      </c>
+      <c r="B23">
+        <v>531</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>537.20000000000005</v>
+      </c>
+      <c r="D23">
+        <v>537.20000000000005</v>
+      </c>
+      <c r="E23">
+        <f>B23-B22</f>
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>59.000000000000057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>43923</v>
+      </c>
+      <c r="B24">
+        <v>643</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>591.6</v>
+      </c>
+      <c r="D24">
+        <v>591.6</v>
+      </c>
+      <c r="E24">
+        <f>B24-B23</f>
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>54.4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>54.399999999999977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>43924</v>
+      </c>
+      <c r="B25">
+        <v>649</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>644.79999999999995</v>
+      </c>
+      <c r="D25">
+        <v>644.79999999999995</v>
+      </c>
+      <c r="E25">
+        <f>B25-B24</f>
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>53.2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>53.199999999999932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>43925</v>
+      </c>
+      <c r="B26">
+        <v>674</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>697.4</v>
+      </c>
+      <c r="D26">
+        <v>697.4</v>
+      </c>
+      <c r="E26">
+        <f>B26-B25</f>
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>52.6</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>52.600000000000023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>43926</v>
+      </c>
+      <c r="B27">
+        <v>727</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>731.4</v>
+      </c>
+      <c r="D27">
+        <v>731.4</v>
+      </c>
+      <c r="E27">
+        <f>B27-B26</f>
+        <v>53</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>43927</v>
+      </c>
+      <c r="B28">
+        <v>794</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>749.4</v>
+      </c>
+      <c r="D28">
+        <v>749.4</v>
+      </c>
+      <c r="E28">
+        <f>B28-B27</f>
+        <v>67</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>43928</v>
+      </c>
+      <c r="B29">
+        <v>813</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>760.6</v>
+      </c>
+      <c r="D29">
+        <v>760.6</v>
+      </c>
+      <c r="E29">
+        <f>B29-B28</f>
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>11.200000000000045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B30">
+        <v>739</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>755</v>
+      </c>
+      <c r="D30">
+        <v>755</v>
+      </c>
+      <c r="E30">
+        <f>B30-B29</f>
+        <v>-74</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>-5.6</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>-5.6000000000000227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>43930</v>
+      </c>
+      <c r="B31">
+        <v>730</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>734</v>
+      </c>
+      <c r="D31">
+        <v>734</v>
+      </c>
+      <c r="E31">
+        <f>B31-B30</f>
+        <v>-9</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>-21</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B32">
+        <v>699</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>715</v>
+      </c>
+      <c r="D32">
+        <v>715</v>
+      </c>
+      <c r="E32">
+        <f>B32-B31</f>
+        <v>-31</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>-19</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>43932</v>
+      </c>
+      <c r="B33">
+        <v>689</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>712.8</v>
+      </c>
+      <c r="D33">
+        <v>712.8</v>
+      </c>
+      <c r="E33">
+        <f>B33-B32</f>
+        <v>-10</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>-2.2000000000000455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>43933</v>
+      </c>
+      <c r="B34">
+        <v>718</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="D34">
+        <v>696</v>
+      </c>
+      <c r="E34">
+        <f>B34-B33</f>
+        <v>29</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>-16.8</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>-16.799999999999955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>43934</v>
+      </c>
+      <c r="B35">
+        <v>728</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>662.6</v>
+      </c>
+      <c r="D35">
+        <v>662.6</v>
+      </c>
+      <c r="E35">
+        <f>B35-B34</f>
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>-33.4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>-33.399999999999977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>43935</v>
+      </c>
+      <c r="B36">
+        <v>646</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C67" si="4">SUM(B34:B38)/5</f>
+        <v>632</v>
+      </c>
+      <c r="D36">
+        <v>632</v>
+      </c>
+      <c r="E36">
+        <f>B36-B35</f>
+        <v>-82</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>-30.6</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>-30.600000000000023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>43936</v>
+      </c>
+      <c r="B37">
+        <v>532</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>578.6</v>
+      </c>
+      <c r="D37">
+        <v>578.6</v>
+      </c>
+      <c r="E37">
+        <f>B37-B36</f>
+        <v>-114</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>-53.4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>-53.399999999999977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>43937</v>
+      </c>
+      <c r="B38">
+        <v>536</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>526.79999999999995</v>
+      </c>
+      <c r="D38">
+        <v>527.77984965377584</v>
+      </c>
+      <c r="E38">
+        <f>B38-B37</f>
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>-51.8</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>-50.820150346224182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>43938</v>
+      </c>
+      <c r="B39">
+        <v>451</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>488.8</v>
+      </c>
+      <c r="D39">
+        <v>491.36699370849544</v>
+      </c>
+      <c r="E39">
+        <f>B39-B38</f>
+        <v>-85</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>-38</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>-36.412855945280398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>43939</v>
+      </c>
+      <c r="B40">
+        <v>469</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>471</v>
+      </c>
+      <c r="D40">
+        <v>476.50191950339121</v>
+      </c>
+      <c r="E40">
+        <f>B40-B39</f>
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>-17.8</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>-14.865074205104236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>43940</v>
+      </c>
+      <c r="B41">
+        <v>456</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>441.4</v>
+      </c>
+      <c r="D41">
+        <v>451.3316569180937</v>
+      </c>
+      <c r="E41">
+        <f>B41-B40</f>
+        <v>-13</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>-29.6</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>-25.170262585297507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>43941</v>
+      </c>
+      <c r="B42">
+        <v>443</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>427.2</v>
+      </c>
+      <c r="D42">
+        <v>444.45690637248515</v>
+      </c>
+      <c r="E42">
+        <f>B42-B41</f>
+        <v>-13</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>-14.2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>-6.8747505456085491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>43942</v>
+      </c>
+      <c r="B43">
+        <v>388</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>408.8</v>
+      </c>
+      <c r="D43">
+        <v>434.60782734538861</v>
+      </c>
+      <c r="E43">
+        <f>B43-B42</f>
+        <v>-55</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>-9.8490790270965363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>43943</v>
+      </c>
+      <c r="B44">
+        <v>380</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>387.8</v>
+      </c>
+      <c r="D44">
+        <v>425.78534951775208</v>
+      </c>
+      <c r="E44">
+        <f>B44-B43</f>
+        <v>-8</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>-21</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>-8.8224778276365328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>43944</v>
+      </c>
+      <c r="B45">
+        <v>377</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>354.6</v>
+      </c>
+      <c r="D45">
+        <v>403.90878474398477</v>
+      </c>
+      <c r="E45">
+        <f>B45-B44</f>
+        <v>-3</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>-21.876564773767313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>43945</v>
+      </c>
+      <c r="B46">
+        <v>351</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>332.2</v>
+      </c>
+      <c r="D46">
+        <v>395.87695603241389</v>
+      </c>
+      <c r="E46">
+        <f>B46-B45</f>
+        <v>-26</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>-22.4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>-8.0318287115708813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>43946</v>
+      </c>
+      <c r="B47">
+        <v>277</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="D47">
+        <v>396.13921937200439</v>
+      </c>
+      <c r="E47">
+        <f>B47-B46</f>
+        <v>-74</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>-18.2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>0.26226333959050407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>43947</v>
+      </c>
+      <c r="B48">
+        <v>276</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="D48">
+        <v>383.89247536150788</v>
+      </c>
+      <c r="E48">
+        <f>B48-B47</f>
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <f>SUM(E46:E50)/5</f>
+        <v>-30</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>-12.246744010496514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>43948</v>
+      </c>
+      <c r="B49">
+        <v>289</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="D49">
+        <v>378.45633353079074</v>
+      </c>
+      <c r="E49">
+        <f>B49-B48</f>
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <f>SUM(E47:E51)/5</f>
+        <v>-29</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>-5.4361418307171334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>43949</v>
+      </c>
+      <c r="B50">
+        <v>227</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>203.8</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:E52" si="5">B50-B49</f>
+        <v>-62</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>-51.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>43950</v>
+      </c>
+      <c r="B51">
+        <v>206</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>148.6</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>-21</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>43951</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>90.8</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>-185</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>-53.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>43952</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -272,6 +272,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -641,7 +642,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>185</c:v>
@@ -650,103 +651,115 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>264</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>280</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>310</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>366</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>414</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>452</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>462</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>471</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>529</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>544</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>564</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>510</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>514</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>485</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>487</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>506</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>500</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>463</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>408</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>364</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>324</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>322</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>310</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>298</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>254</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>249</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>250</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>218</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>165</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>146</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>104</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>58</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1092,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40</c:v>
@@ -1088,103 +1101,115 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>91</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>95</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>116</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>186</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>207</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>198</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>250</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>248</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>229</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>219</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>214</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>199</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>211</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>225</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>184</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>126</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>174</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>128</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>145</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>141</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>147</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>133</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>127</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>125</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>130</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22</c:v>
+                <c:pt idx="59">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,8 +1225,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="289296208"/>
-        <c:axId val="289296768"/>
+        <c:axId val="278480928"/>
+        <c:axId val="278481488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1742,11 +1767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="289296208"/>
-        <c:axId val="289296768"/>
+        <c:axId val="278480928"/>
+        <c:axId val="278481488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="289296208"/>
+        <c:axId val="278480928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,7 +1813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289296768"/>
+        <c:crossAx val="278481488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1797,7 +1822,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="289296768"/>
+        <c:axId val="278481488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289296208"/>
+        <c:crossAx val="278480928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1861,6 +1886,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2049,10 +2075,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>smootheddeaths!$A$2:$A$49</c:f>
+              <c:f>smootheddeaths!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43901</c:v>
                 </c:pt>
@@ -2196,6 +2222,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2243,103 +2275,103 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.8</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.8</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>52.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.2</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>55.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.4</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.4</c:v>
+                  <c:v>54.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.2</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.6</c:v>
+                  <c:v>52.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34</c:v>
+                  <c:v>33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5.6</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-19</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.2000000000000002</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-16.8</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-33.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-30.6</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-53.4</c:v>
+                  <c:v>-53.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-51.8</c:v>
+                  <c:v>-52.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-38</c:v>
+                  <c:v>-37.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-17.8</c:v>
+                  <c:v>-18.2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-29.6</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-14.2</c:v>
+                  <c:v>-15.6</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>-21</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>-33.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-22.4</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>-18.2</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-30</c:v>
+                  <c:v>-28.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-29</c:v>
+                  <c:v>-19.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,6 +2406,165 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>smootheddeaths!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>smootheddeaths!$G$2:$G$49</c:f>
@@ -2417,103 +2608,103 @@
                   <c:v>40.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.799999999999983</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.799999999999983</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.400000000000034</c:v>
+                  <c:v>52.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.199999999999989</c:v>
+                  <c:v>47.400000000000034</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.800000000000011</c:v>
+                  <c:v>55.799999999999955</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.399999999999977</c:v>
+                  <c:v>63.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59.000000000000057</c:v>
+                  <c:v>58.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.399999999999977</c:v>
+                  <c:v>54.200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.199999999999932</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.600000000000023</c:v>
+                  <c:v>52.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34</c:v>
+                  <c:v>33.199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18</c:v>
+                  <c:v>17.800000000000068</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.200000000000045</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5.6000000000000227</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-19</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.2000000000000455</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-16.799999999999955</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-33.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-30.600000000000023</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-53.399999999999977</c:v>
+                  <c:v>-53.200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-50.820150346224182</c:v>
+                  <c:v>-52.200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-36.412855945280398</c:v>
+                  <c:v>-37.599999999999966</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-14.865074205104236</c:v>
+                  <c:v>-17.262446014732518</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-25.170262585297507</c:v>
+                  <c:v>-28.604047838686427</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-6.8747505456085491</c:v>
+                  <c:v>-13.231078079481563</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-9.8490790270965363</c:v>
+                  <c:v>-14.236833723762459</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-8.8224778276365328</c:v>
+                  <c:v>-15.206918935879742</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-21.876564773767313</c:v>
+                  <c:v>-25.950686203685109</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-8.0318287115708813</c:v>
+                  <c:v>-11.436348305645026</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.26226333959050407</c:v>
+                  <c:v>-2.4368577356079868</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-12.246744010496514</c:v>
+                  <c:v>-16.185846901758168</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-5.4361418307171334</c:v>
+                  <c:v>-4.0468319763452314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2529,8 +2720,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="388481744"/>
-        <c:axId val="388477824"/>
+        <c:axId val="278487088"/>
+        <c:axId val="278487648"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2571,13 +2762,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$49</c15:sqref>
+                          <c15:sqref>smootheddeaths!$A$2:$A$51</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="48"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>43901</c:v>
                       </c:pt>
@@ -2721,6 +2912,12 @@
                       </c:pt>
                       <c:pt idx="47">
                         <c:v>43948</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43949</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43950</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2789,97 +2986,97 @@
                         <c:v>252</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>326</c:v>
+                        <c:v>327</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>354</c:v>
+                        <c:v>355</c:v>
                       </c:pt>
                       <c:pt idx="19">
                         <c:v>402</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>461</c:v>
+                        <c:v>462</c:v>
                       </c:pt>
                       <c:pt idx="21">
                         <c:v>531</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>643</c:v>
+                        <c:v>646</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>649</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>674</c:v>
+                        <c:v>673</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>727</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>794</c:v>
+                        <c:v>793</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>813</c:v>
+                        <c:v>812</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>739</c:v>
+                        <c:v>738</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>730</c:v>
+                        <c:v>733</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>699</c:v>
+                        <c:v>702</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>689</c:v>
+                        <c:v>688</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>718</c:v>
+                        <c:v>722</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>728</c:v>
+                        <c:v>733</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>646</c:v>
+                        <c:v>648</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>532</c:v>
+                        <c:v>535</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>536</c:v>
+                        <c:v>538</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>451</c:v>
+                        <c:v>456</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>469</c:v>
+                        <c:v>472</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>456</c:v>
+                        <c:v>460</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>443</c:v>
+                        <c:v>444</c:v>
                       </c:pt>
                       <c:pt idx="41">
                         <c:v>388</c:v>
                       </c:pt>
                       <c:pt idx="42">
+                        <c:v>378</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
                         <c:v>380</c:v>
                       </c:pt>
-                      <c:pt idx="43">
-                        <c:v>377</c:v>
-                      </c:pt>
                       <c:pt idx="44">
-                        <c:v>351</c:v>
+                        <c:v>350</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>277</c:v>
+                        <c:v>283</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>276</c:v>
+                        <c:v>283</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>289</c:v>
+                        <c:v>298</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2893,7 +3090,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$C$1</c15:sqref>
@@ -2922,16 +3119,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$49</c15:sqref>
+                          <c15:sqref>smootheddeaths!$A$2:$A$51</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="48"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>43901</c:v>
                       </c:pt>
@@ -3075,22 +3272,28 @@
                       </c:pt>
                       <c:pt idx="47">
                         <c:v>43948</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43949</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43950</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$C$2:$C$49</c15:sqref>
+                          <c15:sqref>smootheddeaths!$C$2:$C$51</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="48"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="2">
                         <c:v>2</c:v>
                       </c:pt>
@@ -3131,103 +3334,109 @@
                         <c:v>163.80000000000001</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>209.6</c:v>
+                        <c:v>209.8</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>259.39999999999998</c:v>
+                        <c:v>259.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>311.8</c:v>
+                        <c:v>312.2</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>359</c:v>
+                        <c:v>359.6</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>414.8</c:v>
+                        <c:v>415.4</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>478.2</c:v>
+                        <c:v>479.2</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>537.20000000000005</c:v>
+                        <c:v>538</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>591.6</c:v>
+                        <c:v>592.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>644.79999999999995</c:v>
+                        <c:v>645.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>697.4</c:v>
+                        <c:v>697.6</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>731.4</c:v>
+                        <c:v>730.8</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>749.4</c:v>
+                        <c:v>748.6</c:v>
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>760.6</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>755</c:v>
+                        <c:v>755.6</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>734</c:v>
+                        <c:v>734.6</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>715</c:v>
+                        <c:v>716.6</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>712.8</c:v>
+                        <c:v>715.6</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>696</c:v>
+                        <c:v>698.6</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>662.6</c:v>
+                        <c:v>665.2</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>632</c:v>
+                        <c:v>635.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>578.6</c:v>
+                        <c:v>582</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>526.79999999999995</c:v>
+                        <c:v>529.79999999999995</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>488.8</c:v>
+                        <c:v>492.2</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>471</c:v>
+                        <c:v>474</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>441.4</c:v>
+                        <c:v>444</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>427.2</c:v>
+                        <c:v>428.4</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>408.8</c:v>
+                        <c:v>410</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>387.8</c:v>
+                        <c:v>388</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>354.6</c:v>
+                        <c:v>355.8</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>332.2</c:v>
+                        <c:v>334.8</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>314</c:v>
+                        <c:v>318.8</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>284</c:v>
+                        <c:v>290.39999999999998</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>255</c:v>
+                        <c:v>270.60000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>258</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>238.2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3241,7 +3450,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$E$1</c15:sqref>
@@ -3270,16 +3479,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$49</c15:sqref>
+                          <c15:sqref>smootheddeaths!$A$2:$A$51</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="48"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>43901</c:v>
                       </c:pt>
@@ -3423,13 +3632,19 @@
                       </c:pt>
                       <c:pt idx="47">
                         <c:v>43948</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43949</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43950</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$E$2:$E$49</c15:sqref>
@@ -3488,34 +3703,34 @@
                         <c:v>27</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>74</c:v>
+                        <c:v>75</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>28</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>48</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>59</c:v>
+                        <c:v>60</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>70</c:v>
+                        <c:v>69</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>112</c:v>
+                        <c:v>115</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>6</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>25</c:v>
+                        <c:v>24</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>53</c:v>
+                        <c:v>54</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>67</c:v>
+                        <c:v>66</c:v>
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>19</c:v>
@@ -3524,61 +3739,61 @@
                         <c:v>-74</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>-9</c:v>
+                        <c:v>-5</c:v>
                       </c:pt>
                       <c:pt idx="30">
                         <c:v>-31</c:v>
                       </c:pt>
                       <c:pt idx="31">
+                        <c:v>-14</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-85</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-113</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-82</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-12</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-16</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-56</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>-10</c:v>
                       </c:pt>
-                      <c:pt idx="32">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>-82</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>-114</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>-85</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>-13</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>-13</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>-55</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>-8</c:v>
-                      </c:pt>
                       <c:pt idx="43">
-                        <c:v>-3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>-26</c:v>
+                        <c:v>-30</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>-74</c:v>
+                        <c:v>-67</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>-1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>13</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3605,18 +3820,183 @@
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$A$2:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>43901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43902</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43903</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43904</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43905</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43906</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43907</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43908</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43909</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43910</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43911</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43912</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43913</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43914</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43915</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43916</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43917</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43918</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43919</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43920</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43922</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43923</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43924</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43925</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43926</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43927</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43935</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43938</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43939</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43940</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43941</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43942</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43943</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43944</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43945</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43946</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43947</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43948</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43949</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43950</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$D$2:$D$49</c15:sqref>
+                          <c15:sqref>smootheddeaths!$D$2:$D$51</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="48"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="2">
                         <c:v>2</c:v>
                       </c:pt>
@@ -3657,103 +4037,109 @@
                         <c:v>163.80000000000001</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>209.6</c:v>
+                        <c:v>209.8</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>259.39999999999998</c:v>
+                        <c:v>259.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>311.8</c:v>
+                        <c:v>312.2</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>359</c:v>
+                        <c:v>359.6</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>414.8</c:v>
+                        <c:v>415.4</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>478.2</c:v>
+                        <c:v>479.2</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>537.20000000000005</c:v>
+                        <c:v>538</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>591.6</c:v>
+                        <c:v>592.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>644.79999999999995</c:v>
+                        <c:v>645.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>697.4</c:v>
+                        <c:v>697.6</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>731.4</c:v>
+                        <c:v>730.8</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>749.4</c:v>
+                        <c:v>748.6</c:v>
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>760.6</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>755</c:v>
+                        <c:v>755.6</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>734</c:v>
+                        <c:v>734.6</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>715</c:v>
+                        <c:v>716.6</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>712.8</c:v>
+                        <c:v>715.6</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>696</c:v>
+                        <c:v>698.6</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>662.6</c:v>
+                        <c:v>665.2</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>632</c:v>
+                        <c:v>635.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>578.6</c:v>
+                        <c:v>582</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>527.77984965377584</c:v>
+                        <c:v>529.79999999999995</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>491.36699370849544</c:v>
+                        <c:v>492.2</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>476.50191950339121</c:v>
+                        <c:v>474.93755398526747</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>451.3316569180937</c:v>
+                        <c:v>446.33350614658104</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>444.45690637248515</c:v>
+                        <c:v>433.10242806709948</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>434.60782734538861</c:v>
+                        <c:v>418.86559434333702</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>425.78534951775208</c:v>
+                        <c:v>403.65867540745728</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>403.90878474398477</c:v>
+                        <c:v>377.70798920377217</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>395.87695603241389</c:v>
+                        <c:v>366.27164089812715</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>396.13921937200439</c:v>
+                        <c:v>363.83478316251916</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>383.89247536150788</c:v>
+                        <c:v>347.64893626076099</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>378.45633353079074</c:v>
+                        <c:v>343.60210428441576</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>349.40065219560205</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>345.42191750314203</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3765,7 +4151,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="388481744"/>
+        <c:axId val="278487088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3808,7 +4194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388477824"/>
+        <c:crossAx val="278487648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3817,7 +4203,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="388477824"/>
+        <c:axId val="278487648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3868,7 +4254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388481744"/>
+        <c:crossAx val="278487088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6290,15 +6676,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView topLeftCell="N37" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:S52"/>
+    <sheetView topLeftCell="N43" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7:V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -6353,8 +6739,17 @@
       <c r="S1">
         <v>501</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1">
+        <v>502</v>
+      </c>
+      <c r="U1">
+        <v>503</v>
+      </c>
+      <c r="V1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -6371,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -6388,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -6405,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -6437,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -6466,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -6527,8 +6922,17 @@
       <c r="S7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -6592,8 +6996,17 @@
       <c r="S8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -6657,8 +7070,17 @@
       <c r="S9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -6722,8 +7144,17 @@
       <c r="S10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -6787,8 +7218,17 @@
       <c r="S11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -6852,8 +7292,17 @@
       <c r="S12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -6917,8 +7366,17 @@
       <c r="S13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -6982,8 +7440,17 @@
       <c r="S14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>14</v>
+      </c>
+      <c r="U14">
+        <v>14</v>
+      </c>
+      <c r="V14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -7047,8 +7514,17 @@
       <c r="S15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>12</v>
+      </c>
+      <c r="U15">
+        <v>12</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -7112,8 +7588,17 @@
       <c r="S16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <v>19</v>
+      </c>
+      <c r="V16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -7177,8 +7662,17 @@
       <c r="S17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>40</v>
+      </c>
+      <c r="U17">
+        <v>40</v>
+      </c>
+      <c r="V17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -7242,8 +7736,17 @@
       <c r="S18">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>43</v>
+      </c>
+      <c r="U18">
+        <v>43</v>
+      </c>
+      <c r="V18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -7307,8 +7810,17 @@
       <c r="S19">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>61</v>
+      </c>
+      <c r="U19">
+        <v>62</v>
+      </c>
+      <c r="V19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -7372,8 +7884,17 @@
       <c r="S20">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>73</v>
+      </c>
+      <c r="U20">
+        <v>73</v>
+      </c>
+      <c r="V20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -7437,8 +7958,17 @@
       <c r="S21">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>89</v>
+      </c>
+      <c r="U21">
+        <v>89</v>
+      </c>
+      <c r="V21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -7502,8 +8032,17 @@
       <c r="S22">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>94</v>
+      </c>
+      <c r="U22">
+        <v>93</v>
+      </c>
+      <c r="V22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -7567,8 +8106,17 @@
       <c r="S23">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>113</v>
+      </c>
+      <c r="U23">
+        <v>113</v>
+      </c>
+      <c r="V23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -7632,8 +8180,17 @@
       <c r="S24">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>190</v>
+      </c>
+      <c r="U24">
+        <v>191</v>
+      </c>
+      <c r="V24">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -7697,8 +8254,17 @@
       <c r="S25">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>187</v>
+      </c>
+      <c r="U25">
+        <v>187</v>
+      </c>
+      <c r="V25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -7762,8 +8328,17 @@
       <c r="S26">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>202</v>
+      </c>
+      <c r="U26">
+        <v>200</v>
+      </c>
+      <c r="V26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -7827,8 +8402,17 @@
       <c r="S27">
         <v>197</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>196</v>
+      </c>
+      <c r="U27">
+        <v>196</v>
+      </c>
+      <c r="V27">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -7892,8 +8476,17 @@
       <c r="S28">
         <v>249</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>248</v>
+      </c>
+      <c r="U28">
+        <v>247</v>
+      </c>
+      <c r="V28">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -7957,8 +8550,17 @@
       <c r="S29">
         <v>243</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>243</v>
+      </c>
+      <c r="U29">
+        <v>241</v>
+      </c>
+      <c r="V29">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -8022,8 +8624,17 @@
       <c r="S30">
         <v>225</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>224</v>
+      </c>
+      <c r="U30">
+        <v>224</v>
+      </c>
+      <c r="V30">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -8087,8 +8698,17 @@
       <c r="S31">
         <v>214</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>212</v>
+      </c>
+      <c r="U31">
+        <v>214</v>
+      </c>
+      <c r="V31">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -8152,8 +8772,17 @@
       <c r="S32">
         <v>209</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>208</v>
+      </c>
+      <c r="U32">
+        <v>205</v>
+      </c>
+      <c r="V32">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -8217,8 +8846,17 @@
       <c r="S33">
         <v>197</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>195</v>
+      </c>
+      <c r="U33">
+        <v>193</v>
+      </c>
+      <c r="V33">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -8282,8 +8920,17 @@
       <c r="S34">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>200</v>
+      </c>
+      <c r="U34">
+        <v>200</v>
+      </c>
+      <c r="V34">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -8347,8 +8994,17 @@
       <c r="S35">
         <v>216</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>215</v>
+      </c>
+      <c r="U35">
+        <v>218</v>
+      </c>
+      <c r="V35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -8408,8 +9064,17 @@
       <c r="S36">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>181</v>
+      </c>
+      <c r="U36">
+        <v>178</v>
+      </c>
+      <c r="V36">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -8465,8 +9130,17 @@
       <c r="S37">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>118</v>
+      </c>
+      <c r="U37">
+        <v>119</v>
+      </c>
+      <c r="V37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -8518,8 +9192,17 @@
       <c r="S38">
         <v>166</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>163</v>
+      </c>
+      <c r="U38">
+        <v>162</v>
+      </c>
+      <c r="V38">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -8567,8 +9250,17 @@
       <c r="S39">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <v>119</v>
+      </c>
+      <c r="U39">
+        <v>114</v>
+      </c>
+      <c r="V39">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -8612,8 +9304,17 @@
       <c r="S40">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>135</v>
+      </c>
+      <c r="U40">
+        <v>133</v>
+      </c>
+      <c r="V40">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -8650,8 +9351,17 @@
       <c r="S41">
         <v>134</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>128</v>
+      </c>
+      <c r="U41">
+        <v>127</v>
+      </c>
+      <c r="V41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -8688,8 +9398,17 @@
       <c r="S42">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <v>136</v>
+      </c>
+      <c r="U42">
+        <v>133</v>
+      </c>
+      <c r="V42">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -8723,8 +9442,17 @@
       <c r="S43">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>122</v>
+      </c>
+      <c r="U43">
+        <v>119</v>
+      </c>
+      <c r="V43">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -8755,8 +9483,17 @@
       <c r="S44">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <v>112</v>
+      </c>
+      <c r="U44">
+        <v>106</v>
+      </c>
+      <c r="V44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -8784,8 +9521,17 @@
       <c r="S45">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <v>110</v>
+      </c>
+      <c r="U45">
+        <v>110</v>
+      </c>
+      <c r="V45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -8810,8 +9556,17 @@
       <c r="S46">
         <v>121</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <v>116</v>
+      </c>
+      <c r="U46">
+        <v>109</v>
+      </c>
+      <c r="V46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -8833,8 +9588,17 @@
       <c r="S47">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <v>90</v>
+      </c>
+      <c r="U47">
+        <v>88</v>
+      </c>
+      <c r="V47">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>17</v>
       </c>
@@ -8850,8 +9614,17 @@
       <c r="S48">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>96</v>
+      </c>
+      <c r="U48">
+        <v>93</v>
+      </c>
+      <c r="V48">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="16:22" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>19</v>
       </c>
@@ -8864,8 +9637,17 @@
       <c r="S49">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>129</v>
+      </c>
+      <c r="U49">
+        <v>122</v>
+      </c>
+      <c r="V49">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="16:22" x14ac:dyDescent="0.3">
       <c r="Q50">
         <v>11</v>
       </c>
@@ -8875,18 +9657,69 @@
       <c r="S50">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>112</v>
+      </c>
+      <c r="U50">
+        <v>102</v>
+      </c>
+      <c r="V50">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="16:22" x14ac:dyDescent="0.3">
       <c r="R51">
         <v>22</v>
       </c>
       <c r="S51">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <v>142</v>
+      </c>
+      <c r="U51">
+        <v>146</v>
+      </c>
+      <c r="V51">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="16:22" x14ac:dyDescent="0.3">
       <c r="S52">
         <v>15</v>
+      </c>
+      <c r="T52">
+        <v>14</v>
+      </c>
+      <c r="U52">
+        <v>152</v>
+      </c>
+      <c r="V52">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>155</v>
+      </c>
+      <c r="V53">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="U54">
+        <v>20</v>
+      </c>
+      <c r="V54">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="V55">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -8896,15 +9729,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK61"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11:AK61"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN11" sqref="AN11:AN64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -9013,8 +9846,17 @@
       <c r="AK1">
         <v>501</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1">
+        <v>502</v>
+      </c>
+      <c r="AM1">
+        <v>503</v>
+      </c>
+      <c r="AN1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -9100,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -9186,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -9272,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -9358,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -9444,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -9530,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -9616,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -9702,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -9788,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -9900,8 +10742,17 @@
       <c r="AK11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -10013,8 +10864,17 @@
       <c r="AK12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -10126,8 +10986,17 @@
       <c r="AK13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -10239,8 +11108,17 @@
       <c r="AK14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL14">
+        <v>2</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -10352,8 +11230,17 @@
       <c r="AK15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL15">
+        <v>6</v>
+      </c>
+      <c r="AM15">
+        <v>6</v>
+      </c>
+      <c r="AN15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -10465,8 +11352,17 @@
       <c r="AK16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL16">
+        <v>9</v>
+      </c>
+      <c r="AM16">
+        <v>9</v>
+      </c>
+      <c r="AN16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -10578,8 +11474,17 @@
       <c r="AK17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL17">
+        <v>7</v>
+      </c>
+      <c r="AM17">
+        <v>7</v>
+      </c>
+      <c r="AN17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -10691,8 +11596,17 @@
       <c r="AK18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL18">
+        <v>21</v>
+      </c>
+      <c r="AM18">
+        <v>21</v>
+      </c>
+      <c r="AN18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -10804,8 +11718,17 @@
       <c r="AK19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19">
+        <v>24</v>
+      </c>
+      <c r="AM19">
+        <v>24</v>
+      </c>
+      <c r="AN19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -10917,8 +11840,17 @@
       <c r="AK20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL20">
+        <v>45</v>
+      </c>
+      <c r="AM20">
+        <v>45</v>
+      </c>
+      <c r="AN20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -11030,8 +11962,17 @@
       <c r="AK21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL21">
+        <v>41</v>
+      </c>
+      <c r="AM21">
+        <v>41</v>
+      </c>
+      <c r="AN21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -11143,8 +12084,17 @@
       <c r="AK22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22">
+        <v>48</v>
+      </c>
+      <c r="AM22">
+        <v>48</v>
+      </c>
+      <c r="AN22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -11256,8 +12206,17 @@
       <c r="AK23">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23">
+        <v>83</v>
+      </c>
+      <c r="AM23">
+        <v>83</v>
+      </c>
+      <c r="AN23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -11369,8 +12328,17 @@
       <c r="AK24">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL24">
+        <v>93</v>
+      </c>
+      <c r="AM24">
+        <v>93</v>
+      </c>
+      <c r="AN24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -11482,8 +12450,17 @@
       <c r="AK25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL25">
+        <v>121</v>
+      </c>
+      <c r="AM25">
+        <v>121</v>
+      </c>
+      <c r="AN25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -11592,8 +12569,17 @@
       <c r="AK26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL26">
+        <v>185</v>
+      </c>
+      <c r="AM26">
+        <v>185</v>
+      </c>
+      <c r="AN26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -11699,8 +12685,17 @@
       <c r="AK27">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL27">
+        <v>209</v>
+      </c>
+      <c r="AM27">
+        <v>209</v>
+      </c>
+      <c r="AN27">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -11803,8 +12798,17 @@
       <c r="AK28">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL28">
+        <v>265</v>
+      </c>
+      <c r="AM28">
+        <v>265</v>
+      </c>
+      <c r="AN28">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -11907,8 +12911,17 @@
       <c r="AK29">
         <v>281</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL29">
+        <v>282</v>
+      </c>
+      <c r="AM29">
+        <v>282</v>
+      </c>
+      <c r="AN29">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -12011,8 +13024,17 @@
       <c r="AK30">
         <v>313</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL30">
+        <v>313</v>
+      </c>
+      <c r="AM30">
+        <v>313</v>
+      </c>
+      <c r="AN30">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -12112,8 +13134,17 @@
       <c r="AK31">
         <v>367</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL31">
+        <v>367</v>
+      </c>
+      <c r="AM31">
+        <v>369</v>
+      </c>
+      <c r="AN31">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -12210,8 +13241,17 @@
       <c r="AK32">
         <v>417</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL32">
+        <v>418</v>
+      </c>
+      <c r="AM32">
+        <v>418</v>
+      </c>
+      <c r="AN32">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -12305,8 +13345,17 @@
       <c r="AK33">
         <v>453</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL33">
+        <v>455</v>
+      </c>
+      <c r="AM33">
+        <v>455</v>
+      </c>
+      <c r="AN33">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -12397,8 +13446,17 @@
       <c r="AK34">
         <v>462</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL34">
+        <v>462</v>
+      </c>
+      <c r="AM34">
+        <v>462</v>
+      </c>
+      <c r="AN34">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -12486,8 +13544,17 @@
       <c r="AK35">
         <v>472</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL35">
+        <v>472</v>
+      </c>
+      <c r="AM35">
+        <v>473</v>
+      </c>
+      <c r="AN35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -12572,8 +13639,17 @@
       <c r="AK36">
         <v>530</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL36">
+        <v>530</v>
+      </c>
+      <c r="AM36">
+        <v>531</v>
+      </c>
+      <c r="AN36">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -12655,8 +13731,17 @@
       <c r="AK37">
         <v>545</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL37">
+        <v>546</v>
+      </c>
+      <c r="AM37">
+        <v>546</v>
+      </c>
+      <c r="AN37">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -12735,8 +13820,17 @@
       <c r="AK38">
         <v>570</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL38">
+        <v>570</v>
+      </c>
+      <c r="AM38">
+        <v>571</v>
+      </c>
+      <c r="AN38">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -12812,8 +13906,17 @@
       <c r="AK39">
         <v>514</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL39">
+        <v>513</v>
+      </c>
+      <c r="AM39">
+        <v>514</v>
+      </c>
+      <c r="AN39">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -12886,8 +13989,17 @@
       <c r="AK40">
         <v>516</v>
       </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL40">
+        <v>518</v>
+      </c>
+      <c r="AM40">
+        <v>519</v>
+      </c>
+      <c r="AN40">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -12957,8 +14069,17 @@
       <c r="AK41">
         <v>490</v>
       </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL41">
+        <v>494</v>
+      </c>
+      <c r="AM41">
+        <v>497</v>
+      </c>
+      <c r="AN41">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -13025,8 +14146,17 @@
       <c r="AK42">
         <v>492</v>
       </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL42">
+        <v>492</v>
+      </c>
+      <c r="AM42">
+        <v>495</v>
+      </c>
+      <c r="AN42">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -13090,8 +14220,17 @@
       <c r="AK43">
         <v>520</v>
       </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL43">
+        <v>519</v>
+      </c>
+      <c r="AM43">
+        <v>522</v>
+      </c>
+      <c r="AN43">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -13152,8 +14291,17 @@
       <c r="AK44">
         <v>512</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL44">
+        <v>514</v>
+      </c>
+      <c r="AM44">
+        <v>515</v>
+      </c>
+      <c r="AN44">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -13208,8 +14356,17 @@
       <c r="AK45">
         <v>468</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL45">
+        <v>470</v>
+      </c>
+      <c r="AM45">
+        <v>470</v>
+      </c>
+      <c r="AN45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -13261,8 +14418,17 @@
       <c r="AK46">
         <v>413</v>
       </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL46">
+        <v>415</v>
+      </c>
+      <c r="AM46">
+        <v>416</v>
+      </c>
+      <c r="AN46">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -13311,8 +14477,17 @@
       <c r="AK47">
         <v>370</v>
       </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL47">
+        <v>373</v>
+      </c>
+      <c r="AM47">
+        <v>376</v>
+      </c>
+      <c r="AN47">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -13358,8 +14533,17 @@
       <c r="AK48">
         <v>330</v>
       </c>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL48">
+        <v>336</v>
+      </c>
+      <c r="AM48">
+        <v>342</v>
+      </c>
+      <c r="AN48">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -13402,8 +14586,17 @@
       <c r="AK49">
         <v>330</v>
       </c>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL49">
+        <v>337</v>
+      </c>
+      <c r="AM49">
+        <v>339</v>
+      </c>
+      <c r="AN49">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -13443,8 +14636,17 @@
       <c r="AK50">
         <v>322</v>
       </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL50">
+        <v>329</v>
+      </c>
+      <c r="AM50">
+        <v>333</v>
+      </c>
+      <c r="AN50">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -13481,8 +14683,17 @@
       <c r="AK51">
         <v>303</v>
       </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL51">
+        <v>309</v>
+      </c>
+      <c r="AM51">
+        <v>311</v>
+      </c>
+      <c r="AN51">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -13516,8 +14727,17 @@
       <c r="AK52">
         <v>261</v>
       </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL52">
+        <v>264</v>
+      </c>
+      <c r="AM52">
+        <v>269</v>
+      </c>
+      <c r="AN52">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -13548,8 +14768,17 @@
       <c r="AK53">
         <v>265</v>
       </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL53">
+        <v>268</v>
+      </c>
+      <c r="AM53">
+        <v>272</v>
+      </c>
+      <c r="AN53">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -13577,8 +14806,17 @@
       <c r="AK54">
         <v>262</v>
       </c>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL54">
+        <v>268</v>
+      </c>
+      <c r="AM54">
+        <v>270</v>
+      </c>
+      <c r="AN54">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -13603,8 +14841,17 @@
       <c r="AK55">
         <v>230</v>
       </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL55">
+        <v>233</v>
+      </c>
+      <c r="AM55">
+        <v>241</v>
+      </c>
+      <c r="AN55">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -13626,8 +14873,17 @@
       <c r="AK56">
         <v>182</v>
       </c>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL56">
+        <v>187</v>
+      </c>
+      <c r="AM56">
+        <v>195</v>
+      </c>
+      <c r="AN56">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AG57">
         <v>7</v>
       </c>
@@ -13643,8 +14899,17 @@
       <c r="AK57">
         <v>165</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL57">
+        <v>183</v>
+      </c>
+      <c r="AM57">
+        <v>190</v>
+      </c>
+      <c r="AN57">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AH58">
         <v>10</v>
       </c>
@@ -13657,8 +14922,17 @@
       <c r="AK58">
         <v>149</v>
       </c>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL58">
+        <v>164</v>
+      </c>
+      <c r="AM58">
+        <v>176</v>
+      </c>
+      <c r="AN58">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AI59">
         <v>7</v>
       </c>
@@ -13668,18 +14942,69 @@
       <c r="AK59">
         <v>93</v>
       </c>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL59">
+        <v>115</v>
+      </c>
+      <c r="AM59">
+        <v>136</v>
+      </c>
+      <c r="AN59">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AJ60">
         <v>3</v>
       </c>
       <c r="AK60">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL60">
+        <v>77</v>
+      </c>
+      <c r="AM60">
+        <v>105</v>
+      </c>
+      <c r="AN60">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AK61">
         <v>6</v>
+      </c>
+      <c r="AL61">
+        <v>41</v>
+      </c>
+      <c r="AM61">
+        <v>68</v>
+      </c>
+      <c r="AN61">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AL62">
+        <v>4</v>
+      </c>
+      <c r="AM62">
+        <v>29</v>
+      </c>
+      <c r="AN62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AM63">
+        <v>3</v>
+      </c>
+      <c r="AN63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN64">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13689,15 +15014,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S53"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -13753,8 +15078,17 @@
       <c r="S1">
         <v>501</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1">
+        <v>502</v>
+      </c>
+      <c r="U1">
+        <v>503</v>
+      </c>
+      <c r="V1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -13830,8 +15164,20 @@
         <f>Confirmed!AK11+Daily!S2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <f>Confirmed!AL11+Daily!T2</f>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>Confirmed!AM11+Daily!U2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f>Confirmed!AN11+Daily!V2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -13907,8 +15253,20 @@
         <f>Confirmed!AK12+Daily!S3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <f>Confirmed!AL12+Daily!T3</f>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f>Confirmed!AM12+Daily!U3</f>
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <f>Confirmed!AN12+Daily!V3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -13984,8 +15342,20 @@
         <f>Confirmed!AK13+Daily!S4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <f>Confirmed!AL13+Daily!T4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>Confirmed!AM13+Daily!U4</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>Confirmed!AN13+Daily!V4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -14061,8 +15431,20 @@
         <f>Confirmed!AK14+Daily!S5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <f>Confirmed!AL14+Daily!T5</f>
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <f>Confirmed!AM14+Daily!U5</f>
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <f>Confirmed!AN14+Daily!V5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -14138,8 +15520,20 @@
         <f>Confirmed!AK15+Daily!S6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <f>Confirmed!AL15+Daily!T6</f>
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <f>Confirmed!AM15+Daily!U6</f>
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <f>Confirmed!AN15+Daily!V6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -14215,8 +15609,20 @@
         <f>Confirmed!AK16+Daily!S7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f>Confirmed!AL16+Daily!T7</f>
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <f>Confirmed!AM16+Daily!U7</f>
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <f>Confirmed!AN16+Daily!V7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -14292,8 +15698,20 @@
         <f>Confirmed!AK17+Daily!S8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <f>Confirmed!AL17+Daily!T8</f>
+        <v>11</v>
+      </c>
+      <c r="U8">
+        <f>Confirmed!AM17+Daily!U8</f>
+        <v>11</v>
+      </c>
+      <c r="V8">
+        <f>Confirmed!AN17+Daily!V8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -14369,8 +15787,20 @@
         <f>Confirmed!AK18+Daily!S9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <f>Confirmed!AL18+Daily!T9</f>
+        <v>25</v>
+      </c>
+      <c r="U9">
+        <f>Confirmed!AM18+Daily!U9</f>
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <f>Confirmed!AN18+Daily!V9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -14446,8 +15876,20 @@
         <f>Confirmed!AK19+Daily!S10</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <f>Confirmed!AL19+Daily!T10</f>
+        <v>26</v>
+      </c>
+      <c r="U10">
+        <f>Confirmed!AM19+Daily!U10</f>
+        <v>26</v>
+      </c>
+      <c r="V10">
+        <f>Confirmed!AN19+Daily!V10</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -14523,8 +15965,20 @@
         <f>Confirmed!AK20+Daily!S11</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <f>Confirmed!AL20+Daily!T11</f>
+        <v>49</v>
+      </c>
+      <c r="U11">
+        <f>Confirmed!AM20+Daily!U11</f>
+        <v>49</v>
+      </c>
+      <c r="V11">
+        <f>Confirmed!AN20+Daily!V11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -14600,8 +16054,20 @@
         <f>Confirmed!AK21+Daily!S12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <f>Confirmed!AL21+Daily!T12</f>
+        <v>46</v>
+      </c>
+      <c r="U12">
+        <f>Confirmed!AM21+Daily!U12</f>
+        <v>46</v>
+      </c>
+      <c r="V12">
+        <f>Confirmed!AN21+Daily!V12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -14677,8 +16143,20 @@
         <f>Confirmed!AK22+Daily!S13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <f>Confirmed!AL22+Daily!T13</f>
+        <v>52</v>
+      </c>
+      <c r="U13">
+        <f>Confirmed!AM22+Daily!U13</f>
+        <v>52</v>
+      </c>
+      <c r="V13">
+        <f>Confirmed!AN22+Daily!V13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -14754,8 +16232,20 @@
         <f>Confirmed!AK23+Daily!S14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <f>Confirmed!AL23+Daily!T14</f>
+        <v>97</v>
+      </c>
+      <c r="U14">
+        <f>Confirmed!AM23+Daily!U14</f>
+        <v>97</v>
+      </c>
+      <c r="V14">
+        <f>Confirmed!AN23+Daily!V14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -14831,8 +16321,20 @@
         <f>Confirmed!AK24+Daily!S15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <f>Confirmed!AL24+Daily!T15</f>
+        <v>105</v>
+      </c>
+      <c r="U15">
+        <f>Confirmed!AM24+Daily!U15</f>
+        <v>105</v>
+      </c>
+      <c r="V15">
+        <f>Confirmed!AN24+Daily!V15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -14908,8 +16410,20 @@
         <f>Confirmed!AK25+Daily!S16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <f>Confirmed!AL25+Daily!T16</f>
+        <v>140</v>
+      </c>
+      <c r="U16">
+        <f>Confirmed!AM25+Daily!U16</f>
+        <v>140</v>
+      </c>
+      <c r="V16">
+        <f>Confirmed!AN25+Daily!V16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -14985,8 +16499,20 @@
         <f>Confirmed!AK26+Daily!S17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f>Confirmed!AL26+Daily!T17</f>
+        <v>225</v>
+      </c>
+      <c r="U17">
+        <f>Confirmed!AM26+Daily!U17</f>
+        <v>225</v>
+      </c>
+      <c r="V17">
+        <f>Confirmed!AN26+Daily!V17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -15062,8 +16588,20 @@
         <f>Confirmed!AK27+Daily!S18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f>Confirmed!AL27+Daily!T18</f>
+        <v>252</v>
+      </c>
+      <c r="U18">
+        <f>Confirmed!AM27+Daily!U18</f>
+        <v>252</v>
+      </c>
+      <c r="V18">
+        <f>Confirmed!AN27+Daily!V18</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -15139,8 +16677,20 @@
         <f>Confirmed!AK28+Daily!S19</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f>Confirmed!AL28+Daily!T19</f>
+        <v>326</v>
+      </c>
+      <c r="U19">
+        <f>Confirmed!AM28+Daily!U19</f>
+        <v>327</v>
+      </c>
+      <c r="V19">
+        <f>Confirmed!AN28+Daily!V19</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -15216,8 +16766,20 @@
         <f>Confirmed!AK29+Daily!S20</f>
         <v>354</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <f>Confirmed!AL29+Daily!T20</f>
+        <v>355</v>
+      </c>
+      <c r="U20">
+        <f>Confirmed!AM29+Daily!U20</f>
+        <v>355</v>
+      </c>
+      <c r="V20">
+        <f>Confirmed!AN29+Daily!V20</f>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -15293,8 +16855,20 @@
         <f>Confirmed!AK30+Daily!S21</f>
         <v>402</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f>Confirmed!AL30+Daily!T21</f>
+        <v>402</v>
+      </c>
+      <c r="U21">
+        <f>Confirmed!AM30+Daily!U21</f>
+        <v>402</v>
+      </c>
+      <c r="V21">
+        <f>Confirmed!AN30+Daily!V21</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -15370,8 +16944,20 @@
         <f>Confirmed!AK31+Daily!S22</f>
         <v>461</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <f>Confirmed!AL31+Daily!T22</f>
+        <v>461</v>
+      </c>
+      <c r="U22">
+        <f>Confirmed!AM31+Daily!U22</f>
+        <v>462</v>
+      </c>
+      <c r="V22">
+        <f>Confirmed!AN31+Daily!V22</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -15447,8 +17033,20 @@
         <f>Confirmed!AK32+Daily!S23</f>
         <v>531</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <f>Confirmed!AL32+Daily!T23</f>
+        <v>531</v>
+      </c>
+      <c r="U23">
+        <f>Confirmed!AM32+Daily!U23</f>
+        <v>531</v>
+      </c>
+      <c r="V23">
+        <f>Confirmed!AN32+Daily!V23</f>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -15524,8 +17122,20 @@
         <f>Confirmed!AK33+Daily!S24</f>
         <v>643</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <f>Confirmed!AL33+Daily!T24</f>
+        <v>645</v>
+      </c>
+      <c r="U24">
+        <f>Confirmed!AM33+Daily!U24</f>
+        <v>646</v>
+      </c>
+      <c r="V24">
+        <f>Confirmed!AN33+Daily!V24</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -15601,8 +17211,20 @@
         <f>Confirmed!AK34+Daily!S25</f>
         <v>649</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <f>Confirmed!AL34+Daily!T25</f>
+        <v>649</v>
+      </c>
+      <c r="U25">
+        <f>Confirmed!AM34+Daily!U25</f>
+        <v>649</v>
+      </c>
+      <c r="V25">
+        <f>Confirmed!AN34+Daily!V25</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -15678,8 +17300,20 @@
         <f>Confirmed!AK35+Daily!S26</f>
         <v>674</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <f>Confirmed!AL35+Daily!T26</f>
+        <v>674</v>
+      </c>
+      <c r="U26">
+        <f>Confirmed!AM35+Daily!U26</f>
+        <v>673</v>
+      </c>
+      <c r="V26">
+        <f>Confirmed!AN35+Daily!V26</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -15755,8 +17389,20 @@
         <f>Confirmed!AK36+Daily!S27</f>
         <v>727</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <f>Confirmed!AL36+Daily!T27</f>
+        <v>726</v>
+      </c>
+      <c r="U27">
+        <f>Confirmed!AM36+Daily!U27</f>
+        <v>727</v>
+      </c>
+      <c r="V27">
+        <f>Confirmed!AN36+Daily!V27</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -15832,8 +17478,20 @@
         <f>Confirmed!AK37+Daily!S28</f>
         <v>794</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <f>Confirmed!AL37+Daily!T28</f>
+        <v>794</v>
+      </c>
+      <c r="U28">
+        <f>Confirmed!AM37+Daily!U28</f>
+        <v>793</v>
+      </c>
+      <c r="V28">
+        <f>Confirmed!AN37+Daily!V28</f>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -15909,8 +17567,20 @@
         <f>Confirmed!AK38+Daily!S29</f>
         <v>813</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <f>Confirmed!AL38+Daily!T29</f>
+        <v>813</v>
+      </c>
+      <c r="U29">
+        <f>Confirmed!AM38+Daily!U29</f>
+        <v>812</v>
+      </c>
+      <c r="V29">
+        <f>Confirmed!AN38+Daily!V29</f>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -15986,8 +17656,20 @@
         <f>Confirmed!AK39+Daily!S30</f>
         <v>739</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <f>Confirmed!AL39+Daily!T30</f>
+        <v>737</v>
+      </c>
+      <c r="U30">
+        <f>Confirmed!AM39+Daily!U30</f>
+        <v>738</v>
+      </c>
+      <c r="V30">
+        <f>Confirmed!AN39+Daily!V30</f>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -16063,8 +17745,20 @@
         <f>Confirmed!AK40+Daily!S31</f>
         <v>730</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <f>Confirmed!AL40+Daily!T31</f>
+        <v>730</v>
+      </c>
+      <c r="U31">
+        <f>Confirmed!AM40+Daily!U31</f>
+        <v>733</v>
+      </c>
+      <c r="V31">
+        <f>Confirmed!AN40+Daily!V31</f>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -16140,8 +17834,20 @@
         <f>Confirmed!AK41+Daily!S32</f>
         <v>699</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <f>Confirmed!AL41+Daily!T32</f>
+        <v>702</v>
+      </c>
+      <c r="U32">
+        <f>Confirmed!AM41+Daily!U32</f>
+        <v>702</v>
+      </c>
+      <c r="V32">
+        <f>Confirmed!AN41+Daily!V32</f>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -16217,8 +17923,20 @@
         <f>Confirmed!AK42+Daily!S33</f>
         <v>689</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <f>Confirmed!AL42+Daily!T33</f>
+        <v>687</v>
+      </c>
+      <c r="U33">
+        <f>Confirmed!AM42+Daily!U33</f>
+        <v>688</v>
+      </c>
+      <c r="V33">
+        <f>Confirmed!AN42+Daily!V33</f>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -16294,8 +18012,20 @@
         <f>Confirmed!AK43+Daily!S34</f>
         <v>718</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <f>Confirmed!AL43+Daily!T34</f>
+        <v>719</v>
+      </c>
+      <c r="U34">
+        <f>Confirmed!AM43+Daily!U34</f>
+        <v>722</v>
+      </c>
+      <c r="V34">
+        <f>Confirmed!AN43+Daily!V34</f>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -16371,8 +18101,20 @@
         <f>Confirmed!AK44+Daily!S35</f>
         <v>728</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <f>Confirmed!AL44+Daily!T35</f>
+        <v>729</v>
+      </c>
+      <c r="U35">
+        <f>Confirmed!AM44+Daily!U35</f>
+        <v>733</v>
+      </c>
+      <c r="V35">
+        <f>Confirmed!AN44+Daily!V35</f>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -16448,8 +18190,20 @@
         <f>Confirmed!AK45+Daily!S36</f>
         <v>646</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <f>Confirmed!AL45+Daily!T36</f>
+        <v>651</v>
+      </c>
+      <c r="U36">
+        <f>Confirmed!AM45+Daily!U36</f>
+        <v>648</v>
+      </c>
+      <c r="V36">
+        <f>Confirmed!AN45+Daily!V36</f>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -16525,8 +18279,20 @@
         <f>Confirmed!AK46+Daily!S37</f>
         <v>532</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <f>Confirmed!AL46+Daily!T37</f>
+        <v>533</v>
+      </c>
+      <c r="U37">
+        <f>Confirmed!AM46+Daily!U37</f>
+        <v>535</v>
+      </c>
+      <c r="V37">
+        <f>Confirmed!AN46+Daily!V37</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -16602,8 +18368,20 @@
         <f>Confirmed!AK47+Daily!S38</f>
         <v>536</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <f>Confirmed!AL47+Daily!T38</f>
+        <v>536</v>
+      </c>
+      <c r="U38">
+        <f>Confirmed!AM47+Daily!U38</f>
+        <v>538</v>
+      </c>
+      <c r="V38">
+        <f>Confirmed!AN47+Daily!V38</f>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -16679,8 +18457,20 @@
         <f>Confirmed!AK48+Daily!S39</f>
         <v>451</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <f>Confirmed!AL48+Daily!T39</f>
+        <v>455</v>
+      </c>
+      <c r="U39">
+        <f>Confirmed!AM48+Daily!U39</f>
+        <v>456</v>
+      </c>
+      <c r="V39">
+        <f>Confirmed!AN48+Daily!V39</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -16736,8 +18526,20 @@
         <f>Confirmed!AK49+Daily!S40</f>
         <v>469</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <f>Confirmed!AL49+Daily!T40</f>
+        <v>472</v>
+      </c>
+      <c r="U40">
+        <f>Confirmed!AM49+Daily!U40</f>
+        <v>472</v>
+      </c>
+      <c r="V40">
+        <f>Confirmed!AN49+Daily!V40</f>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -16793,8 +18595,20 @@
         <f>Confirmed!AK50+Daily!S41</f>
         <v>456</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <f>Confirmed!AL50+Daily!T41</f>
+        <v>457</v>
+      </c>
+      <c r="U41">
+        <f>Confirmed!AM50+Daily!U41</f>
+        <v>460</v>
+      </c>
+      <c r="V41">
+        <f>Confirmed!AN50+Daily!V41</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -16842,8 +18656,20 @@
         <f>Confirmed!AK51+Daily!S42</f>
         <v>443</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <f>Confirmed!AL51+Daily!T42</f>
+        <v>445</v>
+      </c>
+      <c r="U42">
+        <f>Confirmed!AM51+Daily!U42</f>
+        <v>444</v>
+      </c>
+      <c r="V42">
+        <f>Confirmed!AN51+Daily!V42</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -16887,8 +18713,20 @@
         <f>Confirmed!AK52+Daily!S43</f>
         <v>388</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <f>Confirmed!AL52+Daily!T43</f>
+        <v>386</v>
+      </c>
+      <c r="U43">
+        <f>Confirmed!AM52+Daily!U43</f>
+        <v>388</v>
+      </c>
+      <c r="V43">
+        <f>Confirmed!AN52+Daily!V43</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -16932,8 +18770,20 @@
         <f>Confirmed!AK53+Daily!S44</f>
         <v>380</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <f>Confirmed!AL53+Daily!T44</f>
+        <v>380</v>
+      </c>
+      <c r="U44">
+        <f>Confirmed!AM53+Daily!U44</f>
+        <v>378</v>
+      </c>
+      <c r="V44">
+        <f>Confirmed!AN53+Daily!V44</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -16973,8 +18823,20 @@
         <f>Confirmed!AK54+Daily!S45</f>
         <v>377</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <f>Confirmed!AL54+Daily!T45</f>
+        <v>378</v>
+      </c>
+      <c r="U45">
+        <f>Confirmed!AM54+Daily!U45</f>
+        <v>380</v>
+      </c>
+      <c r="V45">
+        <f>Confirmed!AN54+Daily!V45</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -17014,8 +18876,20 @@
         <f>Confirmed!AK55+Daily!S46</f>
         <v>351</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <f>Confirmed!AL55+Daily!T46</f>
+        <v>349</v>
+      </c>
+      <c r="U46">
+        <f>Confirmed!AM55+Daily!U46</f>
+        <v>350</v>
+      </c>
+      <c r="V46">
+        <f>Confirmed!AN55+Daily!V46</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -17055,8 +18929,20 @@
         <f>Confirmed!AK56+Daily!S47</f>
         <v>277</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <f>Confirmed!AL56+Daily!T47</f>
+        <v>277</v>
+      </c>
+      <c r="U47">
+        <f>Confirmed!AM56+Daily!U47</f>
+        <v>283</v>
+      </c>
+      <c r="V47">
+        <f>Confirmed!AN56+Daily!V47</f>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>426</v>
       </c>
@@ -17084,8 +18970,20 @@
         <f>Confirmed!AK57+Daily!S48</f>
         <v>276</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <f>Confirmed!AL57+Daily!T48</f>
+        <v>279</v>
+      </c>
+      <c r="U48">
+        <f>Confirmed!AM57+Daily!U48</f>
+        <v>283</v>
+      </c>
+      <c r="V48">
+        <f>Confirmed!AN57+Daily!V48</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>427</v>
       </c>
@@ -17109,8 +19007,20 @@
         <f>Confirmed!AK58+Daily!S49</f>
         <v>289</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <f>Confirmed!AL58+Daily!T49</f>
+        <v>293</v>
+      </c>
+      <c r="U49">
+        <f>Confirmed!AM58+Daily!U49</f>
+        <v>298</v>
+      </c>
+      <c r="V49">
+        <f>Confirmed!AN58+Daily!V49</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>428</v>
       </c>
@@ -17130,8 +19040,20 @@
         <f>Confirmed!AK59+Daily!S50</f>
         <v>227</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <f>Confirmed!AL59+Daily!T50</f>
+        <v>227</v>
+      </c>
+      <c r="U50">
+        <f>Confirmed!AM59+Daily!U50</f>
+        <v>238</v>
+      </c>
+      <c r="V50">
+        <f>Confirmed!AN59+Daily!V50</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>429</v>
       </c>
@@ -17147,8 +19069,20 @@
         <f>Confirmed!AK60+Daily!S51</f>
         <v>206</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <f>Confirmed!AL60+Daily!T51</f>
+        <v>219</v>
+      </c>
+      <c r="U51">
+        <f>Confirmed!AM60+Daily!U51</f>
+        <v>251</v>
+      </c>
+      <c r="V51">
+        <f>Confirmed!AN60+Daily!V51</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R52">
         <f>Confirmed!AJ61+Daily!R52</f>
         <v>0</v>
@@ -17157,11 +19091,59 @@
         <f>Confirmed!AK61+Daily!S52</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <f>Confirmed!AL61+Daily!T52</f>
+        <v>55</v>
+      </c>
+      <c r="U52">
+        <f>Confirmed!AM61+Daily!U52</f>
+        <v>220</v>
+      </c>
+      <c r="V52">
+        <f>Confirmed!AN61+Daily!V52</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="S53">
         <f>Confirmed!AK62+Daily!S53</f>
         <v>0</v>
+      </c>
+      <c r="T53">
+        <f>Confirmed!AL62+Daily!T53</f>
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <f>Confirmed!AM62+Daily!U53</f>
+        <v>184</v>
+      </c>
+      <c r="V53">
+        <f>Confirmed!AN62+Daily!V53</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <f>Confirmed!AL63+Daily!T54</f>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f>Confirmed!AM63+Daily!U54</f>
+        <v>23</v>
+      </c>
+      <c r="V54">
+        <f>Confirmed!AN63+Daily!V54</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U55">
+        <f>Confirmed!AM64+Daily!U55</f>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f>Confirmed!AN64+Daily!V55</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -17809,8 +19791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B56" sqref="B2:B56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C61" sqref="C49:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17925,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E57" si="1">E8+1</f>
+        <f t="shared" ref="E9:E58" si="1">E8+1</f>
         <v>43902</v>
       </c>
     </row>
@@ -18166,10 +20148,10 @@
         <v>223</v>
       </c>
       <c r="C22">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -18223,10 +20205,10 @@
         <v>319</v>
       </c>
       <c r="C25">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -18242,10 +20224,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D26">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -18261,10 +20243,10 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D27">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -18280,10 +20262,10 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D28">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -18299,10 +20281,10 @@
         <v>549</v>
       </c>
       <c r="C29">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D29">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -18318,7 +20300,7 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D30">
         <v>191</v>
@@ -18337,10 +20319,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D31">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -18356,10 +20338,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D32">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -18375,10 +20357,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D33">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -18394,10 +20376,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D34">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -18413,10 +20395,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D35">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -18432,10 +20414,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D36">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -18451,10 +20433,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D37">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -18470,10 +20452,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D38">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -18489,10 +20471,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D39">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -18508,10 +20490,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="D40">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -18527,10 +20509,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="D41">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -18546,10 +20528,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D42">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -18565,10 +20547,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D43">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -18584,10 +20566,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D44">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -18603,10 +20585,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D45">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -18622,10 +20604,10 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="D46">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
@@ -18641,10 +20623,10 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="D47">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
@@ -18660,10 +20642,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="D48">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -18679,10 +20661,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D49">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -18698,10 +20680,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="D50">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -18717,10 +20699,10 @@
         <v>328</v>
       </c>
       <c r="C51">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="D51">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
@@ -18736,10 +20718,10 @@
         <v>323</v>
       </c>
       <c r="C52">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="D52">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
@@ -18755,10 +20737,10 @@
         <v>353</v>
       </c>
       <c r="C53">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="D53">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
@@ -18774,10 +20756,10 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="D54">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
@@ -18793,10 +20775,10 @@
         <v>214</v>
       </c>
       <c r="C55">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D55">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
@@ -18812,10 +20794,10 @@
         <v>190</v>
       </c>
       <c r="C56">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="D56">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
@@ -18831,10 +20813,10 @@
         <v>160</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
@@ -18849,6 +20831,16 @@
       <c r="B58">
         <v>150</v>
       </c>
+      <c r="C58">
+        <v>95</v>
+      </c>
+      <c r="D58">
+        <v>129</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>43951</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -18858,6 +20850,15 @@
       <c r="B59">
         <v>145</v>
       </c>
+      <c r="C59">
+        <v>61</v>
+      </c>
+      <c r="D59">
+        <v>158</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43952</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -18867,6 +20868,15 @@
       <c r="B60">
         <v>117</v>
       </c>
+      <c r="C60">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>111</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43953</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -18875,6 +20885,16 @@
       </c>
       <c r="B61">
         <v>110</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2">
+        <f>E60+1</f>
+        <v>43954</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -18995,7 +21015,7 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19040,47 +21060,47 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>B3-B2</f>
+        <f t="shared" ref="E3:E49" si="0">B3-B2</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A53" si="0">A3+1</f>
+        <f t="shared" ref="A4:A55" si="1">A3+1</f>
         <v>43903</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C35" si="1">SUM(B2:B6)/5</f>
+        <f t="shared" ref="C4:C35" si="2">SUM(B2:B6)/5</f>
         <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <f>B4-B3</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43904</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="D5">
         <v>3.8</v>
       </c>
       <c r="E5">
-        <f>B5-B4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F5">
@@ -19094,1313 +21114,1351 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43905</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8</v>
       </c>
       <c r="D6">
         <v>5.8</v>
       </c>
       <c r="E6">
-        <f>B6-B5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F52" si="2">SUM(E4:E8)/5</f>
+        <f t="shared" ref="F6:F52" si="3">SUM(E4:E8)/5</f>
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G53" si="3">D6-D5</f>
+        <f t="shared" ref="G6:G49" si="4">D6-D5</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43906</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
       <c r="D7">
         <v>10.8</v>
       </c>
       <c r="E7">
-        <f>B7-B6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43907</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="D8">
         <v>15.6</v>
       </c>
       <c r="E8">
-        <f>B8-B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7999999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43908</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.2</v>
       </c>
       <c r="D9">
         <v>24.2</v>
       </c>
       <c r="E9">
-        <f>B9-B8</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>8.6</v>
-      </c>
-      <c r="G9">
         <f t="shared" si="3"/>
         <v>8.6</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8.6</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43909</v>
       </c>
       <c r="B10">
         <v>26</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.4</v>
       </c>
       <c r="D10">
         <v>31.4</v>
       </c>
       <c r="E10">
-        <f>B10-B9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43910</v>
       </c>
       <c r="B11">
         <v>49</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.6</v>
       </c>
       <c r="D11">
         <v>39.6</v>
       </c>
       <c r="E11">
-        <f>B11-B10</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2000000000000028</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43911</v>
       </c>
       <c r="B12">
         <v>46</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D12">
         <v>54</v>
       </c>
       <c r="E12">
-        <f>B12-B11</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.4</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43912</v>
       </c>
       <c r="B13">
         <v>52</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.8</v>
       </c>
       <c r="D13">
         <v>69.8</v>
       </c>
       <c r="E13">
-        <f>B13-B12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.8</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43913</v>
       </c>
       <c r="B14">
         <v>97</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="D14">
         <v>88</v>
       </c>
       <c r="E14">
-        <f>B14-B13</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43914</v>
       </c>
       <c r="B15">
         <v>105</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123.8</v>
       </c>
       <c r="D15">
         <v>123.8</v>
       </c>
       <c r="E15">
-        <f>B15-B14</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>35.799999999999997</v>
-      </c>
-      <c r="G15">
         <f t="shared" si="3"/>
         <v>35.799999999999997</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>35.799999999999997</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43915</v>
       </c>
       <c r="B16">
         <v>140</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163.80000000000001</v>
       </c>
       <c r="D16">
         <v>163.80000000000001</v>
       </c>
       <c r="E16">
-        <f>B16-B15</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.000000000000014</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43916</v>
       </c>
       <c r="B17">
         <v>225</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>209.6</v>
+        <f t="shared" si="2"/>
+        <v>209.8</v>
       </c>
       <c r="D17">
-        <v>209.6</v>
+        <v>209.8</v>
       </c>
       <c r="E17">
-        <f>B17-B16</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>45.8</v>
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>45.799999999999983</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43917</v>
       </c>
       <c r="B18">
         <v>252</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>259.39999999999998</v>
+        <f t="shared" si="2"/>
+        <v>259.8</v>
       </c>
       <c r="D18">
-        <v>259.39999999999998</v>
+        <v>259.8</v>
       </c>
       <c r="E18">
-        <f>B18-B17</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>49.8</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>49.799999999999983</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>43918</v>
+      </c>
+      <c r="B19">
+        <v>327</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>312.2</v>
+      </c>
+      <c r="D19">
+        <v>312.2</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>43918</v>
-      </c>
-      <c r="B19">
-        <v>326</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>311.8</v>
-      </c>
-      <c r="D19">
-        <v>311.8</v>
-      </c>
-      <c r="E19">
-        <f>B19-B18</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.4</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
-        <v>52.400000000000034</v>
+        <f t="shared" si="4"/>
+        <v>52.399999999999977</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>43919</v>
+      </c>
+      <c r="B20">
+        <v>355</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>359.6</v>
+      </c>
+      <c r="D20">
+        <v>359.6</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>43919</v>
-      </c>
-      <c r="B20">
-        <v>354</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>359</v>
-      </c>
-      <c r="D20">
-        <v>359</v>
-      </c>
-      <c r="E20">
-        <f>B20-B19</f>
         <v>28</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
-        <v>47.2</v>
+        <f t="shared" si="3"/>
+        <v>47.4</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
-        <v>47.199999999999989</v>
+        <f t="shared" si="4"/>
+        <v>47.400000000000034</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43920</v>
       </c>
       <c r="B21">
         <v>402</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>414.8</v>
+        <f t="shared" si="2"/>
+        <v>415.4</v>
       </c>
       <c r="D21">
-        <v>414.8</v>
+        <v>415.4</v>
       </c>
       <c r="E21">
-        <f>B21-B20</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.8</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
-        <v>55.800000000000011</v>
+        <f t="shared" si="4"/>
+        <v>55.799999999999955</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>43921</v>
+      </c>
+      <c r="B22">
+        <v>462</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>479.2</v>
+      </c>
+      <c r="D22">
+        <v>479.2</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>43921</v>
-      </c>
-      <c r="B22">
-        <v>461</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>478.2</v>
-      </c>
-      <c r="D22">
-        <v>478.2</v>
-      </c>
-      <c r="E22">
-        <f>B22-B21</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
-        <v>63.4</v>
+        <f t="shared" si="3"/>
+        <v>63.8</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
-        <v>63.399999999999977</v>
+        <f t="shared" si="4"/>
+        <v>63.800000000000011</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43922</v>
       </c>
       <c r="B23">
         <v>531</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>537.20000000000005</v>
+        <f t="shared" si="2"/>
+        <v>538</v>
       </c>
       <c r="D23">
-        <v>537.20000000000005</v>
+        <v>538</v>
       </c>
       <c r="E23">
-        <f>B23-B22</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>58.8</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
-        <v>59.000000000000057</v>
+        <f t="shared" si="4"/>
+        <v>58.800000000000011</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
+        <f t="shared" si="1"/>
+        <v>43923</v>
+      </c>
+      <c r="B24">
+        <v>646</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>592.20000000000005</v>
+      </c>
+      <c r="D24">
+        <v>592.20000000000005</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>43923</v>
-      </c>
-      <c r="B24">
-        <v>643</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>591.6</v>
-      </c>
-      <c r="D24">
-        <v>591.6</v>
-      </c>
-      <c r="E24">
-        <f>B24-B23</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
-        <v>54.4</v>
+        <f t="shared" si="3"/>
+        <v>54.2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
-        <v>54.399999999999977</v>
+        <f t="shared" si="4"/>
+        <v>54.200000000000045</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43924</v>
       </c>
       <c r="B25">
         <v>649</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>644.79999999999995</v>
+        <f t="shared" si="2"/>
+        <v>645.20000000000005</v>
       </c>
       <c r="D25">
-        <v>644.79999999999995</v>
+        <v>645.20000000000005</v>
       </c>
       <c r="E25">
-        <f>B25-B24</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
-        <v>53.2</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
-        <v>53.199999999999932</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
+        <f t="shared" si="1"/>
+        <v>43925</v>
+      </c>
+      <c r="B26">
+        <v>673</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>697.6</v>
+      </c>
+      <c r="D26">
+        <v>697.6</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>43925</v>
-      </c>
-      <c r="B26">
-        <v>674</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>697.4</v>
-      </c>
-      <c r="D26">
-        <v>697.4</v>
-      </c>
-      <c r="E26">
-        <f>B26-B25</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
-        <v>52.6</v>
+        <f t="shared" si="3"/>
+        <v>52.4</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
-        <v>52.600000000000023</v>
+        <f t="shared" si="4"/>
+        <v>52.399999999999977</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43926</v>
       </c>
       <c r="B27">
         <v>727</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
-        <v>731.4</v>
+        <f t="shared" si="2"/>
+        <v>730.8</v>
       </c>
       <c r="D27">
-        <v>731.4</v>
+        <v>730.8</v>
       </c>
       <c r="E27">
-        <f>B27-B26</f>
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>33.200000000000003</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>33.199999999999932</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>43927</v>
+      </c>
+      <c r="B28">
+        <v>793</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>748.6</v>
+      </c>
+      <c r="D28">
+        <v>748.6</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
-        <v>43927</v>
-      </c>
-      <c r="B28">
-        <v>794</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>749.4</v>
-      </c>
-      <c r="D28">
-        <v>749.4</v>
-      </c>
-      <c r="E28">
-        <f>B28-B27</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>17.8</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>17.800000000000068</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43928</v>
       </c>
       <c r="B29">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>760.6</v>
       </c>
       <c r="D29">
         <v>760.6</v>
       </c>
       <c r="E29">
-        <f>B29-B28</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
-        <v>11.2</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
-        <v>11.200000000000045</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>43929</v>
+      </c>
+      <c r="B30">
+        <v>738</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>755.6</v>
+      </c>
+      <c r="D30">
+        <v>755.6</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
-        <v>43929</v>
-      </c>
-      <c r="B30">
-        <v>739</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>755</v>
-      </c>
-      <c r="D30">
-        <v>755</v>
-      </c>
-      <c r="E30">
-        <f>B30-B29</f>
         <v>-74</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
-        <v>-5.6</v>
+        <f t="shared" si="3"/>
+        <v>-5</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>-5.6000000000000227</v>
+        <f t="shared" si="4"/>
+        <v>-5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <f t="shared" si="1"/>
+        <v>43930</v>
+      </c>
+      <c r="B31">
+        <v>733</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>734.6</v>
+      </c>
+      <c r="D31">
+        <v>734.6</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>43930</v>
-      </c>
-      <c r="B31">
-        <v>730</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>734</v>
-      </c>
-      <c r="D31">
-        <v>734</v>
-      </c>
-      <c r="E31">
-        <f>B31-B30</f>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
-        <v>-21</v>
-      </c>
-      <c r="G31">
         <f t="shared" si="3"/>
         <v>-21</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>43931</v>
+      </c>
+      <c r="B32">
+        <v>702</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>716.6</v>
+      </c>
+      <c r="D32">
+        <v>716.6</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="0"/>
-        <v>43931</v>
-      </c>
-      <c r="B32">
-        <v>699</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>715</v>
-      </c>
-      <c r="D32">
-        <v>715</v>
-      </c>
-      <c r="E32">
-        <f>B32-B31</f>
         <v>-31</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
-        <v>-19</v>
+        <f t="shared" si="3"/>
+        <v>-18</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
-        <v>-19</v>
+        <f t="shared" si="4"/>
+        <v>-18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>43932</v>
+      </c>
+      <c r="B33">
+        <v>688</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>715.6</v>
+      </c>
+      <c r="D33">
+        <v>715.6</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="0"/>
-        <v>43932</v>
-      </c>
-      <c r="B33">
-        <v>689</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>712.8</v>
-      </c>
-      <c r="D33">
-        <v>712.8</v>
-      </c>
-      <c r="E33">
-        <f>B33-B32</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
-        <v>-2.2000000000000002</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
-        <v>-2.2000000000000455</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>43933</v>
+      </c>
+      <c r="B34">
+        <v>722</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>698.6</v>
+      </c>
+      <c r="D34">
+        <v>698.6</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="0"/>
-        <v>43933</v>
-      </c>
-      <c r="B34">
-        <v>718</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>696</v>
-      </c>
-      <c r="D34">
-        <v>696</v>
-      </c>
-      <c r="E34">
-        <f>B34-B33</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
-        <v>-16.8</v>
+        <f t="shared" si="3"/>
+        <v>-17</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
-        <v>-16.799999999999955</v>
+        <f t="shared" si="4"/>
+        <v>-17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>43934</v>
+      </c>
+      <c r="B35">
+        <v>733</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>665.2</v>
+      </c>
+      <c r="D35">
+        <v>665.2</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="B35">
-        <v>728</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>662.6</v>
-      </c>
-      <c r="D35">
-        <v>662.6</v>
-      </c>
-      <c r="E35">
-        <f>B35-B34</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-33.4</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-33.399999999999977</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>43935</v>
+      </c>
+      <c r="B36">
+        <v>648</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C51" si="5">SUM(B34:B38)/5</f>
+        <v>635.20000000000005</v>
+      </c>
+      <c r="D36">
+        <v>635.20000000000005</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="0"/>
-        <v>43935</v>
-      </c>
-      <c r="B36">
-        <v>646</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:C67" si="4">SUM(B34:B38)/5</f>
-        <v>632</v>
-      </c>
-      <c r="D36">
-        <v>632</v>
-      </c>
-      <c r="E36">
-        <f>B36-B35</f>
-        <v>-82</v>
+        <v>-85</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
-        <v>-30.6</v>
+        <f t="shared" si="3"/>
+        <v>-30</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
-        <v>-30.600000000000023</v>
+        <f t="shared" si="4"/>
+        <v>-30</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>43936</v>
+      </c>
+      <c r="B37">
+        <v>535</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>582</v>
+      </c>
+      <c r="D37">
+        <v>582</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="0"/>
-        <v>43936</v>
-      </c>
-      <c r="B37">
-        <v>532</v>
-      </c>
-      <c r="C37">
+        <v>-113</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>-53.2</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="4"/>
-        <v>578.6</v>
-      </c>
-      <c r="D37">
-        <v>578.6</v>
-      </c>
-      <c r="E37">
-        <f>B37-B36</f>
-        <v>-114</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>-53.4</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
-        <v>-53.399999999999977</v>
+        <v>-53.200000000000045</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>43937</v>
+      </c>
+      <c r="B38">
+        <v>538</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>529.79999999999995</v>
+      </c>
+      <c r="D38">
+        <v>529.79999999999995</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="0"/>
-        <v>43937</v>
-      </c>
-      <c r="B38">
-        <v>536</v>
-      </c>
-      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>-52.2</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="4"/>
-        <v>526.79999999999995</v>
-      </c>
-      <c r="D38">
-        <v>527.77984965377584</v>
-      </c>
-      <c r="E38">
-        <f>B38-B37</f>
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>-51.8</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="3"/>
-        <v>-50.820150346224182</v>
+        <v>-52.200000000000045</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>43938</v>
+      </c>
+      <c r="B39">
+        <v>456</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>492.2</v>
+      </c>
+      <c r="D39">
+        <v>492.2</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="0"/>
-        <v>43938</v>
-      </c>
-      <c r="B39">
-        <v>451</v>
-      </c>
-      <c r="C39">
+        <v>-82</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>-37.6</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="4"/>
-        <v>488.8</v>
-      </c>
-      <c r="D39">
-        <v>491.36699370849544</v>
-      </c>
-      <c r="E39">
-        <f>B39-B38</f>
-        <v>-85</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>-38</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="3"/>
-        <v>-36.412855945280398</v>
+        <v>-37.599999999999966</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
+        <f t="shared" si="1"/>
+        <v>43939</v>
+      </c>
+      <c r="B40">
+        <v>472</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>474</v>
+      </c>
+      <c r="D40">
+        <v>474.93755398526747</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="0"/>
-        <v>43939</v>
-      </c>
-      <c r="B40">
-        <v>469</v>
-      </c>
-      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>-18.2</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="4"/>
-        <v>471</v>
-      </c>
-      <c r="D40">
-        <v>476.50191950339121</v>
-      </c>
-      <c r="E40">
-        <f>B40-B39</f>
-        <v>18</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>-17.8</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="3"/>
-        <v>-14.865074205104236</v>
+        <v>-17.262446014732518</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
+        <f t="shared" si="1"/>
+        <v>43940</v>
+      </c>
+      <c r="B41">
+        <v>460</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>444</v>
+      </c>
+      <c r="D41">
+        <v>446.33350614658104</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="0"/>
-        <v>43940</v>
-      </c>
-      <c r="B41">
-        <v>456</v>
-      </c>
-      <c r="C41">
+        <v>-12</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="4"/>
-        <v>441.4</v>
-      </c>
-      <c r="D41">
-        <v>451.3316569180937</v>
-      </c>
-      <c r="E41">
-        <f>B41-B40</f>
-        <v>-13</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>-29.6</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="3"/>
-        <v>-25.170262585297507</v>
+        <v>-28.604047838686427</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
+        <f t="shared" si="1"/>
+        <v>43941</v>
+      </c>
+      <c r="B42">
+        <v>444</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>428.4</v>
+      </c>
+      <c r="D42">
+        <v>433.10242806709948</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="0"/>
-        <v>43941</v>
-      </c>
-      <c r="B42">
-        <v>443</v>
-      </c>
-      <c r="C42">
+        <v>-16</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>-15.6</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="4"/>
-        <v>427.2</v>
-      </c>
-      <c r="D42">
-        <v>444.45690637248515</v>
-      </c>
-      <c r="E42">
-        <f>B42-B41</f>
-        <v>-13</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>-14.2</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
-        <v>-6.8747505456085491</v>
+        <v>-13.231078079481563</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43942</v>
       </c>
       <c r="B43">
         <v>388</v>
       </c>
       <c r="C43">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="D43">
+        <v>418.86559434333702</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-56</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="4"/>
-        <v>408.8</v>
-      </c>
-      <c r="D43">
-        <v>434.60782734538861</v>
-      </c>
-      <c r="E43">
-        <f>B43-B42</f>
-        <v>-55</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="3"/>
-        <v>-9.8490790270965363</v>
+        <v>-14.236833723762459</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>43943</v>
+      </c>
+      <c r="B44">
+        <v>378</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>388</v>
+      </c>
+      <c r="D44">
+        <v>403.65867540745728</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="0"/>
-        <v>43943</v>
-      </c>
-      <c r="B44">
-        <v>380</v>
-      </c>
-      <c r="C44">
+        <v>-10</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>-22</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="4"/>
-        <v>387.8</v>
-      </c>
-      <c r="D44">
-        <v>425.78534951775208</v>
-      </c>
-      <c r="E44">
-        <f>B44-B43</f>
-        <v>-8</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>-21</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="3"/>
-        <v>-8.8224778276365328</v>
+        <v>-15.206918935879742</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>43944</v>
+      </c>
+      <c r="B45">
+        <v>380</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>355.8</v>
+      </c>
+      <c r="D45">
+        <v>377.70798920377217</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="0"/>
-        <v>43944</v>
-      </c>
-      <c r="B45">
-        <v>377</v>
-      </c>
-      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="4"/>
-        <v>354.6</v>
-      </c>
-      <c r="D45">
-        <v>403.90878474398477</v>
-      </c>
-      <c r="E45">
-        <f>B45-B44</f>
-        <v>-3</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="3"/>
-        <v>-21.876564773767313</v>
+        <v>-25.950686203685109</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
+        <f t="shared" si="1"/>
+        <v>43945</v>
+      </c>
+      <c r="B46">
+        <v>350</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>334.8</v>
+      </c>
+      <c r="D46">
+        <v>366.27164089812715</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="0"/>
-        <v>43945</v>
-      </c>
-      <c r="B46">
-        <v>351</v>
-      </c>
-      <c r="C46">
+        <v>-30</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="4"/>
-        <v>332.2</v>
-      </c>
-      <c r="D46">
-        <v>395.87695603241389</v>
-      </c>
-      <c r="E46">
-        <f>B46-B45</f>
-        <v>-26</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>-22.4</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="3"/>
-        <v>-8.0318287115708813</v>
+        <v>-11.436348305645026</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
+        <f t="shared" si="1"/>
+        <v>43946</v>
+      </c>
+      <c r="B47">
+        <v>283</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>318.8</v>
+      </c>
+      <c r="D47">
+        <v>363.83478316251916</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="0"/>
-        <v>43946</v>
-      </c>
-      <c r="B47">
-        <v>277</v>
-      </c>
-      <c r="C47">
+        <v>-67</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>-16</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="4"/>
-        <v>314</v>
-      </c>
-      <c r="D47">
-        <v>396.13921937200439</v>
-      </c>
-      <c r="E47">
-        <f>B47-B46</f>
-        <v>-74</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>-18.2</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="3"/>
-        <v>0.26226333959050407</v>
+        <v>-2.4368577356079868</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
+        <f t="shared" si="1"/>
+        <v>43947</v>
+      </c>
+      <c r="B48">
+        <v>283</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>290.39999999999998</v>
+      </c>
+      <c r="D48">
+        <v>347.64893626076099</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="0"/>
-        <v>43947</v>
-      </c>
-      <c r="B48">
-        <v>276</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="4"/>
-        <v>284</v>
-      </c>
-      <c r="D48">
-        <v>383.89247536150788</v>
-      </c>
-      <c r="E48">
-        <f>B48-B47</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f>SUM(E46:E50)/5</f>
-        <v>-30</v>
+        <v>-28.4</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
-        <v>-12.246744010496514</v>
+        <f t="shared" si="4"/>
+        <v>-16.185846901758168</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
+        <f t="shared" si="1"/>
+        <v>43948</v>
+      </c>
+      <c r="B49">
+        <v>298</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>270.60000000000002</v>
+      </c>
+      <c r="D49">
+        <v>343.60210428441576</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="0"/>
-        <v>43948</v>
-      </c>
-      <c r="B49">
-        <v>289</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-      <c r="D49">
-        <v>378.45633353079074</v>
-      </c>
-      <c r="E49">
-        <f>B49-B48</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F49">
         <f>SUM(E47:E51)/5</f>
-        <v>-29</v>
+        <v>-19.8</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
-        <v>-5.4361418307171334</v>
+        <f t="shared" si="4"/>
+        <v>-4.0468319763452314</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43949</v>
       </c>
       <c r="B50">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
-        <v>203.8</v>
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+      <c r="D50">
+        <v>349.40065219560205</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:E52" si="5">B50-B49</f>
-        <v>-62</v>
+        <f t="shared" ref="E50:E52" si="6">B50-B49</f>
+        <v>-60</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
-        <v>-51.2</v>
+        <f t="shared" si="3"/>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43950</v>
       </c>
       <c r="B51">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
-        <v>148.6</v>
+        <f t="shared" si="5"/>
+        <v>238.2</v>
+      </c>
+      <c r="D51">
+        <v>345.42191750314203</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
-        <v>-21</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
-        <v>-51</v>
+        <f t="shared" si="3"/>
+        <v>-19.8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43951</v>
       </c>
       <c r="B52">
-        <v>21</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="4"/>
-        <v>90.8</v>
+        <v>220</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
-        <v>-185</v>
+        <f t="shared" si="6"/>
+        <v>-31</v>
       </c>
       <c r="F52">
-        <f t="shared" si="2"/>
-        <v>-53.6</v>
+        <f t="shared" si="3"/>
+        <v>-55</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43952</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:E55" si="7">B53-B52</f>
+        <v>-36</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:F55" si="8">SUM(E51:E55)/5</f>
+        <v>-47.6</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2">
+        <f t="shared" si="1"/>
+        <v>43953</v>
+      </c>
+      <c r="B54">
+        <v>23</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="7"/>
+        <v>-161</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>-50.2</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2">
+        <f t="shared" si="1"/>
+        <v>43954</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="7"/>
+        <v>-23</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>-44</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -639,7 +639,7 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>121</c:v>
@@ -657,7 +657,7 @@
                   <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>313</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>369</c:v>
@@ -666,100 +666,106 @@
                   <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>455</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>475</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>531</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>546</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>572</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>516</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>496</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>498</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>526</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>519</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>475</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>419</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>378</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>342</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>344</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>338</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>314</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>270</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>277</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>274</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>252</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>202</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>194</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>184</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>152</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>129</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>95</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
+                <c:pt idx="60">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,13 +1104,13 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>89</c:v>
@@ -1113,103 +1119,109 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>191</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>187</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>195</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>246</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>240</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>211</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>206</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>191</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>197</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>215</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>177</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>115</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>160</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>114</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>129</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>131</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>117</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>101</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21</c:v>
+                <c:pt idx="61">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,8 +1237,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="278480928"/>
-        <c:axId val="278481488"/>
+        <c:axId val="423467888"/>
+        <c:axId val="423472368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1767,11 +1779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="278480928"/>
-        <c:axId val="278481488"/>
+        <c:axId val="423467888"/>
+        <c:axId val="423472368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="278480928"/>
+        <c:axId val="423467888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278481488"/>
+        <c:crossAx val="423472368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1822,7 +1834,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="278481488"/>
+        <c:axId val="423472368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278480928"/>
+        <c:crossAx val="423467888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2075,10 +2087,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>smootheddeaths!$A$2:$A$51</c:f>
+              <c:f>smootheddeaths!$A$2:$A$500</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>43901</c:v>
                 </c:pt>
@@ -2228,16 +2240,34 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>smootheddeaths!$F$2:$F$49</c:f>
+              <c:f>smootheddeaths!$F$2:$F$500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="3">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -2263,7 +2293,7 @@
                   <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>18.2</c:v>
@@ -2272,16 +2302,16 @@
                   <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>40.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>49.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.4</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>47.4</c:v>
@@ -2290,16 +2320,16 @@
                   <c:v>55.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.8</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.8</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.2</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>52.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>52.4</c:v>
@@ -2308,70 +2338,82 @@
                   <c:v>33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.8</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-21</c:v>
+                  <c:v>-20.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-18</c:v>
+                  <c:v>-17.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-17</c:v>
+                  <c:v>-15.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-33.4</c:v>
+                  <c:v>-32.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-30</c:v>
+                  <c:v>-30.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-53.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-52.2</c:v>
+                  <c:v>-52.8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-37.6</c:v>
+                  <c:v>-37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-18.2</c:v>
+                  <c:v>-18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-30</c:v>
+                  <c:v>-28.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-15.6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-18.399999999999999</c:v>
+                  <c:v>-17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-22</c:v>
+                  <c:v>-21.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-32.200000000000003</c:v>
+                  <c:v>-31.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-21</c:v>
+                  <c:v>-21.4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-16</c:v>
+                  <c:v>-16.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-28.4</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-19.8</c:v>
+                  <c:v>-19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-10.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-13.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-12.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,10 +2450,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>smootheddeaths!$A$2:$A$51</c:f>
+              <c:f>smootheddeaths!$A$2:$A$500</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>43901</c:v>
                 </c:pt>
@@ -2561,16 +2603,34 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>smootheddeaths!$G$2:$G$49</c:f>
+              <c:f>smootheddeaths!$G$2:$G$500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="3">
                   <c:v>1.7999999999999998</c:v>
                 </c:pt>
@@ -2596,7 +2656,7 @@
                   <c:v>14.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.799999999999997</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>18.200000000000003</c:v>
@@ -2605,106 +2665,112 @@
                   <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.000000000000014</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>45.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>49.599999999999966</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.399999999999977</c:v>
+                  <c:v>52.600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.400000000000034</c:v>
+                  <c:v>47.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.799999999999955</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.800000000000011</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.800000000000011</c:v>
+                  <c:v>59.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.200000000000045</c:v>
+                  <c:v>54.400000000000091</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>52.799999999999955</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.399999999999977</c:v>
+                  <c:v>52.200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>33.199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.800000000000068</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12</c:v>
+                  <c:v>11.200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5</c:v>
+                  <c:v>-4.8000000000000682</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-21</c:v>
+                  <c:v>-20.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>-17.799999999999955</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.3999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-15.600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-33.200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-30.600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-53.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-52.199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-38.200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>-18</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-17</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-33.399999999999977</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-53.200000000000045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-52.200000000000045</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-37.599999999999966</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-17.262446014732518</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>-28.604047838686427</c:v>
+                  <c:v>-29.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-13.231078079481563</c:v>
+                  <c:v>-14.695072191528197</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-14.236833723762459</c:v>
+                  <c:v>-17.137445709662529</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-15.206918935879742</c:v>
+                  <c:v>-20.228161200244926</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-25.950686203685109</c:v>
+                  <c:v>-28.632306070788388</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-11.436348305645026</c:v>
+                  <c:v>-15.509565256777648</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.4368577356079868</c:v>
+                  <c:v>-9.1754226798693139</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-16.185846901758168</c:v>
+                  <c:v>-19.554912124936038</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-4.0468319763452314</c:v>
+                  <c:v>-7.8832647952810362</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3864873263236177</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5120021534385728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,8 +2786,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="278487088"/>
-        <c:axId val="278487648"/>
+        <c:axId val="423461168"/>
+        <c:axId val="423448848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2762,13 +2828,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$51</c15:sqref>
+                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="499"/>
                       <c:pt idx="0">
                         <c:v>43901</c:v>
                       </c:pt>
@@ -2918,6 +2984,24 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>43950</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43952</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43953</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43954</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43955</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43956</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2974,7 +3058,7 @@
                         <c:v>97</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>105</c:v>
+                        <c:v>106</c:v>
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>140</c:v>
@@ -2983,97 +3067,97 @@
                         <c:v>225</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>252</c:v>
+                        <c:v>253</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>327</c:v>
+                        <c:v>326</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>355</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>402</c:v>
+                        <c:v>403</c:v>
                       </c:pt>
                       <c:pt idx="20">
                         <c:v>462</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>531</c:v>
+                        <c:v>532</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>646</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>649</c:v>
+                        <c:v>650</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>673</c:v>
+                        <c:v>676</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>727</c:v>
+                        <c:v>726</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>793</c:v>
+                        <c:v>794</c:v>
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>812</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>738</c:v>
+                        <c:v>742</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>733</c:v>
+                        <c:v>729</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>702</c:v>
+                        <c:v>701</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>688</c:v>
+                        <c:v>691</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>722</c:v>
+                        <c:v>723</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>733</c:v>
+                        <c:v>735</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>648</c:v>
+                        <c:v>651</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>535</c:v>
+                        <c:v>538</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>538</c:v>
+                        <c:v>537</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>456</c:v>
+                        <c:v>457</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>472</c:v>
+                        <c:v>471</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>460</c:v>
+                        <c:v>462</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>444</c:v>
+                        <c:v>445</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>388</c:v>
+                        <c:v>393</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>378</c:v>
+                        <c:v>379</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>380</c:v>
+                        <c:v>383</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>350</c:v>
+                        <c:v>353</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>283</c:v>
+                        <c:v>286</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>283</c:v>
+                        <c:v>286</c:v>
                       </c:pt>
                       <c:pt idx="47">
                         <c:v>298</c:v>
@@ -3122,13 +3206,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$51</c15:sqref>
+                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="499"/>
                       <c:pt idx="0">
                         <c:v>43901</c:v>
                       </c:pt>
@@ -3278,6 +3362,24 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>43950</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43952</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43953</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43954</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43955</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43956</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3322,52 +3424,52 @@
                         <c:v>54</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>69.8</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>88</c:v>
+                        <c:v>88.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>123.8</c:v>
+                        <c:v>124</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>163.80000000000001</c:v>
+                        <c:v>164.2</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>209.8</c:v>
+                        <c:v>210</c:v>
                       </c:pt>
                       <c:pt idx="16">
                         <c:v>259.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>312.2</c:v>
+                        <c:v>312.39999999999998</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>359.6</c:v>
+                        <c:v>359.8</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>415.4</c:v>
+                        <c:v>415.6</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>479.2</c:v>
+                        <c:v>479.6</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>538</c:v>
+                        <c:v>538.6</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>592.20000000000005</c:v>
+                        <c:v>593.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>645.20000000000005</c:v>
+                        <c:v>646</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>697.6</c:v>
+                        <c:v>698.4</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>730.8</c:v>
+                        <c:v>731.6</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>748.6</c:v>
+                        <c:v>750</c:v>
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>760.6</c:v>
@@ -3376,67 +3478,67 @@
                         <c:v>755.6</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>734.6</c:v>
+                        <c:v>735</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>716.6</c:v>
+                        <c:v>717.2</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>715.6</c:v>
+                        <c:v>715.8</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>698.6</c:v>
+                        <c:v>700.2</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>665.2</c:v>
+                        <c:v>667.6</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>635.20000000000005</c:v>
+                        <c:v>636.79999999999995</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>582</c:v>
+                        <c:v>583.6</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>529.79999999999995</c:v>
+                        <c:v>530.79999999999995</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>492.2</c:v>
+                        <c:v>493</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>474</c:v>
+                        <c:v>474.4</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>444</c:v>
+                        <c:v>445.6</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>428.4</c:v>
+                        <c:v>430</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>410</c:v>
+                        <c:v>412.4</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>388</c:v>
+                        <c:v>390.6</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>355.8</c:v>
+                        <c:v>358.8</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>334.8</c:v>
+                        <c:v>337.4</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>318.8</c:v>
+                        <c:v>321.2</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>290.39999999999998</c:v>
+                        <c:v>293.2</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>270.60000000000002</c:v>
+                        <c:v>273.8</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>258</c:v>
+                        <c:v>263.2</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>238.2</c:v>
+                        <c:v>249.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3482,13 +3584,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$51</c15:sqref>
+                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="499"/>
                       <c:pt idx="0">
                         <c:v>43901</c:v>
                       </c:pt>
@@ -3638,6 +3740,24 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>43950</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43952</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43953</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43954</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43955</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43956</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3691,97 +3811,97 @@
                         <c:v>45</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>35</c:v>
+                        <c:v>34</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>85</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>27</c:v>
+                        <c:v>28</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>75</c:v>
+                        <c:v>73</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>28</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>47</c:v>
+                        <c:v>48</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>60</c:v>
+                        <c:v>59</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>69</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>115</c:v>
+                        <c:v>114</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>24</c:v>
+                        <c:v>26</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>54</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>66</c:v>
+                        <c:v>68</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>19</c:v>
+                        <c:v>18</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>-74</c:v>
+                        <c:v>-70</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>-5</c:v>
+                        <c:v>-13</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>-31</c:v>
+                        <c:v>-28</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>-14</c:v>
+                        <c:v>-10</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>34</c:v>
+                        <c:v>32</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>-85</c:v>
+                        <c:v>-84</c:v>
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>-113</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>3</c:v>
+                        <c:v>-1</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>-82</c:v>
+                        <c:v>-80</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>16</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>-12</c:v>
+                        <c:v>-9</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>-16</c:v>
+                        <c:v>-17</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>-56</c:v>
+                        <c:v>-52</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>-10</c:v>
+                        <c:v>-14</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>2</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="44">
                         <c:v>-30</c:v>
@@ -3793,7 +3913,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>15</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3825,13 +3945,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$51</c15:sqref>
+                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="499"/>
                       <c:pt idx="0">
                         <c:v>43901</c:v>
                       </c:pt>
@@ -3981,6 +4101,24 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>43950</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43952</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43953</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43954</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43955</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43956</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4025,121 +4163,121 @@
                         <c:v>54</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>69.8</c:v>
+                        <c:v>70</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>88</c:v>
+                        <c:v>88.2</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>123.8</c:v>
+                        <c:v>124</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>163.80000000000001</c:v>
+                        <c:v>164</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>209.8</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>259.8</c:v>
+                        <c:v>259.39999999999998</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>312.2</c:v>
+                        <c:v>312</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>359.6</c:v>
+                        <c:v>359.4</c:v>
                       </c:pt>
                       <c:pt idx="19">
                         <c:v>415.4</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>479.2</c:v>
+                        <c:v>479.4</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>538</c:v>
+                        <c:v>538.79999999999995</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>592.20000000000005</c:v>
+                        <c:v>593.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>645.20000000000005</c:v>
+                        <c:v>646</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>697.6</c:v>
+                        <c:v>698.2</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>730.8</c:v>
+                        <c:v>731.4</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>748.6</c:v>
+                        <c:v>749.4</c:v>
                       </c:pt>
                       <c:pt idx="27">
                         <c:v>760.6</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>755.6</c:v>
+                        <c:v>755.8</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>734.6</c:v>
+                        <c:v>735.4</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>716.6</c:v>
+                        <c:v>717.6</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>715.6</c:v>
+                        <c:v>716.2</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>698.6</c:v>
+                        <c:v>700.6</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>665.2</c:v>
+                        <c:v>667.4</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>635.20000000000005</c:v>
+                        <c:v>636.79999999999995</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>582</c:v>
+                        <c:v>583.4</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>529.79999999999995</c:v>
+                        <c:v>531.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>492.2</c:v>
+                        <c:v>493</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>474.93755398526747</c:v>
+                        <c:v>475</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>446.33350614658104</c:v>
+                        <c:v>445.2</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>433.10242806709948</c:v>
+                        <c:v>430.50492780847179</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>418.86559434333702</c:v>
+                        <c:v>413.36748209880926</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>403.65867540745728</c:v>
+                        <c:v>393.13932089856434</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>377.70798920377217</c:v>
+                        <c:v>364.50701482777595</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>366.27164089812715</c:v>
+                        <c:v>348.9974495709983</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>363.83478316251916</c:v>
+                        <c:v>339.82202689112898</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>347.64893626076099</c:v>
+                        <c:v>320.26711476619295</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>343.60210428441576</c:v>
+                        <c:v>312.38384997091191</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>349.40065219560205</c:v>
+                        <c:v>313.77033729723553</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>345.42191750314203</c:v>
+                        <c:v>317.2823394506741</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4151,9 +4289,10 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="278487088"/>
+        <c:axId val="423461168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43956"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4194,7 +4333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278487648"/>
+        <c:crossAx val="423448848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4203,7 +4342,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="278487648"/>
+        <c:axId val="423448848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4254,7 +4393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278487088"/>
+        <c:crossAx val="423461168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5443,7 +5582,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5454,7 +5593,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5465,7 +5604,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657897" cy="6279931"/>
+    <xdr:ext cx="8651631" cy="6271846"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5492,7 +5631,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657897" cy="6279931"/>
+    <xdr:ext cx="8651631" cy="6271846"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6676,15 +6815,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="N43" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7:V55"/>
+    <sheetView topLeftCell="N38" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:X57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -6748,8 +6887,14 @@
       <c r="V1">
         <v>504</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1">
+        <v>505</v>
+      </c>
+      <c r="X1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -6766,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -6783,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -6800,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -6832,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -6861,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -6931,8 +7076,14 @@
       <c r="V7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -7005,8 +7156,14 @@
       <c r="V8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -7079,8 +7236,14 @@
       <c r="V9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -7153,8 +7316,14 @@
       <c r="V10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -7227,8 +7396,14 @@
       <c r="V11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -7301,8 +7476,14 @@
       <c r="V12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -7375,8 +7556,14 @@
       <c r="V13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -7449,8 +7636,14 @@
       <c r="V14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <v>14</v>
+      </c>
+      <c r="X14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -7523,8 +7716,14 @@
       <c r="V15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <v>12</v>
+      </c>
+      <c r="X15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -7597,8 +7796,14 @@
       <c r="V16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <v>19</v>
+      </c>
+      <c r="X16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -7671,8 +7876,14 @@
       <c r="V17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <v>40</v>
+      </c>
+      <c r="X17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -7745,8 +7956,14 @@
       <c r="V18">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <v>43</v>
+      </c>
+      <c r="X18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -7819,8 +8036,14 @@
       <c r="V19">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19">
+        <v>61</v>
+      </c>
+      <c r="X19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -7893,8 +8116,14 @@
       <c r="V20">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20">
+        <v>72</v>
+      </c>
+      <c r="X20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -7967,8 +8196,14 @@
       <c r="V21">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21">
+        <v>89</v>
+      </c>
+      <c r="X21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -8041,8 +8276,14 @@
       <c r="V22">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W22">
+        <v>93</v>
+      </c>
+      <c r="X22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -8115,8 +8356,14 @@
       <c r="V23">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <v>113</v>
+      </c>
+      <c r="X23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -8189,8 +8436,14 @@
       <c r="V24">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W24">
+        <v>190</v>
+      </c>
+      <c r="X24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -8263,8 +8516,14 @@
       <c r="V25">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <v>187</v>
+      </c>
+      <c r="X25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -8337,8 +8596,14 @@
       <c r="V26">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W26">
+        <v>199</v>
+      </c>
+      <c r="X26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -8411,8 +8676,14 @@
       <c r="V27">
         <v>195</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W27">
+        <v>195</v>
+      </c>
+      <c r="X27">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -8485,8 +8756,14 @@
       <c r="V28">
         <v>246</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W28">
+        <v>246</v>
+      </c>
+      <c r="X28">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -8559,8 +8836,14 @@
       <c r="V29">
         <v>240</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29">
+        <v>239</v>
+      </c>
+      <c r="X29">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -8633,8 +8916,14 @@
       <c r="V30">
         <v>223</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <v>224</v>
+      </c>
+      <c r="X30">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -8707,8 +8996,14 @@
       <c r="V31">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W31">
+        <v>210</v>
+      </c>
+      <c r="X31">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -8781,8 +9076,14 @@
       <c r="V32">
         <v>206</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W32">
+        <v>204</v>
+      </c>
+      <c r="X32">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -8855,8 +9156,14 @@
       <c r="V33">
         <v>191</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W33">
+        <v>192</v>
+      </c>
+      <c r="X33">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -8929,8 +9236,14 @@
       <c r="V34">
         <v>197</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W34">
+        <v>196</v>
+      </c>
+      <c r="X34">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -9003,8 +9316,14 @@
       <c r="V35">
         <v>215</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W35">
+        <v>211</v>
+      </c>
+      <c r="X35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -9073,8 +9392,14 @@
       <c r="V36">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W36">
+        <v>173</v>
+      </c>
+      <c r="X36">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -9139,8 +9464,14 @@
       <c r="V37">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W37">
+        <v>114</v>
+      </c>
+      <c r="X37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -9201,8 +9532,14 @@
       <c r="V38">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W38">
+        <v>158</v>
+      </c>
+      <c r="X38">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -9259,8 +9596,14 @@
       <c r="V39">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W39">
+        <v>112</v>
+      </c>
+      <c r="X39">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -9313,8 +9656,14 @@
       <c r="V40">
         <v>129</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W40">
+        <v>127</v>
+      </c>
+      <c r="X40">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -9360,8 +9709,14 @@
       <c r="V41">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W41">
+        <v>120</v>
+      </c>
+      <c r="X41">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -9407,8 +9762,14 @@
       <c r="V42">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W42">
+        <v>129</v>
+      </c>
+      <c r="X42">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -9451,8 +9812,14 @@
       <c r="V43">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W43">
+        <v>116</v>
+      </c>
+      <c r="X43">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -9492,8 +9859,14 @@
       <c r="V44">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W44">
+        <v>100</v>
+      </c>
+      <c r="X44">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -9530,8 +9903,14 @@
       <c r="V45">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W45">
+        <v>105</v>
+      </c>
+      <c r="X45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -9565,8 +9944,14 @@
       <c r="V46">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W46">
+        <v>96</v>
+      </c>
+      <c r="X46">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -9597,8 +9982,14 @@
       <c r="V47">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W47">
+        <v>85</v>
+      </c>
+      <c r="X47">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>17</v>
       </c>
@@ -9623,8 +10014,14 @@
       <c r="V48">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="W48">
+        <v>87</v>
+      </c>
+      <c r="X48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="16:24" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>19</v>
       </c>
@@ -9646,8 +10043,14 @@
       <c r="V49">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="W49">
+        <v>101</v>
+      </c>
+      <c r="X49">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="16:24" x14ac:dyDescent="0.3">
       <c r="Q50">
         <v>11</v>
       </c>
@@ -9666,8 +10069,14 @@
       <c r="V50">
         <v>89</v>
       </c>
-    </row>
-    <row r="51" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="W50">
+        <v>84</v>
+      </c>
+      <c r="X50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="16:24" x14ac:dyDescent="0.3">
       <c r="R51">
         <v>22</v>
       </c>
@@ -9683,8 +10092,14 @@
       <c r="V51">
         <v>124</v>
       </c>
-    </row>
-    <row r="52" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="W51">
+        <v>109</v>
+      </c>
+      <c r="X51">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="16:24" x14ac:dyDescent="0.3">
       <c r="S52">
         <v>15</v>
       </c>
@@ -9697,8 +10112,14 @@
       <c r="V52">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="W52">
+        <v>113</v>
+      </c>
+      <c r="X52">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="16:24" x14ac:dyDescent="0.3">
       <c r="T53">
         <v>0</v>
       </c>
@@ -9708,18 +10129,49 @@
       <c r="V53">
         <v>158</v>
       </c>
-    </row>
-    <row r="54" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="W53">
+        <v>134</v>
+      </c>
+      <c r="X53">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="16:24" x14ac:dyDescent="0.3">
       <c r="U54">
         <v>20</v>
       </c>
       <c r="V54">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="W54">
+        <v>117</v>
+      </c>
+      <c r="X54">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="16:24" x14ac:dyDescent="0.3">
       <c r="V55">
         <v>21</v>
+      </c>
+      <c r="W55">
+        <v>117</v>
+      </c>
+      <c r="X55">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="W56">
+        <v>12</v>
+      </c>
+      <c r="X56">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="X57">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -9729,15 +10181,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AP66"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11:AN64"/>
+    <sheetView topLeftCell="AE47" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11:AP66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -9855,8 +10307,14 @@
       <c r="AN1">
         <v>504</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO1">
+        <v>505</v>
+      </c>
+      <c r="AP1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -9942,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -10028,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -10114,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -10200,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -10286,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -10372,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -10458,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -10544,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -10630,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -10751,8 +11209,14 @@
       <c r="AN11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -10873,8 +11337,14 @@
       <c r="AN12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -10995,8 +11465,14 @@
       <c r="AN13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -11117,8 +11593,14 @@
       <c r="AN14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO14">
+        <v>2</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -11239,8 +11721,14 @@
       <c r="AN15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO15">
+        <v>6</v>
+      </c>
+      <c r="AP15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -11361,8 +11849,14 @@
       <c r="AN16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO16">
+        <v>9</v>
+      </c>
+      <c r="AP16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -11483,8 +11977,14 @@
       <c r="AN17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO17">
+        <v>7</v>
+      </c>
+      <c r="AP17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -11605,8 +12105,14 @@
       <c r="AN18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO18">
+        <v>21</v>
+      </c>
+      <c r="AP18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -11727,8 +12233,14 @@
       <c r="AN19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO19">
+        <v>24</v>
+      </c>
+      <c r="AP19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -11849,8 +12361,14 @@
       <c r="AN20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO20">
+        <v>45</v>
+      </c>
+      <c r="AP20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -11971,8 +12489,14 @@
       <c r="AN21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO21">
+        <v>41</v>
+      </c>
+      <c r="AP21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -12093,8 +12617,14 @@
       <c r="AN22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO22">
+        <v>48</v>
+      </c>
+      <c r="AP22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -12215,8 +12745,14 @@
       <c r="AN23">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO23">
+        <v>83</v>
+      </c>
+      <c r="AP23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -12337,8 +12873,14 @@
       <c r="AN24">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO24">
+        <v>94</v>
+      </c>
+      <c r="AP24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -12459,8 +13001,14 @@
       <c r="AN25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO25">
+        <v>121</v>
+      </c>
+      <c r="AP25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -12578,8 +13126,14 @@
       <c r="AN26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO26">
+        <v>185</v>
+      </c>
+      <c r="AP26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -12694,8 +13248,14 @@
       <c r="AN27">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO27">
+        <v>209</v>
+      </c>
+      <c r="AP27">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -12807,8 +13367,14 @@
       <c r="AN28">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO28">
+        <v>265</v>
+      </c>
+      <c r="AP28">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -12920,8 +13486,14 @@
       <c r="AN29">
         <v>282</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO29">
+        <v>282</v>
+      </c>
+      <c r="AP29">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -13033,8 +13605,14 @@
       <c r="AN30">
         <v>313</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO30">
+        <v>314</v>
+      </c>
+      <c r="AP30">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -13143,8 +13721,14 @@
       <c r="AN31">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO31">
+        <v>369</v>
+      </c>
+      <c r="AP31">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -13250,8 +13834,14 @@
       <c r="AN32">
         <v>419</v>
       </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO32">
+        <v>419</v>
+      </c>
+      <c r="AP32">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -13354,8 +13944,14 @@
       <c r="AN33">
         <v>455</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO33">
+        <v>456</v>
+      </c>
+      <c r="AP33">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -13455,8 +14051,14 @@
       <c r="AN34">
         <v>464</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO34">
+        <v>464</v>
+      </c>
+      <c r="AP34">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -13553,8 +14155,14 @@
       <c r="AN35">
         <v>475</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO35">
+        <v>476</v>
+      </c>
+      <c r="AP35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -13648,8 +14256,14 @@
       <c r="AN36">
         <v>531</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO36">
+        <v>531</v>
+      </c>
+      <c r="AP36">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -13740,8 +14354,14 @@
       <c r="AN37">
         <v>546</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO37">
+        <v>547</v>
+      </c>
+      <c r="AP37">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -13829,8 +14449,14 @@
       <c r="AN38">
         <v>572</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO38">
+        <v>573</v>
+      </c>
+      <c r="AP38">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -13915,8 +14541,14 @@
       <c r="AN39">
         <v>516</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO39">
+        <v>517</v>
+      </c>
+      <c r="AP39">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -13998,8 +14630,14 @@
       <c r="AN40">
         <v>520</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO40">
+        <v>521</v>
+      </c>
+      <c r="AP40">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -14078,8 +14716,14 @@
       <c r="AN41">
         <v>496</v>
       </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO41">
+        <v>498</v>
+      </c>
+      <c r="AP41">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -14155,8 +14799,14 @@
       <c r="AN42">
         <v>498</v>
       </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO42">
+        <v>499</v>
+      </c>
+      <c r="AP42">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -14229,8 +14879,14 @@
       <c r="AN43">
         <v>526</v>
       </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO43">
+        <v>527</v>
+      </c>
+      <c r="AP43">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -14300,8 +14956,14 @@
       <c r="AN44">
         <v>519</v>
       </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO44">
+        <v>523</v>
+      </c>
+      <c r="AP44">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -14365,8 +15027,14 @@
       <c r="AN45">
         <v>475</v>
       </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO45">
+        <v>480</v>
+      </c>
+      <c r="AP45">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -14427,8 +15095,14 @@
       <c r="AN46">
         <v>419</v>
       </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO46">
+        <v>422</v>
+      </c>
+      <c r="AP46">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -14486,8 +15160,14 @@
       <c r="AN47">
         <v>378</v>
       </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO47">
+        <v>380</v>
+      </c>
+      <c r="AP47">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -14542,8 +15222,14 @@
       <c r="AN48">
         <v>342</v>
       </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO48">
+        <v>344</v>
+      </c>
+      <c r="AP48">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -14595,8 +15281,14 @@
       <c r="AN49">
         <v>344</v>
       </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO49">
+        <v>346</v>
+      </c>
+      <c r="AP49">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -14645,8 +15337,14 @@
       <c r="AN50">
         <v>338</v>
       </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO50">
+        <v>342</v>
+      </c>
+      <c r="AP50">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -14692,8 +15390,14 @@
       <c r="AN51">
         <v>314</v>
       </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO51">
+        <v>317</v>
+      </c>
+      <c r="AP51">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -14736,8 +15440,14 @@
       <c r="AN52">
         <v>270</v>
       </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO52">
+        <v>273</v>
+      </c>
+      <c r="AP52">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -14777,8 +15487,14 @@
       <c r="AN53">
         <v>277</v>
       </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO53">
+        <v>279</v>
+      </c>
+      <c r="AP53">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -14815,8 +15531,14 @@
       <c r="AN54">
         <v>274</v>
       </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO54">
+        <v>276</v>
+      </c>
+      <c r="AP54">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -14850,8 +15572,14 @@
       <c r="AN55">
         <v>252</v>
       </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO55">
+        <v>254</v>
+      </c>
+      <c r="AP55">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -14882,8 +15610,17 @@
       <c r="AN56">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO56">
+        <v>202</v>
+      </c>
+      <c r="AP56">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>426</v>
+      </c>
       <c r="AG57">
         <v>7</v>
       </c>
@@ -14908,8 +15645,17 @@
       <c r="AN57">
         <v>194</v>
       </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO57">
+        <v>197</v>
+      </c>
+      <c r="AP57">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>427</v>
+      </c>
       <c r="AH58">
         <v>10</v>
       </c>
@@ -14931,8 +15677,17 @@
       <c r="AN58">
         <v>184</v>
       </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO58">
+        <v>197</v>
+      </c>
+      <c r="AP58">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>428</v>
+      </c>
       <c r="AI59">
         <v>7</v>
       </c>
@@ -14951,8 +15706,17 @@
       <c r="AN59">
         <v>152</v>
       </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO59">
+        <v>158</v>
+      </c>
+      <c r="AP59">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>429</v>
+      </c>
       <c r="AJ60">
         <v>3</v>
       </c>
@@ -14968,8 +15732,17 @@
       <c r="AN60">
         <v>129</v>
       </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO60">
+        <v>144</v>
+      </c>
+      <c r="AP60">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>430</v>
+      </c>
       <c r="AK61">
         <v>6</v>
       </c>
@@ -14982,8 +15755,17 @@
       <c r="AN61">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO61">
+        <v>116</v>
+      </c>
+      <c r="AP61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>501</v>
+      </c>
       <c r="AL62">
         <v>4</v>
       </c>
@@ -14993,18 +15775,61 @@
       <c r="AN62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO62">
+        <v>93</v>
+      </c>
+      <c r="AP62">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>502</v>
+      </c>
       <c r="AM63">
         <v>3</v>
       </c>
       <c r="AN63">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO63">
+        <v>75</v>
+      </c>
+      <c r="AP63">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>503</v>
+      </c>
       <c r="AN64">
         <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>27</v>
+      </c>
+      <c r="AP64">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>504</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>505</v>
+      </c>
+      <c r="AP66">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -15014,15 +15839,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V55"/>
+    <sheetView topLeftCell="K39" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -15087,8 +15912,15 @@
       <c r="V1">
         <v>504</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1">
+        <v>505</v>
+      </c>
+      <c r="X1">
+        <f>506</f>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -15176,8 +16008,16 @@
         <f>Confirmed!AN11+Daily!V2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2">
+        <f>Confirmed!AO11+Daily!W2</f>
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>Confirmed!AP11+Daily!X2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -15265,8 +16105,16 @@
         <f>Confirmed!AN12+Daily!V3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3">
+        <f>Confirmed!AO12+Daily!W3</f>
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f>Confirmed!AP12+Daily!X3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -15354,8 +16202,16 @@
         <f>Confirmed!AN13+Daily!V4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <f>Confirmed!AO13+Daily!W4</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>Confirmed!AP13+Daily!X4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -15443,8 +16299,16 @@
         <f>Confirmed!AN14+Daily!V5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <f>Confirmed!AO14+Daily!W5</f>
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <f>Confirmed!AP14+Daily!X5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -15532,8 +16396,16 @@
         <f>Confirmed!AN15+Daily!V6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <f>Confirmed!AO15+Daily!W6</f>
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <f>Confirmed!AP15+Daily!X6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -15621,8 +16493,16 @@
         <f>Confirmed!AN16+Daily!V7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <f>Confirmed!AO16+Daily!W7</f>
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <f>Confirmed!AP16+Daily!X7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -15710,8 +16590,16 @@
         <f>Confirmed!AN17+Daily!V8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <f>Confirmed!AO17+Daily!W8</f>
+        <v>11</v>
+      </c>
+      <c r="X8">
+        <f>Confirmed!AP17+Daily!X8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -15799,8 +16687,16 @@
         <f>Confirmed!AN18+Daily!V9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <f>Confirmed!AO18+Daily!W9</f>
+        <v>25</v>
+      </c>
+      <c r="X9">
+        <f>Confirmed!AP18+Daily!X9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -15888,8 +16784,16 @@
         <f>Confirmed!AN19+Daily!V10</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <f>Confirmed!AO19+Daily!W10</f>
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <f>Confirmed!AP19+Daily!X10</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -15977,8 +16881,16 @@
         <f>Confirmed!AN20+Daily!V11</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <f>Confirmed!AO20+Daily!W11</f>
+        <v>49</v>
+      </c>
+      <c r="X11">
+        <f>Confirmed!AP20+Daily!X11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -16066,8 +16978,16 @@
         <f>Confirmed!AN21+Daily!V12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <f>Confirmed!AO21+Daily!W12</f>
+        <v>46</v>
+      </c>
+      <c r="X12">
+        <f>Confirmed!AP21+Daily!X12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -16155,8 +17075,16 @@
         <f>Confirmed!AN22+Daily!V13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <f>Confirmed!AO22+Daily!W13</f>
+        <v>52</v>
+      </c>
+      <c r="X13">
+        <f>Confirmed!AP22+Daily!X13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -16244,8 +17172,16 @@
         <f>Confirmed!AN23+Daily!V14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <f>Confirmed!AO23+Daily!W14</f>
+        <v>97</v>
+      </c>
+      <c r="X14">
+        <f>Confirmed!AP23+Daily!X14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -16333,8 +17269,16 @@
         <f>Confirmed!AN24+Daily!V15</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <f>Confirmed!AO24+Daily!W15</f>
+        <v>106</v>
+      </c>
+      <c r="X15">
+        <f>Confirmed!AP24+Daily!X15</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -16422,8 +17366,16 @@
         <f>Confirmed!AN25+Daily!V16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <f>Confirmed!AO25+Daily!W16</f>
+        <v>140</v>
+      </c>
+      <c r="X16">
+        <f>Confirmed!AP25+Daily!X16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -16511,8 +17463,16 @@
         <f>Confirmed!AN26+Daily!V17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <f>Confirmed!AO26+Daily!W17</f>
+        <v>225</v>
+      </c>
+      <c r="X17">
+        <f>Confirmed!AP26+Daily!X17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -16600,8 +17560,16 @@
         <f>Confirmed!AN27+Daily!V18</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <f>Confirmed!AO27+Daily!W18</f>
+        <v>252</v>
+      </c>
+      <c r="X18">
+        <f>Confirmed!AP27+Daily!X18</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -16689,8 +17657,16 @@
         <f>Confirmed!AN28+Daily!V19</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19">
+        <f>Confirmed!AO28+Daily!W19</f>
+        <v>326</v>
+      </c>
+      <c r="X19">
+        <f>Confirmed!AP28+Daily!X19</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -16778,8 +17754,16 @@
         <f>Confirmed!AN29+Daily!V20</f>
         <v>354</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20">
+        <f>Confirmed!AO29+Daily!W20</f>
+        <v>354</v>
+      </c>
+      <c r="X20">
+        <f>Confirmed!AP29+Daily!X20</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -16867,8 +17851,16 @@
         <f>Confirmed!AN30+Daily!V21</f>
         <v>402</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21">
+        <f>Confirmed!AO30+Daily!W21</f>
+        <v>403</v>
+      </c>
+      <c r="X21">
+        <f>Confirmed!AP30+Daily!X21</f>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -16956,8 +17948,16 @@
         <f>Confirmed!AN31+Daily!V22</f>
         <v>462</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W22">
+        <f>Confirmed!AO31+Daily!W22</f>
+        <v>462</v>
+      </c>
+      <c r="X22">
+        <f>Confirmed!AP31+Daily!X22</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -17045,8 +18045,16 @@
         <f>Confirmed!AN32+Daily!V23</f>
         <v>531</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <f>Confirmed!AO32+Daily!W23</f>
+        <v>532</v>
+      </c>
+      <c r="X23">
+        <f>Confirmed!AP32+Daily!X23</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -17134,8 +18142,16 @@
         <f>Confirmed!AN33+Daily!V24</f>
         <v>646</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W24">
+        <f>Confirmed!AO33+Daily!W24</f>
+        <v>646</v>
+      </c>
+      <c r="X24">
+        <f>Confirmed!AP33+Daily!X24</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -17223,8 +18239,16 @@
         <f>Confirmed!AN34+Daily!V25</f>
         <v>651</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <f>Confirmed!AO34+Daily!W25</f>
+        <v>651</v>
+      </c>
+      <c r="X25">
+        <f>Confirmed!AP34+Daily!X25</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -17312,8 +18336,16 @@
         <f>Confirmed!AN35+Daily!V26</f>
         <v>675</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W26">
+        <f>Confirmed!AO35+Daily!W26</f>
+        <v>675</v>
+      </c>
+      <c r="X26">
+        <f>Confirmed!AP35+Daily!X26</f>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -17401,8 +18433,16 @@
         <f>Confirmed!AN36+Daily!V27</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W27">
+        <f>Confirmed!AO36+Daily!W27</f>
+        <v>726</v>
+      </c>
+      <c r="X27">
+        <f>Confirmed!AP36+Daily!X27</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -17490,8 +18530,16 @@
         <f>Confirmed!AN37+Daily!V28</f>
         <v>792</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W28">
+        <f>Confirmed!AO37+Daily!W28</f>
+        <v>793</v>
+      </c>
+      <c r="X28">
+        <f>Confirmed!AP37+Daily!X28</f>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -17579,8 +18627,16 @@
         <f>Confirmed!AN38+Daily!V29</f>
         <v>812</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29">
+        <f>Confirmed!AO38+Daily!W29</f>
+        <v>812</v>
+      </c>
+      <c r="X29">
+        <f>Confirmed!AP38+Daily!X29</f>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -17668,8 +18724,16 @@
         <f>Confirmed!AN39+Daily!V30</f>
         <v>739</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <f>Confirmed!AO39+Daily!W30</f>
+        <v>741</v>
+      </c>
+      <c r="X30">
+        <f>Confirmed!AP39+Daily!X30</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -17757,8 +18821,16 @@
         <f>Confirmed!AN40+Daily!V31</f>
         <v>731</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W31">
+        <f>Confirmed!AO40+Daily!W31</f>
+        <v>731</v>
+      </c>
+      <c r="X31">
+        <f>Confirmed!AP40+Daily!X31</f>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -17846,8 +18918,16 @@
         <f>Confirmed!AN41+Daily!V32</f>
         <v>702</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W32">
+        <f>Confirmed!AO41+Daily!W32</f>
+        <v>702</v>
+      </c>
+      <c r="X32">
+        <f>Confirmed!AP41+Daily!X32</f>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -17935,8 +19015,16 @@
         <f>Confirmed!AN42+Daily!V33</f>
         <v>689</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W33">
+        <f>Confirmed!AO42+Daily!W33</f>
+        <v>691</v>
+      </c>
+      <c r="X33">
+        <f>Confirmed!AP42+Daily!X33</f>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -18024,8 +19112,16 @@
         <f>Confirmed!AN43+Daily!V34</f>
         <v>723</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W34">
+        <f>Confirmed!AO43+Daily!W34</f>
+        <v>723</v>
+      </c>
+      <c r="X34">
+        <f>Confirmed!AP43+Daily!X34</f>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -18113,8 +19209,16 @@
         <f>Confirmed!AN44+Daily!V35</f>
         <v>734</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W35">
+        <f>Confirmed!AO44+Daily!W35</f>
+        <v>734</v>
+      </c>
+      <c r="X35">
+        <f>Confirmed!AP44+Daily!X35</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -18202,8 +19306,16 @@
         <f>Confirmed!AN45+Daily!V36</f>
         <v>652</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W36">
+        <f>Confirmed!AO45+Daily!W36</f>
+        <v>653</v>
+      </c>
+      <c r="X36">
+        <f>Confirmed!AP45+Daily!X36</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -18291,8 +19403,16 @@
         <f>Confirmed!AN46+Daily!V37</f>
         <v>534</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W37">
+        <f>Confirmed!AO46+Daily!W37</f>
+        <v>536</v>
+      </c>
+      <c r="X37">
+        <f>Confirmed!AP46+Daily!X37</f>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -18380,8 +19500,16 @@
         <f>Confirmed!AN47+Daily!V38</f>
         <v>538</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W38">
+        <f>Confirmed!AO47+Daily!W38</f>
+        <v>538</v>
+      </c>
+      <c r="X38">
+        <f>Confirmed!AP47+Daily!X38</f>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -18469,8 +19597,16 @@
         <f>Confirmed!AN48+Daily!V39</f>
         <v>456</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W39">
+        <f>Confirmed!AO48+Daily!W39</f>
+        <v>456</v>
+      </c>
+      <c r="X39">
+        <f>Confirmed!AP48+Daily!X39</f>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -18538,8 +19674,16 @@
         <f>Confirmed!AN49+Daily!V40</f>
         <v>473</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W40">
+        <f>Confirmed!AO49+Daily!W40</f>
+        <v>473</v>
+      </c>
+      <c r="X40">
+        <f>Confirmed!AP49+Daily!X40</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -18607,8 +19751,16 @@
         <f>Confirmed!AN50+Daily!V41</f>
         <v>461</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W41">
+        <f>Confirmed!AO50+Daily!W41</f>
+        <v>462</v>
+      </c>
+      <c r="X41">
+        <f>Confirmed!AP50+Daily!X41</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -18668,8 +19820,16 @@
         <f>Confirmed!AN51+Daily!V42</f>
         <v>445</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W42">
+        <f>Confirmed!AO51+Daily!W42</f>
+        <v>446</v>
+      </c>
+      <c r="X42">
+        <f>Confirmed!AP51+Daily!X42</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -18725,8 +19885,16 @@
         <f>Confirmed!AN52+Daily!V43</f>
         <v>387</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W43">
+        <f>Confirmed!AO52+Daily!W43</f>
+        <v>389</v>
+      </c>
+      <c r="X43">
+        <f>Confirmed!AP52+Daily!X43</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -18782,8 +19950,16 @@
         <f>Confirmed!AN53+Daily!V44</f>
         <v>378</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W44">
+        <f>Confirmed!AO53+Daily!W44</f>
+        <v>379</v>
+      </c>
+      <c r="X44">
+        <f>Confirmed!AP53+Daily!X44</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -18835,8 +20011,16 @@
         <f>Confirmed!AN54+Daily!V45</f>
         <v>379</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W45">
+        <f>Confirmed!AO54+Daily!W45</f>
+        <v>381</v>
+      </c>
+      <c r="X45">
+        <f>Confirmed!AP54+Daily!X45</f>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -18888,14 +20072,18 @@
         <f>Confirmed!AN55+Daily!V46</f>
         <v>351</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W46">
+        <f>Confirmed!AO55+Daily!W46</f>
+        <v>350</v>
+      </c>
+      <c r="X46">
+        <f>Confirmed!AP55+Daily!X46</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
-      </c>
-      <c r="K47">
-        <f>Confirmed!AC56+Daily!K47</f>
-        <v>0</v>
       </c>
       <c r="L47">
         <f>Confirmed!AD56+Daily!L47</f>
@@ -18941,8 +20129,16 @@
         <f>Confirmed!AN56+Daily!V47</f>
         <v>287</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W47">
+        <f>Confirmed!AO56+Daily!W47</f>
+        <v>287</v>
+      </c>
+      <c r="X47">
+        <f>Confirmed!AP56+Daily!X47</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>426</v>
       </c>
@@ -18982,8 +20178,16 @@
         <f>Confirmed!AN57+Daily!V48</f>
         <v>283</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W48">
+        <f>Confirmed!AO57+Daily!W48</f>
+        <v>284</v>
+      </c>
+      <c r="X48">
+        <f>Confirmed!AP57+Daily!X48</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>427</v>
       </c>
@@ -19019,8 +20223,16 @@
         <f>Confirmed!AN58+Daily!V49</f>
         <v>298</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W49">
+        <f>Confirmed!AO58+Daily!W49</f>
+        <v>298</v>
+      </c>
+      <c r="X49">
+        <f>Confirmed!AP58+Daily!X49</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>428</v>
       </c>
@@ -19052,8 +20264,16 @@
         <f>Confirmed!AN59+Daily!V50</f>
         <v>241</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W50">
+        <f>Confirmed!AO59+Daily!W50</f>
+        <v>242</v>
+      </c>
+      <c r="X50">
+        <f>Confirmed!AP59+Daily!X50</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>429</v>
       </c>
@@ -19081,8 +20301,16 @@
         <f>Confirmed!AN60+Daily!V51</f>
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W51">
+        <f>Confirmed!AO60+Daily!W51</f>
+        <v>253</v>
+      </c>
+      <c r="X51">
+        <f>Confirmed!AP60+Daily!X51</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R52">
         <f>Confirmed!AJ61+Daily!R52</f>
         <v>0</v>
@@ -19103,8 +20331,16 @@
         <f>Confirmed!AN61+Daily!V52</f>
         <v>224</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W52">
+        <f>Confirmed!AO61+Daily!W52</f>
+        <v>229</v>
+      </c>
+      <c r="X52">
+        <f>Confirmed!AP61+Daily!X52</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S53">
         <f>Confirmed!AK62+Daily!S53</f>
         <v>0</v>
@@ -19121,8 +20357,16 @@
         <f>Confirmed!AN62+Daily!V53</f>
         <v>219</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W53">
+        <f>Confirmed!AO62+Daily!W53</f>
+        <v>227</v>
+      </c>
+      <c r="X53">
+        <f>Confirmed!AP62+Daily!X53</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="T54">
         <f>Confirmed!AL63+Daily!T54</f>
         <v>0</v>
@@ -19135,8 +20379,16 @@
         <f>Confirmed!AN63+Daily!V54</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W54">
+        <f>Confirmed!AO63+Daily!W54</f>
+        <v>192</v>
+      </c>
+      <c r="X54">
+        <f>Confirmed!AP63+Daily!X54</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="U55">
         <f>Confirmed!AM64+Daily!U55</f>
         <v>0</v>
@@ -19144,6 +20396,44 @@
       <c r="V55">
         <f>Confirmed!AN64+Daily!V55</f>
         <v>22</v>
+      </c>
+      <c r="W55">
+        <f>Confirmed!AO64+Daily!W55</f>
+        <v>144</v>
+      </c>
+      <c r="X55">
+        <f>Confirmed!AP64+Daily!X55</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V56">
+        <f>Confirmed!AN65+Daily!V56</f>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f>Confirmed!AO65+Daily!W56</f>
+        <v>12</v>
+      </c>
+      <c r="X56">
+        <f>Confirmed!AP65+Daily!X56</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W57">
+        <f>Confirmed!AO66+Daily!W57</f>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f>Confirmed!AP66+Daily!X57</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X58">
+        <f>Confirmed!AP67+Daily!X58</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19791,8 +21081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C61" sqref="C49:D61"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20129,7 +21419,7 @@
         <v>190</v>
       </c>
       <c r="C21">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>12</v>
@@ -20189,7 +21479,7 @@
         <v>209</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -20227,7 +21517,7 @@
         <v>282</v>
       </c>
       <c r="D26">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -20243,7 +21533,7 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D27">
         <v>89</v>
@@ -20284,7 +21574,7 @@
         <v>419</v>
       </c>
       <c r="D29">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -20300,10 +21590,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D30">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -20322,7 +21612,7 @@
         <v>464</v>
       </c>
       <c r="D31">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -20338,7 +21628,7 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D32">
         <v>200</v>
@@ -20357,10 +21647,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D33">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -20376,10 +21666,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D34">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -20395,10 +21685,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D35">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -20414,7 +21704,7 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D36">
         <v>223</v>
@@ -20436,7 +21726,7 @@
         <v>520</v>
       </c>
       <c r="D37">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -20452,10 +21742,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D38">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -20471,10 +21761,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D39">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -20490,10 +21780,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D40">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -20509,10 +21799,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D41">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -20528,10 +21818,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D42">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -20547,10 +21837,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D43">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -20566,10 +21856,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D44">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -20585,10 +21875,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D45">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -20604,10 +21894,10 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D46">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
@@ -20623,10 +21913,10 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D47">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
@@ -20642,10 +21932,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D48">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -20661,10 +21951,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D49">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -20680,10 +21970,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D50">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -20699,10 +21989,10 @@
         <v>328</v>
       </c>
       <c r="C51">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D51">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
@@ -20718,10 +22008,10 @@
         <v>323</v>
       </c>
       <c r="C52">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
@@ -20737,10 +22027,10 @@
         <v>353</v>
       </c>
       <c r="C53">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D53">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
@@ -20756,10 +22046,10 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D54">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
@@ -20775,10 +22065,10 @@
         <v>214</v>
       </c>
       <c r="C55">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D55">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
@@ -20794,10 +22084,10 @@
         <v>190</v>
       </c>
       <c r="C56">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D56">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
@@ -20813,10 +22103,10 @@
         <v>160</v>
       </c>
       <c r="C57">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D57">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
@@ -20832,10 +22122,10 @@
         <v>150</v>
       </c>
       <c r="C58">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D58">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
@@ -20851,10 +22141,10 @@
         <v>145</v>
       </c>
       <c r="C59">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D59">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2">
         <v>43952</v>
@@ -20869,10 +22159,10 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D60">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2">
         <v>43953</v>
@@ -20887,10 +22177,10 @@
         <v>110</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D61">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2">
         <f>E60+1</f>
@@ -20905,6 +22195,16 @@
       <c r="B62">
         <v>100</v>
       </c>
+      <c r="C62">
+        <v>38</v>
+      </c>
+      <c r="D62">
+        <v>105</v>
+      </c>
+      <c r="E62" s="2">
+        <f>E61+1</f>
+        <v>43955</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
@@ -20913,6 +22213,16 @@
       </c>
       <c r="B63">
         <v>105</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63" s="2">
+        <f>E62+1</f>
+        <v>43956</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -21014,8 +22324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21066,7 +22376,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A55" si="1">A3+1</f>
+        <f t="shared" ref="A4:A57" si="1">A3+1</f>
         <v>43903</v>
       </c>
       <c r="B4">
@@ -21132,11 +22442,11 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F52" si="3">SUM(E4:E8)/5</f>
+        <f t="shared" ref="F6:F53" si="3">SUM(E4:E8)/5</f>
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G49" si="4">D6-D5</f>
+        <f t="shared" ref="G6:G51" si="4">D6-D5</f>
         <v>2</v>
       </c>
     </row>
@@ -21318,10 +22628,10 @@
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>69.8</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>69.8</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -21329,11 +22639,11 @@
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>15.799999999999997</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -21346,10 +22656,10 @@
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="D14">
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -21370,18 +22680,18 @@
         <v>43914</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>123.8</v>
+        <v>124</v>
       </c>
       <c r="D15">
-        <v>123.8</v>
+        <v>124</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
@@ -21402,22 +22712,22 @@
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>163.80000000000001</v>
+        <v>164.2</v>
       </c>
       <c r="D16">
-        <v>163.80000000000001</v>
+        <v>164</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>40.000000000000014</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -21430,7 +22740,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>209.8</v>
+        <v>210</v>
       </c>
       <c r="D17">
         <v>209.8</v>
@@ -21441,11 +22751,11 @@
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>45.800000000000011</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -21454,26 +22764,26 @@
         <v>43917</v>
       </c>
       <c r="B18">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
         <v>259.8</v>
       </c>
       <c r="D18">
-        <v>259.8</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>49.599999999999966</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -21482,26 +22792,26 @@
         <v>43918</v>
       </c>
       <c r="B19">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>312.2</v>
+        <v>312.39999999999998</v>
       </c>
       <c r="D19">
-        <v>312.2</v>
+        <v>312</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>52.4</v>
+        <v>52.6</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>52.399999999999977</v>
+        <v>52.600000000000023</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -21514,14 +22824,14 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>359.6</v>
+        <v>359.8</v>
       </c>
       <c r="D20">
-        <v>359.6</v>
+        <v>359.4</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
@@ -21529,7 +22839,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>47.400000000000034</v>
+        <v>47.399999999999977</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -21538,18 +22848,18 @@
         <v>43920</v>
       </c>
       <c r="B21">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>415.4</v>
+        <v>415.6</v>
       </c>
       <c r="D21">
         <v>415.4</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
@@ -21557,7 +22867,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>55.799999999999955</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -21570,22 +22880,22 @@
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>479.2</v>
+        <v>479.6</v>
       </c>
       <c r="D22">
-        <v>479.2</v>
+        <v>479.4</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>63.8</v>
+        <v>64</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>63.800000000000011</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -21594,26 +22904,26 @@
         <v>43922</v>
       </c>
       <c r="B23">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>538</v>
+        <v>538.6</v>
       </c>
       <c r="D23">
-        <v>538</v>
+        <v>538.79999999999995</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>58.800000000000011</v>
+        <v>59.399999999999977</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -21626,22 +22936,22 @@
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>592.20000000000005</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="D24">
-        <v>592.20000000000005</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>54.2</v>
+        <v>54.6</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>54.200000000000045</v>
+        <v>54.400000000000091</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -21650,26 +22960,26 @@
         <v>43924</v>
       </c>
       <c r="B25">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>645.20000000000005</v>
+        <v>646</v>
       </c>
       <c r="D25">
-        <v>645.20000000000005</v>
+        <v>646</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>52.799999999999955</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -21678,18 +22988,18 @@
         <v>43925</v>
       </c>
       <c r="B26">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>697.6</v>
+        <v>698.4</v>
       </c>
       <c r="D26">
-        <v>697.6</v>
+        <v>698.2</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
@@ -21697,7 +23007,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>52.399999999999977</v>
+        <v>52.200000000000045</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -21706,18 +23016,18 @@
         <v>43926</v>
       </c>
       <c r="B27">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>730.8</v>
+        <v>731.6</v>
       </c>
       <c r="D27">
-        <v>730.8</v>
+        <v>731.4</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -21734,26 +23044,26 @@
         <v>43927</v>
       </c>
       <c r="B28">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>748.6</v>
+        <v>750</v>
       </c>
       <c r="D28">
-        <v>748.6</v>
+        <v>749.4</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>17.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>17.800000000000068</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -21773,15 +23083,15 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>10.6</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11.200000000000045</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -21790,18 +23100,18 @@
         <v>43929</v>
       </c>
       <c r="B30">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
         <v>755.6</v>
       </c>
       <c r="D30">
-        <v>755.6</v>
+        <v>755.8</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-74</v>
+        <v>-70</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
@@ -21809,7 +23119,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>-4.8000000000000682</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -21818,26 +23128,26 @@
         <v>43930</v>
       </c>
       <c r="B31">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>734.6</v>
+        <v>735</v>
       </c>
       <c r="D31">
-        <v>734.6</v>
+        <v>735.4</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>-21</v>
+        <v>-20.6</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>-21</v>
+        <v>-20.399999999999977</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -21846,26 +23156,26 @@
         <v>43931</v>
       </c>
       <c r="B32">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>716.6</v>
+        <v>717.2</v>
       </c>
       <c r="D32">
-        <v>716.6</v>
+        <v>717.6</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>-18</v>
+        <v>-17.8</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>-18</v>
+        <v>-17.799999999999955</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -21874,26 +23184,26 @@
         <v>43932</v>
       </c>
       <c r="B33">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>715.6</v>
+        <v>715.8</v>
       </c>
       <c r="D33">
-        <v>715.6</v>
+        <v>716.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>-1.3999999999999773</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -21902,26 +23212,26 @@
         <v>43933</v>
       </c>
       <c r="B34">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>698.6</v>
+        <v>700.2</v>
       </c>
       <c r="D34">
-        <v>698.6</v>
+        <v>700.6</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>-17</v>
+        <v>-15.6</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>-17</v>
+        <v>-15.600000000000023</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -21930,26 +23240,26 @@
         <v>43934</v>
       </c>
       <c r="B35">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>665.2</v>
+        <v>667.6</v>
       </c>
       <c r="D35">
-        <v>665.2</v>
+        <v>667.4</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>-33.4</v>
+        <v>-32.6</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>-33.399999999999977</v>
+        <v>-33.200000000000045</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -21958,26 +23268,26 @@
         <v>43935</v>
       </c>
       <c r="B36">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C51" si="5">SUM(B34:B38)/5</f>
-        <v>635.20000000000005</v>
+        <f t="shared" ref="C36:C54" si="5">SUM(B34:B38)/5</f>
+        <v>636.79999999999995</v>
       </c>
       <c r="D36">
-        <v>635.20000000000005</v>
+        <v>636.79999999999995</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-85</v>
+        <v>-84</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>-30.8</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>-30</v>
+        <v>-30.600000000000023</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -21986,14 +23296,14 @@
         <v>43936</v>
       </c>
       <c r="B37">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>582</v>
+        <v>583.6</v>
       </c>
       <c r="D37">
-        <v>582</v>
+        <v>583.4</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
@@ -22005,7 +23315,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>-53.200000000000045</v>
+        <v>-53.399999999999977</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -22014,26 +23324,26 @@
         <v>43937</v>
       </c>
       <c r="B38">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
-        <v>529.79999999999995</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="D38">
-        <v>529.79999999999995</v>
+        <v>531.20000000000005</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>-52.2</v>
+        <v>-52.8</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>-52.200000000000045</v>
+        <v>-52.199999999999932</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -22042,26 +23352,26 @@
         <v>43938</v>
       </c>
       <c r="B39">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
-        <v>492.2</v>
+        <v>493</v>
       </c>
       <c r="D39">
-        <v>492.2</v>
+        <v>493</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-82</v>
+        <v>-80</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>-37.6</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>-37.599999999999966</v>
+        <v>-38.200000000000045</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -22070,26 +23380,26 @@
         <v>43939</v>
       </c>
       <c r="B40">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C40">
         <f t="shared" si="5"/>
-        <v>474</v>
+        <v>474.4</v>
       </c>
       <c r="D40">
-        <v>474.93755398526747</v>
+        <v>475</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>-18.2</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>-17.262446014732518</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -22098,26 +23408,26 @@
         <v>43940</v>
       </c>
       <c r="B41">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C41">
         <f t="shared" si="5"/>
-        <v>444</v>
+        <v>445.6</v>
       </c>
       <c r="D41">
-        <v>446.33350614658104</v>
+        <v>445.2</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>-28.8</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>-28.604047838686427</v>
+        <v>-29.800000000000011</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -22126,18 +23436,18 @@
         <v>43941</v>
       </c>
       <c r="B42">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C42">
         <f t="shared" si="5"/>
-        <v>428.4</v>
+        <v>430</v>
       </c>
       <c r="D42">
-        <v>433.10242806709948</v>
+        <v>430.50492780847179</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
@@ -22145,7 +23455,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>-13.231078079481563</v>
+        <v>-14.695072191528197</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -22154,26 +23464,26 @@
         <v>43942</v>
       </c>
       <c r="B43">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C43">
         <f t="shared" si="5"/>
-        <v>410</v>
+        <v>412.4</v>
       </c>
       <c r="D43">
-        <v>418.86559434333702</v>
+        <v>413.36748209880926</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-56</v>
+        <v>-52</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>-18.399999999999999</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>-14.236833723762459</v>
+        <v>-17.137445709662529</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -22182,26 +23492,26 @@
         <v>43943</v>
       </c>
       <c r="B44">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C44">
         <f t="shared" si="5"/>
-        <v>388</v>
+        <v>390.6</v>
       </c>
       <c r="D44">
-        <v>403.65867540745728</v>
+        <v>393.13932089856434</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>-22</v>
+        <v>-21.8</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>-15.206918935879742</v>
+        <v>-20.228161200244926</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -22210,26 +23520,26 @@
         <v>43944</v>
       </c>
       <c r="B45">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C45">
         <f t="shared" si="5"/>
-        <v>355.8</v>
+        <v>358.8</v>
       </c>
       <c r="D45">
-        <v>377.70798920377217</v>
+        <v>364.50701482777595</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>-32.200000000000003</v>
+        <v>-31.8</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>-25.950686203685109</v>
+        <v>-28.632306070788388</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -22238,14 +23548,14 @@
         <v>43945</v>
       </c>
       <c r="B46">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C46">
         <f t="shared" si="5"/>
-        <v>334.8</v>
+        <v>337.4</v>
       </c>
       <c r="D46">
-        <v>366.27164089812715</v>
+        <v>348.9974495709983</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
@@ -22253,11 +23563,11 @@
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>-21</v>
+        <v>-21.4</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>-11.436348305645026</v>
+        <v>-15.509565256777648</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -22266,14 +23576,14 @@
         <v>43946</v>
       </c>
       <c r="B47">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C47">
         <f t="shared" si="5"/>
-        <v>318.8</v>
+        <v>321.2</v>
       </c>
       <c r="D47">
-        <v>363.83478316251916</v>
+        <v>339.82202689112898</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
@@ -22281,11 +23591,11 @@
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>-16</v>
+        <v>-16.2</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>-2.4368577356079868</v>
+        <v>-9.1754226798693139</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -22294,14 +23604,14 @@
         <v>43947</v>
       </c>
       <c r="B48">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C48">
         <f t="shared" si="5"/>
-        <v>290.39999999999998</v>
+        <v>293.2</v>
       </c>
       <c r="D48">
-        <v>347.64893626076099</v>
+        <v>320.26711476619295</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
@@ -22309,11 +23619,11 @@
       </c>
       <c r="F48">
         <f>SUM(E46:E50)/5</f>
-        <v>-28.4</v>
+        <v>-28</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>-16.185846901758168</v>
+        <v>-19.554912124936038</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -22326,22 +23636,22 @@
       </c>
       <c r="C49">
         <f t="shared" si="5"/>
-        <v>270.60000000000002</v>
+        <v>273.8</v>
       </c>
       <c r="D49">
-        <v>343.60210428441576</v>
+        <v>312.38384997091191</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <f>SUM(E47:E51)/5</f>
-        <v>-19.8</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>-4.0468319763452314</v>
+        <v>-7.8832647952810362</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -22350,22 +23660,26 @@
         <v>43949</v>
       </c>
       <c r="B50">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C50">
         <f t="shared" si="5"/>
-        <v>258</v>
+        <v>263.2</v>
       </c>
       <c r="D50">
-        <v>349.40065219560205</v>
+        <v>313.77033729723553</v>
       </c>
       <c r="E50">
         <f t="shared" ref="E50:E52" si="6">B50-B49</f>
-        <v>-60</v>
+        <v>-55</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>-12.6</v>
+        <v>-10.6</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>1.3864873263236177</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -22374,14 +23688,14 @@
         <v>43950</v>
       </c>
       <c r="B51">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C51">
         <f t="shared" si="5"/>
-        <v>238.2</v>
+        <v>249.8</v>
       </c>
       <c r="D51">
-        <v>345.42191750314203</v>
+        <v>317.2823394506741</v>
       </c>
       <c r="E51">
         <f t="shared" si="6"/>
@@ -22389,7 +23703,11 @@
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>-19.8</v>
+        <v>-13.4</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>3.5120021534385728</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -22398,15 +23716,22 @@
         <v>43951</v>
       </c>
       <c r="B52">
-        <v>220</v>
+        <v>233</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>230.4</v>
+      </c>
+      <c r="D52">
+        <v>311.28827781467197</v>
       </c>
       <c r="E52">
         <f t="shared" si="6"/>
-        <v>-31</v>
+        <v>-23</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>-55</v>
+        <v>-19.399999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -22415,15 +23740,22 @@
         <v>43952</v>
       </c>
       <c r="B53">
-        <v>184</v>
+        <v>219</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>218.2</v>
+      </c>
+      <c r="D53">
+        <v>304.48315896757759</v>
       </c>
       <c r="E53">
         <f t="shared" ref="E53:E55" si="7">B53-B52</f>
-        <v>-36</v>
+        <v>-14</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:F55" si="8">SUM(E51:E55)/5</f>
-        <v>-47.6</v>
+        <f t="shared" si="3"/>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -22432,15 +23764,15 @@
         <v>43953</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>201</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>195.6</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>-161</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="8"/>
-        <v>-50.2</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -22449,25 +23781,36 @@
         <v>43954</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>-23</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="8"/>
-        <v>-44</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2">
+        <f t="shared" si="1"/>
+        <v>43955</v>
+      </c>
+      <c r="B56">
+        <v>143</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2">
+        <f t="shared" si="1"/>
+        <v>43956</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
+      <c r="B58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -657,7 +657,7 @@
                   <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>314</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>369</c:v>
@@ -672,16 +672,16 @@
                   <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>476</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>532</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>574</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>519</c:v>
@@ -690,82 +690,85 @@
                   <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>498</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>504</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>528</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>426</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>380</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>347</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>345</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>322</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>282</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>282</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>281</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>264</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>206</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>207</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>168</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>153</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>130</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>108</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>93</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>61</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,19 +1119,19 @@
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>93</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>113</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>186</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>200</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>194</c:v>
@@ -1149,79 +1152,82 @@
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>187</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>207</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>169</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>112</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>157</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>110</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>117</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>123</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>105</c:v>
-                </c:pt>
                 <c:pt idx="61">
-                  <c:v>12</c:v>
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,8 +1243,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="423467888"/>
-        <c:axId val="423472368"/>
+        <c:axId val="389381792"/>
+        <c:axId val="389380112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1779,11 +1785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="423467888"/>
-        <c:axId val="423472368"/>
+        <c:axId val="389381792"/>
+        <c:axId val="389380112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="423467888"/>
+        <c:axId val="389381792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423472368"/>
+        <c:crossAx val="389380112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1834,7 +1840,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="423472368"/>
+        <c:axId val="389380112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +1890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423467888"/>
+        <c:crossAx val="389381792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,94 +2317,94 @@
                   <c:v>49.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.6</c:v>
+                  <c:v>52.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.4</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.8</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59</c:v>
+                  <c:v>59.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.6</c:v>
+                  <c:v>55.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52.8</c:v>
+                  <c:v>53.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.4</c:v>
+                  <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33.200000000000003</c:v>
+                  <c:v>33.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.6</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-20.6</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-17.8</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-15.6</c:v>
+                  <c:v>-15.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-32.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-30.8</c:v>
+                  <c:v>-31.6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-53.2</c:v>
+                  <c:v>-53.4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-52.8</c:v>
+                  <c:v>-52.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-37.799999999999997</c:v>
+                  <c:v>-38.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-18.600000000000001</c:v>
+                  <c:v>-18.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-28.8</c:v>
+                  <c:v>-28.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-15.6</c:v>
+                  <c:v>-15.8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-17.600000000000001</c:v>
+                  <c:v>-17.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-21.8</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-31.8</c:v>
+                  <c:v>-31.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-21.4</c:v>
+                  <c:v>-21.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-16.2</c:v>
+                  <c:v>-15.4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-28</c:v>
+                  <c:v>-27.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-19.399999999999999</c:v>
@@ -2407,13 +2413,16 @@
                   <c:v>-10.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-13.4</c:v>
+                  <c:v>-11.2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-19.399999999999999</c:v>
+                  <c:v>-18.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-12.2</c:v>
+                  <c:v>-11.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-18.399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,8 +2795,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="423461168"/>
-        <c:axId val="423448848"/>
+        <c:axId val="300732288"/>
+        <c:axId val="300732848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3076,31 +3085,31 @@
                         <c:v>355</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>403</c:v>
+                        <c:v>402</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>462</c:v>
+                        <c:v>460</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>532</c:v>
+                        <c:v>533</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>646</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>650</c:v>
+                        <c:v>651</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>676</c:v>
+                        <c:v>678</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>726</c:v>
+                        <c:v>727</c:v>
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>794</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>812</c:v>
+                        <c:v>813</c:v>
                       </c:pt>
                       <c:pt idx="28">
                         <c:v>742</c:v>
@@ -3109,10 +3118,10 @@
                         <c:v>729</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>701</c:v>
+                        <c:v>702</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>691</c:v>
+                        <c:v>694</c:v>
                       </c:pt>
                       <c:pt idx="32">
                         <c:v>723</c:v>
@@ -3121,22 +3130,22 @@
                         <c:v>735</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>651</c:v>
+                        <c:v>653</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>538</c:v>
+                        <c:v>539</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>537</c:v>
+                        <c:v>536</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>457</c:v>
+                        <c:v>456</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>471</c:v>
+                        <c:v>472</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>462</c:v>
+                        <c:v>461</c:v>
                       </c:pt>
                       <c:pt idx="40">
                         <c:v>445</c:v>
@@ -3145,22 +3154,22 @@
                         <c:v>393</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>379</c:v>
+                        <c:v>377</c:v>
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>383</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>353</c:v>
+                        <c:v>356</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>286</c:v>
+                        <c:v>287</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>286</c:v>
+                        <c:v>285</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>298</c:v>
+                        <c:v>300</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3442,103 +3451,103 @@
                         <c:v>259.8</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>312.39999999999998</c:v>
+                        <c:v>312.2</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>359.8</c:v>
+                        <c:v>359.2</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>415.6</c:v>
+                        <c:v>415.2</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>479.6</c:v>
+                        <c:v>479.2</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>538.6</c:v>
+                        <c:v>538.4</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>593.20000000000005</c:v>
+                        <c:v>593.6</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>646</c:v>
+                        <c:v>647</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>698.4</c:v>
+                        <c:v>699.2</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>731.6</c:v>
+                        <c:v>732.6</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>750</c:v>
+                        <c:v>750.8</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>760.6</c:v>
+                        <c:v>761</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>755.6</c:v>
+                        <c:v>756</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>735</c:v>
+                        <c:v>736</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>717.2</c:v>
+                        <c:v>718</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>715.8</c:v>
+                        <c:v>716.6</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>700.2</c:v>
+                        <c:v>701.4</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>667.6</c:v>
+                        <c:v>668.8</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>636.79999999999995</c:v>
+                        <c:v>637.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>583.6</c:v>
+                        <c:v>583.79999999999995</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>530.79999999999995</c:v>
+                        <c:v>531.20000000000005</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>493</c:v>
+                        <c:v>492.8</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>474.4</c:v>
+                        <c:v>474</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>445.6</c:v>
+                        <c:v>445.4</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>430</c:v>
+                        <c:v>429.6</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>412.4</c:v>
+                        <c:v>411.8</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>390.6</c:v>
+                        <c:v>390.8</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>358.8</c:v>
+                        <c:v>359.2</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>337.4</c:v>
+                        <c:v>337.6</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>321.2</c:v>
+                        <c:v>322.2</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>293.2</c:v>
+                        <c:v>294.60000000000002</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>273.8</c:v>
+                        <c:v>275.2</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>263.2</c:v>
+                        <c:v>264.60000000000002</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>249.8</c:v>
+                        <c:v>253.4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3829,91 +3838,91 @@
                         <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>48</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>59</c:v>
+                        <c:v>58</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>70</c:v>
+                        <c:v>73</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>114</c:v>
+                        <c:v>113</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>26</c:v>
+                        <c:v>27</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>50</c:v>
+                        <c:v>49</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>68</c:v>
+                        <c:v>67</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>18</c:v>
+                        <c:v>19</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>-70</c:v>
+                        <c:v>-71</c:v>
                       </c:pt>
                       <c:pt idx="29">
                         <c:v>-13</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>-28</c:v>
+                        <c:v>-27</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>-10</c:v>
+                        <c:v>-8</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>32</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="33">
                         <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>-84</c:v>
+                        <c:v>-82</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>-113</c:v>
+                        <c:v>-114</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>-1</c:v>
+                        <c:v>-3</c:v>
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>-80</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>14</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>-9</c:v>
+                        <c:v>-11</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>-17</c:v>
+                        <c:v>-16</c:v>
                       </c:pt>
                       <c:pt idx="41">
                         <c:v>-52</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>-14</c:v>
+                        <c:v>-16</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>4</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>-30</c:v>
+                        <c:v>-27</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>-67</c:v>
+                        <c:v>-69</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>0</c:v>
+                        <c:v>-2</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>12</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4289,7 +4298,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="423461168"/>
+        <c:axId val="300732288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43956"/>
@@ -4333,7 +4342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423448848"/>
+        <c:crossAx val="300732848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4342,7 +4351,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="423448848"/>
+        <c:axId val="300732848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,7 +4402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423461168"/>
+        <c:crossAx val="300732288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5582,7 +5591,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6815,15 +6824,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView topLeftCell="N38" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:X57"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7:Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -6893,8 +6902,11 @@
       <c r="X1">
         <v>506</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -6911,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -6928,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -6945,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -6977,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -7006,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -7082,8 +7094,11 @@
       <c r="X7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -7162,8 +7177,11 @@
       <c r="X8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -7242,8 +7260,11 @@
       <c r="X9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -7322,8 +7343,11 @@
       <c r="X10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -7402,8 +7426,11 @@
       <c r="X11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -7482,8 +7509,11 @@
       <c r="X12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -7562,8 +7592,11 @@
       <c r="X13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -7642,8 +7675,11 @@
       <c r="X14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -7722,8 +7758,11 @@
       <c r="X15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -7802,8 +7841,11 @@
       <c r="X16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -7882,8 +7924,11 @@
       <c r="X17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -7962,8 +8007,11 @@
       <c r="X18">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -8042,8 +8090,11 @@
       <c r="X19">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -8122,8 +8173,11 @@
       <c r="X20">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -8202,8 +8256,11 @@
       <c r="X21">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -8282,8 +8339,11 @@
       <c r="X22">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -8362,8 +8422,11 @@
       <c r="X23">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -8442,8 +8505,11 @@
       <c r="X24">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -8522,8 +8588,11 @@
       <c r="X25">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -8602,8 +8671,11 @@
       <c r="X26">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y26">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -8682,8 +8754,11 @@
       <c r="X27">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y27">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -8762,8 +8837,11 @@
       <c r="X28">
         <v>245</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y28">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -8842,8 +8920,11 @@
       <c r="X29">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -8922,8 +9003,11 @@
       <c r="X30">
         <v>223</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y30">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -9002,8 +9086,11 @@
       <c r="X31">
         <v>209</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y31">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -9082,8 +9169,11 @@
       <c r="X32">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y32">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -9162,8 +9252,11 @@
       <c r="X33">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y33">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -9242,8 +9335,11 @@
       <c r="X34">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y34">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -9322,8 +9418,11 @@
       <c r="X35">
         <v>207</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -9398,8 +9497,11 @@
       <c r="X36">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y36">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -9470,8 +9572,11 @@
       <c r="X37">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y37">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -9538,8 +9643,11 @@
       <c r="X38">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y38">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -9602,8 +9710,11 @@
       <c r="X39">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y39">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -9662,8 +9773,11 @@
       <c r="X40">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y40">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -9715,8 +9829,11 @@
       <c r="X41">
         <v>117</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -9768,8 +9885,11 @@
       <c r="X42">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -9818,8 +9938,11 @@
       <c r="X43">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -9865,8 +9988,11 @@
       <c r="X44">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y44">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -9909,8 +10035,11 @@
       <c r="X45">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -9950,8 +10079,11 @@
       <c r="X46">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y46">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -9988,8 +10120,11 @@
       <c r="X47">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y47">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>17</v>
       </c>
@@ -10020,8 +10155,11 @@
       <c r="X48">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="16:25" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>19</v>
       </c>
@@ -10049,8 +10187,11 @@
       <c r="X49">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="16:25" x14ac:dyDescent="0.3">
       <c r="Q50">
         <v>11</v>
       </c>
@@ -10075,8 +10216,11 @@
       <c r="X50">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y50">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="16:25" x14ac:dyDescent="0.3">
       <c r="R51">
         <v>22</v>
       </c>
@@ -10098,8 +10242,11 @@
       <c r="X51">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y51">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="16:25" x14ac:dyDescent="0.3">
       <c r="S52">
         <v>15</v>
       </c>
@@ -10118,8 +10265,11 @@
       <c r="X52">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y52">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="16:25" x14ac:dyDescent="0.3">
       <c r="T53">
         <v>0</v>
       </c>
@@ -10135,8 +10285,11 @@
       <c r="X53">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y53">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="16:25" x14ac:dyDescent="0.3">
       <c r="U54">
         <v>20</v>
       </c>
@@ -10149,8 +10302,11 @@
       <c r="X54">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y54">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="16:25" x14ac:dyDescent="0.3">
       <c r="V55">
         <v>21</v>
       </c>
@@ -10160,18 +10316,32 @@
       <c r="X55">
         <v>121</v>
       </c>
-    </row>
-    <row r="56" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y55">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="16:25" x14ac:dyDescent="0.3">
       <c r="W56">
         <v>12</v>
       </c>
       <c r="X56">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Y56">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="16:25" x14ac:dyDescent="0.3">
       <c r="X57">
         <v>12</v>
+      </c>
+      <c r="Y57">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Y58">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10181,15 +10351,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP66"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
-    <sheetView topLeftCell="AE47" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11:AP66"/>
+    <sheetView topLeftCell="Z48" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11:AQ67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -10313,8 +10483,11 @@
       <c r="AP1">
         <v>506</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -10400,7 +10573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -10485,8 +10658,11 @@
       <c r="AC3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -10571,8 +10747,11 @@
       <c r="AC4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -10657,8 +10836,11 @@
       <c r="AC5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -10743,8 +10925,11 @@
       <c r="AC6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -10829,8 +11014,11 @@
       <c r="AC7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -10915,8 +11103,11 @@
       <c r="AC8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -11001,8 +11192,11 @@
       <c r="AC9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -11087,8 +11281,11 @@
       <c r="AC10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -11215,8 +11412,11 @@
       <c r="AP11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -11343,8 +11543,11 @@
       <c r="AP12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -11471,8 +11674,11 @@
       <c r="AP13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -11599,8 +11805,11 @@
       <c r="AP14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -11727,8 +11936,11 @@
       <c r="AP15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -11855,8 +12067,11 @@
       <c r="AP16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -11983,8 +12198,11 @@
       <c r="AP17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -12111,8 +12329,11 @@
       <c r="AP18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -12239,8 +12460,11 @@
       <c r="AP19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -12367,8 +12591,11 @@
       <c r="AP20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -12495,8 +12722,11 @@
       <c r="AP21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -12623,8 +12853,11 @@
       <c r="AP22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -12751,8 +12984,11 @@
       <c r="AP23">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -12879,8 +13115,11 @@
       <c r="AP24">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -13007,8 +13246,11 @@
       <c r="AP25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -13132,8 +13374,11 @@
       <c r="AP26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -13254,8 +13499,11 @@
       <c r="AP27">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ27">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -13373,8 +13621,11 @@
       <c r="AP28">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ28">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -13492,8 +13743,11 @@
       <c r="AP29">
         <v>282</v>
       </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ29">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -13611,8 +13865,11 @@
       <c r="AP30">
         <v>314</v>
       </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ30">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -13727,8 +13984,11 @@
       <c r="AP31">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ31">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -13840,8 +14100,11 @@
       <c r="AP32">
         <v>419</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ32">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -13950,8 +14213,11 @@
       <c r="AP33">
         <v>456</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ33">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -14057,8 +14323,11 @@
       <c r="AP34">
         <v>464</v>
       </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ34">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -14161,8 +14430,11 @@
       <c r="AP35">
         <v>476</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -14262,8 +14534,11 @@
       <c r="AP36">
         <v>532</v>
       </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ36">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -14360,8 +14635,11 @@
       <c r="AP37">
         <v>549</v>
       </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ37">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -14455,8 +14733,11 @@
       <c r="AP38">
         <v>574</v>
       </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ38">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -14547,8 +14828,11 @@
       <c r="AP39">
         <v>519</v>
       </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ39">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -14636,8 +14920,11 @@
       <c r="AP40">
         <v>520</v>
       </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ40">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -14722,8 +15009,11 @@
       <c r="AP41">
         <v>498</v>
       </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ41">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -14805,8 +15095,11 @@
       <c r="AP42">
         <v>504</v>
       </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ42">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -14885,8 +15178,11 @@
       <c r="AP43">
         <v>527</v>
       </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ43">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -14962,8 +15258,11 @@
       <c r="AP44">
         <v>528</v>
       </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ44">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -15033,8 +15332,11 @@
       <c r="AP45">
         <v>482</v>
       </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ45">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -15101,8 +15403,11 @@
       <c r="AP46">
         <v>426</v>
       </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ46">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -15166,8 +15471,11 @@
       <c r="AP47">
         <v>380</v>
       </c>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ47">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -15228,8 +15536,11 @@
       <c r="AP48">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ48">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -15287,8 +15598,11 @@
       <c r="AP49">
         <v>347</v>
       </c>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ49">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -15343,8 +15657,11 @@
       <c r="AP50">
         <v>345</v>
       </c>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ50">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -15396,8 +15713,11 @@
       <c r="AP51">
         <v>322</v>
       </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ51">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -15446,8 +15766,11 @@
       <c r="AP52">
         <v>282</v>
       </c>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ52">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -15493,8 +15816,11 @@
       <c r="AP53">
         <v>282</v>
       </c>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ53">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -15537,8 +15863,11 @@
       <c r="AP54">
         <v>281</v>
       </c>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ54">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -15578,8 +15907,11 @@
       <c r="AP55">
         <v>264</v>
       </c>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ55">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -15616,8 +15948,11 @@
       <c r="AP56">
         <v>208</v>
       </c>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ56">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>426</v>
       </c>
@@ -15651,8 +15986,11 @@
       <c r="AP57">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ57">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>427</v>
       </c>
@@ -15683,8 +16021,11 @@
       <c r="AP58">
         <v>207</v>
       </c>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ58">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>428</v>
       </c>
@@ -15712,8 +16053,11 @@
       <c r="AP59">
         <v>168</v>
       </c>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ59">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>429</v>
       </c>
@@ -15738,8 +16082,11 @@
       <c r="AP60">
         <v>153</v>
       </c>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ60">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>430</v>
       </c>
@@ -15761,8 +16108,11 @@
       <c r="AP61">
         <v>130</v>
       </c>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ61">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>501</v>
       </c>
@@ -15781,8 +16131,11 @@
       <c r="AP62">
         <v>108</v>
       </c>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ62">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>502</v>
       </c>
@@ -15798,8 +16151,11 @@
       <c r="AP63">
         <v>93</v>
       </c>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ63">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>503</v>
       </c>
@@ -15812,8 +16168,11 @@
       <c r="AP64">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ64">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>504</v>
       </c>
@@ -15823,13 +16182,24 @@
       <c r="AP65">
         <v>38</v>
       </c>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ65">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>505</v>
       </c>
       <c r="AP66">
         <v>6</v>
+      </c>
+      <c r="AQ66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ67">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -15839,15 +16209,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="K39" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X58"/>
+    <sheetView topLeftCell="K57" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -15919,8 +16289,11 @@
         <f>506</f>
         <v>506</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -16016,8 +16389,12 @@
         <f>Confirmed!AP11+Daily!X2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2">
+        <f>Confirmed!AQ11+Daily!Y2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -16113,8 +16490,12 @@
         <f>Confirmed!AP12+Daily!X3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <f>Confirmed!AQ12+Daily!Y3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -16210,8 +16591,12 @@
         <f>Confirmed!AP13+Daily!X4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <f>Confirmed!AQ13+Daily!Y4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -16307,8 +16692,12 @@
         <f>Confirmed!AP14+Daily!X5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <f>Confirmed!AQ14+Daily!Y5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -16404,8 +16793,12 @@
         <f>Confirmed!AP15+Daily!X6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <f>Confirmed!AQ15+Daily!Y6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -16501,8 +16894,12 @@
         <f>Confirmed!AP16+Daily!X7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <f>Confirmed!AQ16+Daily!Y7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -16598,8 +16995,12 @@
         <f>Confirmed!AP17+Daily!X8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <f>Confirmed!AQ17+Daily!Y8</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -16695,8 +17096,12 @@
         <f>Confirmed!AP18+Daily!X9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <f>Confirmed!AQ18+Daily!Y9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -16792,8 +17197,12 @@
         <f>Confirmed!AP19+Daily!X10</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <f>Confirmed!AQ19+Daily!Y10</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -16889,8 +17298,12 @@
         <f>Confirmed!AP20+Daily!X11</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <f>Confirmed!AQ20+Daily!Y11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -16986,8 +17399,12 @@
         <f>Confirmed!AP21+Daily!X12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <f>Confirmed!AQ21+Daily!Y12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -17083,8 +17500,12 @@
         <f>Confirmed!AP22+Daily!X13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <f>Confirmed!AQ22+Daily!Y13</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -17180,8 +17601,12 @@
         <f>Confirmed!AP23+Daily!X14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <f>Confirmed!AQ23+Daily!Y14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -17277,8 +17702,12 @@
         <f>Confirmed!AP24+Daily!X15</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <f>Confirmed!AQ24+Daily!Y15</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -17374,8 +17803,12 @@
         <f>Confirmed!AP25+Daily!X16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <f>Confirmed!AQ25+Daily!Y16</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -17471,8 +17904,12 @@
         <f>Confirmed!AP26+Daily!X17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <f>Confirmed!AQ26+Daily!Y17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -17568,8 +18005,12 @@
         <f>Confirmed!AP27+Daily!X18</f>
         <v>253</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18">
+        <f>Confirmed!AQ27+Daily!Y18</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -17665,8 +18106,12 @@
         <f>Confirmed!AP28+Daily!X19</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <f>Confirmed!AQ28+Daily!Y19</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -17762,8 +18207,12 @@
         <f>Confirmed!AP29+Daily!X20</f>
         <v>355</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <f>Confirmed!AQ29+Daily!Y20</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -17859,8 +18308,12 @@
         <f>Confirmed!AP30+Daily!X21</f>
         <v>403</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21">
+        <f>Confirmed!AQ30+Daily!Y21</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -17956,8 +18409,12 @@
         <f>Confirmed!AP31+Daily!X22</f>
         <v>462</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <f>Confirmed!AQ31+Daily!Y22</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -18053,8 +18510,12 @@
         <f>Confirmed!AP32+Daily!X23</f>
         <v>532</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y23">
+        <f>Confirmed!AQ32+Daily!Y23</f>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -18150,8 +18611,12 @@
         <f>Confirmed!AP33+Daily!X24</f>
         <v>646</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y24">
+        <f>Confirmed!AQ33+Daily!Y24</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -18247,8 +18712,12 @@
         <f>Confirmed!AP34+Daily!X25</f>
         <v>650</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y25">
+        <f>Confirmed!AQ34+Daily!Y25</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -18344,8 +18813,12 @@
         <f>Confirmed!AP35+Daily!X26</f>
         <v>676</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y26">
+        <f>Confirmed!AQ35+Daily!Y26</f>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -18441,8 +18914,12 @@
         <f>Confirmed!AP36+Daily!X27</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y27">
+        <f>Confirmed!AQ36+Daily!Y27</f>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -18538,8 +19015,12 @@
         <f>Confirmed!AP37+Daily!X28</f>
         <v>794</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y28">
+        <f>Confirmed!AQ37+Daily!Y28</f>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -18635,8 +19116,12 @@
         <f>Confirmed!AP38+Daily!X29</f>
         <v>812</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <f>Confirmed!AQ38+Daily!Y29</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -18732,8 +19217,12 @@
         <f>Confirmed!AP39+Daily!X30</f>
         <v>742</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y30">
+        <f>Confirmed!AQ39+Daily!Y30</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -18829,8 +19318,12 @@
         <f>Confirmed!AP40+Daily!X31</f>
         <v>729</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y31">
+        <f>Confirmed!AQ40+Daily!Y31</f>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -18926,8 +19419,12 @@
         <f>Confirmed!AP41+Daily!X32</f>
         <v>701</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y32">
+        <f>Confirmed!AQ41+Daily!Y32</f>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -19023,8 +19520,12 @@
         <f>Confirmed!AP42+Daily!X33</f>
         <v>691</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y33">
+        <f>Confirmed!AQ42+Daily!Y33</f>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -19120,8 +19621,12 @@
         <f>Confirmed!AP43+Daily!X34</f>
         <v>723</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y34">
+        <f>Confirmed!AQ43+Daily!Y34</f>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -19217,8 +19722,12 @@
         <f>Confirmed!AP44+Daily!X35</f>
         <v>735</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y35">
+        <f>Confirmed!AQ44+Daily!Y35</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -19314,8 +19823,12 @@
         <f>Confirmed!AP45+Daily!X36</f>
         <v>651</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y36">
+        <f>Confirmed!AQ45+Daily!Y36</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -19411,8 +19924,12 @@
         <f>Confirmed!AP46+Daily!X37</f>
         <v>538</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y37">
+        <f>Confirmed!AQ46+Daily!Y37</f>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -19508,8 +20025,12 @@
         <f>Confirmed!AP47+Daily!X38</f>
         <v>537</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y38">
+        <f>Confirmed!AQ47+Daily!Y38</f>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -19605,8 +20126,12 @@
         <f>Confirmed!AP48+Daily!X39</f>
         <v>457</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y39">
+        <f>Confirmed!AQ48+Daily!Y39</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -19682,8 +20207,12 @@
         <f>Confirmed!AP49+Daily!X40</f>
         <v>471</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y40">
+        <f>Confirmed!AQ49+Daily!Y40</f>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -19759,8 +20288,12 @@
         <f>Confirmed!AP50+Daily!X41</f>
         <v>462</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41">
+        <f>Confirmed!AQ50+Daily!Y41</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -19828,8 +20361,12 @@
         <f>Confirmed!AP51+Daily!X42</f>
         <v>445</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42">
+        <f>Confirmed!AQ51+Daily!Y42</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -19893,8 +20430,12 @@
         <f>Confirmed!AP52+Daily!X43</f>
         <v>393</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43">
+        <f>Confirmed!AQ52+Daily!Y43</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -19958,8 +20499,12 @@
         <f>Confirmed!AP53+Daily!X44</f>
         <v>379</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y44">
+        <f>Confirmed!AQ53+Daily!Y44</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -20019,8 +20564,12 @@
         <f>Confirmed!AP54+Daily!X45</f>
         <v>383</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y45">
+        <f>Confirmed!AQ54+Daily!Y45</f>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -20080,8 +20629,12 @@
         <f>Confirmed!AP55+Daily!X46</f>
         <v>353</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y46">
+        <f>Confirmed!AQ55+Daily!Y46</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -20137,8 +20690,12 @@
         <f>Confirmed!AP56+Daily!X47</f>
         <v>286</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y47">
+        <f>Confirmed!AQ56+Daily!Y47</f>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>426</v>
       </c>
@@ -20186,8 +20743,12 @@
         <f>Confirmed!AP57+Daily!X48</f>
         <v>286</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y48">
+        <f>Confirmed!AQ57+Daily!Y48</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>427</v>
       </c>
@@ -20231,8 +20792,12 @@
         <f>Confirmed!AP58+Daily!X49</f>
         <v>298</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y49">
+        <f>Confirmed!AQ58+Daily!Y49</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>428</v>
       </c>
@@ -20272,8 +20837,12 @@
         <f>Confirmed!AP59+Daily!X50</f>
         <v>243</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y50">
+        <f>Confirmed!AQ59+Daily!Y50</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>429</v>
       </c>
@@ -20309,8 +20878,12 @@
         <f>Confirmed!AP60+Daily!X51</f>
         <v>256</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y51">
+        <f>Confirmed!AQ60+Daily!Y51</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R52">
         <f>Confirmed!AJ61+Daily!R52</f>
         <v>0</v>
@@ -20339,8 +20912,12 @@
         <f>Confirmed!AP61+Daily!X52</f>
         <v>233</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y52">
+        <f>Confirmed!AQ61+Daily!Y52</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="S53">
         <f>Confirmed!AK62+Daily!S53</f>
         <v>0</v>
@@ -20365,8 +20942,12 @@
         <f>Confirmed!AP62+Daily!X53</f>
         <v>219</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y53">
+        <f>Confirmed!AQ62+Daily!Y53</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T54">
         <f>Confirmed!AL63+Daily!T54</f>
         <v>0</v>
@@ -20387,8 +20968,12 @@
         <f>Confirmed!AP63+Daily!X54</f>
         <v>201</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y54">
+        <f>Confirmed!AQ63+Daily!Y54</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="U55">
         <f>Confirmed!AM64+Daily!U55</f>
         <v>0</v>
@@ -20405,8 +20990,12 @@
         <f>Confirmed!AP64+Daily!X55</f>
         <v>182</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y55">
+        <f>Confirmed!AQ64+Daily!Y55</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="V56">
         <f>Confirmed!AN65+Daily!V56</f>
         <v>0</v>
@@ -20419,8 +21008,12 @@
         <f>Confirmed!AP65+Daily!X56</f>
         <v>143</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y56">
+        <f>Confirmed!AQ65+Daily!Y56</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="W57">
         <f>Confirmed!AO66+Daily!W57</f>
         <v>0</v>
@@ -20429,10 +21022,24 @@
         <f>Confirmed!AP66+Daily!X57</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y57">
+        <f>Confirmed!AQ66+Daily!Y57</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X58">
         <f>Confirmed!AP67+Daily!X58</f>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f>Confirmed!AQ67+Daily!Y58</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y59">
+        <f>Confirmed!AQ68+Daily!Y59</f>
         <v>0</v>
       </c>
     </row>
@@ -21081,8 +21688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C63"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21533,7 +22140,7 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D27">
         <v>89</v>
@@ -21555,7 +22162,7 @@
         <v>369</v>
       </c>
       <c r="D28">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -21574,7 +22181,7 @@
         <v>419</v>
       </c>
       <c r="D29">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -21612,7 +22219,7 @@
         <v>464</v>
       </c>
       <c r="D31">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -21628,10 +22235,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D32">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -21647,7 +22254,7 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D33">
         <v>194</v>
@@ -21685,7 +22292,7 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D35">
         <v>238</v>
@@ -21742,7 +22349,7 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D38">
         <v>203</v>
@@ -21761,10 +22368,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D39">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -21799,10 +22406,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D41">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -21821,7 +22428,7 @@
         <v>482</v>
       </c>
       <c r="D42">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -21837,10 +22444,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D43">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -21856,10 +22463,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D44">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -21878,7 +22485,7 @@
         <v>347</v>
       </c>
       <c r="D45">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -21894,7 +22501,7 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D46">
         <v>124</v>
@@ -21913,10 +22520,10 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D47">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
@@ -21932,10 +22539,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D48">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -21951,10 +22558,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D49">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -21970,10 +22577,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D50">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -21989,10 +22596,10 @@
         <v>328</v>
       </c>
       <c r="C51">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D51">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
@@ -22008,10 +22615,10 @@
         <v>323</v>
       </c>
       <c r="C52">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D52">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
@@ -22027,10 +22634,10 @@
         <v>353</v>
       </c>
       <c r="C53">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D53">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
@@ -22046,10 +22653,10 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D54">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
@@ -22065,10 +22672,10 @@
         <v>214</v>
       </c>
       <c r="C55">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D55">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
@@ -22084,10 +22691,10 @@
         <v>190</v>
       </c>
       <c r="C56">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D56">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
@@ -22103,10 +22710,10 @@
         <v>160</v>
       </c>
       <c r="C57">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D57">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
@@ -22122,10 +22729,10 @@
         <v>150</v>
       </c>
       <c r="C58">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D58">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
@@ -22141,10 +22748,10 @@
         <v>145</v>
       </c>
       <c r="C59">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D59">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2">
         <v>43952</v>
@@ -22159,10 +22766,10 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D60">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2">
         <v>43953</v>
@@ -22177,10 +22784,10 @@
         <v>110</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D61">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2">
         <f>E60+1</f>
@@ -22196,10 +22803,10 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D62">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2">
         <f>E61+1</f>
@@ -22215,10 +22822,10 @@
         <v>105</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2">
         <f>E62+1</f>
@@ -22232,6 +22839,16 @@
       </c>
       <c r="B64">
         <v>115</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2">
+        <f>E63+1</f>
+        <v>43957</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -22324,7 +22941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -22442,7 +23059,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F53" si="3">SUM(E4:E8)/5</f>
+        <f t="shared" ref="F6:F55" si="3">SUM(E4:E8)/5</f>
         <v>2</v>
       </c>
       <c r="G6">
@@ -22796,7 +23413,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>312.39999999999998</v>
+        <v>312.2</v>
       </c>
       <c r="D19">
         <v>312</v>
@@ -22807,7 +23424,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>52.6</v>
+        <v>52.4</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
@@ -22824,7 +23441,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>359.8</v>
+        <v>359.2</v>
       </c>
       <c r="D20">
         <v>359.4</v>
@@ -22835,7 +23452,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>47.4</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
@@ -22848,22 +23465,22 @@
         <v>43920</v>
       </c>
       <c r="B21">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>415.6</v>
+        <v>415.2</v>
       </c>
       <c r="D21">
         <v>415.4</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>55.8</v>
+        <v>56</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
@@ -22876,18 +23493,18 @@
         <v>43921</v>
       </c>
       <c r="B22">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>479.6</v>
+        <v>479.2</v>
       </c>
       <c r="D22">
         <v>479.4</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
@@ -22904,22 +23521,22 @@
         <v>43922</v>
       </c>
       <c r="B23">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>538.6</v>
+        <v>538.4</v>
       </c>
       <c r="D23">
         <v>538.79999999999995</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>59.2</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
@@ -22936,18 +23553,18 @@
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>593.20000000000005</v>
+        <v>593.6</v>
       </c>
       <c r="D24">
         <v>593.20000000000005</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>54.6</v>
+        <v>55.2</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
@@ -22960,22 +23577,22 @@
         <v>43924</v>
       </c>
       <c r="B25">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D25">
         <v>646</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
@@ -22988,22 +23605,22 @@
         <v>43925</v>
       </c>
       <c r="B26">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>698.4</v>
+        <v>699.2</v>
       </c>
       <c r="D26">
         <v>698.2</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>52.4</v>
+        <v>52.2</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
@@ -23016,22 +23633,22 @@
         <v>43926</v>
       </c>
       <c r="B27">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>731.6</v>
+        <v>732.6</v>
       </c>
       <c r="D27">
         <v>731.4</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>33.200000000000003</v>
+        <v>33.4</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
@@ -23048,18 +23665,18 @@
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>750.8</v>
       </c>
       <c r="D28">
         <v>749.4</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>18.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
@@ -23072,22 +23689,22 @@
         <v>43928</v>
       </c>
       <c r="B29">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>760.6</v>
+        <v>761</v>
       </c>
       <c r="D29">
         <v>760.6</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
@@ -23104,14 +23721,14 @@
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>755.6</v>
+        <v>756</v>
       </c>
       <c r="D30">
         <v>755.8</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-70</v>
+        <v>-71</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
@@ -23132,7 +23749,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D31">
         <v>735.4</v>
@@ -23143,7 +23760,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>-20.6</v>
+        <v>-20</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
@@ -23156,22 +23773,22 @@
         <v>43931</v>
       </c>
       <c r="B32">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>717.2</v>
+        <v>718</v>
       </c>
       <c r="D32">
         <v>717.6</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>-17.8</v>
+        <v>-18</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
@@ -23184,18 +23801,18 @@
         <v>43932</v>
       </c>
       <c r="B33">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>715.8</v>
+        <v>716.6</v>
       </c>
       <c r="D33">
         <v>716.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -23216,18 +23833,18 @@
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>700.2</v>
+        <v>701.4</v>
       </c>
       <c r="D34">
         <v>700.6</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>-15.6</v>
+        <v>-15.2</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
@@ -23244,7 +23861,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>667.6</v>
+        <v>668.8</v>
       </c>
       <c r="D35">
         <v>667.4</v>
@@ -23268,22 +23885,22 @@
         <v>43935</v>
       </c>
       <c r="B36">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C54" si="5">SUM(B34:B38)/5</f>
-        <v>636.79999999999995</v>
+        <f t="shared" ref="C36:C55" si="5">SUM(B34:B38)/5</f>
+        <v>637.20000000000005</v>
       </c>
       <c r="D36">
         <v>636.79999999999995</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-84</v>
+        <v>-82</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>-30.8</v>
+        <v>-31.6</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
@@ -23296,22 +23913,22 @@
         <v>43936</v>
       </c>
       <c r="B37">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>583.6</v>
+        <v>583.79999999999995</v>
       </c>
       <c r="D37">
         <v>583.4</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-113</v>
+        <v>-114</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>-53.2</v>
+        <v>-53.4</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
@@ -23324,22 +23941,22 @@
         <v>43937</v>
       </c>
       <c r="B38">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
-        <v>530.79999999999995</v>
+        <v>531.20000000000005</v>
       </c>
       <c r="D38">
         <v>531.20000000000005</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>-52.8</v>
+        <v>-52.6</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
@@ -23352,11 +23969,11 @@
         <v>43938</v>
       </c>
       <c r="B39">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
-        <v>493</v>
+        <v>492.8</v>
       </c>
       <c r="D39">
         <v>493</v>
@@ -23367,7 +23984,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>-37.799999999999997</v>
+        <v>-38.4</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
@@ -23380,22 +23997,22 @@
         <v>43939</v>
       </c>
       <c r="B40">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C40">
         <f t="shared" si="5"/>
-        <v>474.4</v>
+        <v>474</v>
       </c>
       <c r="D40">
         <v>475</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>-18.600000000000001</v>
+        <v>-18.8</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
@@ -23408,22 +24025,22 @@
         <v>43940</v>
       </c>
       <c r="B41">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C41">
         <f t="shared" si="5"/>
-        <v>445.6</v>
+        <v>445.4</v>
       </c>
       <c r="D41">
         <v>445.2</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>-28.8</v>
+        <v>-28.6</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
@@ -23440,18 +24057,18 @@
       </c>
       <c r="C42">
         <f t="shared" si="5"/>
-        <v>430</v>
+        <v>429.6</v>
       </c>
       <c r="D42">
         <v>430.50492780847179</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>-15.6</v>
+        <v>-15.8</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
@@ -23468,7 +24085,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="5"/>
-        <v>412.4</v>
+        <v>411.8</v>
       </c>
       <c r="D43">
         <v>413.36748209880926</v>
@@ -23479,7 +24096,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>-17.600000000000001</v>
+        <v>-17.8</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
@@ -23492,22 +24109,22 @@
         <v>43943</v>
       </c>
       <c r="B44">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C44">
         <f t="shared" si="5"/>
-        <v>390.6</v>
+        <v>390.8</v>
       </c>
       <c r="D44">
         <v>393.13932089856434</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>-21.8</v>
+        <v>-21</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
@@ -23524,18 +24141,18 @@
       </c>
       <c r="C45">
         <f t="shared" si="5"/>
-        <v>358.8</v>
+        <v>359.2</v>
       </c>
       <c r="D45">
         <v>364.50701482777595</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>-31.8</v>
+        <v>-31.6</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
@@ -23548,22 +24165,22 @@
         <v>43945</v>
       </c>
       <c r="B46">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C46">
         <f t="shared" si="5"/>
-        <v>337.4</v>
+        <v>337.6</v>
       </c>
       <c r="D46">
         <v>348.9974495709983</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>-21.4</v>
+        <v>-21.6</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
@@ -23576,22 +24193,22 @@
         <v>43946</v>
       </c>
       <c r="B47">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C47">
         <f t="shared" si="5"/>
-        <v>321.2</v>
+        <v>322.2</v>
       </c>
       <c r="D47">
         <v>339.82202689112898</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-67</v>
+        <v>-69</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>-16.2</v>
+        <v>-15.4</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
@@ -23604,22 +24221,22 @@
         <v>43947</v>
       </c>
       <c r="B48">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C48">
         <f t="shared" si="5"/>
-        <v>293.2</v>
+        <v>294.60000000000002</v>
       </c>
       <c r="D48">
         <v>320.26711476619295</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F48">
         <f>SUM(E46:E50)/5</f>
-        <v>-28</v>
+        <v>-27.6</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
@@ -23632,18 +24249,18 @@
         <v>43948</v>
       </c>
       <c r="B49">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C49">
         <f t="shared" si="5"/>
-        <v>273.8</v>
+        <v>275.2</v>
       </c>
       <c r="D49">
         <v>312.38384997091191</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F49">
         <f>SUM(E47:E51)/5</f>
@@ -23660,11 +24277,11 @@
         <v>43949</v>
       </c>
       <c r="B50">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C50">
         <f t="shared" si="5"/>
-        <v>263.2</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="D50">
         <v>313.77033729723553</v>
@@ -23688,22 +24305,22 @@
         <v>43950</v>
       </c>
       <c r="B51">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C51">
         <f t="shared" si="5"/>
-        <v>249.8</v>
+        <v>253.4</v>
       </c>
       <c r="D51">
         <v>317.2823394506741</v>
       </c>
       <c r="E51">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>-13.4</v>
+        <v>-11.2</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
@@ -23716,22 +24333,22 @@
         <v>43951</v>
       </c>
       <c r="B52">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C52">
         <f t="shared" si="5"/>
-        <v>230.4</v>
+        <v>235.2</v>
       </c>
       <c r="D52">
         <v>311.28827781467197</v>
       </c>
       <c r="E52">
         <f t="shared" si="6"/>
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>-19.399999999999999</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -23740,22 +24357,22 @@
         <v>43952</v>
       </c>
       <c r="B53">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C53">
         <f t="shared" si="5"/>
-        <v>218.2</v>
+        <v>223.8</v>
       </c>
       <c r="D53">
         <v>304.48315896757759</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53:E55" si="7">B53-B52</f>
-        <v>-14</v>
+        <f t="shared" ref="E53:E56" si="7">B53-B52</f>
+        <v>-5</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
-        <v>-12.2</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -23764,15 +24381,19 @@
         <v>43953</v>
       </c>
       <c r="B54">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C54">
         <f t="shared" si="5"/>
-        <v>195.6</v>
+        <v>205.4</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>-18</v>
+        <v>-20</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>-18.399999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -23781,11 +24402,15 @@
         <v>43954</v>
       </c>
       <c r="B55">
-        <v>182</v>
+        <v>188</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>184.4</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>-19</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -23794,7 +24419,11 @@
         <v>43955</v>
       </c>
       <c r="B56">
-        <v>143</v>
+        <v>167</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="7"/>
+        <v>-21</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -23803,13 +24432,13 @@
         <v>43956</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -672,103 +672,106 @@
                   <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>477</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>533</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>575</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>519</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>520</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>499</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>508</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>527</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>527</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>482</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>425</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>381</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>347</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>348</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>349</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>324</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>285</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>284</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>284</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>272</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>211</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>208</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>178</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>157</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>141</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>127</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>114</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>86</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1080,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4</c:v>
@@ -1092,7 +1095,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>14</c:v>
@@ -1101,7 +1104,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40</c:v>
@@ -1110,67 +1113,67 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>61</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>73</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>114</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>187</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>201</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>194</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>245</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>238</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>223</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>203</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>186</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>196</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>208</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>171</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>114</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>109</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>124</c:v>
@@ -1179,55 +1182,58 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>121</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>108</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>93</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>84</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>76</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>77</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>85</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>102</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>93</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>102</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>95</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>102</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>111</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>99</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>17</c:v>
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,8 +1249,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="389381792"/>
-        <c:axId val="389380112"/>
+        <c:axId val="300766336"/>
+        <c:axId val="300766896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1785,11 +1791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389381792"/>
-        <c:axId val="389380112"/>
+        <c:axId val="300766336"/>
+        <c:axId val="300766896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="389381792"/>
+        <c:axId val="300766336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389380112"/>
+        <c:crossAx val="300766896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1840,7 +1846,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="389380112"/>
+        <c:axId val="300766896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389381792"/>
+        <c:crossAx val="300766336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2066,23 +2072,24 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>smootheddeaths!$F$1</c:f>
+              <c:f>smootheddeaths!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>five-day deriv</c:v>
+                  <c:v>Five-day</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2265,523 +2272,171 @@
                 <c:pt idx="55">
                   <c:v>43956</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>smootheddeaths!$F$2:$F$500</c:f>
+              <c:f>smootheddeaths!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="50"/>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.4</c:v>
+                  <c:v>53.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>69.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.2</c:v>
+                  <c:v>87.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.799999999999997</c:v>
+                  <c:v>123.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.200000000000003</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.8</c:v>
+                  <c:v>209.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.8</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.4</c:v>
+                  <c:v>311.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47</c:v>
+                  <c:v>358.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56</c:v>
+                  <c:v>414.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64</c:v>
+                  <c:v>478.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59.2</c:v>
+                  <c:v>538.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.2</c:v>
+                  <c:v>593.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.4</c:v>
+                  <c:v>646.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.2</c:v>
+                  <c:v>698.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33.4</c:v>
+                  <c:v>732.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.2</c:v>
+                  <c:v>750.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.199999999999999</c:v>
+                  <c:v>761.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5</c:v>
+                  <c:v>756.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-20</c:v>
+                  <c:v>736.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-18</c:v>
+                  <c:v>719.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.4</c:v>
+                  <c:v>717.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-15.2</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-32.6</c:v>
+                  <c:v>669.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-31.6</c:v>
+                  <c:v>638.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-53.4</c:v>
+                  <c:v>584.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-52.6</c:v>
+                  <c:v>531.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-38.4</c:v>
+                  <c:v>494.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-18.8</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-28.6</c:v>
+                  <c:v>445.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-15.8</c:v>
+                  <c:v>430.2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-17.8</c:v>
+                  <c:v>412.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-21</c:v>
+                  <c:v>390.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-31.6</c:v>
+                  <c:v>359.4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-21.6</c:v>
+                  <c:v>338.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-15.4</c:v>
+                  <c:v>321.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-27.6</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-19.399999999999999</c:v>
+                  <c:v>275.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-10.6</c:v>
+                  <c:v>266.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-11.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-18.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-11.4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-18.399999999999999</c:v>
+                  <c:v>255.8</c:v>
                 </c:pt>
               </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>smootheddeaths!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>adjusted 5-day deriv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>smootheddeaths!$A$2:$A$500</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="499"/>
-                <c:pt idx="0">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43928</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43929</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43933</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43942</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43943</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43946</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43947</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43949</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43954</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43956</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>smootheddeaths!$G$2:$G$500</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="499"/>
-                <c:pt idx="3">
-                  <c:v>1.7999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.2000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>49.599999999999966</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52.600000000000023</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47.399999999999977</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>59.399999999999977</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54.400000000000091</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52.799999999999955</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52.200000000000045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33.199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.200000000000045</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-4.8000000000000682</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-20.399999999999977</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-17.799999999999955</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.3999999999999773</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-15.600000000000023</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-33.200000000000045</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-30.600000000000023</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-53.399999999999977</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-52.199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-38.200000000000045</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-18</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-29.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-14.695072191528197</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-17.137445709662529</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-20.228161200244926</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-28.632306070788388</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-15.509565256777648</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-9.1754226798693139</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-19.554912124936038</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-7.8832647952810362</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.3864873263236177</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.5120021534385728</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2795,8 +2450,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="300732288"/>
-        <c:axId val="300732848"/>
+        <c:axId val="397025104"/>
+        <c:axId val="397027344"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3012,6 +2667,15 @@
                       <c:pt idx="55">
                         <c:v>43956</c:v>
                       </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43957</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43958</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43959</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3046,7 +2710,7 @@
                         <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>11</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>25</c:v>
@@ -3061,7 +2725,7 @@
                         <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>52</c:v>
+                        <c:v>51</c:v>
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>97</c:v>
@@ -3070,7 +2734,7 @@
                         <c:v>106</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>140</c:v>
+                        <c:v>139</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>225</c:v>
@@ -3079,475 +2743,97 @@
                         <c:v>253</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>326</c:v>
+                        <c:v>325</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>355</c:v>
+                        <c:v>353</c:v>
                       </c:pt>
                       <c:pt idx="19">
                         <c:v>402</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>460</c:v>
+                        <c:v>461</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>533</c:v>
+                        <c:v>530</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>646</c:v>
                       </c:pt>
                       <c:pt idx="23">
+                        <c:v>652</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>677</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>726</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>793</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>814</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>743</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>730</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>704</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>693</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>726</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>736</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
                         <c:v>651</c:v>
                       </c:pt>
-                      <c:pt idx="24">
-                        <c:v>678</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>727</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>794</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>813</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>742</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>729</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>702</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>694</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>723</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>735</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>653</c:v>
-                      </c:pt>
                       <c:pt idx="35">
-                        <c:v>539</c:v>
+                        <c:v>540</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>536</c:v>
+                        <c:v>538</c:v>
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>456</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>472</c:v>
+                        <c:v>473</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>461</c:v>
+                        <c:v>465</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>445</c:v>
+                        <c:v>443</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>393</c:v>
+                        <c:v>392</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>377</c:v>
+                        <c:v>378</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>383</c:v>
+                        <c:v>385</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>356</c:v>
+                        <c:v>355</c:v>
                       </c:pt>
                       <c:pt idx="45">
                         <c:v>287</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>285</c:v>
+                        <c:v>286</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>300</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Five-day</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="499"/>
-                      <c:pt idx="0">
-                        <c:v>43901</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>43902</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>43903</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>43904</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>43905</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>43906</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>43907</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>43908</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>43909</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>43910</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>43911</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>43912</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>43913</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>43914</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>43915</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>43916</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>43917</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>43918</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>43919</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>43920</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>43921</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>43922</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>43923</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>43924</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>43925</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>43926</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>43927</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>43928</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>43929</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>43930</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>43931</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>43932</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>43933</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>43934</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>43935</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>43936</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>43937</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>43938</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>43939</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>43940</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>43941</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>43942</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>43943</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>43944</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>43945</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>43946</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>43947</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>43948</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>43949</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>43950</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>43951</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>43952</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>43953</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>43954</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>43955</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>43956</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$C$2:$C$51</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5.8</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>10.8</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>15.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>24.2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>31.4</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>39.6</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>88.2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>124</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>164.2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>259.8</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>312.2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>359.2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>415.2</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>479.2</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>538.4</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>593.6</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>647</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>699.2</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>732.6</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>750.8</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>761</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>756</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>736</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>718</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>716.6</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>701.4</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>668.8</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>637.20000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>583.79999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>531.20000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>492.8</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>474</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>445.4</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>429.6</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>411.8</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>390.8</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>359.2</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>337.6</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>322.2</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>294.60000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>275.2</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>264.60000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>253.4</c:v>
+                        <c:v>296</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3768,6 +3054,15 @@
                       <c:pt idx="55">
                         <c:v>43956</c:v>
                       </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43957</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43958</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43959</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3799,10 +3094,10 @@
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>1</c:v>
@@ -3814,46 +3109,46 @@
                         <c:v>-3</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>6</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>45</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>34</c:v>
+                        <c:v>33</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>85</c:v>
+                        <c:v>86</c:v>
                       </c:pt>
                       <c:pt idx="16">
                         <c:v>28</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>73</c:v>
+                        <c:v>72</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>29</c:v>
+                        <c:v>28</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>47</c:v>
+                        <c:v>49</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>58</c:v>
+                        <c:v>59</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>73</c:v>
+                        <c:v>69</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>113</c:v>
+                        <c:v>116</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>27</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>49</c:v>
@@ -3862,7 +3157,7 @@
                         <c:v>67</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>19</c:v>
+                        <c:v>21</c:v>
                       </c:pt>
                       <c:pt idx="28">
                         <c:v>-71</c:v>
@@ -3871,58 +3166,451 @@
                         <c:v>-13</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>-27</c:v>
+                        <c:v>-26</c:v>
                       </c:pt>
                       <c:pt idx="31">
+                        <c:v>-11</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-85</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-111</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-82</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
                         <c:v>-8</c:v>
                       </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-22</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-51</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>-14</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>-30</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>-68</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>five-day deriv</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="499"/>
+                      <c:pt idx="0">
+                        <c:v>43901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43902</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43903</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43904</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43905</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43906</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43907</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43908</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43909</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43910</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43911</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43912</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43913</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43914</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43915</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43916</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43917</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43918</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43919</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43920</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43922</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43923</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43924</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43925</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43926</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43927</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43932</c:v>
+                      </c:pt>
                       <c:pt idx="32">
-                        <c:v>29</c:v>
+                        <c:v>43933</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>12</c:v>
+                        <c:v>43934</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>-82</c:v>
+                        <c:v>43935</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>-114</c:v>
+                        <c:v>43936</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>-3</c:v>
+                        <c:v>43937</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>-80</c:v>
+                        <c:v>43938</c:v>
                       </c:pt>
                       <c:pt idx="38">
+                        <c:v>43939</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43940</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43941</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43942</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43943</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43944</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43945</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43946</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43947</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43948</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43949</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43950</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43952</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43953</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43954</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43955</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43956</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43957</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43958</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43959</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$F$2:$F$500</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="499"/>
+                      <c:pt idx="3">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.1999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>14.4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>16</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>35.799999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>40.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>45.6</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>49.4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>52.6</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>47.2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>55.4</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>64.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>59.8</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>52.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>33.6</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>18.2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>10.6</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-4.4000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-20</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-17.600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-15.8</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>-32.799999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-31</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-54</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-52.6</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-37.200000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-19.399999999999999</c:v>
+                      </c:pt>
                       <c:pt idx="39">
-                        <c:v>-11</c:v>
+                        <c:v>-29.2</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>-16</c:v>
+                        <c:v>-15.6</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>-52</c:v>
+                        <c:v>-17.600000000000001</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>-16</c:v>
+                        <c:v>-22</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>6</c:v>
+                        <c:v>-31.2</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>-27</c:v>
+                        <c:v>-21.2</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>-69</c:v>
+                        <c:v>-16.399999999999999</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>-2</c:v>
+                        <c:v>-27.8</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>15</c:v>
+                        <c:v>-18.600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>-9</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>-10.6</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>-16.8</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>-10.6</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>-18.399999999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4129,6 +3817,15 @@
                       <c:pt idx="55">
                         <c:v>43956</c:v>
                       </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43957</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43958</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43959</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -4294,11 +3991,397 @@
                 <c:smooth val="0"/>
               </c15:ser>
             </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>adjusted 5-day deriv</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="499"/>
+                      <c:pt idx="0">
+                        <c:v>43901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43902</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43903</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43904</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43905</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43906</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43907</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43908</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43909</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43910</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43911</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43912</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43913</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43914</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43915</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43916</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43917</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43918</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43919</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43920</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43922</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43923</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43924</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43925</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43926</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43927</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43935</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43938</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43939</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43940</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43941</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43942</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43943</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43944</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43945</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43946</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43947</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43948</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43949</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43950</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43952</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43953</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43954</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43955</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43956</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43957</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43958</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43959</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$G$2:$G$500</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="499"/>
+                      <c:pt idx="3">
+                        <c:v>1.7999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0000000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.7999999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.1999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.2000000000000028</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>14.399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>18.200000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>35.799999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>45.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>49.599999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>52.600000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>47.399999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>59.399999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>54.400000000000091</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>52.799999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>52.200000000000045</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>33.199999999999932</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>11.200000000000045</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-4.8000000000000682</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-20.399999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-17.799999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-1.3999999999999773</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-15.600000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>-33.200000000000045</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-30.600000000000023</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-53.399999999999977</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-52.199999999999932</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-38.200000000000045</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-18</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-29.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-14.695072191528197</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-17.137445709662529</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>-20.228161200244926</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>-28.632306070788388</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>-15.509565256777648</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>-9.1754226798693139</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>-19.554912124936038</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>-7.8832647952810362</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1.3864873263236177</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>3.5120021534385728</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="300732288"/>
+        <c:axId val="397025104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43956"/>
@@ -4342,7 +4425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300732848"/>
+        <c:crossAx val="397027344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4351,7 +4434,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300732848"/>
+        <c:axId val="397027344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4402,7 +4485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300732288"/>
+        <c:crossAx val="397025104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5591,7 +5674,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6824,15 +6907,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Y58"/>
+    <sheetView topLeftCell="N40" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7:Z59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -6905,8 +6988,11 @@
       <c r="Y1">
         <v>507</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -6923,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -6940,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -6957,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -6989,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -7018,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -7097,8 +7183,11 @@
       <c r="Y7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -7180,8 +7269,11 @@
       <c r="Y8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -7263,8 +7355,11 @@
       <c r="Y9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -7346,8 +7441,11 @@
       <c r="Y10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -7429,8 +7527,11 @@
       <c r="Y11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -7512,8 +7613,11 @@
       <c r="Y12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -7595,8 +7699,11 @@
       <c r="Y13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -7678,8 +7785,11 @@
       <c r="Y14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -7761,8 +7871,11 @@
       <c r="Y15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -7844,8 +7957,11 @@
       <c r="Y16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -7927,8 +8043,11 @@
       <c r="Y17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -8010,8 +8129,11 @@
       <c r="Y18">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -8093,8 +8215,11 @@
       <c r="Y19">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -8176,8 +8301,11 @@
       <c r="Y20">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -8259,8 +8387,11 @@
       <c r="Y21">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -8342,8 +8473,11 @@
       <c r="Y22">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -8425,8 +8559,11 @@
       <c r="Y23">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -8508,8 +8645,11 @@
       <c r="Y24">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -8591,8 +8731,11 @@
       <c r="Y25">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -8674,8 +8817,11 @@
       <c r="Y26">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -8757,8 +8903,11 @@
       <c r="Y27">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -8840,8 +8989,11 @@
       <c r="Y28">
         <v>245</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -8923,8 +9075,11 @@
       <c r="Y29">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -9006,8 +9161,11 @@
       <c r="Y30">
         <v>223</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -9089,8 +9247,11 @@
       <c r="Y31">
         <v>209</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z31">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -9172,8 +9333,11 @@
       <c r="Y32">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -9255,8 +9419,11 @@
       <c r="Y33">
         <v>186</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z33">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -9338,8 +9505,11 @@
       <c r="Y34">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z34">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -9421,8 +9591,11 @@
       <c r="Y35">
         <v>208</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -9500,8 +9673,11 @@
       <c r="Y36">
         <v>171</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z36">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -9575,8 +9751,11 @@
       <c r="Y37">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z37">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -9646,8 +9825,11 @@
       <c r="Y38">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z38">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -9713,8 +9895,11 @@
       <c r="Y39">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z39">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -9776,8 +9961,11 @@
       <c r="Y40">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z40">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -9832,8 +10020,11 @@
       <c r="Y41">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z41">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -9888,8 +10079,11 @@
       <c r="Y42">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z42">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -9941,8 +10135,11 @@
       <c r="Y43">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z43">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -9991,8 +10188,11 @@
       <c r="Y44">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z44">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -10038,8 +10238,11 @@
       <c r="Y45">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -10082,8 +10285,11 @@
       <c r="Y46">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -10123,8 +10329,11 @@
       <c r="Y47">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>17</v>
       </c>
@@ -10158,8 +10367,11 @@
       <c r="Y48">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z48">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="16:26" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>19</v>
       </c>
@@ -10190,8 +10402,11 @@
       <c r="Y49">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z49">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="16:26" x14ac:dyDescent="0.3">
       <c r="Q50">
         <v>11</v>
       </c>
@@ -10219,8 +10434,11 @@
       <c r="Y50">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z50">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="16:26" x14ac:dyDescent="0.3">
       <c r="R51">
         <v>22</v>
       </c>
@@ -10245,8 +10463,11 @@
       <c r="Y51">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z51">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="16:26" x14ac:dyDescent="0.3">
       <c r="S52">
         <v>15</v>
       </c>
@@ -10268,8 +10489,11 @@
       <c r="Y52">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="16:26" x14ac:dyDescent="0.3">
       <c r="T53">
         <v>0</v>
       </c>
@@ -10288,8 +10512,11 @@
       <c r="Y53">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z53">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="16:26" x14ac:dyDescent="0.3">
       <c r="U54">
         <v>20</v>
       </c>
@@ -10305,8 +10532,11 @@
       <c r="Y54">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z54">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="16:26" x14ac:dyDescent="0.3">
       <c r="V55">
         <v>21</v>
       </c>
@@ -10319,8 +10549,11 @@
       <c r="Y55">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z55">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="16:26" x14ac:dyDescent="0.3">
       <c r="W56">
         <v>12</v>
       </c>
@@ -10330,18 +10563,32 @@
       <c r="Y56">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z56">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="16:26" x14ac:dyDescent="0.3">
       <c r="X57">
         <v>12</v>
       </c>
       <c r="Y57">
         <v>99</v>
       </c>
-    </row>
-    <row r="58" spans="16:25" x14ac:dyDescent="0.3">
+      <c r="Z57">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="16:26" x14ac:dyDescent="0.3">
       <c r="Y58">
         <v>17</v>
+      </c>
+      <c r="Z58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="Z59">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -10351,15 +10598,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR68"/>
   <sheetViews>
-    <sheetView topLeftCell="Z48" workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11:AQ67"/>
+    <sheetView topLeftCell="AI57" workbookViewId="0">
+      <selection activeCell="AR11" sqref="AR11:AR68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -10486,8 +10733,11 @@
       <c r="AQ1">
         <v>507</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -10573,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -10662,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -10751,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -10840,7 +11090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -10929,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -11018,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -11107,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -11196,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -11285,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -11415,8 +11665,11 @@
       <c r="AQ11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -11546,8 +11799,11 @@
       <c r="AQ12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -11677,8 +11933,11 @@
       <c r="AQ13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -11808,8 +12067,11 @@
       <c r="AQ14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -11939,8 +12201,11 @@
       <c r="AQ15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -12070,8 +12335,11 @@
       <c r="AQ16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -12201,8 +12469,11 @@
       <c r="AQ17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -12332,8 +12603,11 @@
       <c r="AQ18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -12463,8 +12737,11 @@
       <c r="AQ19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -12594,8 +12871,11 @@
       <c r="AQ20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -12725,8 +13005,11 @@
       <c r="AQ21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -12856,8 +13139,11 @@
       <c r="AQ22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -12987,8 +13273,11 @@
       <c r="AQ23">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -13118,8 +13407,11 @@
       <c r="AQ24">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -13249,8 +13541,11 @@
       <c r="AQ25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -13377,8 +13672,11 @@
       <c r="AQ26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -13502,8 +13800,11 @@
       <c r="AQ27">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR27">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -13624,8 +13925,11 @@
       <c r="AQ28">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR28">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -13746,8 +14050,11 @@
       <c r="AQ29">
         <v>282</v>
       </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR29">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -13868,8 +14175,11 @@
       <c r="AQ30">
         <v>313</v>
       </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR30">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -13987,8 +14297,11 @@
       <c r="AQ31">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR31">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -14103,8 +14416,11 @@
       <c r="AQ32">
         <v>419</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR32">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -14216,8 +14532,11 @@
       <c r="AQ33">
         <v>456</v>
       </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR33">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -14326,8 +14645,11 @@
       <c r="AQ34">
         <v>464</v>
       </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR34">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -14433,8 +14755,11 @@
       <c r="AQ35">
         <v>477</v>
       </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -14537,8 +14862,11 @@
       <c r="AQ36">
         <v>533</v>
       </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR36">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -14638,8 +14966,11 @@
       <c r="AQ37">
         <v>549</v>
       </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR37">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -14736,8 +15067,11 @@
       <c r="AQ38">
         <v>575</v>
       </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR38">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -14831,8 +15165,11 @@
       <c r="AQ39">
         <v>519</v>
       </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR39">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -14923,8 +15260,11 @@
       <c r="AQ40">
         <v>520</v>
       </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR40">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -15012,8 +15352,11 @@
       <c r="AQ41">
         <v>499</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR41">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -15098,8 +15441,11 @@
       <c r="AQ42">
         <v>508</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR42">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -15181,8 +15527,11 @@
       <c r="AQ43">
         <v>527</v>
       </c>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR43">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -15261,8 +15610,11 @@
       <c r="AQ44">
         <v>527</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR44">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -15335,8 +15687,11 @@
       <c r="AQ45">
         <v>482</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR45">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -15406,8 +15761,11 @@
       <c r="AQ46">
         <v>425</v>
       </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR46">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -15474,8 +15832,11 @@
       <c r="AQ47">
         <v>381</v>
       </c>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR47">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -15539,8 +15900,11 @@
       <c r="AQ48">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR48">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -15601,8 +15965,11 @@
       <c r="AQ49">
         <v>348</v>
       </c>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR49">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -15660,8 +16027,11 @@
       <c r="AQ50">
         <v>349</v>
       </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR50">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -15716,8 +16086,11 @@
       <c r="AQ51">
         <v>324</v>
       </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR51">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -15769,8 +16142,11 @@
       <c r="AQ52">
         <v>285</v>
       </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR52">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -15819,8 +16195,11 @@
       <c r="AQ53">
         <v>284</v>
       </c>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR53">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -15866,8 +16245,11 @@
       <c r="AQ54">
         <v>284</v>
       </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR54">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -15910,8 +16292,11 @@
       <c r="AQ55">
         <v>272</v>
       </c>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR55">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -15951,8 +16336,11 @@
       <c r="AQ56">
         <v>211</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR56">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>426</v>
       </c>
@@ -15989,8 +16377,11 @@
       <c r="AQ57">
         <v>208</v>
       </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR57">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>427</v>
       </c>
@@ -16024,8 +16415,11 @@
       <c r="AQ58">
         <v>215</v>
       </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR58">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>428</v>
       </c>
@@ -16056,8 +16450,11 @@
       <c r="AQ59">
         <v>178</v>
       </c>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR59">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>429</v>
       </c>
@@ -16085,8 +16482,11 @@
       <c r="AQ60">
         <v>157</v>
       </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR60">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>430</v>
       </c>
@@ -16111,8 +16511,11 @@
       <c r="AQ61">
         <v>141</v>
       </c>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR61">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>501</v>
       </c>
@@ -16134,8 +16537,11 @@
       <c r="AQ62">
         <v>127</v>
       </c>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR62">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>502</v>
       </c>
@@ -16154,8 +16560,11 @@
       <c r="AQ63">
         <v>114</v>
       </c>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR63">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>503</v>
       </c>
@@ -16171,8 +16580,11 @@
       <c r="AQ64">
         <v>86</v>
       </c>
-    </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR64">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>504</v>
       </c>
@@ -16185,8 +16597,11 @@
       <c r="AQ65">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR65">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>505</v>
       </c>
@@ -16196,10 +16611,21 @@
       <c r="AQ66">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="AQ67">
         <v>2</v>
+      </c>
+      <c r="AR67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR68">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -16209,15 +16635,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView topLeftCell="K57" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y58"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -16292,8 +16718,11 @@
       <c r="Y1">
         <v>507</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -16393,8 +16822,12 @@
         <f>Confirmed!AQ11+Daily!Y2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2">
+        <f>Confirmed!AR11+Daily!Z2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -16494,8 +16927,12 @@
         <f>Confirmed!AQ12+Daily!Y3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3">
+        <f>Confirmed!AR12+Daily!Z3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -16595,8 +17032,12 @@
         <f>Confirmed!AQ13+Daily!Y4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <f>Confirmed!AR13+Daily!Z4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -16696,8 +17137,12 @@
         <f>Confirmed!AQ14+Daily!Y5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <f>Confirmed!AR14+Daily!Z5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -16797,8 +17242,12 @@
         <f>Confirmed!AQ15+Daily!Y6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <f>Confirmed!AR15+Daily!Z6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -16898,8 +17347,12 @@
         <f>Confirmed!AQ16+Daily!Y7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <f>Confirmed!AR16+Daily!Z7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -16999,8 +17452,12 @@
         <f>Confirmed!AQ17+Daily!Y8</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <f>Confirmed!AR17+Daily!Z8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -17100,8 +17557,12 @@
         <f>Confirmed!AQ18+Daily!Y9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <f>Confirmed!AR18+Daily!Z9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -17201,8 +17662,12 @@
         <f>Confirmed!AQ19+Daily!Y10</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <f>Confirmed!AR19+Daily!Z10</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -17302,8 +17767,12 @@
         <f>Confirmed!AQ20+Daily!Y11</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11">
+        <f>Confirmed!AR20+Daily!Z11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -17403,8 +17872,12 @@
         <f>Confirmed!AQ21+Daily!Y12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12">
+        <f>Confirmed!AR21+Daily!Z12</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -17504,8 +17977,12 @@
         <f>Confirmed!AQ22+Daily!Y13</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13">
+        <f>Confirmed!AR22+Daily!Z13</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -17605,8 +18082,12 @@
         <f>Confirmed!AQ23+Daily!Y14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14">
+        <f>Confirmed!AR23+Daily!Z14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -17706,8 +18187,12 @@
         <f>Confirmed!AQ24+Daily!Y15</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15">
+        <f>Confirmed!AR24+Daily!Z15</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -17807,8 +18292,12 @@
         <f>Confirmed!AQ25+Daily!Y16</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <f>Confirmed!AR25+Daily!Z16</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -17908,8 +18397,12 @@
         <f>Confirmed!AQ26+Daily!Y17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17">
+        <f>Confirmed!AR26+Daily!Z17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -18009,8 +18502,12 @@
         <f>Confirmed!AQ27+Daily!Y18</f>
         <v>253</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18">
+        <f>Confirmed!AR27+Daily!Z18</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -18110,8 +18607,12 @@
         <f>Confirmed!AQ28+Daily!Y19</f>
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19">
+        <f>Confirmed!AR28+Daily!Z19</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -18211,8 +18712,12 @@
         <f>Confirmed!AQ29+Daily!Y20</f>
         <v>355</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20">
+        <f>Confirmed!AR29+Daily!Z20</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -18312,8 +18817,12 @@
         <f>Confirmed!AQ30+Daily!Y21</f>
         <v>402</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <f>Confirmed!AR30+Daily!Z21</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -18413,8 +18922,12 @@
         <f>Confirmed!AQ31+Daily!Y22</f>
         <v>460</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22">
+        <f>Confirmed!AR31+Daily!Z22</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -18514,8 +19027,12 @@
         <f>Confirmed!AQ32+Daily!Y23</f>
         <v>533</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <f>Confirmed!AR32+Daily!Z23</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -18615,8 +19132,12 @@
         <f>Confirmed!AQ33+Daily!Y24</f>
         <v>646</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <f>Confirmed!AR33+Daily!Z24</f>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -18716,8 +19237,12 @@
         <f>Confirmed!AQ34+Daily!Y25</f>
         <v>651</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <f>Confirmed!AR34+Daily!Z25</f>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -18817,8 +19342,12 @@
         <f>Confirmed!AQ35+Daily!Y26</f>
         <v>678</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <f>Confirmed!AR35+Daily!Z26</f>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -18918,8 +19447,12 @@
         <f>Confirmed!AQ36+Daily!Y27</f>
         <v>727</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <f>Confirmed!AR36+Daily!Z27</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -19019,8 +19552,12 @@
         <f>Confirmed!AQ37+Daily!Y28</f>
         <v>794</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <f>Confirmed!AR37+Daily!Z28</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -19120,8 +19657,12 @@
         <f>Confirmed!AQ38+Daily!Y29</f>
         <v>813</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29">
+        <f>Confirmed!AR38+Daily!Z29</f>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -19221,8 +19762,12 @@
         <f>Confirmed!AQ39+Daily!Y30</f>
         <v>742</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30">
+        <f>Confirmed!AR39+Daily!Z30</f>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -19322,8 +19867,12 @@
         <f>Confirmed!AQ40+Daily!Y31</f>
         <v>729</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z31">
+        <f>Confirmed!AR40+Daily!Z31</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -19423,8 +19972,12 @@
         <f>Confirmed!AQ41+Daily!Y32</f>
         <v>702</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32">
+        <f>Confirmed!AR41+Daily!Z32</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -19524,8 +20077,12 @@
         <f>Confirmed!AQ42+Daily!Y33</f>
         <v>694</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z33">
+        <f>Confirmed!AR42+Daily!Z33</f>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -19625,8 +20182,12 @@
         <f>Confirmed!AQ43+Daily!Y34</f>
         <v>723</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z34">
+        <f>Confirmed!AR43+Daily!Z34</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -19726,8 +20287,12 @@
         <f>Confirmed!AQ44+Daily!Y35</f>
         <v>735</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z35">
+        <f>Confirmed!AR44+Daily!Z35</f>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -19827,8 +20392,12 @@
         <f>Confirmed!AQ45+Daily!Y36</f>
         <v>653</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z36">
+        <f>Confirmed!AR45+Daily!Z36</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -19928,8 +20497,12 @@
         <f>Confirmed!AQ46+Daily!Y37</f>
         <v>539</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z37">
+        <f>Confirmed!AR46+Daily!Z37</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -20029,8 +20602,12 @@
         <f>Confirmed!AQ47+Daily!Y38</f>
         <v>536</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z38">
+        <f>Confirmed!AR47+Daily!Z38</f>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -20130,8 +20707,12 @@
         <f>Confirmed!AQ48+Daily!Y39</f>
         <v>456</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z39">
+        <f>Confirmed!AR48+Daily!Z39</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -20211,8 +20792,12 @@
         <f>Confirmed!AQ49+Daily!Y40</f>
         <v>472</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z40">
+        <f>Confirmed!AR49+Daily!Z40</f>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -20292,8 +20877,12 @@
         <f>Confirmed!AQ50+Daily!Y41</f>
         <v>461</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z41">
+        <f>Confirmed!AR50+Daily!Z41</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -20365,8 +20954,12 @@
         <f>Confirmed!AQ51+Daily!Y42</f>
         <v>445</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z42">
+        <f>Confirmed!AR51+Daily!Z42</f>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -20434,8 +21027,12 @@
         <f>Confirmed!AQ52+Daily!Y43</f>
         <v>393</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z43">
+        <f>Confirmed!AR52+Daily!Z43</f>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -20503,8 +21100,12 @@
         <f>Confirmed!AQ53+Daily!Y44</f>
         <v>377</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z44">
+        <f>Confirmed!AR53+Daily!Z44</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -20568,8 +21169,12 @@
         <f>Confirmed!AQ54+Daily!Y45</f>
         <v>383</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z45">
+        <f>Confirmed!AR54+Daily!Z45</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -20633,8 +21238,12 @@
         <f>Confirmed!AQ55+Daily!Y46</f>
         <v>356</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z46">
+        <f>Confirmed!AR55+Daily!Z46</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -20694,8 +21303,12 @@
         <f>Confirmed!AQ56+Daily!Y47</f>
         <v>287</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z47">
+        <f>Confirmed!AR56+Daily!Z47</f>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>426</v>
       </c>
@@ -20747,8 +21360,12 @@
         <f>Confirmed!AQ57+Daily!Y48</f>
         <v>285</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z48">
+        <f>Confirmed!AR57+Daily!Z48</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>427</v>
       </c>
@@ -20796,8 +21413,12 @@
         <f>Confirmed!AQ58+Daily!Y49</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z49">
+        <f>Confirmed!AR58+Daily!Z49</f>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>428</v>
       </c>
@@ -20841,8 +21462,12 @@
         <f>Confirmed!AQ59+Daily!Y50</f>
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z50">
+        <f>Confirmed!AR59+Daily!Z50</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>429</v>
       </c>
@@ -20882,8 +21507,12 @@
         <f>Confirmed!AQ60+Daily!Y51</f>
         <v>259</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z51">
+        <f>Confirmed!AR60+Daily!Z51</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R52">
         <f>Confirmed!AJ61+Daily!R52</f>
         <v>0</v>
@@ -20916,8 +21545,12 @@
         <f>Confirmed!AQ61+Daily!Y52</f>
         <v>234</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z52">
+        <f>Confirmed!AR61+Daily!Z52</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="S53">
         <f>Confirmed!AK62+Daily!S53</f>
         <v>0</v>
@@ -20946,8 +21579,12 @@
         <f>Confirmed!AQ62+Daily!Y53</f>
         <v>229</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z53">
+        <f>Confirmed!AR62+Daily!Z53</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="T54">
         <f>Confirmed!AL63+Daily!T54</f>
         <v>0</v>
@@ -20972,8 +21609,12 @@
         <f>Confirmed!AQ63+Daily!Y54</f>
         <v>209</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z54">
+        <f>Confirmed!AR63+Daily!Z54</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="U55">
         <f>Confirmed!AM64+Daily!U55</f>
         <v>0</v>
@@ -20994,8 +21635,12 @@
         <f>Confirmed!AQ64+Daily!Y55</f>
         <v>188</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z55">
+        <f>Confirmed!AR64+Daily!Z55</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="V56">
         <f>Confirmed!AN65+Daily!V56</f>
         <v>0</v>
@@ -21012,8 +21657,12 @@
         <f>Confirmed!AQ65+Daily!Y56</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z56">
+        <f>Confirmed!AR65+Daily!Z56</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="W57">
         <f>Confirmed!AO66+Daily!W57</f>
         <v>0</v>
@@ -21026,8 +21675,12 @@
         <f>Confirmed!AQ66+Daily!Y57</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z57">
+        <f>Confirmed!AR66+Daily!Z57</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="X58">
         <f>Confirmed!AP67+Daily!X58</f>
         <v>0</v>
@@ -21036,10 +21689,24 @@
         <f>Confirmed!AQ67+Daily!Y58</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z58">
+        <f>Confirmed!AR67+Daily!Z58</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Y59">
         <f>Confirmed!AQ68+Daily!Y59</f>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f>Confirmed!AR68+Daily!Z59</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z60">
+        <f>Confirmed!AR69+Daily!Z60</f>
         <v>0</v>
       </c>
     </row>
@@ -21688,8 +22355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21896,7 +22563,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
@@ -21991,7 +22658,7 @@
         <v>48</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
@@ -22048,7 +22715,7 @@
         <v>121</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -22105,7 +22772,7 @@
         <v>265</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -22124,7 +22791,7 @@
         <v>282</v>
       </c>
       <c r="D26">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -22162,7 +22829,7 @@
         <v>369</v>
       </c>
       <c r="D28">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -22181,7 +22848,7 @@
         <v>419</v>
       </c>
       <c r="D29">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
@@ -22219,7 +22886,7 @@
         <v>464</v>
       </c>
       <c r="D31">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -22235,10 +22902,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D32">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -22254,10 +22921,10 @@
         <v>757</v>
       </c>
       <c r="C33">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D33">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -22276,7 +22943,7 @@
         <v>549</v>
       </c>
       <c r="D34">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -22292,10 +22959,10 @@
         <v>797</v>
       </c>
       <c r="C35">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D35">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -22311,10 +22978,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D36">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -22330,7 +22997,7 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D37">
         <v>209</v>
@@ -22349,10 +23016,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D38">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -22368,10 +23035,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D39">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -22387,10 +23054,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D40">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -22406,10 +23073,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D41">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -22425,10 +23092,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D42">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -22444,10 +23111,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D43">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -22463,7 +23130,7 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D44">
         <v>155</v>
@@ -22482,10 +23149,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D45">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -22501,7 +23168,7 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D46">
         <v>124</v>
@@ -22520,7 +23187,7 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D47">
         <v>112</v>
@@ -22539,10 +23206,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D48">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -22558,10 +23225,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D49">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -22577,10 +23244,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D50">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -22596,10 +23263,10 @@
         <v>328</v>
       </c>
       <c r="C51">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
@@ -22615,10 +23282,10 @@
         <v>323</v>
       </c>
       <c r="C52">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D52">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
@@ -22634,10 +23301,10 @@
         <v>353</v>
       </c>
       <c r="C53">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D53">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
@@ -22653,10 +23320,10 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D54">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
@@ -22672,10 +23339,10 @@
         <v>214</v>
       </c>
       <c r="C55">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D55">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
@@ -22691,10 +23358,10 @@
         <v>190</v>
       </c>
       <c r="C56">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D56">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
@@ -22710,10 +23377,10 @@
         <v>160</v>
       </c>
       <c r="C57">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D57">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
@@ -22729,10 +23396,10 @@
         <v>150</v>
       </c>
       <c r="C58">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D58">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
@@ -22748,10 +23415,10 @@
         <v>145</v>
       </c>
       <c r="C59">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D59">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2">
         <v>43952</v>
@@ -22766,10 +23433,10 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D60">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2">
         <v>43953</v>
@@ -22784,10 +23451,10 @@
         <v>110</v>
       </c>
       <c r="C61">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D61">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2">
         <f>E60+1</f>
@@ -22803,10 +23470,10 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D62">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2">
         <f>E61+1</f>
@@ -22822,10 +23489,10 @@
         <v>105</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D63">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2">
         <f>E62+1</f>
@@ -22841,17 +23508,17 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2">
         <f>E63+1</f>
         <v>43957</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>44152</v>
@@ -22859,8 +23526,18 @@
       <c r="B65">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2">
+        <f>E64+1</f>
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>44153</v>
@@ -22869,7 +23546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>44154</v>
@@ -22878,7 +23555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A73" si="2">A67+1</f>
         <v>44155</v>
@@ -22887,7 +23564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="2"/>
         <v>44156</v>
@@ -22896,7 +23573,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" si="2"/>
         <v>44157</v>
@@ -22905,7 +23582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="2"/>
         <v>44158</v>
@@ -22914,7 +23591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="2"/>
         <v>44159</v>
@@ -22923,7 +23600,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="2"/>
         <v>44160</v>
@@ -22941,8 +23618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22993,7 +23670,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A57" si="1">A3+1</f>
+        <f t="shared" ref="A4:A60" si="1">A3+1</f>
         <v>43903</v>
       </c>
       <c r="B4">
@@ -23049,7 +23726,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="D6">
         <v>5.8</v>
@@ -23059,8 +23736,8 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F55" si="3">SUM(E4:E8)/5</f>
-        <v>2</v>
+        <f t="shared" ref="F6:F54" si="3">SUM(E4:E8)/5</f>
+        <v>1.8</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G51" si="4">D6-D5</f>
@@ -23077,7 +23754,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="D7">
         <v>10.8</v>
@@ -23101,18 +23778,18 @@
         <v>43907</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D8">
         <v>15.6</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
@@ -23133,14 +23810,14 @@
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>24.2</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
@@ -23161,7 +23838,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="D10">
         <v>31.4</v>
@@ -23189,7 +23866,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="D11">
         <v>39.6</v>
@@ -23217,7 +23894,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="D12">
         <v>54</v>
@@ -23241,18 +23918,18 @@
         <v>43912</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>69.8</v>
       </c>
       <c r="D13">
         <v>70</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
@@ -23273,18 +23950,18 @@
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>88.2</v>
+        <v>87.8</v>
       </c>
       <c r="D14">
         <v>88.2</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
@@ -23301,7 +23978,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>123.6</v>
       </c>
       <c r="D15">
         <v>124</v>
@@ -23325,22 +24002,22 @@
         <v>43915</v>
       </c>
       <c r="B16">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>164.2</v>
+        <v>164</v>
       </c>
       <c r="D16">
         <v>164</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>40.200000000000003</v>
+        <v>40.4</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
@@ -23357,18 +24034,18 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>209.6</v>
       </c>
       <c r="D17">
         <v>209.8</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>45.8</v>
+        <v>45.6</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
@@ -23385,7 +24062,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>259.8</v>
+        <v>259</v>
       </c>
       <c r="D18">
         <v>259.39999999999998</v>
@@ -23396,7 +24073,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
@@ -23409,22 +24086,22 @@
         <v>43918</v>
       </c>
       <c r="B19">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>312.2</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="D19">
         <v>312</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>52.4</v>
+        <v>52.6</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
@@ -23437,22 +24114,22 @@
         <v>43919</v>
       </c>
       <c r="B20">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>359.2</v>
+        <v>358.8</v>
       </c>
       <c r="D20">
         <v>359.4</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>47.2</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
@@ -23469,18 +24146,18 @@
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>415.2</v>
+        <v>414.2</v>
       </c>
       <c r="D21">
         <v>415.4</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
@@ -23493,22 +24170,22 @@
         <v>43921</v>
       </c>
       <c r="B22">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>479.2</v>
+        <v>478.4</v>
       </c>
       <c r="D22">
         <v>479.4</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>64.2</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
@@ -23521,22 +24198,22 @@
         <v>43922</v>
       </c>
       <c r="B23">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>538.4</v>
+        <v>538.20000000000005</v>
       </c>
       <c r="D23">
         <v>538.79999999999995</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>59.2</v>
+        <v>59.8</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
@@ -23553,18 +24230,18 @@
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>593.6</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="D24">
         <v>593.20000000000005</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
@@ -23577,22 +24254,22 @@
         <v>43924</v>
       </c>
       <c r="B25">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>647</v>
+        <v>646.20000000000005</v>
       </c>
       <c r="D25">
         <v>646</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>53.4</v>
+        <v>53</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
@@ -23605,22 +24282,22 @@
         <v>43925</v>
       </c>
       <c r="B26">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>699.2</v>
+        <v>698.8</v>
       </c>
       <c r="D26">
         <v>698.2</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>52.2</v>
+        <v>52.6</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
@@ -23633,11 +24310,11 @@
         <v>43926</v>
       </c>
       <c r="B27">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>732.6</v>
+        <v>732.4</v>
       </c>
       <c r="D27">
         <v>731.4</v>
@@ -23648,7 +24325,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
@@ -23661,11 +24338,11 @@
         <v>43927</v>
       </c>
       <c r="B28">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>750.8</v>
+        <v>750.6</v>
       </c>
       <c r="D28">
         <v>749.4</v>
@@ -23689,22 +24366,22 @@
         <v>43928</v>
       </c>
       <c r="B29">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>761</v>
+        <v>761.2</v>
       </c>
       <c r="D29">
         <v>760.6</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>10.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
@@ -23717,11 +24394,11 @@
         <v>43929</v>
       </c>
       <c r="B30">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>756</v>
+        <v>756.8</v>
       </c>
       <c r="D30">
         <v>755.8</v>
@@ -23732,7 +24409,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
@@ -23745,11 +24422,11 @@
         <v>43930</v>
       </c>
       <c r="B31">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>736</v>
+        <v>736.8</v>
       </c>
       <c r="D31">
         <v>735.4</v>
@@ -23773,22 +24450,22 @@
         <v>43931</v>
       </c>
       <c r="B32">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>718</v>
+        <v>719.2</v>
       </c>
       <c r="D32">
         <v>717.6</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>-18</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
@@ -23801,18 +24478,18 @@
         <v>43932</v>
       </c>
       <c r="B33">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>716.6</v>
+        <v>717.8</v>
       </c>
       <c r="D33">
         <v>716.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -23829,22 +24506,22 @@
         <v>43933</v>
       </c>
       <c r="B34">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>701.4</v>
+        <v>702</v>
       </c>
       <c r="D34">
         <v>700.6</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>-15.2</v>
+        <v>-15.8</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
@@ -23857,22 +24534,22 @@
         <v>43934</v>
       </c>
       <c r="B35">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>668.8</v>
+        <v>669.2</v>
       </c>
       <c r="D35">
         <v>667.4</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>-32.6</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
@@ -23885,22 +24562,22 @@
         <v>43935</v>
       </c>
       <c r="B36">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C55" si="5">SUM(B34:B38)/5</f>
-        <v>637.20000000000005</v>
+        <f t="shared" ref="C36:C56" si="5">SUM(B34:B38)/5</f>
+        <v>638.20000000000005</v>
       </c>
       <c r="D36">
         <v>636.79999999999995</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-82</v>
+        <v>-85</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>-31.6</v>
+        <v>-31</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
@@ -23913,22 +24590,22 @@
         <v>43936</v>
       </c>
       <c r="B37">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>583.79999999999995</v>
+        <v>584.20000000000005</v>
       </c>
       <c r="D37">
         <v>583.4</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-114</v>
+        <v>-111</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>-53.4</v>
+        <v>-54</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
@@ -23941,18 +24618,18 @@
         <v>43937</v>
       </c>
       <c r="B38">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
-        <v>531.20000000000005</v>
+        <v>531.6</v>
       </c>
       <c r="D38">
         <v>531.20000000000005</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
@@ -23973,18 +24650,18 @@
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
-        <v>492.8</v>
+        <v>494.4</v>
       </c>
       <c r="D39">
         <v>493</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-80</v>
+        <v>-82</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>-38.4</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
@@ -23997,22 +24674,22 @@
         <v>43939</v>
       </c>
       <c r="B40">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C40">
         <f t="shared" si="5"/>
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D40">
         <v>475</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>-18.8</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
@@ -24025,22 +24702,22 @@
         <v>43940</v>
       </c>
       <c r="B41">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C41">
         <f t="shared" si="5"/>
-        <v>445.4</v>
+        <v>445.8</v>
       </c>
       <c r="D41">
         <v>445.2</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>-28.6</v>
+        <v>-29.2</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
@@ -24053,22 +24730,22 @@
         <v>43941</v>
       </c>
       <c r="B42">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C42">
         <f t="shared" si="5"/>
-        <v>429.6</v>
+        <v>430.2</v>
       </c>
       <c r="D42">
         <v>430.50492780847179</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
@@ -24081,22 +24758,22 @@
         <v>43942</v>
       </c>
       <c r="B43">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C43">
         <f t="shared" si="5"/>
-        <v>411.8</v>
+        <v>412.6</v>
       </c>
       <c r="D43">
         <v>413.36748209880926</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-52</v>
+        <v>-51</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>-17.8</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
@@ -24109,22 +24786,22 @@
         <v>43943</v>
       </c>
       <c r="B44">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C44">
         <f t="shared" si="5"/>
-        <v>390.8</v>
+        <v>390.6</v>
       </c>
       <c r="D44">
         <v>393.13932089856434</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
@@ -24137,22 +24814,22 @@
         <v>43944</v>
       </c>
       <c r="B45">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C45">
         <f t="shared" si="5"/>
-        <v>359.2</v>
+        <v>359.4</v>
       </c>
       <c r="D45">
         <v>364.50701482777595</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>-31.6</v>
+        <v>-31.2</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
@@ -24165,22 +24842,22 @@
         <v>43945</v>
       </c>
       <c r="B46">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C46">
         <f t="shared" si="5"/>
-        <v>337.6</v>
+        <v>338.2</v>
       </c>
       <c r="D46">
         <v>348.9974495709983</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>-21.6</v>
+        <v>-21.2</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
@@ -24197,18 +24874,18 @@
       </c>
       <c r="C47">
         <f t="shared" si="5"/>
-        <v>322.2</v>
+        <v>321.8</v>
       </c>
       <c r="D47">
         <v>339.82202689112898</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-69</v>
+        <v>-68</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>-15.4</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
@@ -24221,22 +24898,22 @@
         <v>43947</v>
       </c>
       <c r="B48">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C48">
         <f t="shared" si="5"/>
-        <v>294.60000000000002</v>
+        <v>294</v>
       </c>
       <c r="D48">
         <v>320.26711476619295</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F48">
         <f>SUM(E46:E50)/5</f>
-        <v>-27.6</v>
+        <v>-27.8</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
@@ -24249,22 +24926,22 @@
         <v>43948</v>
       </c>
       <c r="B49">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C49">
         <f t="shared" si="5"/>
-        <v>275.2</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="D49">
         <v>312.38384997091191</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <f>SUM(E47:E51)/5</f>
-        <v>-19.399999999999999</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
@@ -24277,22 +24954,22 @@
         <v>43949</v>
       </c>
       <c r="B50">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50">
         <f t="shared" si="5"/>
-        <v>264.60000000000002</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="D50">
         <v>313.77033729723553</v>
       </c>
       <c r="E50">
         <f t="shared" ref="E50:E52" si="6">B50-B49</f>
-        <v>-55</v>
+        <v>-50</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>-10.6</v>
+        <v>-9</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
@@ -24305,22 +24982,22 @@
         <v>43950</v>
       </c>
       <c r="B51">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C51">
         <f t="shared" si="5"/>
-        <v>253.4</v>
+        <v>255.8</v>
       </c>
       <c r="D51">
         <v>317.2823394506741</v>
       </c>
       <c r="E51">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>-11.2</v>
+        <v>-10.6</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
@@ -24333,22 +25010,22 @@
         <v>43951</v>
       </c>
       <c r="B52">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C52">
         <f t="shared" si="5"/>
-        <v>235.2</v>
+        <v>239</v>
       </c>
       <c r="D52">
         <v>311.28827781467197</v>
       </c>
       <c r="E52">
         <f t="shared" si="6"/>
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>-18.2</v>
+        <v>-16.8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -24357,22 +25034,22 @@
         <v>43952</v>
       </c>
       <c r="B53">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C53">
         <f t="shared" si="5"/>
-        <v>223.8</v>
+        <v>228.4</v>
       </c>
       <c r="D53">
         <v>304.48315896757759</v>
       </c>
       <c r="E53">
         <f t="shared" ref="E53:E56" si="7">B53-B52</f>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
-        <v>-11.4</v>
+        <v>-10.6</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -24381,15 +25058,15 @@
         <v>43953</v>
       </c>
       <c r="B54">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C54">
         <f t="shared" si="5"/>
-        <v>205.4</v>
+        <v>210</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
@@ -24402,15 +25079,15 @@
         <v>43954</v>
       </c>
       <c r="B55">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C55">
         <f t="shared" si="5"/>
-        <v>184.4</v>
+        <v>191.6</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>-21</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -24419,11 +25096,15 @@
         <v>43955</v>
       </c>
       <c r="B56">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>172</v>
       </c>
       <c r="E56">
         <f t="shared" si="7"/>
-        <v>-21</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -24432,20 +25113,35 @@
         <v>43956</v>
       </c>
       <c r="B57">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2">
+        <f t="shared" si="1"/>
+        <v>43957</v>
+      </c>
       <c r="B58">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2">
+        <f t="shared" si="1"/>
+        <v>43958</v>
+      </c>
+      <c r="B59">
+        <v>17</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2">
+        <f t="shared" si="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -636,142 +636,148 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>121</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>209</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>265</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>282</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>313</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>369</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>456</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>464</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>478</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>549</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>522</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>521</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>503</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>509</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>529</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>531</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>483</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>427</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>383</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>349</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>349</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>353</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>325</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>287</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>287</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>289</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>275</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>217</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>214</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>218</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>185</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>171</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>162</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>144</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>126</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>106</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>76</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>60</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>47</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,148 +1098,154 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>71</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>89</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>92</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>190</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>188</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>201</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>184</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>197</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>205</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>168</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>113</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>155</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>107</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>124</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>112</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>118</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>105</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>91</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>70</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14</c:v>
+                <c:pt idx="64">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,8 +1261,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="300766336"/>
-        <c:axId val="300766896"/>
+        <c:axId val="290852400"/>
+        <c:axId val="290852960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1791,11 +1803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="300766336"/>
-        <c:axId val="300766896"/>
+        <c:axId val="290852400"/>
+        <c:axId val="290852960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="300766336"/>
+        <c:axId val="290852400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300766896"/>
+        <c:crossAx val="290852960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1846,7 +1858,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300766896"/>
+        <c:axId val="290852960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +1908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300766336"/>
+        <c:crossAx val="290852400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2281,6 +2293,12 @@
                 <c:pt idx="58">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43961</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -2310,19 +2328,19 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.2</c:v>
+                  <c:v>31.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.4</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.8</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69.8</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.8</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>123.6</c:v>
@@ -2331,109 +2349,109 @@
                   <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.6</c:v>
+                  <c:v>209.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>259</c:v>
+                  <c:v>258.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>311.60000000000002</c:v>
+                  <c:v>311.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>358.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>413.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>477.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>537.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>645.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>698.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>732.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>760.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>755.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>735.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>716.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>700.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>667.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>636.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>582.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>530.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>493.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>474.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>445.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>429.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>411.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>389.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>358.8</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>414.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>478.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>538.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>593.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>646.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>698.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>732.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>750.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>761.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>756.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>736.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>719.2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>717.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>669.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>638.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>584.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>531.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>494.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>445.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>430.2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>412.6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>390.6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>359.4</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>338.2</c:v>
+                  <c:v>337.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>321.8</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>275.39999999999998</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>266.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>255.8</c:v>
+                  <c:v>256.2</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2450,8 +2468,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="397025104"/>
-        <c:axId val="397027344"/>
+        <c:axId val="293533344"/>
+        <c:axId val="293533904"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2676,6 +2694,12 @@
                       <c:pt idx="58">
                         <c:v>43959</c:v>
                       </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43960</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43961</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2722,7 +2746,7 @@
                         <c:v>49</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>46</c:v>
+                        <c:v>47</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>51</c:v>
@@ -2743,13 +2767,13 @@
                         <c:v>253</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>325</c:v>
+                        <c:v>324</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>353</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>402</c:v>
+                        <c:v>401</c:v>
                       </c:pt>
                       <c:pt idx="20">
                         <c:v>461</c:v>
@@ -2758,82 +2782,82 @@
                         <c:v>530</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>646</c:v>
+                        <c:v>644</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>652</c:v>
+                        <c:v>653</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>677</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>726</c:v>
+                        <c:v>725</c:v>
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>793</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>814</c:v>
+                        <c:v>813</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>743</c:v>
+                        <c:v>742</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>730</c:v>
+                        <c:v>728</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>704</c:v>
+                        <c:v>703</c:v>
                       </c:pt>
                       <c:pt idx="31">
                         <c:v>693</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>726</c:v>
+                        <c:v>724</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>736</c:v>
+                        <c:v>733</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>651</c:v>
+                        <c:v>649</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>540</c:v>
+                        <c:v>538</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>538</c:v>
+                        <c:v>537</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>456</c:v>
+                        <c:v>455</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>473</c:v>
+                        <c:v>475</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>465</c:v>
+                        <c:v>463</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>443</c:v>
+                        <c:v>441</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>392</c:v>
+                        <c:v>393</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>378</c:v>
+                        <c:v>376</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>385</c:v>
+                        <c:v>384</c:v>
                       </c:pt>
                       <c:pt idx="44">
                         <c:v>355</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>287</c:v>
+                        <c:v>286</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>286</c:v>
+                        <c:v>285</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>296</c:v>
+                        <c:v>300</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3063,6 +3087,12 @@
                       <c:pt idx="58">
                         <c:v>43959</c:v>
                       </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43960</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43961</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3106,10 +3136,10 @@
                         <c:v>23</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-3</c:v>
+                        <c:v>-2</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>5</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>46</c:v>
@@ -3127,97 +3157,97 @@
                         <c:v>28</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>72</c:v>
+                        <c:v>71</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>28</c:v>
+                        <c:v>29</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>49</c:v>
+                        <c:v>48</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>59</c:v>
+                        <c:v>60</c:v>
                       </c:pt>
                       <c:pt idx="21">
                         <c:v>69</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>116</c:v>
+                        <c:v>114</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>6</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>25</c:v>
+                        <c:v>24</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>49</c:v>
+                        <c:v>48</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>67</c:v>
+                        <c:v>68</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>21</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="28">
                         <c:v>-71</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>-13</c:v>
+                        <c:v>-14</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>-26</c:v>
+                        <c:v>-25</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>-11</c:v>
+                        <c:v>-10</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>33</c:v>
+                        <c:v>31</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>10</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>-85</c:v>
+                        <c:v>-84</c:v>
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>-111</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>-2</c:v>
+                        <c:v>-1</c:v>
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>-82</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>17</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>-8</c:v>
+                        <c:v>-12</c:v>
                       </c:pt>
                       <c:pt idx="40">
                         <c:v>-22</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>-51</c:v>
+                        <c:v>-48</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>-14</c:v>
+                        <c:v>-17</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>-30</c:v>
+                        <c:v>-29</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>-68</c:v>
+                        <c:v>-69</c:v>
                       </c:pt>
                       <c:pt idx="46">
                         <c:v>-1</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>10</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3231,7 +3261,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$F$1</c15:sqref>
@@ -3260,7 +3290,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
@@ -3447,12 +3477,18 @@
                       <c:pt idx="58">
                         <c:v>43959</c:v>
                       </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43960</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43961</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$F$2:$F$500</c15:sqref>
@@ -3478,7 +3514,7 @@
                         <c:v>8.6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7.2</c:v>
+                        <c:v>7.4</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>8.1999999999999993</c:v>
@@ -3493,19 +3529,19 @@
                         <c:v>18</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>35.799999999999997</c:v>
+                        <c:v>35.6</c:v>
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>40.4</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>45.6</c:v>
+                        <c:v>45.4</c:v>
                       </c:pt>
                       <c:pt idx="16">
                         <c:v>49.4</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>52.6</c:v>
+                        <c:v>52.4</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>47.2</c:v>
@@ -3514,28 +3550,28 @@
                         <c:v>55.4</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>64.2</c:v>
+                        <c:v>64</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>59.8</c:v>
+                        <c:v>60</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>55</c:v>
+                        <c:v>55.2</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>53</c:v>
+                        <c:v>52.8</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>52.6</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>33.6</c:v>
+                        <c:v>33.799999999999997</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>18.2</c:v>
+                        <c:v>17.8</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>10.6</c:v>
+                        <c:v>10.199999999999999</c:v>
                       </c:pt>
                       <c:pt idx="28">
                         <c:v>-4.4000000000000004</c:v>
@@ -3544,25 +3580,25 @@
                         <c:v>-20</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>-17.600000000000001</c:v>
+                        <c:v>-17.8</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>-1.4</c:v>
+                        <c:v>-1.8</c:v>
                       </c:pt>
                       <c:pt idx="32">
                         <c:v>-15.8</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>-32.799999999999997</c:v>
+                        <c:v>-33</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>-31</c:v>
+                        <c:v>-31.2</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>-54</c:v>
+                        <c:v>-53.8</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>-52.6</c:v>
+                        <c:v>-51.6</c:v>
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>-37.200000000000003</c:v>
@@ -3571,46 +3607,52 @@
                         <c:v>-19.399999999999999</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>-29.2</c:v>
+                        <c:v>-28.8</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>-15.6</c:v>
+                        <c:v>-15.8</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>-17.600000000000001</c:v>
+                        <c:v>-18.2</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>-22</c:v>
+                        <c:v>-21.6</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>-31.2</c:v>
+                        <c:v>-31</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>-21.2</c:v>
+                        <c:v>-21.6</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>-16.399999999999999</c:v>
+                        <c:v>-15.2</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>-27.8</c:v>
+                        <c:v>-28</c:v>
                       </c:pt>
                       <c:pt idx="47">
+                        <c:v>-19</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>-8.6</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>-10.199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>-18</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>-10.8</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>-17.399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
                         <c:v>-18.600000000000001</c:v>
                       </c:pt>
-                      <c:pt idx="48">
-                        <c:v>-9</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>-10.6</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>-16.8</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>-10.6</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>-18.399999999999999</c:v>
+                      <c:pt idx="54">
+                        <c:v>-16.2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3826,6 +3868,12 @@
                       <c:pt idx="58">
                         <c:v>43959</c:v>
                       </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43960</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43961</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3997,7 +4045,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$G$1</c15:sqref>
@@ -4028,7 +4076,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
@@ -4215,12 +4263,18 @@
                       <c:pt idx="58">
                         <c:v>43959</c:v>
                       </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43960</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43961</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>smootheddeaths!$G$2:$G$500</c15:sqref>
@@ -4381,7 +4435,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="397025104"/>
+        <c:axId val="293533344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43956"/>
@@ -4425,7 +4479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397027344"/>
+        <c:crossAx val="293533904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4434,7 +4488,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="397027344"/>
+        <c:axId val="293533904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,7 +4539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397025104"/>
+        <c:crossAx val="293533344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6907,15 +6961,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView topLeftCell="N40" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7:Z59"/>
+    <sheetView topLeftCell="N42" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7:AB61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -6991,8 +7045,14 @@
       <c r="Z1">
         <v>508</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1">
+        <v>509</v>
+      </c>
+      <c r="AB1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -7009,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -7026,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -7043,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -7075,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -7104,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -7186,8 +7246,14 @@
       <c r="Z7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -7272,8 +7338,14 @@
       <c r="Z8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -7358,8 +7430,14 @@
       <c r="Z9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -7444,8 +7522,14 @@
       <c r="Z10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -7530,8 +7614,14 @@
       <c r="Z11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -7616,8 +7706,14 @@
       <c r="Z12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -7702,8 +7798,14 @@
       <c r="Z13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -7788,8 +7890,14 @@
       <c r="Z14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <v>13</v>
+      </c>
+      <c r="AB14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -7874,8 +7982,14 @@
       <c r="Z15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <v>12</v>
+      </c>
+      <c r="AB15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -7960,8 +8074,14 @@
       <c r="Z16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <v>18</v>
+      </c>
+      <c r="AB16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -8046,8 +8166,14 @@
       <c r="Z17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17">
+        <v>40</v>
+      </c>
+      <c r="AB17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -8132,8 +8258,14 @@
       <c r="Z18">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <v>43</v>
+      </c>
+      <c r="AB18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -8218,8 +8350,14 @@
       <c r="Z19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <v>55</v>
+      </c>
+      <c r="AB19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -8304,8 +8442,14 @@
       <c r="Z20">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20">
+        <v>69</v>
+      </c>
+      <c r="AB20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -8390,8 +8534,14 @@
       <c r="Z21">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21">
+        <v>87</v>
+      </c>
+      <c r="AB21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -8476,8 +8626,14 @@
       <c r="Z22">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22">
+        <v>93</v>
+      </c>
+      <c r="AB22">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -8562,8 +8718,14 @@
       <c r="Z23">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23">
+        <v>111</v>
+      </c>
+      <c r="AB23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -8648,8 +8810,14 @@
       <c r="Z24">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA24">
+        <v>187</v>
+      </c>
+      <c r="AB24">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -8734,8 +8902,14 @@
       <c r="Z25">
         <v>188</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA25">
+        <v>187</v>
+      </c>
+      <c r="AB25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -8820,8 +8994,14 @@
       <c r="Z26">
         <v>199</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA26">
+        <v>203</v>
+      </c>
+      <c r="AB26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -8906,8 +9086,14 @@
       <c r="Z27">
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27">
+        <v>193</v>
+      </c>
+      <c r="AB27">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -8992,8 +9178,14 @@
       <c r="Z28">
         <v>244</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <v>243</v>
+      </c>
+      <c r="AB28">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -9078,8 +9270,14 @@
       <c r="Z29">
         <v>237</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29">
+        <v>237</v>
+      </c>
+      <c r="AB29">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -9164,8 +9362,14 @@
       <c r="Z30">
         <v>221</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <v>219</v>
+      </c>
+      <c r="AB30">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -9250,8 +9454,14 @@
       <c r="Z31">
         <v>209</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31">
+        <v>207</v>
+      </c>
+      <c r="AB31">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -9336,8 +9546,14 @@
       <c r="Z32">
         <v>201</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <v>200</v>
+      </c>
+      <c r="AB32">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -9422,8 +9638,14 @@
       <c r="Z33">
         <v>184</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33">
+        <v>184</v>
+      </c>
+      <c r="AB33">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -9508,8 +9730,14 @@
       <c r="Z34">
         <v>197</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34">
+        <v>195</v>
+      </c>
+      <c r="AB34">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -9594,8 +9822,14 @@
       <c r="Z35">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA35">
+        <v>199</v>
+      </c>
+      <c r="AB35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -9676,8 +9910,14 @@
       <c r="Z36">
         <v>168</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <v>165</v>
+      </c>
+      <c r="AB36">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -9754,8 +9994,14 @@
       <c r="Z37">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA37">
+        <v>110</v>
+      </c>
+      <c r="AB37">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -9828,8 +10074,14 @@
       <c r="Z38">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA38">
+        <v>156</v>
+      </c>
+      <c r="AB38">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -9898,8 +10150,14 @@
       <c r="Z39">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA39">
+        <v>104</v>
+      </c>
+      <c r="AB39">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -9964,8 +10222,14 @@
       <c r="Z40">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA40">
+        <v>125</v>
+      </c>
+      <c r="AB40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -10023,8 +10287,14 @@
       <c r="Z41">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA41">
+        <v>107</v>
+      </c>
+      <c r="AB41">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -10082,8 +10352,14 @@
       <c r="Z42">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA42">
+        <v>113</v>
+      </c>
+      <c r="AB42">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -10138,8 +10414,14 @@
       <c r="Z43">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43">
+        <v>103</v>
+      </c>
+      <c r="AB43">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -10191,8 +10473,14 @@
       <c r="Z44">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA44">
+        <v>90</v>
+      </c>
+      <c r="AB44">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -10241,8 +10529,14 @@
       <c r="Z45">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA45">
+        <v>92</v>
+      </c>
+      <c r="AB45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -10288,8 +10582,14 @@
       <c r="Z46">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA46">
+        <v>82</v>
+      </c>
+      <c r="AB46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -10332,8 +10632,14 @@
       <c r="Z47">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47">
+        <v>64</v>
+      </c>
+      <c r="AB47">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>17</v>
       </c>
@@ -10370,8 +10676,14 @@
       <c r="Z48">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA48">
+        <v>69</v>
+      </c>
+      <c r="AB48">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="16:28" x14ac:dyDescent="0.3">
       <c r="P49">
         <v>19</v>
       </c>
@@ -10405,8 +10717,14 @@
       <c r="Z49">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA49">
+        <v>80</v>
+      </c>
+      <c r="AB49">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="16:28" x14ac:dyDescent="0.3">
       <c r="Q50">
         <v>11</v>
       </c>
@@ -10437,8 +10755,14 @@
       <c r="Z50">
         <v>61</v>
       </c>
-    </row>
-    <row r="51" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA50">
+        <v>59</v>
+      </c>
+      <c r="AB50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="16:28" x14ac:dyDescent="0.3">
       <c r="R51">
         <v>22</v>
       </c>
@@ -10466,8 +10790,14 @@
       <c r="Z51">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA51">
+        <v>82</v>
+      </c>
+      <c r="AB51">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="16:28" x14ac:dyDescent="0.3">
       <c r="S52">
         <v>15</v>
       </c>
@@ -10492,8 +10822,14 @@
       <c r="Z52">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA52">
+        <v>72</v>
+      </c>
+      <c r="AB52">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="16:28" x14ac:dyDescent="0.3">
       <c r="T53">
         <v>0</v>
       </c>
@@ -10515,8 +10851,14 @@
       <c r="Z53">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA53">
+        <v>88</v>
+      </c>
+      <c r="AB53">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="16:28" x14ac:dyDescent="0.3">
       <c r="U54">
         <v>20</v>
       </c>
@@ -10535,8 +10877,14 @@
       <c r="Z54">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA54">
+        <v>78</v>
+      </c>
+      <c r="AB54">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="16:28" x14ac:dyDescent="0.3">
       <c r="V55">
         <v>21</v>
       </c>
@@ -10552,8 +10900,14 @@
       <c r="Z55">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA55">
+        <v>74</v>
+      </c>
+      <c r="AB55">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="16:28" x14ac:dyDescent="0.3">
       <c r="W56">
         <v>12</v>
       </c>
@@ -10566,8 +10920,14 @@
       <c r="Z56">
         <v>94</v>
       </c>
-    </row>
-    <row r="57" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA56">
+        <v>93</v>
+      </c>
+      <c r="AB56">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="16:28" x14ac:dyDescent="0.3">
       <c r="X57">
         <v>12</v>
       </c>
@@ -10577,18 +10937,49 @@
       <c r="Z57">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA57">
+        <v>77</v>
+      </c>
+      <c r="AB57">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="16:28" x14ac:dyDescent="0.3">
       <c r="Y58">
         <v>17</v>
       </c>
       <c r="Z58">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="16:26" x14ac:dyDescent="0.3">
+      <c r="AA58">
+        <v>101</v>
+      </c>
+      <c r="AB58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="16:28" x14ac:dyDescent="0.3">
       <c r="Z59">
         <v>14</v>
+      </c>
+      <c r="AA59">
+        <v>111</v>
+      </c>
+      <c r="AB59">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="16:28" x14ac:dyDescent="0.3">
+      <c r="AA60">
+        <v>13</v>
+      </c>
+      <c r="AB60">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="16:28" x14ac:dyDescent="0.3">
+      <c r="AB61">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -10598,15 +10989,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR68"/>
+  <dimension ref="A1:AT70"/>
   <sheetViews>
-    <sheetView topLeftCell="AI57" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11:AR68"/>
+    <sheetView topLeftCell="AI55" workbookViewId="0">
+      <selection activeCell="AT11" sqref="AT11:AT70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>325</v>
       </c>
@@ -10736,8 +11127,14 @@
       <c r="AR1">
         <v>508</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS1">
+        <v>509</v>
+      </c>
+      <c r="AT1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>302</v>
       </c>
@@ -10823,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>303</v>
       </c>
@@ -10912,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>304</v>
       </c>
@@ -11001,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>305</v>
       </c>
@@ -11090,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>306</v>
       </c>
@@ -11179,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>307</v>
       </c>
@@ -11268,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>308</v>
       </c>
@@ -11357,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>309</v>
       </c>
@@ -11446,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>310</v>
       </c>
@@ -11535,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>311</v>
       </c>
@@ -11668,8 +12065,14 @@
       <c r="AR11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>312</v>
       </c>
@@ -11802,8 +12205,14 @@
       <c r="AR12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>313</v>
       </c>
@@ -11936,8 +12345,14 @@
       <c r="AR13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>314</v>
       </c>
@@ -12070,8 +12485,14 @@
       <c r="AR14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS14">
+        <v>2</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>315</v>
       </c>
@@ -12204,8 +12625,14 @@
       <c r="AR15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS15">
+        <v>6</v>
+      </c>
+      <c r="AT15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>316</v>
       </c>
@@ -12338,8 +12765,14 @@
       <c r="AR16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS16">
+        <v>9</v>
+      </c>
+      <c r="AT16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>317</v>
       </c>
@@ -12472,8 +12905,14 @@
       <c r="AR17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS17">
+        <v>7</v>
+      </c>
+      <c r="AT17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318</v>
       </c>
@@ -12606,8 +13045,14 @@
       <c r="AR18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS18">
+        <v>21</v>
+      </c>
+      <c r="AT18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>319</v>
       </c>
@@ -12740,8 +13185,14 @@
       <c r="AR19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS19">
+        <v>24</v>
+      </c>
+      <c r="AT19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>320</v>
       </c>
@@ -12874,8 +13325,14 @@
       <c r="AR20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS20">
+        <v>45</v>
+      </c>
+      <c r="AT20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>321</v>
       </c>
@@ -13008,8 +13465,14 @@
       <c r="AR21">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS21">
+        <v>41</v>
+      </c>
+      <c r="AT21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>322</v>
       </c>
@@ -13142,8 +13605,14 @@
       <c r="AR22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS22">
+        <v>48</v>
+      </c>
+      <c r="AT22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>323</v>
       </c>
@@ -13276,8 +13745,14 @@
       <c r="AR23">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS23">
+        <v>83</v>
+      </c>
+      <c r="AT23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>324</v>
       </c>
@@ -13410,8 +13885,14 @@
       <c r="AR24">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS24">
+        <v>94</v>
+      </c>
+      <c r="AT24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>325</v>
       </c>
@@ -13544,8 +14025,14 @@
       <c r="AR25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS25">
+        <v>121</v>
+      </c>
+      <c r="AT25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>326</v>
       </c>
@@ -13675,8 +14162,14 @@
       <c r="AR26">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS26">
+        <v>185</v>
+      </c>
+      <c r="AT26">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>327</v>
       </c>
@@ -13803,8 +14296,14 @@
       <c r="AR27">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS27">
+        <v>210</v>
+      </c>
+      <c r="AT27">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>328</v>
       </c>
@@ -13928,8 +14427,14 @@
       <c r="AR28">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS28">
+        <v>268</v>
+      </c>
+      <c r="AT28">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>329</v>
       </c>
@@ -14053,8 +14558,14 @@
       <c r="AR29">
         <v>282</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS29">
+        <v>284</v>
+      </c>
+      <c r="AT29">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>330</v>
       </c>
@@ -14178,8 +14689,14 @@
       <c r="AR30">
         <v>313</v>
       </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS30">
+        <v>314</v>
+      </c>
+      <c r="AT30">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>331</v>
       </c>
@@ -14300,8 +14817,14 @@
       <c r="AR31">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS31">
+        <v>368</v>
+      </c>
+      <c r="AT31">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>401</v>
       </c>
@@ -14419,8 +14942,14 @@
       <c r="AR32">
         <v>419</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS32">
+        <v>419</v>
+      </c>
+      <c r="AT32">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>402</v>
       </c>
@@ -14535,8 +15064,14 @@
       <c r="AR33">
         <v>456</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS33">
+        <v>458</v>
+      </c>
+      <c r="AT33">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>403</v>
       </c>
@@ -14648,8 +15183,14 @@
       <c r="AR34">
         <v>464</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS34">
+        <v>466</v>
+      </c>
+      <c r="AT34">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>404</v>
       </c>
@@ -14758,8 +15299,14 @@
       <c r="AR35">
         <v>478</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS35">
+        <v>474</v>
+      </c>
+      <c r="AT35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>405</v>
       </c>
@@ -14865,8 +15412,14 @@
       <c r="AR36">
         <v>534</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS36">
+        <v>533</v>
+      </c>
+      <c r="AT36">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>406</v>
       </c>
@@ -14969,8 +15522,14 @@
       <c r="AR37">
         <v>549</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS37">
+        <v>550</v>
+      </c>
+      <c r="AT37">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>407</v>
       </c>
@@ -15070,8 +15629,14 @@
       <c r="AR38">
         <v>577</v>
       </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS38">
+        <v>577</v>
+      </c>
+      <c r="AT38">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>408</v>
       </c>
@@ -15168,8 +15733,14 @@
       <c r="AR39">
         <v>522</v>
       </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS39">
+        <v>523</v>
+      </c>
+      <c r="AT39">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>409</v>
       </c>
@@ -15263,8 +15834,14 @@
       <c r="AR40">
         <v>521</v>
       </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS40">
+        <v>521</v>
+      </c>
+      <c r="AT40">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>410</v>
       </c>
@@ -15355,8 +15932,14 @@
       <c r="AR41">
         <v>503</v>
       </c>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS41">
+        <v>503</v>
+      </c>
+      <c r="AT41">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>411</v>
       </c>
@@ -15444,8 +16027,14 @@
       <c r="AR42">
         <v>509</v>
       </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS42">
+        <v>510</v>
+      </c>
+      <c r="AT42">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>412</v>
       </c>
@@ -15530,8 +16119,14 @@
       <c r="AR43">
         <v>529</v>
       </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS43">
+        <v>530</v>
+      </c>
+      <c r="AT43">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>413</v>
       </c>
@@ -15613,8 +16208,14 @@
       <c r="AR44">
         <v>531</v>
       </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS44">
+        <v>535</v>
+      </c>
+      <c r="AT44">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>414</v>
       </c>
@@ -15690,8 +16291,14 @@
       <c r="AR45">
         <v>483</v>
       </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS45">
+        <v>484</v>
+      </c>
+      <c r="AT45">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>415</v>
       </c>
@@ -15764,8 +16371,14 @@
       <c r="AR46">
         <v>427</v>
       </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS46">
+        <v>429</v>
+      </c>
+      <c r="AT46">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>416</v>
       </c>
@@ -15835,8 +16448,14 @@
       <c r="AR47">
         <v>383</v>
       </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS47">
+        <v>384</v>
+      </c>
+      <c r="AT47">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>417</v>
       </c>
@@ -15903,8 +16522,14 @@
       <c r="AR48">
         <v>349</v>
       </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS48">
+        <v>352</v>
+      </c>
+      <c r="AT48">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>418</v>
       </c>
@@ -15968,8 +16593,14 @@
       <c r="AR49">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS49">
+        <v>350</v>
+      </c>
+      <c r="AT49">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>419</v>
       </c>
@@ -16030,8 +16661,14 @@
       <c r="AR50">
         <v>353</v>
       </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS50">
+        <v>356</v>
+      </c>
+      <c r="AT50">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>420</v>
       </c>
@@ -16089,8 +16726,14 @@
       <c r="AR51">
         <v>325</v>
       </c>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS51">
+        <v>327</v>
+      </c>
+      <c r="AT51">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>421</v>
       </c>
@@ -16145,8 +16788,14 @@
       <c r="AR52">
         <v>287</v>
       </c>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS52">
+        <v>289</v>
+      </c>
+      <c r="AT52">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>422</v>
       </c>
@@ -16198,8 +16847,14 @@
       <c r="AR53">
         <v>287</v>
       </c>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS53">
+        <v>289</v>
+      </c>
+      <c r="AT53">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>423</v>
       </c>
@@ -16248,8 +16903,14 @@
       <c r="AR54">
         <v>289</v>
       </c>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS54">
+        <v>290</v>
+      </c>
+      <c r="AT54">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>424</v>
       </c>
@@ -16295,8 +16956,14 @@
       <c r="AR55">
         <v>275</v>
       </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS55">
+        <v>275</v>
+      </c>
+      <c r="AT55">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>425</v>
       </c>
@@ -16339,8 +17006,14 @@
       <c r="AR56">
         <v>217</v>
       </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS56">
+        <v>222</v>
+      </c>
+      <c r="AT56">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>426</v>
       </c>
@@ -16380,8 +17053,14 @@
       <c r="AR57">
         <v>214</v>
       </c>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS57">
+        <v>214</v>
+      </c>
+      <c r="AT57">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>427</v>
       </c>
@@ -16418,8 +17097,14 @@
       <c r="AR58">
         <v>218</v>
       </c>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS58">
+        <v>219</v>
+      </c>
+      <c r="AT58">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>428</v>
       </c>
@@ -16453,8 +17138,14 @@
       <c r="AR59">
         <v>185</v>
       </c>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS59">
+        <v>185</v>
+      </c>
+      <c r="AT59">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>429</v>
       </c>
@@ -16485,8 +17176,14 @@
       <c r="AR60">
         <v>171</v>
       </c>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS60">
+        <v>178</v>
+      </c>
+      <c r="AT60">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>430</v>
       </c>
@@ -16514,8 +17211,14 @@
       <c r="AR61">
         <v>162</v>
       </c>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS61">
+        <v>169</v>
+      </c>
+      <c r="AT61">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>501</v>
       </c>
@@ -16540,8 +17243,14 @@
       <c r="AR62">
         <v>144</v>
       </c>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS62">
+        <v>147</v>
+      </c>
+      <c r="AT62">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>502</v>
       </c>
@@ -16563,8 +17272,14 @@
       <c r="AR63">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS63">
+        <v>131</v>
+      </c>
+      <c r="AT63">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>503</v>
       </c>
@@ -16583,8 +17298,14 @@
       <c r="AR64">
         <v>106</v>
       </c>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS64">
+        <v>113</v>
+      </c>
+      <c r="AT64">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>504</v>
       </c>
@@ -16600,8 +17321,14 @@
       <c r="AR65">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS65">
+        <v>82</v>
+      </c>
+      <c r="AT65">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>505</v>
       </c>
@@ -16614,18 +17341,49 @@
       <c r="AR66">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS66">
+        <v>70</v>
+      </c>
+      <c r="AT66">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
       <c r="AQ67">
         <v>2</v>
       </c>
       <c r="AR67">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS67">
+        <v>54</v>
+      </c>
+      <c r="AT67">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
       <c r="AR68">
         <v>3</v>
+      </c>
+      <c r="AS68">
+        <v>8</v>
+      </c>
+      <c r="AT68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AT70">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16635,15 +17393,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z60"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -16721,8 +17479,14 @@
       <c r="Z1">
         <v>508</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1">
+        <v>509</v>
+      </c>
+      <c r="AB1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -16826,8 +17590,16 @@
         <f>Confirmed!AR11+Daily!Z2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2">
+        <f>Confirmed!AS11+Daily!AA2</f>
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <f>Confirmed!AT11+Daily!AB2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -16931,8 +17703,16 @@
         <f>Confirmed!AR12+Daily!Z3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3">
+        <f>Confirmed!AS12+Daily!AA3</f>
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <f>Confirmed!AT12+Daily!AB3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -17036,8 +17816,16 @@
         <f>Confirmed!AR13+Daily!Z4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <f>Confirmed!AS13+Daily!AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>Confirmed!AT13+Daily!AB4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -17141,8 +17929,16 @@
         <f>Confirmed!AR14+Daily!Z5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <f>Confirmed!AS14+Daily!AA5</f>
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <f>Confirmed!AT14+Daily!AB5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -17246,8 +18042,16 @@
         <f>Confirmed!AR15+Daily!Z6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <f>Confirmed!AS15+Daily!AA6</f>
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <f>Confirmed!AT15+Daily!AB6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -17351,8 +18155,16 @@
         <f>Confirmed!AR16+Daily!Z7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <f>Confirmed!AS16+Daily!AA7</f>
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <f>Confirmed!AT16+Daily!AB7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -17456,8 +18268,16 @@
         <f>Confirmed!AR17+Daily!Z8</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <f>Confirmed!AS17+Daily!AA8</f>
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <f>Confirmed!AT17+Daily!AB8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -17561,8 +18381,16 @@
         <f>Confirmed!AR18+Daily!Z9</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <f>Confirmed!AS18+Daily!AA9</f>
+        <v>25</v>
+      </c>
+      <c r="AB9">
+        <f>Confirmed!AT18+Daily!AB9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -17666,8 +18494,16 @@
         <f>Confirmed!AR19+Daily!Z10</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <f>Confirmed!AS19+Daily!AA10</f>
+        <v>26</v>
+      </c>
+      <c r="AB10">
+        <f>Confirmed!AT19+Daily!AB10</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -17771,8 +18607,16 @@
         <f>Confirmed!AR20+Daily!Z11</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11">
+        <f>Confirmed!AS20+Daily!AA11</f>
+        <v>49</v>
+      </c>
+      <c r="AB11">
+        <f>Confirmed!AT20+Daily!AB11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -17876,8 +18720,16 @@
         <f>Confirmed!AR21+Daily!Z12</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12">
+        <f>Confirmed!AS21+Daily!AA12</f>
+        <v>47</v>
+      </c>
+      <c r="AB12">
+        <f>Confirmed!AT21+Daily!AB12</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -17981,8 +18833,16 @@
         <f>Confirmed!AR22+Daily!Z13</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13">
+        <f>Confirmed!AS22+Daily!AA13</f>
+        <v>51</v>
+      </c>
+      <c r="AB13">
+        <f>Confirmed!AT22+Daily!AB13</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -18086,8 +18946,16 @@
         <f>Confirmed!AR23+Daily!Z14</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <f>Confirmed!AS23+Daily!AA14</f>
+        <v>96</v>
+      </c>
+      <c r="AB14">
+        <f>Confirmed!AT23+Daily!AB14</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -18191,8 +19059,16 @@
         <f>Confirmed!AR24+Daily!Z15</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <f>Confirmed!AS24+Daily!AA15</f>
+        <v>106</v>
+      </c>
+      <c r="AB15">
+        <f>Confirmed!AT24+Daily!AB15</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -18296,8 +19172,16 @@
         <f>Confirmed!AR25+Daily!Z16</f>
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <f>Confirmed!AS25+Daily!AA16</f>
+        <v>139</v>
+      </c>
+      <c r="AB16">
+        <f>Confirmed!AT25+Daily!AB16</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -18401,8 +19285,16 @@
         <f>Confirmed!AR26+Daily!Z17</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17">
+        <f>Confirmed!AS26+Daily!AA17</f>
+        <v>225</v>
+      </c>
+      <c r="AB17">
+        <f>Confirmed!AT26+Daily!AB17</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -18506,8 +19398,16 @@
         <f>Confirmed!AR27+Daily!Z18</f>
         <v>253</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <f>Confirmed!AS27+Daily!AA18</f>
+        <v>253</v>
+      </c>
+      <c r="AB18">
+        <f>Confirmed!AT27+Daily!AB18</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -18611,8 +19511,16 @@
         <f>Confirmed!AR28+Daily!Z19</f>
         <v>325</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <f>Confirmed!AS28+Daily!AA19</f>
+        <v>323</v>
+      </c>
+      <c r="AB19">
+        <f>Confirmed!AT28+Daily!AB19</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -18716,8 +19624,16 @@
         <f>Confirmed!AR29+Daily!Z20</f>
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20">
+        <f>Confirmed!AS29+Daily!AA20</f>
+        <v>353</v>
+      </c>
+      <c r="AB20">
+        <f>Confirmed!AT29+Daily!AB20</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -18821,8 +19737,16 @@
         <f>Confirmed!AR30+Daily!Z21</f>
         <v>402</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21">
+        <f>Confirmed!AS30+Daily!AA21</f>
+        <v>401</v>
+      </c>
+      <c r="AB21">
+        <f>Confirmed!AT30+Daily!AB21</f>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -18926,8 +19850,16 @@
         <f>Confirmed!AR31+Daily!Z22</f>
         <v>461</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22">
+        <f>Confirmed!AS31+Daily!AA22</f>
+        <v>461</v>
+      </c>
+      <c r="AB22">
+        <f>Confirmed!AT31+Daily!AB22</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -19031,8 +19963,16 @@
         <f>Confirmed!AR32+Daily!Z23</f>
         <v>530</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23">
+        <f>Confirmed!AS32+Daily!AA23</f>
+        <v>530</v>
+      </c>
+      <c r="AB23">
+        <f>Confirmed!AT32+Daily!AB23</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -19136,8 +20076,16 @@
         <f>Confirmed!AR33+Daily!Z24</f>
         <v>646</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA24">
+        <f>Confirmed!AS33+Daily!AA24</f>
+        <v>645</v>
+      </c>
+      <c r="AB24">
+        <f>Confirmed!AT33+Daily!AB24</f>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -19241,8 +20189,16 @@
         <f>Confirmed!AR34+Daily!Z25</f>
         <v>652</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA25">
+        <f>Confirmed!AS34+Daily!AA25</f>
+        <v>653</v>
+      </c>
+      <c r="AB25">
+        <f>Confirmed!AT34+Daily!AB25</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -19346,8 +20302,16 @@
         <f>Confirmed!AR35+Daily!Z26</f>
         <v>677</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA26">
+        <f>Confirmed!AS35+Daily!AA26</f>
+        <v>677</v>
+      </c>
+      <c r="AB26">
+        <f>Confirmed!AT35+Daily!AB26</f>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -19451,8 +20415,16 @@
         <f>Confirmed!AR36+Daily!Z27</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27">
+        <f>Confirmed!AS36+Daily!AA27</f>
+        <v>726</v>
+      </c>
+      <c r="AB27">
+        <f>Confirmed!AT36+Daily!AB27</f>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -19556,8 +20528,16 @@
         <f>Confirmed!AR37+Daily!Z28</f>
         <v>793</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <f>Confirmed!AS37+Daily!AA28</f>
+        <v>793</v>
+      </c>
+      <c r="AB28">
+        <f>Confirmed!AT37+Daily!AB28</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -19661,8 +20641,16 @@
         <f>Confirmed!AR38+Daily!Z29</f>
         <v>814</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29">
+        <f>Confirmed!AS38+Daily!AA29</f>
+        <v>814</v>
+      </c>
+      <c r="AB29">
+        <f>Confirmed!AT38+Daily!AB29</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -19766,8 +20754,16 @@
         <f>Confirmed!AR39+Daily!Z30</f>
         <v>743</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <f>Confirmed!AS39+Daily!AA30</f>
+        <v>742</v>
+      </c>
+      <c r="AB30">
+        <f>Confirmed!AT39+Daily!AB30</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -19871,8 +20867,16 @@
         <f>Confirmed!AR40+Daily!Z31</f>
         <v>730</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31">
+        <f>Confirmed!AS40+Daily!AA31</f>
+        <v>728</v>
+      </c>
+      <c r="AB31">
+        <f>Confirmed!AT40+Daily!AB31</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -19976,8 +20980,16 @@
         <f>Confirmed!AR41+Daily!Z32</f>
         <v>704</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <f>Confirmed!AS41+Daily!AA32</f>
+        <v>703</v>
+      </c>
+      <c r="AB32">
+        <f>Confirmed!AT41+Daily!AB32</f>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -20081,8 +21093,16 @@
         <f>Confirmed!AR42+Daily!Z33</f>
         <v>693</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33">
+        <f>Confirmed!AS42+Daily!AA33</f>
+        <v>694</v>
+      </c>
+      <c r="AB33">
+        <f>Confirmed!AT42+Daily!AB33</f>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -20186,8 +21206,16 @@
         <f>Confirmed!AR43+Daily!Z34</f>
         <v>726</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34">
+        <f>Confirmed!AS43+Daily!AA34</f>
+        <v>725</v>
+      </c>
+      <c r="AB34">
+        <f>Confirmed!AT43+Daily!AB34</f>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -20291,8 +21319,16 @@
         <f>Confirmed!AR44+Daily!Z35</f>
         <v>736</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA35">
+        <f>Confirmed!AS44+Daily!AA35</f>
+        <v>734</v>
+      </c>
+      <c r="AB35">
+        <f>Confirmed!AT44+Daily!AB35</f>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -20396,8 +21432,16 @@
         <f>Confirmed!AR45+Daily!Z36</f>
         <v>651</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <f>Confirmed!AS45+Daily!AA36</f>
+        <v>649</v>
+      </c>
+      <c r="AB36">
+        <f>Confirmed!AT45+Daily!AB36</f>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -20501,8 +21545,16 @@
         <f>Confirmed!AR46+Daily!Z37</f>
         <v>540</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA37">
+        <f>Confirmed!AS46+Daily!AA37</f>
+        <v>539</v>
+      </c>
+      <c r="AB37">
+        <f>Confirmed!AT46+Daily!AB37</f>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -20606,8 +21658,16 @@
         <f>Confirmed!AR47+Daily!Z38</f>
         <v>538</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA38">
+        <f>Confirmed!AS47+Daily!AA38</f>
+        <v>540</v>
+      </c>
+      <c r="AB38">
+        <f>Confirmed!AT47+Daily!AB38</f>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>417</v>
       </c>
@@ -20711,8 +21771,16 @@
         <f>Confirmed!AR48+Daily!Z39</f>
         <v>456</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA39">
+        <f>Confirmed!AS48+Daily!AA39</f>
+        <v>456</v>
+      </c>
+      <c r="AB39">
+        <f>Confirmed!AT48+Daily!AB39</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>418</v>
       </c>
@@ -20796,8 +21864,16 @@
         <f>Confirmed!AR49+Daily!Z40</f>
         <v>473</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA40">
+        <f>Confirmed!AS49+Daily!AA40</f>
+        <v>475</v>
+      </c>
+      <c r="AB40">
+        <f>Confirmed!AT49+Daily!AB40</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>419</v>
       </c>
@@ -20881,8 +21957,16 @@
         <f>Confirmed!AR50+Daily!Z41</f>
         <v>465</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA41">
+        <f>Confirmed!AS50+Daily!AA41</f>
+        <v>463</v>
+      </c>
+      <c r="AB41">
+        <f>Confirmed!AT50+Daily!AB41</f>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>420</v>
       </c>
@@ -20958,8 +22042,16 @@
         <f>Confirmed!AR51+Daily!Z42</f>
         <v>443</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA42">
+        <f>Confirmed!AS51+Daily!AA42</f>
+        <v>440</v>
+      </c>
+      <c r="AB42">
+        <f>Confirmed!AT51+Daily!AB42</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -21031,8 +22123,16 @@
         <f>Confirmed!AR52+Daily!Z43</f>
         <v>392</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43">
+        <f>Confirmed!AS52+Daily!AA43</f>
+        <v>392</v>
+      </c>
+      <c r="AB43">
+        <f>Confirmed!AT52+Daily!AB43</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>422</v>
       </c>
@@ -21104,8 +22204,16 @@
         <f>Confirmed!AR53+Daily!Z44</f>
         <v>378</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA44">
+        <f>Confirmed!AS53+Daily!AA44</f>
+        <v>379</v>
+      </c>
+      <c r="AB44">
+        <f>Confirmed!AT53+Daily!AB44</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>423</v>
       </c>
@@ -21173,8 +22281,16 @@
         <f>Confirmed!AR54+Daily!Z45</f>
         <v>385</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA45">
+        <f>Confirmed!AS54+Daily!AA45</f>
+        <v>382</v>
+      </c>
+      <c r="AB45">
+        <f>Confirmed!AT54+Daily!AB45</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>424</v>
       </c>
@@ -21242,8 +22358,16 @@
         <f>Confirmed!AR55+Daily!Z46</f>
         <v>355</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA46">
+        <f>Confirmed!AS55+Daily!AA46</f>
+        <v>357</v>
+      </c>
+      <c r="AB46">
+        <f>Confirmed!AT55+Daily!AB46</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>425</v>
       </c>
@@ -21307,8 +22431,16 @@
         <f>Confirmed!AR56+Daily!Z47</f>
         <v>287</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47">
+        <f>Confirmed!AS56+Daily!AA47</f>
+        <v>286</v>
+      </c>
+      <c r="AB47">
+        <f>Confirmed!AT56+Daily!AB47</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>426</v>
       </c>
@@ -21364,8 +22496,16 @@
         <f>Confirmed!AR57+Daily!Z48</f>
         <v>286</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA48">
+        <f>Confirmed!AS57+Daily!AA48</f>
+        <v>283</v>
+      </c>
+      <c r="AB48">
+        <f>Confirmed!AT57+Daily!AB48</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>427</v>
       </c>
@@ -21417,8 +22557,16 @@
         <f>Confirmed!AR58+Daily!Z49</f>
         <v>296</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA49">
+        <f>Confirmed!AS58+Daily!AA49</f>
+        <v>299</v>
+      </c>
+      <c r="AB49">
+        <f>Confirmed!AT58+Daily!AB49</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>428</v>
       </c>
@@ -21466,8 +22614,16 @@
         <f>Confirmed!AR59+Daily!Z50</f>
         <v>246</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA50">
+        <f>Confirmed!AS59+Daily!AA50</f>
+        <v>244</v>
+      </c>
+      <c r="AB50">
+        <f>Confirmed!AT59+Daily!AB50</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>429</v>
       </c>
@@ -21511,8 +22667,16 @@
         <f>Confirmed!AR60+Daily!Z51</f>
         <v>262</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA51">
+        <f>Confirmed!AS60+Daily!AA51</f>
+        <v>260</v>
+      </c>
+      <c r="AB51">
+        <f>Confirmed!AT60+Daily!AB51</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="R52">
         <f>Confirmed!AJ61+Daily!R52</f>
         <v>0</v>
@@ -21549,8 +22713,16 @@
         <f>Confirmed!AR61+Daily!Z52</f>
         <v>242</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA52">
+        <f>Confirmed!AS61+Daily!AA52</f>
+        <v>241</v>
+      </c>
+      <c r="AB52">
+        <f>Confirmed!AT61+Daily!AB52</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="S53">
         <f>Confirmed!AK62+Daily!S53</f>
         <v>0</v>
@@ -21583,8 +22755,16 @@
         <f>Confirmed!AR62+Daily!Z53</f>
         <v>233</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA53">
+        <f>Confirmed!AS62+Daily!AA53</f>
+        <v>235</v>
+      </c>
+      <c r="AB53">
+        <f>Confirmed!AT62+Daily!AB53</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="T54">
         <f>Confirmed!AL63+Daily!T54</f>
         <v>0</v>
@@ -21613,8 +22793,16 @@
         <f>Confirmed!AR63+Daily!Z54</f>
         <v>212</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA54">
+        <f>Confirmed!AS63+Daily!AA54</f>
+        <v>209</v>
+      </c>
+      <c r="AB54">
+        <f>Confirmed!AT63+Daily!AB54</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="U55">
         <f>Confirmed!AM64+Daily!U55</f>
         <v>0</v>
@@ -21639,8 +22827,16 @@
         <f>Confirmed!AR64+Daily!Z55</f>
         <v>193</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA55">
+        <f>Confirmed!AS64+Daily!AA55</f>
+        <v>187</v>
+      </c>
+      <c r="AB55">
+        <f>Confirmed!AT64+Daily!AB55</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="V56">
         <f>Confirmed!AN65+Daily!V56</f>
         <v>0</v>
@@ -21661,8 +22857,16 @@
         <f>Confirmed!AR65+Daily!Z56</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA56">
+        <f>Confirmed!AS65+Daily!AA56</f>
+        <v>175</v>
+      </c>
+      <c r="AB56">
+        <f>Confirmed!AT65+Daily!AB56</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W57">
         <f>Confirmed!AO66+Daily!W57</f>
         <v>0</v>
@@ -21679,8 +22883,16 @@
         <f>Confirmed!AR66+Daily!Z57</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA57">
+        <f>Confirmed!AS66+Daily!AA57</f>
+        <v>147</v>
+      </c>
+      <c r="AB57">
+        <f>Confirmed!AT66+Daily!AB57</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="X58">
         <f>Confirmed!AP67+Daily!X58</f>
         <v>0</v>
@@ -21693,8 +22905,16 @@
         <f>Confirmed!AR67+Daily!Z58</f>
         <v>135</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA58">
+        <f>Confirmed!AS67+Daily!AA58</f>
+        <v>155</v>
+      </c>
+      <c r="AB58">
+        <f>Confirmed!AT67+Daily!AB58</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="Y59">
         <f>Confirmed!AQ68+Daily!Y59</f>
         <v>0</v>
@@ -21703,10 +22923,42 @@
         <f>Confirmed!AR68+Daily!Z59</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA59">
+        <f>Confirmed!AS68+Daily!AA59</f>
+        <v>119</v>
+      </c>
+      <c r="AB59">
+        <f>Confirmed!AT68+Daily!AB59</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="Z60">
         <f>Confirmed!AR69+Daily!Z60</f>
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <f>Confirmed!AS69+Daily!AA60</f>
+        <v>13</v>
+      </c>
+      <c r="AB60">
+        <f>Confirmed!AT69+Daily!AB60</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA61">
+        <f>Confirmed!AS70+Daily!AA61</f>
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <f>Confirmed!AT70+Daily!AB61</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB62">
+        <f>Confirmed!AT71+Daily!AB62</f>
         <v>0</v>
       </c>
     </row>
@@ -22355,8 +23607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22639,7 +23891,7 @@
         <v>41</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
@@ -22674,10 +23926,10 @@
         <v>129</v>
       </c>
       <c r="C20">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
@@ -22712,10 +23964,10 @@
         <v>223</v>
       </c>
       <c r="C22">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
@@ -22750,10 +24002,10 @@
         <v>289</v>
       </c>
       <c r="C24">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
@@ -22769,10 +24021,10 @@
         <v>319</v>
       </c>
       <c r="C25">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
@@ -22788,10 +24040,10 @@
         <v>374</v>
       </c>
       <c r="C26">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D26">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
@@ -22807,10 +24059,10 @@
         <v>450</v>
       </c>
       <c r="C27">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D27">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
@@ -22826,10 +24078,10 @@
         <v>514</v>
       </c>
       <c r="C28">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D28">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -22864,10 +24116,10 @@
         <v>624</v>
       </c>
       <c r="C30">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D30">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -22883,10 +24135,10 @@
         <v>599</v>
       </c>
       <c r="C31">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D31">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
@@ -22902,10 +24154,10 @@
         <v>628</v>
       </c>
       <c r="C32">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D32">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
@@ -22924,7 +24176,7 @@
         <v>534</v>
       </c>
       <c r="D33">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
@@ -22940,10 +24192,10 @@
         <v>789</v>
       </c>
       <c r="C34">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D34">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -22962,7 +24214,7 @@
         <v>577</v>
       </c>
       <c r="D35">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
@@ -22978,10 +24230,10 @@
         <v>729</v>
       </c>
       <c r="C36">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D36">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
@@ -22997,10 +24249,10 @@
         <v>804</v>
       </c>
       <c r="C37">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D37">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
@@ -23016,10 +24268,10 @@
         <v>755</v>
       </c>
       <c r="C38">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D38">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
@@ -23035,10 +24287,10 @@
         <v>742</v>
       </c>
       <c r="C39">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D39">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
@@ -23054,10 +24306,10 @@
         <v>754</v>
       </c>
       <c r="C40">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D40">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
@@ -23073,10 +24325,10 @@
         <v>757</v>
       </c>
       <c r="C41">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D41">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
@@ -23092,10 +24344,10 @@
         <v>777</v>
       </c>
       <c r="C42">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D42">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
@@ -23111,10 +24363,10 @@
         <v>683</v>
       </c>
       <c r="C43">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D43">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
@@ -23130,10 +24382,10 @@
         <v>623</v>
       </c>
       <c r="C44">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D44">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
@@ -23149,10 +24401,10 @@
         <v>568</v>
       </c>
       <c r="C45">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D45">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
@@ -23168,10 +24420,10 @@
         <v>527</v>
       </c>
       <c r="C46">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D46">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
@@ -23187,10 +24439,10 @@
         <v>522</v>
       </c>
       <c r="C47">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D47">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
@@ -23206,10 +24458,10 @@
         <v>459</v>
       </c>
       <c r="C48">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D48">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
@@ -23225,10 +24477,10 @@
         <v>378</v>
       </c>
       <c r="C49">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D49">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
@@ -23244,10 +24496,10 @@
         <v>365</v>
       </c>
       <c r="C50">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D50">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
@@ -23263,10 +24515,10 @@
         <v>328</v>
       </c>
       <c r="C51">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D51">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
@@ -23282,10 +24534,10 @@
         <v>323</v>
       </c>
       <c r="C52">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D52">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
@@ -23301,10 +24553,10 @@
         <v>353</v>
       </c>
       <c r="C53">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D53">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
@@ -23320,10 +24572,10 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D54">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
@@ -23339,10 +24591,10 @@
         <v>214</v>
       </c>
       <c r="C55">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D55">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
@@ -23358,10 +24610,10 @@
         <v>190</v>
       </c>
       <c r="C56">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D56">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
@@ -23377,10 +24629,10 @@
         <v>160</v>
       </c>
       <c r="C57">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D57">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
@@ -23396,10 +24648,10 @@
         <v>150</v>
       </c>
       <c r="C58">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D58">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
@@ -23415,10 +24667,10 @@
         <v>145</v>
       </c>
       <c r="C59">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D59">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E59" s="2">
         <v>43952</v>
@@ -23433,10 +24685,10 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D60">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E60" s="2">
         <v>43953</v>
@@ -23451,13 +24703,13 @@
         <v>110</v>
       </c>
       <c r="C61">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D61">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E61" s="2">
-        <f>E60+1</f>
+        <f t="shared" ref="E61:E67" si="2">E60+1</f>
         <v>43954</v>
       </c>
     </row>
@@ -23470,13 +24722,13 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D62">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2">
-        <f>E61+1</f>
+        <f t="shared" si="2"/>
         <v>43955</v>
       </c>
     </row>
@@ -23489,13 +24741,13 @@
         <v>105</v>
       </c>
       <c r="C63">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D63">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E63" s="2">
-        <f>E62+1</f>
+        <f t="shared" si="2"/>
         <v>43956</v>
       </c>
     </row>
@@ -23508,13 +24760,13 @@
         <v>115</v>
       </c>
       <c r="C64">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D64">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2">
-        <f>E63+1</f>
+        <f t="shared" si="2"/>
         <v>43957</v>
       </c>
     </row>
@@ -23527,13 +24779,13 @@
         <v>90</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2">
-        <f>E64+1</f>
+        <f t="shared" si="2"/>
         <v>43958</v>
       </c>
     </row>
@@ -23545,6 +24797,16 @@
       <c r="B66">
         <v>80</v>
       </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="2"/>
+        <v>43959</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -23554,10 +24816,20 @@
       <c r="B67">
         <v>67</v>
       </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="2"/>
+        <v>43960</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f t="shared" ref="A68:A73" si="2">A67+1</f>
+        <f t="shared" ref="A68:A73" si="3">A67+1</f>
         <v>44155</v>
       </c>
       <c r="B68">
@@ -23566,7 +24838,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44156</v>
       </c>
       <c r="B69">
@@ -23575,7 +24847,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44157</v>
       </c>
       <c r="B70">
@@ -23584,7 +24856,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44158</v>
       </c>
       <c r="B71">
@@ -23593,7 +24865,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44159</v>
       </c>
       <c r="B72">
@@ -23602,7 +24874,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44160</v>
       </c>
       <c r="B73">
@@ -23618,8 +24890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23670,7 +24942,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A60" si="1">A3+1</f>
+        <f t="shared" ref="A4:A62" si="1">A3+1</f>
         <v>43903</v>
       </c>
       <c r="B4">
@@ -23736,7 +25008,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F54" si="3">SUM(E4:E8)/5</f>
+        <f t="shared" ref="F6:F56" si="3">SUM(E4:E8)/5</f>
         <v>1.8</v>
       </c>
       <c r="G6">
@@ -23838,7 +25110,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="D10">
         <v>31.4</v>
@@ -23849,7 +25121,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
@@ -23866,7 +25138,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="D11">
         <v>39.6</v>
@@ -23890,18 +25162,18 @@
         <v>43911</v>
       </c>
       <c r="B12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>54</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
@@ -23922,14 +25194,14 @@
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>69.8</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>70</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
@@ -23950,7 +25222,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>88.2</v>
@@ -23989,7 +25261,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>35.799999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -24034,7 +25306,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>209.6</v>
+        <v>209.4</v>
       </c>
       <c r="D17">
         <v>209.8</v>
@@ -24045,7 +25317,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>45.6</v>
+        <v>45.4</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
@@ -24062,7 +25334,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>259</v>
+        <v>258.8</v>
       </c>
       <c r="D18">
         <v>259.39999999999998</v>
@@ -24086,22 +25358,22 @@
         <v>43918</v>
       </c>
       <c r="B19">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>311.60000000000002</v>
+        <v>311.2</v>
       </c>
       <c r="D19">
         <v>312</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>52.6</v>
+        <v>52.4</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
@@ -24118,14 +25390,14 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>358.8</v>
+        <v>358.4</v>
       </c>
       <c r="D20">
         <v>359.4</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
@@ -24142,18 +25414,18 @@
         <v>43920</v>
       </c>
       <c r="B21">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>414.2</v>
+        <v>413.8</v>
       </c>
       <c r="D21">
         <v>415.4</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
@@ -24174,18 +25446,18 @@
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>478.4</v>
+        <v>477.8</v>
       </c>
       <c r="D22">
         <v>479.4</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>64.2</v>
+        <v>64</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
@@ -24202,7 +25474,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>538.20000000000005</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="D23">
         <v>538.79999999999995</v>
@@ -24213,7 +25485,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>59.8</v>
+        <v>60</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
@@ -24226,22 +25498,22 @@
         <v>43923</v>
       </c>
       <c r="B24">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>593.20000000000005</v>
+        <v>593</v>
       </c>
       <c r="D24">
         <v>593.20000000000005</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
@@ -24254,22 +25526,22 @@
         <v>43924</v>
       </c>
       <c r="B25">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>646.20000000000005</v>
+        <v>645.79999999999995</v>
       </c>
       <c r="D25">
         <v>646</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
@@ -24286,14 +25558,14 @@
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>698.8</v>
+        <v>698.4</v>
       </c>
       <c r="D26">
         <v>698.2</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
@@ -24310,22 +25582,22 @@
         <v>43926</v>
       </c>
       <c r="B27">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>732.4</v>
+        <v>732.2</v>
       </c>
       <c r="D27">
         <v>731.4</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>33.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
@@ -24342,18 +25614,18 @@
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>750.6</v>
+        <v>750</v>
       </c>
       <c r="D28">
         <v>749.4</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
@@ -24366,22 +25638,22 @@
         <v>43928</v>
       </c>
       <c r="B29">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>761.2</v>
+        <v>760.2</v>
       </c>
       <c r="D29">
         <v>760.6</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
@@ -24394,11 +25666,11 @@
         <v>43929</v>
       </c>
       <c r="B30">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>756.8</v>
+        <v>755.8</v>
       </c>
       <c r="D30">
         <v>755.8</v>
@@ -24422,18 +25694,18 @@
         <v>43930</v>
       </c>
       <c r="B31">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>736.8</v>
+        <v>735.8</v>
       </c>
       <c r="D31">
         <v>735.4</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
@@ -24450,22 +25722,22 @@
         <v>43931</v>
       </c>
       <c r="B32">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>719.2</v>
+        <v>718</v>
       </c>
       <c r="D32">
         <v>717.6</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>-17.600000000000001</v>
+        <v>-17.8</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
@@ -24482,18 +25754,18 @@
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>717.8</v>
+        <v>716.2</v>
       </c>
       <c r="D33">
         <v>716.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>-1.4</v>
+        <v>-1.8</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -24506,18 +25778,18 @@
         <v>43933</v>
       </c>
       <c r="B34">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>702</v>
+        <v>700.4</v>
       </c>
       <c r="D34">
         <v>700.6</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
@@ -24534,22 +25806,22 @@
         <v>43934</v>
       </c>
       <c r="B35">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>669.2</v>
+        <v>667.4</v>
       </c>
       <c r="D35">
         <v>667.4</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>-32.799999999999997</v>
+        <v>-33</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
@@ -24562,22 +25834,22 @@
         <v>43935</v>
       </c>
       <c r="B36">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C56" si="5">SUM(B34:B38)/5</f>
-        <v>638.20000000000005</v>
+        <f t="shared" ref="C36:C58" si="5">SUM(B34:B38)/5</f>
+        <v>636.20000000000005</v>
       </c>
       <c r="D36">
         <v>636.79999999999995</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-85</v>
+        <v>-84</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>-31</v>
+        <v>-31.2</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
@@ -24590,11 +25862,11 @@
         <v>43936</v>
       </c>
       <c r="B37">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>584.20000000000005</v>
+        <v>582.4</v>
       </c>
       <c r="D37">
         <v>583.4</v>
@@ -24605,7 +25877,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
@@ -24618,22 +25890,22 @@
         <v>43937</v>
       </c>
       <c r="B38">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
-        <v>531.6</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="D38">
         <v>531.20000000000005</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>-52.6</v>
+        <v>-51.6</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
@@ -24646,11 +25918,11 @@
         <v>43938</v>
       </c>
       <c r="B39">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
-        <v>494.4</v>
+        <v>493.6</v>
       </c>
       <c r="D39">
         <v>493</v>
@@ -24674,18 +25946,18 @@
         <v>43939</v>
       </c>
       <c r="B40">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C40">
         <f t="shared" si="5"/>
-        <v>475</v>
+        <v>474.2</v>
       </c>
       <c r="D40">
         <v>475</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
@@ -24702,22 +25974,22 @@
         <v>43940</v>
       </c>
       <c r="B41">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C41">
         <f t="shared" si="5"/>
-        <v>445.8</v>
+        <v>445.4</v>
       </c>
       <c r="D41">
         <v>445.2</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>-29.2</v>
+        <v>-28.8</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
@@ -24730,11 +26002,11 @@
         <v>43941</v>
       </c>
       <c r="B42">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C42">
         <f t="shared" si="5"/>
-        <v>430.2</v>
+        <v>429.6</v>
       </c>
       <c r="D42">
         <v>430.50492780847179</v>
@@ -24745,7 +26017,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>-15.6</v>
+        <v>-15.8</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
@@ -24758,22 +26030,22 @@
         <v>43942</v>
       </c>
       <c r="B43">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C43">
         <f t="shared" si="5"/>
-        <v>412.6</v>
+        <v>411.4</v>
       </c>
       <c r="D43">
         <v>413.36748209880926</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-51</v>
+        <v>-48</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>-17.600000000000001</v>
+        <v>-18.2</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
@@ -24786,22 +26058,22 @@
         <v>43943</v>
       </c>
       <c r="B44">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C44">
         <f t="shared" si="5"/>
-        <v>390.6</v>
+        <v>389.8</v>
       </c>
       <c r="D44">
         <v>393.13932089856434</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>-22</v>
+        <v>-21.6</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
@@ -24814,22 +26086,22 @@
         <v>43944</v>
       </c>
       <c r="B45">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C45">
         <f t="shared" si="5"/>
-        <v>359.4</v>
+        <v>358.8</v>
       </c>
       <c r="D45">
         <v>364.50701482777595</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>-31.2</v>
+        <v>-31</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
@@ -24846,18 +26118,18 @@
       </c>
       <c r="C46">
         <f t="shared" si="5"/>
-        <v>338.2</v>
+        <v>337.2</v>
       </c>
       <c r="D46">
         <v>348.9974495709983</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>-21.2</v>
+        <v>-21.6</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
@@ -24870,22 +26142,22 @@
         <v>43946</v>
       </c>
       <c r="B47">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C47">
         <f t="shared" si="5"/>
-        <v>321.8</v>
+        <v>322</v>
       </c>
       <c r="D47">
         <v>339.82202689112898</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-68</v>
+        <v>-69</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>-16.399999999999999</v>
+        <v>-15.2</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
@@ -24898,7 +26170,7 @@
         <v>43947</v>
       </c>
       <c r="B48">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C48">
         <f t="shared" si="5"/>
@@ -24913,7 +26185,7 @@
       </c>
       <c r="F48">
         <f>SUM(E46:E50)/5</f>
-        <v>-27.8</v>
+        <v>-28</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
@@ -24926,22 +26198,22 @@
         <v>43948</v>
       </c>
       <c r="B49">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C49">
         <f t="shared" si="5"/>
-        <v>275.39999999999998</v>
+        <v>275</v>
       </c>
       <c r="D49">
         <v>312.38384997091191</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F49">
         <f>SUM(E47:E51)/5</f>
-        <v>-18.600000000000001</v>
+        <v>-19</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
@@ -24954,7 +26226,7 @@
         <v>43949</v>
       </c>
       <c r="B50">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C50">
         <f t="shared" si="5"/>
@@ -24965,11 +26237,11 @@
       </c>
       <c r="E50">
         <f t="shared" ref="E50:E52" si="6">B50-B49</f>
-        <v>-50</v>
+        <v>-56</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>-9</v>
+        <v>-8.6</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
@@ -24982,11 +26254,11 @@
         <v>43950</v>
       </c>
       <c r="B51">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C51">
         <f t="shared" si="5"/>
-        <v>255.8</v>
+        <v>256.2</v>
       </c>
       <c r="D51">
         <v>317.2823394506741</v>
@@ -24997,7 +26269,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>-10.6</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
@@ -25010,22 +26282,22 @@
         <v>43951</v>
       </c>
       <c r="B52">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C52">
         <f t="shared" si="5"/>
-        <v>239</v>
+        <v>238.2</v>
       </c>
       <c r="D52">
         <v>311.28827781467197</v>
       </c>
       <c r="E52">
         <f t="shared" si="6"/>
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>-16.8</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -25034,22 +26306,22 @@
         <v>43952</v>
       </c>
       <c r="B53">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C53">
         <f t="shared" si="5"/>
-        <v>228.4</v>
+        <v>227.4</v>
       </c>
       <c r="D53">
         <v>304.48315896757759</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53:E56" si="7">B53-B52</f>
+        <f t="shared" ref="E53:E58" si="7">B53-B52</f>
         <v>-9</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
-        <v>-10.6</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -25058,7 +26330,7 @@
         <v>43953</v>
       </c>
       <c r="B54">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C54">
         <f t="shared" si="5"/>
@@ -25066,11 +26338,11 @@
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
-        <v>-18.399999999999999</v>
+        <v>-17.399999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -25079,15 +26351,19 @@
         <v>43954</v>
       </c>
       <c r="B55">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C55">
         <f t="shared" si="5"/>
-        <v>191.6</v>
+        <v>191.4</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>-19</v>
+        <v>-20</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>-18.600000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -25096,15 +26372,19 @@
         <v>43955</v>
       </c>
       <c r="B56">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C56">
         <f t="shared" si="5"/>
-        <v>172</v>
+        <v>175.2</v>
       </c>
       <c r="E56">
         <f t="shared" si="7"/>
-        <v>-23</v>
+        <v>-17</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -25115,6 +26395,14 @@
       <c r="B57">
         <v>150</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>160.4</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="7"/>
+        <v>-23</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
@@ -25122,7 +26410,15 @@
         <v>43957</v>
       </c>
       <c r="B58">
-        <v>135</v>
+        <v>153</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -25131,7 +26427,7 @@
         <v>43958</v>
       </c>
       <c r="B59">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -25140,14 +26436,26 @@
         <v>43959</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>43960</v>
+      </c>
+      <c r="B61">
+        <v>13</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <f t="shared" si="1"/>
+        <v>43961</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>

--- a/excelsheets/probables.xlsx
+++ b/excelsheets/probables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16692" windowHeight="6756" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="smootheddeaths" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -618,166 +619,172 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>185</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>210</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>269</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>284</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>314</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>370</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>419</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>459</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>467</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>477</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>534</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>550</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>577</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>525</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>504</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>511</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>531</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>537</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>488</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>431</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>385</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>354</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>354</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>358</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>331</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>290</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>291</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>295</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>280</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>224</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>218</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>226</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>191</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>187</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>161</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>148</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>133</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>101</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>88</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>21</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1084,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1095,7 +1102,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6</c:v>
@@ -1110,7 +1117,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40</c:v>
@@ -1122,130 +1129,136 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>91</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>111</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>186</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>200</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>243</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>236</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>206</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>199</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>182</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>193</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>196</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>161</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>152</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>105</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>110</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>85</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>89</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="57">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>12</c:v>
+                <c:pt idx="66">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,8 +1274,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="290852400"/>
-        <c:axId val="290852960"/>
+        <c:axId val="191930720"/>
+        <c:axId val="294095504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1803,11 +1816,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290852400"/>
-        <c:axId val="290852960"/>
+        <c:axId val="191930720"/>
+        <c:axId val="294095504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="290852400"/>
+        <c:axId val="191930720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290852960"/>
+        <c:crossAx val="294095504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1858,7 +1871,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="290852960"/>
+        <c:axId val="294095504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290852400"/>
+        <c:crossAx val="191930720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2047,7 +2060,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2084,15 +2096,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>smootheddeaths!$C$1</c:f>
+              <c:f>smootheddeaths!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Five-day</c:v>
+                  <c:v>five-day deriv</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2101,7 +2113,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2299,159 +2311,186 @@
                 <c:pt idx="60">
                   <c:v>43961</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43963</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>smootheddeaths!$C$2:$C$51</c:f>
+              <c:f>smootheddeaths!$F$2:$F$500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="2">
+                <c:ptCount val="499"/>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.6</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.4</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.6</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>123.6</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>164</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.4</c:v>
+                  <c:v>44.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>258.8</c:v>
+                  <c:v>49.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>311.2</c:v>
+                  <c:v>53.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>358.4</c:v>
+                  <c:v>47.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>413.8</c:v>
+                  <c:v>55.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>477.8</c:v>
+                  <c:v>66.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>537.79999999999995</c:v>
+                  <c:v>60.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>593</c:v>
+                  <c:v>55.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>645.79999999999995</c:v>
+                  <c:v>53.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>698.4</c:v>
+                  <c:v>51.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>732.2</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>750</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>760.2</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>755.8</c:v>
+                  <c:v>-5.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>735.8</c:v>
+                  <c:v>-19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>718</c:v>
+                  <c:v>-17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>716.2</c:v>
+                  <c:v>-2.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>700.4</c:v>
+                  <c:v>-15.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>667.4</c:v>
+                  <c:v>-32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>636.20000000000005</c:v>
+                  <c:v>-31.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>582.4</c:v>
+                  <c:v>-54.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>530.79999999999995</c:v>
+                  <c:v>-52.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>493.6</c:v>
+                  <c:v>-37.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>474.2</c:v>
+                  <c:v>-19.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>445.4</c:v>
+                  <c:v>-28.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>429.6</c:v>
+                  <c:v>-15.2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>411.4</c:v>
+                  <c:v>-17.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>389.8</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>358.8</c:v>
+                  <c:v>-30.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>337.2</c:v>
+                  <c:v>-21.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>322</c:v>
+                  <c:v>-15.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>294</c:v>
+                  <c:v>-27.8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>275</c:v>
+                  <c:v>-18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>266.39999999999998</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>256.2</c:v>
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-17.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-13.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-15.8</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2468,8 +2507,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="293533344"/>
-        <c:axId val="293533904"/>
+        <c:axId val="305010384"/>
+        <c:axId val="305010944"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2700,6 +2739,12 @@
                       <c:pt idx="60">
                         <c:v>43961</c:v>
                       </c:pt>
+                      <c:pt idx="61">
+                        <c:v>43962</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>43963</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2725,7 +2770,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>6</c:v>
@@ -2734,10 +2779,10 @@
                         <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>25</c:v>
+                        <c:v>24</c:v>
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>26</c:v>
@@ -2746,82 +2791,82 @@
                         <c:v>49</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>47</c:v>
+                        <c:v>50</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>51</c:v>
+                        <c:v>52</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>97</c:v>
+                        <c:v>95</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>106</c:v>
+                        <c:v>107</c:v>
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>139</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>225</c:v>
+                        <c:v>228</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>253</c:v>
+                        <c:v>256</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>324</c:v>
+                        <c:v>319</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>353</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>401</c:v>
+                        <c:v>406</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>461</c:v>
+                        <c:v>464</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>530</c:v>
+                        <c:v>532</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>644</c:v>
+                        <c:v>652</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>653</c:v>
+                        <c:v>654</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>677</c:v>
+                        <c:v>684</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>725</c:v>
+                        <c:v>732</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>793</c:v>
+                        <c:v>791</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>813</c:v>
+                        <c:v>815</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>742</c:v>
+                        <c:v>749</c:v>
                       </c:pt>
                       <c:pt idx="29">
+                        <c:v>727</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>705</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>694</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
                         <c:v>728</c:v>
                       </c:pt>
-                      <c:pt idx="30">
-                        <c:v>703</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>693</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>724</c:v>
-                      </c:pt>
                       <c:pt idx="33">
-                        <c:v>733</c:v>
+                        <c:v>737</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>649</c:v>
+                        <c:v>650</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>538</c:v>
+                        <c:v>541</c:v>
                       </c:pt>
                       <c:pt idx="36">
                         <c:v>537</c:v>
@@ -2830,34 +2875,433 @@
                         <c:v>455</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>475</c:v>
+                        <c:v>476</c:v>
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>463</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>441</c:v>
+                        <c:v>442</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>393</c:v>
+                        <c:v>394</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>376</c:v>
+                        <c:v>379</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>384</c:v>
+                        <c:v>387</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>355</c:v>
+                        <c:v>358</c:v>
                       </c:pt>
                       <c:pt idx="45">
+                        <c:v>288</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
                         <c:v>286</c:v>
                       </c:pt>
+                      <c:pt idx="47">
+                        <c:v>303</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Five-day</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="499"/>
+                      <c:pt idx="0">
+                        <c:v>43901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43902</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43903</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43904</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43905</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43906</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43907</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43908</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43909</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43910</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43911</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43912</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43913</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43914</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43915</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43916</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43917</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43918</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43919</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43920</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43922</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43923</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43924</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43925</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43926</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43927</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43935</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43938</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43939</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43940</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43941</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43942</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43943</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43944</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43945</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43946</c:v>
+                      </c:pt>
                       <c:pt idx="46">
-                        <c:v>285</c:v>
+                        <c:v>43947</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>300</c:v>
+                        <c:v>43948</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43949</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43950</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43952</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43953</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43954</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43955</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43956</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43957</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43958</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43959</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43960</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43961</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>43962</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>43963</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>smootheddeaths!$C$2:$C$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="2">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15.4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40.200000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>54.4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>70.599999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>88.6</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>124.2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>209.8</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>259</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>312.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>359.6</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>414.8</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>481.4</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>541.6</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>597.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>650.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>702.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>735.2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>754.2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>762.8</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>757.4</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>738</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>720.6</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>718.2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>702.8</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>670</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>638.6</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>584</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>531.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>494.4</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>474.6</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>446</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>430.8</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>413</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>392</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>361.2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>339.6</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>324.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>296.60000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>278</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>259</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3093,6 +3537,12 @@
                       <c:pt idx="60">
                         <c:v>43961</c:v>
                       </c:pt>
+                      <c:pt idx="61">
+                        <c:v>43962</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>43963</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3115,124 +3565,124 @@
                         <c:v>-1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>15</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>23</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-2</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>4</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>46</c:v>
+                        <c:v>43</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>9</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>33</c:v>
+                        <c:v>32</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>86</c:v>
+                        <c:v>89</c:v>
                       </c:pt>
                       <c:pt idx="16">
                         <c:v>28</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>71</c:v>
+                        <c:v>63</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>29</c:v>
+                        <c:v>34</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>48</c:v>
+                        <c:v>53</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>60</c:v>
+                        <c:v>58</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>69</c:v>
+                        <c:v>68</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>114</c:v>
+                        <c:v>120</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>9</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>24</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>48</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>68</c:v>
+                        <c:v>59</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>20</c:v>
+                        <c:v>24</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>-71</c:v>
+                        <c:v>-66</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>-14</c:v>
+                        <c:v>-22</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>-25</c:v>
+                        <c:v>-22</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>-10</c:v>
+                        <c:v>-11</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>31</c:v>
+                        <c:v>34</c:v>
                       </c:pt>
                       <c:pt idx="33">
                         <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>-84</c:v>
+                        <c:v>-87</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>-111</c:v>
+                        <c:v>-109</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>-1</c:v>
+                        <c:v>-4</c:v>
                       </c:pt>
                       <c:pt idx="37">
                         <c:v>-82</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>20</c:v>
+                        <c:v>21</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>-12</c:v>
+                        <c:v>-13</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>-22</c:v>
+                        <c:v>-21</c:v>
                       </c:pt>
                       <c:pt idx="41">
                         <c:v>-48</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>-17</c:v>
+                        <c:v>-15</c:v>
                       </c:pt>
                       <c:pt idx="43">
                         <c:v>8</c:v>
@@ -3241,418 +3691,13 @@
                         <c:v>-29</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>-69</c:v>
+                        <c:v>-70</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>-1</c:v>
+                        <c:v>-2</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>15</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>five-day deriv</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$A$2:$A$500</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="499"/>
-                      <c:pt idx="0">
-                        <c:v>43901</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>43902</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>43903</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>43904</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>43905</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>43906</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>43907</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>43908</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>43909</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>43910</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>43911</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>43912</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>43913</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>43914</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>43915</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>43916</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>43917</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>43918</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>43919</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>43920</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>43921</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>43922</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>43923</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>43924</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>43925</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>43926</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>43927</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>43928</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>43929</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>43930</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>43931</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>43932</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>43933</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>43934</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>43935</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>43936</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>43937</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>43938</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>43939</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>43940</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>43941</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>43942</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>43943</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>43944</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>43945</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>43946</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>43947</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>43948</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>43949</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>43950</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>43951</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>43952</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>43953</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>43954</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>43955</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>43956</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>43957</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>43958</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>43959</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>43960</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>43961</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>smootheddeaths!$F$2:$F$500</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="499"/>
-                      <c:pt idx="3">
-                        <c:v>1.8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.8</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4.8</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8.6</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>7.4</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>8.1999999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>14.4</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>35.6</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>40.4</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>45.4</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>49.4</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>52.4</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>47.2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>55.4</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>55.2</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>52.8</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>52.6</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>33.799999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>17.8</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>10.199999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>-4.4000000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>-20</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>-17.8</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>-1.8</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>-15.8</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>-33</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>-31.2</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>-53.8</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>-51.6</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>-37.200000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>-19.399999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>-28.8</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>-15.8</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>-18.2</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>-21.6</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>-31</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>-21.6</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>-15.2</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>-28</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>-19</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>-8.6</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>-10.199999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>-18</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>-10.8</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>-17.399999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>-18.600000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>-16.2</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3874,6 +3919,12 @@
                       <c:pt idx="60">
                         <c:v>43961</c:v>
                       </c:pt>
+                      <c:pt idx="61">
+                        <c:v>43962</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>43963</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -4269,6 +4320,12 @@
                       <c:pt idx="60">
                         <c:v>43961</c:v>
                       </c:pt>
+                      <c:pt idx="61">
+                        <c:v>43962</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>43963</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -4435,7 +4492,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="293533344"/>
+        <c:axId val="305010384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43956"/>
@@ -4479,7 +4536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293533904"/>
+        <c:crossAx val="305010944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4488,7 +4545,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="293533904"/>
+        <c:axId val="305010944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,7 +4596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293533344"/>
+        <c:crossAx val="305010384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4553,7 +4610,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5728,7 +5784,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6961,15 +7017,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="N42" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7:AB61"/>
+    <sheetView topLeftCell="T50" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5:AD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>414</v>
       </c>
@@ -7051,8 +7107,14 @@
       <c r="AB1">
         <v>510</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1">
+        <v>511</v>
+      </c>
+      <c r="AD1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311</v>
       </c>
@@ -7069,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>312</v>
       </c>
@@ -7086,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313</v>
       </c>
@@ -7103,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>314</v>
       </c>
@@ -7134,8 +7196,11 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>315</v>
       </c>
@@ -7163,8 +7228,11 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>316</v>
       </c>
@@ -7252,8 +7320,14 @@
       <c r="AB7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>317</v>
       </c>
@@ -7344,8 +7418,14 @@
       <c r="AB8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318</v>
       </c>
@@ -7436,8 +7516,14 @@
       <c r="AB9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>319</v>
       </c>
@@ -7528,8 +7614,14 @@
       <c r="AB10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>320</v>
       </c>
@@ -7620,8 +7712,14 @@
       <c r="AB11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>321</v>
       </c>
@@ -7712,8 +7810,14 @@
       <c r="AB12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>322</v>
       </c>
@@ -7804,8 +7908,14 @@
       <c r="AB13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>323</v>
       </c>
@@ -7896,8 +8006,14 @@
       <c r="AB14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>13</v>
+      </c>
+      <c r="AD14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>324</v>
       </c>
@@ -7988,8 +8104,14 @@
       <c r="AB15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>12</v>
+      </c>
+      <c r="AD15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>325</v>
       </c>
@@ -8080,8 +8202,14 @@
       <c r="AB16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16">
+        <v>18</v>
+      </c>
+      <c r="AD16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>326</v>
       </c>
@@ -8172,8 +8300,14 @@
       <c r="AB17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>40</v>
+      </c>
+      <c r="AD17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>327</v>
       </c>
@@ -8264,8 +8398,14 @@
       <c r="AB18">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>43</v>
+      </c>
+      <c r="AD18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>328</v>
       </c>
@@ -8356,8 +8496,14 @@
       <c r="AB19">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19">
+        <v>55</v>
+      </c>
+      <c r="AD19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>329</v>
       </c>
@@ -8448,8 +8594,14 @@
       <c r="AB20">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20">
+        <v>69</v>
+      </c>
+      <c r="AD20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>330</v>
       </c>
@@ -8540,8 +8692,14 @@
       <c r="AB21">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>87</v>
+      </c>
+      <c r="AD21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>331</v>
       </c>
@@ -8632,8 +8790,14 @@
       <c r="AB22">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22">
+        <v>89</v>
+      </c>
+      <c r="AD22">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>401</v>
       </c>
@@ -8724,8 +8888,14 @@
       <c r="AB23">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23">
+        <v>110</v>
+      </c>
+      <c r="AD23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>402</v>
       </c>
@@ -8816,8 +8986,14 @@
       <c r="AB24">
         <v>185</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24">
+        <v>186</v>
+      </c>
+      <c r="AD24">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>403</v>
       </c>
@@ -8908,8 +9084,14 @@
       <c r="AB25">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25">
+        <v>185</v>
+      </c>
+      <c r="AD25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>404</v>
       </c>
@@ -9000,8 +9182,14 @@
       <c r="AB26">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC26">
+        <v>198</v>
+      </c>
+      <c r="AD26">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>405</v>
       </c>
@@ -9092,8 +9280,14 @@
       <c r="AB27">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC27">
+        <v>190</v>
+      </c>
+      <c r="AD27">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>406</v>
       </c>
@@ -9184,8 +9378,14 @@
       <c r="AB28">
         <v>243</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC28">
+        <v>243</v>
+      </c>
+      <c r="AD28">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>407</v>
       </c>
@@ -9276,8 +9476,14 @@
       <c r="AB29">
         <v>236</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC29">
+        <v>235</v>
+      </c>
+      <c r="AD29">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>408</v>
       </c>
@@ -9368,8 +9574,14 @@
       <c r="AB30">
         <v>217</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC30">
+        <v>217</v>
+      </c>
+      <c r="AD30">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>409</v>
       </c>
@@ -9460,8 +9672,14 @@
       <c r="AB31">
         <v>206</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC31">
+        <v>205</v>
+      </c>
+      <c r="AD31">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>410</v>
       </c>
@@ -9552,8 +9770,14 @@
       <c r="AB32">
         <v>199</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC32">
+        <v>199</v>
+      </c>
+      <c r="AD32">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>411</v>
       </c>
@@ -9644,8 +9868,14 @@
       <c r="AB33">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC33">
+        <v>181</v>
+      </c>
+      <c r="AD33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>412</v>
       </c>
@@ -9736,8 +9966,14 @@
       <c r="AB34">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC34">
+        <v>191</v>
+      </c>
+      <c r="AD34">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>413</v>
       </c>
@@ -9828,8 +10064,14 @@
       <c r="AB35">
         <v>196</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC35">
+        <v>195</v>
+      </c>
+      <c r="AD35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>414</v>
       </c>
@@ -9916,8 +10158,14 @@
       <c r="AB36">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC36">
+        <v>160</v>
+      </c>
+      <c r="AD36">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>415</v>
       </c>
@@ -10000,8 +10248,14 @@
       <c r="AB37">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC37">
+        <v>107</v>
+      </c>
+      <c r="AD37">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>416</v>
       </c>
@@ -10080,8 +10334,14 @@
       <c r="AB38">
         <v>152</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC38">
+        <v>149</v>
+      </c>
+      <c r="AD38">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1: